--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69094A02-C095-479F-97CD-5CD7B5153526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2010,11 +2010,11 @@
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-948</v>
+        <v>-412506</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-938</v>
+        <v>-412316</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william\Source\Repos\xllfloat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318F80A-1937-4051-8F29-9F08618B88D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -261,301 +259,301 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>1.0080808080808081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>1.0161616161616163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>1.0242424242424242</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0323232323232323</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0404040404040404</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>1.0484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>1.0565656565656565</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.0646464646464646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.0808080808080809</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.0888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1.0969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1050505050505051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1131313131313132</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.1212121212121211</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.1292929292929292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1373737373737374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1535353535353536</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.1616161616161615</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>1.1696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1858585858585859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1.202020202020202</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>1.2101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2262626262626264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2343434343434343</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1.2424242424242424</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>1.2505050505050506</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2585858585858585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2747474747474747</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1.2828282828282829</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>1.290909090909091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2989898989898989</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.307070707070707</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3232323232323231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3313131313131312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3474747474747475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1.3636363636363638</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
+                  <c:v>1.3717171717171717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3797979797979798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3878787878787879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3959595959595958</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1.404040404040404</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>1.4121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4282828282828284</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1.4444444444444444</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
+                  <c:v>1.4525252525252526</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4606060606060607</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4686868686868686</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4767676767676767</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1.4848484848484849</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>1.492929292929293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5010101010101011</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.509090909090909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5171717171717172</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1.5252525252525253</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
+                  <c:v>1.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5414141414141413</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5494949494949495</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>1.5656565656565657</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
+                  <c:v>1.5737373737373739</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5898989898989899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5979797979797978</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1.606060606060606</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="76">
+                  <c:v>1.6141414141414141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6303030303030304</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6383838383838385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6626262626262627</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6707070707070706</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.6868686868686869</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
+                  <c:v>1.694949494949495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7191919191919192</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1.7272727272727273</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="91">
+                  <c:v>1.7353535353535352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7434343434343433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595959595959596</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1.7676767676767677</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>1.7757575757575759</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
+                  <c:v>1.783838383838384</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>1.7919191919191919</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,301 +568,301 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>4.0157677044525721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>4.0307390915604575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>4.0449013436814081</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4.0582415408367138</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4.0707466607111975</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>4.0824035786532153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>4.0931990676746617</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4.1031197984509635</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.112152339321085</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.1202831562875222</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>4.1274986130163089</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>4.133784970837012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1391283887427353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1435149233901152</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4.1469305290993246</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>4.1493610578540707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.150792259301598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1512097807526809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1505991671816336</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.1489458612263022</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>4.1462352031880698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1424524310318542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1375826803861067</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1316109845428155</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4.124522274457501</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>4.1163013787492204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1069330237005666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0964018332576666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0846923290301831</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.0717889302913104</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>4.0576759539777818</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0423376146898633</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.025758024691358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0079211939096027</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3.9888110299354667</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>3.9684113380233583</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9467058210912196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.923678079720526</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8993116121562892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8735898143070582</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8464959797449083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8180132997054601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7881248630878659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.756813656454808</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>3.7240625640325113</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
+                  <c:v>3.6898543677107307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6541717470427555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6169972792454139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5783134391990661</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>3.5381025994476083</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>3.4963470301984705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4530288993226197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4081302723545557</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3616331124923162</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>3.31351928059747</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
+                  <c:v>3.2637705351951229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2123685324739162</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1592948262860281</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1045308681471617</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>3.0480580072365706</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>2.9898574903970285</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9299104621348571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8681979646199043</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8047009376855527</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>2.7394002188287248</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
+                  <c:v>2.6722765432098772</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6033105436529977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5324827506456122</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4597735923387809</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>2.3851633945470994</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
+                  <c:v>2.3086323807486968</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2301606720852396</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1497282873619259</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0673151430474928</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1.9829010532742082</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="76">
+                  <c:v>1.8964657298378738</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8079887821978362</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7174497174769634</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6248279404616719</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.530102753601903</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4332533570111332</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3342588484663809</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.233098223408196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1297503749406586</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.024194093831392</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
+                  <c:v>0.91640806851154721</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.80637088507581822</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6940610272824248</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.57945687655313094</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0.46253671197322532</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="91">
+                  <c:v>0.34327871029154267</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.22166094592044239</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.7661390935821046E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.8742084922878774E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>-0.15757171425269867</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
+                  <c:v>-0.28884983198712355</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
+                  <c:v>-0.42259887539612428</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>-0.55884138408611506</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>-0.69759999999999955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,30 +1955,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B2:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.A</f>
+        <v>-1946419130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1995,29 +1993,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>-0.69759999999999955</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>4022</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>10605510</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,860 +2042,1587 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" cm="1">
+      <c r="C7">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>3.5583999999999989</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.6811989100817439</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.11880108991825611</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>1.0984881860139231</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.0464000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function, I7,J7)</f>
+        <v>1.7538576997653428</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>4.6142300234657263E-2</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>6.1266653835719609E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+        <v>0.84789999999999743</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function, I8,J8)</f>
+        <v>1.7575829712888331</v>
+      </c>
+      <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K33" si="1">J9-I9</f>
+        <v>4.2417028711166926E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>2.9719859898218459E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function, I9,J9)</f>
+        <v>1.7577629139893414</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>4.2237086010658675E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>1.4315738406622813E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function, I10,J10)</f>
+        <v>1.7577715798582645</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.2228420141735556E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>6.8933968169204718E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>1.7625</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function, I11,J11)</f>
+        <v>1.757771997138053</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.2228002861947056E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>3.3192938708737074E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>1.7625</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>6.2499999999998668E-3</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function, I12,J12)</f>
+        <v>1.7577720172308116</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.2227982769188488E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>1.5982983825324482E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>1.7593749999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>3.1249999999998224E-3</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function, I13,J13)</f>
+        <v>1.7577720181983132</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.2227981801686854E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>7.6960837702699791E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D15">
         <v>1.7578125</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>1.5624999999999112E-3</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function, I14,J14)</f>
+        <v>1.7577720182449001</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4.2227981755099897E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>3.7056580026728625E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>1.75703125</v>
       </c>
       <c r="D16">
         <v>1.7578125</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>7.8124999999995559E-4</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1637960373983347E-2</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function, I15,J15)</f>
+        <v>1.7577720182471432</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4.2227981752856802E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>1.7852386235972517E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>1.7574218749999999</v>
       </c>
       <c r="D17">
         <v>1.7578125</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>3.9062500000008882E-4</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.5035171564448149E-3</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function, I16,J16)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="J17">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.2227981752748667E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>1.7576171875</v>
       </c>
       <c r="D18">
         <v>1.7578125</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>1.9531250000004441E-4</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.434174978406034E-3</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function, I17,J17)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J18">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.222798175274356E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>1.7577148437500001</v>
       </c>
       <c r="D19">
         <v>1.7578125</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>9.7656249999911182E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.9897360958168804E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function, I18,J18)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J19">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D20">
         <v>1.7578125</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>4.8828124999955591E-5</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function, I19,J19)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J20">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>1.7577880859374999</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>2.4414062499866773E-5</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function, I20,J20)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J21">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>1.2207031250044409E-5</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function, I21,J21)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J22">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>6.1035156249111822E-6</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function, I22,J22)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J23">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>3.0517578124555911E-6</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function, I23,J23)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J24">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>1.5258789061167732E-6</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function, I24,J24)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J25">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>7.6293945294736432E-7</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function, I25,J25)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J26">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>1.757771682739258</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>3.8146972647368216E-7</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.2756572177514727E-6</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function, I26,J26)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J27">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577718734741212</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>1.9073486323684108E-7</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.2764691518517566E-6</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function, I27,J27)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J28">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>9.5367431729442842E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function, I28,J28)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J29">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>4.7683715864721421E-8</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function, I29,J29)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J30">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>1.7577720403671266</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>2.3841858043383013E-8</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function, I30,J30)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J31">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D32">
         <v>1.7577720284461975</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>1.1920928910669204E-8</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function, I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>1.7577720224857329</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>5.9604643443122995E-9</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function, I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>2.9802322831784522E-9</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function, I33,J33)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J34">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K34">
+        <f>J34-I34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>1.4901160305669237E-9</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function, I34,J34)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J35">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K57" si="2">J35-I35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>1.7577720187604429</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>7.4505801528346183E-10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function, I35,J35)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J36">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>3.7252911866403338E-10</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function, I36,J36)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J37">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>1.8626455933201669E-10</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function, I37,J37)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J38">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>1.7577720182947818</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>9.3132390688310807E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function, I38,J38)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J39">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>4.6566084321852941E-11</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function, I39,J39)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J40">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>1.7577720182249323</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>2.3283153183228933E-11</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.510400858885987E-10</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function, I40,J40)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J41">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182365739</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>1.1641576591614466E-11</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.6798118451788469E-10</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function, I41,J41)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J42">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182423948</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>5.8206772735047707E-12</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.6450845654107979E-11</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function, I42,J42)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J43">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182453052</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>2.9103386367523854E-12</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.0688340757478727E-11</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function, I43,J43)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J44">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>1.4552803406786552E-12</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function, I44,J44)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J45">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>7.276401703393276E-13</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function, I45,J45)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J46">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>3.6393110747212631E-13</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function, I46,J46)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J47">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>1.8207657603852567E-13</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function, I47,J47)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J48">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>9.1038288019262836E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function, I48,J48)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J49">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>4.5519144009631418E-14</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function, I49,J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>2.2870594307278225E-14</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function, I50,J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472492</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>1.1324274851176597E-14</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.2079226507921703E-13</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function, I51,J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:K64" si="3">J52-I52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function, I52,J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>2.6645352591003757E-15</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function, I53,J53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J54">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>0</v>
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function, I54,J54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J55">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -2907,14 +3632,29 @@
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
         <v>8.8817841970012523E-15</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function, I55,J55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J56">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -2922,6 +3662,1347 @@
       </c>
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function, I56,J56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J57">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="array" ref="I58:J58">_xll.FALSE.POSITION(function, I57,J57)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J58">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L58" cm="1">
+        <f t="array" ref="L58">_xll.XLL.UDF(function,I58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="array" ref="I59:J59">_xll.FALSE.POSITION(function, I58,J58)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J59">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L59" cm="1">
+        <f t="array" ref="L59">_xll.XLL.UDF(function,I59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="array" ref="I60:J60">_xll.FALSE.POSITION(function, I59,J59)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J60">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L60" cm="1">
+        <f t="array" ref="L60">_xll.XLL.UDF(function,I60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="array" ref="I61:J61">_xll.FALSE.POSITION(function, I60,J60)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J61">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L61" cm="1">
+        <f t="array" ref="L61">_xll.XLL.UDF(function,I61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="array" ref="I62:J62">_xll.FALSE.POSITION(function, I61,J61)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J62">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L62" cm="1">
+        <f t="array" ref="L62">_xll.XLL.UDF(function,I62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="array" ref="I63:J63">_xll.FALSE.POSITION(function, I62,J62)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J63">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L63" cm="1">
+        <f t="array" ref="L63">_xll.XLL.UDF(function,I63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="array" ref="I64:J64">_xll.FALSE.POSITION(function, I63,J63)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J64">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L64" cm="1">
+        <f t="array" ref="L64">_xll.XLL.UDF(function,I64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="array" ref="I65:J65">_xll.FALSE.POSITION(function, I64,J64)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J65">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K85" si="4">J65-I65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" cm="1">
+        <f t="array" ref="L65">_xll.XLL.UDF(function,I65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="array" ref="I66:J66">_xll.FALSE.POSITION(function, I65,J65)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J66">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" cm="1">
+        <f t="array" ref="L66">_xll.XLL.UDF(function,I66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="array" ref="I67:J67">_xll.FALSE.POSITION(function, I66,J66)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J67">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L67" cm="1">
+        <f t="array" ref="L67">_xll.XLL.UDF(function,I67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="array" ref="I68:J68">_xll.FALSE.POSITION(function, I67,J67)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J68">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" cm="1">
+        <f t="array" ref="L68">_xll.XLL.UDF(function,I68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="array" ref="I69:J69">_xll.FALSE.POSITION(function, I68,J68)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J69">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" cm="1">
+        <f t="array" ref="L69">_xll.XLL.UDF(function,I69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="array" ref="I70:J70">_xll.FALSE.POSITION(function, I69,J69)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J70">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" cm="1">
+        <f t="array" ref="L70">_xll.XLL.UDF(function,I70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="array" ref="I71:J71">_xll.FALSE.POSITION(function, I70,J70)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J71">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" cm="1">
+        <f t="array" ref="L71">_xll.XLL.UDF(function,I71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="array" ref="I72:J72">_xll.FALSE.POSITION(function, I71,J71)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J72">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" cm="1">
+        <f t="array" ref="L72">_xll.XLL.UDF(function,I72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="array" ref="I73:J73">_xll.FALSE.POSITION(function, I72,J72)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J73">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73" cm="1">
+        <f t="array" ref="L73">_xll.XLL.UDF(function,I73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="array" ref="I74:J74">_xll.FALSE.POSITION(function, I73,J73)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J74">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" cm="1">
+        <f t="array" ref="L74">_xll.XLL.UDF(function,I74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="array" ref="I75:J75">_xll.FALSE.POSITION(function, I74,J74)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J75">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L75" cm="1">
+        <f t="array" ref="L75">_xll.XLL.UDF(function,I75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="array" ref="I76:J76">_xll.FALSE.POSITION(function, I75,J75)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J76">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L76" cm="1">
+        <f t="array" ref="L76">_xll.XLL.UDF(function,I76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="array" ref="I77:J77">_xll.FALSE.POSITION(function, I76,J76)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J77">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L77" cm="1">
+        <f t="array" ref="L77">_xll.XLL.UDF(function,I77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="array" ref="I78:J78">_xll.FALSE.POSITION(function, I77,J77)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J78">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78" cm="1">
+        <f t="array" ref="L78">_xll.XLL.UDF(function,I78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="array" ref="I79:J79">_xll.FALSE.POSITION(function, I78,J78)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J79">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L79" cm="1">
+        <f t="array" ref="L79">_xll.XLL.UDF(function,I79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="array" ref="I80:J80">_xll.FALSE.POSITION(function, I79,J79)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J80">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80" cm="1">
+        <f t="array" ref="L80">_xll.XLL.UDF(function,I80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="array" ref="I81:J81">_xll.FALSE.POSITION(function, I80,J80)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J81">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L81" cm="1">
+        <f t="array" ref="L81">_xll.XLL.UDF(function,I81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="array" ref="I82:J82">_xll.FALSE.POSITION(function, I81,J81)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J82">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82" cm="1">
+        <f t="array" ref="L82">_xll.XLL.UDF(function,I82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="array" ref="I83:J83">_xll.FALSE.POSITION(function, I82,J82)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J83">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L83" cm="1">
+        <f t="array" ref="L83">_xll.XLL.UDF(function,I83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="array" ref="I84:J84">_xll.FALSE.POSITION(function, I83,J83)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J84">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L84" cm="1">
+        <f t="array" ref="L84">_xll.XLL.UDF(function,I84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="array" ref="I85:J85">_xll.FALSE.POSITION(function, I84,J84)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J85">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L85" cm="1">
+        <f t="array" ref="L85">_xll.XLL.UDF(function,I85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="array" ref="I86:J86">_xll.FALSE.POSITION(function, I85,J85)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J86">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K143" si="5">J86-I86</f>
+        <v>0</v>
+      </c>
+      <c r="L86" cm="1">
+        <f t="array" ref="L86">_xll.XLL.UDF(function,I86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="array" ref="I87:J87">_xll.FALSE.POSITION(function, I86,J86)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J87">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L87" cm="1">
+        <f t="array" ref="L87">_xll.XLL.UDF(function,I87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="array" ref="I88:J88">_xll.FALSE.POSITION(function, I87,J87)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J88">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L88" cm="1">
+        <f t="array" ref="L88">_xll.XLL.UDF(function,I88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="array" ref="I89:J89">_xll.FALSE.POSITION(function, I88,J88)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J89">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L89" cm="1">
+        <f t="array" ref="L89">_xll.XLL.UDF(function,I89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="array" ref="I90:J90">_xll.FALSE.POSITION(function, I89,J89)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J90">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L90" cm="1">
+        <f t="array" ref="L90">_xll.XLL.UDF(function,I90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="array" ref="I91:J91">_xll.FALSE.POSITION(function, I90,J90)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J91">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L91" cm="1">
+        <f t="array" ref="L91">_xll.XLL.UDF(function,I91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="array" ref="I92:J92">_xll.FALSE.POSITION(function, I91,J91)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J92">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L92" cm="1">
+        <f t="array" ref="L92">_xll.XLL.UDF(function,I92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="array" ref="I93:J93">_xll.FALSE.POSITION(function, I92,J92)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J93">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L93" cm="1">
+        <f t="array" ref="L93">_xll.XLL.UDF(function,I93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="array" ref="I94:J94">_xll.FALSE.POSITION(function, I93,J93)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J94">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L94" cm="1">
+        <f t="array" ref="L94">_xll.XLL.UDF(function,I94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="array" ref="I95:J95">_xll.FALSE.POSITION(function, I94,J94)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J95">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L95" cm="1">
+        <f t="array" ref="L95">_xll.XLL.UDF(function,I95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="array" ref="I96:J96">_xll.FALSE.POSITION(function, I95,J95)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J96">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L96" cm="1">
+        <f t="array" ref="L96">_xll.XLL.UDF(function,I96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="array" ref="I97:J97">_xll.FALSE.POSITION(function, I96,J96)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J97">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L97" cm="1">
+        <f t="array" ref="L97">_xll.XLL.UDF(function,I97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="array" ref="I98:J98">_xll.FALSE.POSITION(function, I97,J97)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J98">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L98" cm="1">
+        <f t="array" ref="L98">_xll.XLL.UDF(function,I98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="array" ref="I99:J99">_xll.FALSE.POSITION(function, I98,J98)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J99">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L99" cm="1">
+        <f t="array" ref="L99">_xll.XLL.UDF(function,I99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="array" ref="I100:J100">_xll.FALSE.POSITION(function, I99,J99)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J100">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L100" cm="1">
+        <f t="array" ref="L100">_xll.XLL.UDF(function,I100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="array" ref="I101:J101">_xll.FALSE.POSITION(function, I100,J100)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J101">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L101" cm="1">
+        <f t="array" ref="L101">_xll.XLL.UDF(function,I101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="array" ref="I102:J102">_xll.FALSE.POSITION(function, I101,J101)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J102">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L102" cm="1">
+        <f t="array" ref="L102">_xll.XLL.UDF(function,I102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="array" ref="I103:J103">_xll.FALSE.POSITION(function, I102,J102)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J103">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L103" cm="1">
+        <f t="array" ref="L103">_xll.XLL.UDF(function,I103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="array" ref="I104:J104">_xll.FALSE.POSITION(function, I103,J103)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J104">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L104" cm="1">
+        <f t="array" ref="L104">_xll.XLL.UDF(function,I104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="array" ref="I105:J105">_xll.FALSE.POSITION(function, I104,J104)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J105">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L105" cm="1">
+        <f t="array" ref="L105">_xll.XLL.UDF(function,I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="array" ref="I106:J106">_xll.FALSE.POSITION(function, I105,J105)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J106">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L106" cm="1">
+        <f t="array" ref="L106">_xll.XLL.UDF(function,I106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="array" ref="I107:J107">_xll.FALSE.POSITION(function, I106,J106)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J107">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L107" cm="1">
+        <f t="array" ref="L107">_xll.XLL.UDF(function,I107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="array" ref="I108:J108">_xll.FALSE.POSITION(function, I107,J107)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J108">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L108" cm="1">
+        <f t="array" ref="L108">_xll.XLL.UDF(function,I108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="array" ref="I109:J109">_xll.FALSE.POSITION(function, I108,J108)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J109">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L109" cm="1">
+        <f t="array" ref="L109">_xll.XLL.UDF(function,I109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="array" ref="I110:J110">_xll.FALSE.POSITION(function, I109,J109)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J110">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L110" cm="1">
+        <f t="array" ref="L110">_xll.XLL.UDF(function,I110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="array" ref="I111:J111">_xll.FALSE.POSITION(function, I110,J110)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J111">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L111" cm="1">
+        <f t="array" ref="L111">_xll.XLL.UDF(function,I111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="array" ref="I112:J112">_xll.FALSE.POSITION(function, I111,J111)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J112">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L112" cm="1">
+        <f t="array" ref="L112">_xll.XLL.UDF(function,I112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="array" ref="I113:J113">_xll.FALSE.POSITION(function, I112,J112)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J113">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L113" cm="1">
+        <f t="array" ref="L113">_xll.XLL.UDF(function,I113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="array" ref="I114:J114">_xll.FALSE.POSITION(function, I113,J113)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J114">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L114" cm="1">
+        <f t="array" ref="L114">_xll.XLL.UDF(function,I114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="array" ref="I115:J115">_xll.FALSE.POSITION(function, I114,J114)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J115">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L115" cm="1">
+        <f t="array" ref="L115">_xll.XLL.UDF(function,I115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="array" ref="I116:J116">_xll.FALSE.POSITION(function, I115,J115)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J116">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L116" cm="1">
+        <f t="array" ref="L116">_xll.XLL.UDF(function,I116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="array" ref="I117:J117">_xll.FALSE.POSITION(function, I116,J116)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J117">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L117" cm="1">
+        <f t="array" ref="L117">_xll.XLL.UDF(function,I117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="array" ref="I118:J118">_xll.FALSE.POSITION(function, I117,J117)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J118">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L118" cm="1">
+        <f t="array" ref="L118">_xll.XLL.UDF(function,I118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="array" ref="I119:J119">_xll.FALSE.POSITION(function, I118,J118)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J119">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L119" cm="1">
+        <f t="array" ref="L119">_xll.XLL.UDF(function,I119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="array" ref="I120:J120">_xll.FALSE.POSITION(function, I119,J119)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J120">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L120" cm="1">
+        <f t="array" ref="L120">_xll.XLL.UDF(function,I120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="array" ref="I121:J121">_xll.FALSE.POSITION(function, I120,J120)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J121">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L121" cm="1">
+        <f t="array" ref="L121">_xll.XLL.UDF(function,I121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="array" ref="I122:J122">_xll.FALSE.POSITION(function, I121,J121)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J122">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L122" cm="1">
+        <f t="array" ref="L122">_xll.XLL.UDF(function,I122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="array" ref="I123:J123">_xll.FALSE.POSITION(function, I122,J122)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J123">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L123" cm="1">
+        <f t="array" ref="L123">_xll.XLL.UDF(function,I123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="array" ref="I124:J124">_xll.FALSE.POSITION(function, I123,J123)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J124">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L124" cm="1">
+        <f t="array" ref="L124">_xll.XLL.UDF(function,I124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="array" ref="I125:J125">_xll.FALSE.POSITION(function, I124,J124)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J125">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L125" cm="1">
+        <f t="array" ref="L125">_xll.XLL.UDF(function,I125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="array" ref="I126:J126">_xll.FALSE.POSITION(function, I125,J125)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J126">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L126" cm="1">
+        <f t="array" ref="L126">_xll.XLL.UDF(function,I126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="array" ref="I127:J127">_xll.FALSE.POSITION(function, I126,J126)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J127">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L127" cm="1">
+        <f t="array" ref="L127">_xll.XLL.UDF(function,I127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="array" ref="I128:J128">_xll.FALSE.POSITION(function, I127,J127)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J128">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L128" cm="1">
+        <f t="array" ref="L128">_xll.XLL.UDF(function,I128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="array" ref="I129:J129">_xll.FALSE.POSITION(function, I128,J128)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J129">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L129" cm="1">
+        <f t="array" ref="L129">_xll.XLL.UDF(function,I129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="array" ref="I130:J130">_xll.FALSE.POSITION(function, I129,J129)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J130">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L130" cm="1">
+        <f t="array" ref="L130">_xll.XLL.UDF(function,I130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="array" ref="I131:J131">_xll.FALSE.POSITION(function, I130,J130)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J131">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L131" cm="1">
+        <f t="array" ref="L131">_xll.XLL.UDF(function,I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="array" ref="I132:J132">_xll.FALSE.POSITION(function, I131,J131)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J132">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L132" cm="1">
+        <f t="array" ref="L132">_xll.XLL.UDF(function,I132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="array" ref="I133:J133">_xll.FALSE.POSITION(function, I132,J132)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J133">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L133" cm="1">
+        <f t="array" ref="L133">_xll.XLL.UDF(function,I133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="array" ref="I134:J134">_xll.FALSE.POSITION(function, I133,J133)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J134">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L134" cm="1">
+        <f t="array" ref="L134">_xll.XLL.UDF(function,I134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="array" ref="I135:J135">_xll.FALSE.POSITION(function, I134,J134)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J135">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L135" cm="1">
+        <f t="array" ref="L135">_xll.XLL.UDF(function,I135)</f>
         <v>0</v>
       </c>
     </row>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -5,22 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfan2\source\repos\zf2209_xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36124FD8-9A62-43DE-BB42-F84E8E1EF3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kahan.a" sheetId="3" r:id="rId1"/>
+    <sheet name="kahan.b" sheetId="1" r:id="rId2"/>
+    <sheet name="kahan.c" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="function">Sheet1!$C$2</definedName>
-    <definedName name="xvalues">_xll.ARRAY.GET(Sheet1!$N$5)</definedName>
-    <definedName name="yvalues">_xll.ARRAY.GET(Sheet1!$O$5)</definedName>
+    <definedName name="function" localSheetId="0">kahan.a!$C$2</definedName>
+    <definedName name="function" localSheetId="2">kahan.c!$C$2</definedName>
+    <definedName name="function">kahan.b!$C$2</definedName>
+    <definedName name="xvalues" localSheetId="0">_xll.ARRAY.GET(kahan.a!$N$5)</definedName>
+    <definedName name="xvalues" localSheetId="2">_xll.ARRAY.GET(kahan.c!$N$5)</definedName>
+    <definedName name="xvalues">_xll.ARRAY.GET(kahan.b!$N$5)</definedName>
+    <definedName name="yvalues" localSheetId="0">_xll.ARRAY.GET(kahan.a!$O$5)</definedName>
+    <definedName name="yvalues" localSheetId="2">_xll.ARRAY.GET(kahan.c!$O$5)</definedName>
+    <definedName name="yvalues">_xll.ARRAY.GET(kahan.b!$O$5)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +36,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +43,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>Bisect</t>
   </si>
@@ -86,17 +91,30 @@
     <t>f(x0)</t>
   </si>
   <si>
-    <t>!!!Use false position to find the bracketed root.</t>
+    <t>result</t>
   </si>
   <si>
-    <t>!!!Add enough rows so kahan_a,b,and c all converge.</t>
+    <t>error</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>secant</t>
+  </si>
+  <si>
+    <t>bisect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +129,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +150,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,12 +179,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -165,10 +212,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,6 +256,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>kahan.a</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -258,304 +341,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>3.0303030303030303E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>6.0606060606060606E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>9.0909090909090905E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0404040404040404</c:v>
+                  <c:v>1.2121212121212121E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
+                  <c:v>1.5151515151515152E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>1.8181818181818181E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>2.1212121212121213E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0808080808080809</c:v>
+                  <c:v>2.4242424242424242E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>2.7272727272727271E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212121212121211</c:v>
+                  <c:v>3.6363636363636362E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
+                  <c:v>3.9393939393939391E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
+                  <c:v>4.2424242424242427E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1616161616161615</c:v>
+                  <c:v>4.8484848484848485E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
+                  <c:v>5.1515151515151514E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
+                  <c:v>5.7575757575757579E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.202020202020202</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
+                  <c:v>6.363636363636363E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
+                  <c:v>6.9696969696969702E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2424242424242424</c:v>
+                  <c:v>7.2727272727272724E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
+                  <c:v>7.575757575757576E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
+                  <c:v>7.8787878787878782E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
+                  <c:v>8.1818181818181818E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2828282828282829</c:v>
+                  <c:v>8.4848484848484854E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
+                  <c:v>8.7878787878787876E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
+                  <c:v>9.3939393939393934E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
+                  <c:v>9.696969696969697E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
+                  <c:v>0.10303030303030303</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
+                  <c:v>0.10606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3636363636363638</c:v>
+                  <c:v>0.10909090909090909</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
+                  <c:v>0.11212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
+                  <c:v>0.11515151515151516</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
+                  <c:v>0.11818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.404040404040404</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
+                  <c:v>0.12424242424242424</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
+                  <c:v>0.12727272727272726</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
+                  <c:v>0.13030303030303031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
+                  <c:v>0.1393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
+                  <c:v>0.14242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4848484848484849</c:v>
+                  <c:v>0.14545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
+                  <c:v>0.1484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
+                  <c:v>0.15454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5252525252525253</c:v>
+                  <c:v>0.15757575757575756</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
+                  <c:v>0.16060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
+                  <c:v>0.16363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5656565656565657</c:v>
+                  <c:v>0.16969696969696971</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
+                  <c:v>0.17272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
+                  <c:v>0.17575757575757575</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
+                  <c:v>0.1787878787878788</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.606060606060606</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
+                  <c:v>0.18484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
+                  <c:v>0.18787878787878787</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
+                  <c:v>0.19090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
+                  <c:v>0.19393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
+                  <c:v>0.19696969696969696</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
+                  <c:v>0.20303030303030303</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6868686868686869</c:v>
+                  <c:v>0.20606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>0.20909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
+                  <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
+                  <c:v>0.21515151515151515</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>0.21818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
+                  <c:v>0.22121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
+                  <c:v>0.22424242424242424</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7676767676767677</c:v>
+                  <c:v>0.23030303030303031</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
+                  <c:v>0.23636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
+                  <c:v>0.23939393939393938</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
+                  <c:v>0.24242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
+                  <c:v>0.24545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
+                  <c:v>0.24848484848484848</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
+                  <c:v>0.25151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
+                  <c:v>0.25454545454545452</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
+                  <c:v>0.25757575757575757</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
+                  <c:v>0.26060606060606062</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
+                  <c:v>0.26363636363636361</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
+                  <c:v>0.26969696969696971</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
+                  <c:v>0.27575757575757576</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
+                  <c:v>0.27878787878787881</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
+                  <c:v>0.2818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
+                  <c:v>0.28484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
+                  <c:v>0.2878787878787879</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>0.29090909090909089</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
+                  <c:v>0.29393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>0.29696969696969699</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,304 +650,1214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>-0.63212055882855767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>-0.62537066502315808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>-0.61849692384929211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>-0.61149706413723726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0707466607111975</c:v>
+                  <c:v>-0.6043687739116177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
+                  <c:v>-0.59710969970385341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>-0.58971744585476127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>-0.58218957380722958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1202831562875222</c:v>
+                  <c:v>-0.57452360138888703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
+                  <c:v>-0.56671700208469011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
+                  <c:v>-0.55876720429935367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>-0.55067159060955218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469305290993246</c:v>
+                  <c:v>-0.54242749700582227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
+                  <c:v>-0.53403221212409657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
+                  <c:v>-0.52548297646680397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
+                  <c:v>-0.5167769816134743</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1489458612263022</c:v>
+                  <c:v>-0.50791136942078396</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
+                  <c:v>-0.49888323121198841</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
+                  <c:v>-0.48968960695568309</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
+                  <c:v>-0.48032748443384499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.124522274457501</c:v>
+                  <c:v>-0.47079379839910374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
+                  <c:v>-0.46108542972119881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
+                  <c:v>-0.45119920452258133</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
+                  <c:v>-0.44113189330312363</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0717889302913104</c:v>
+                  <c:v>-0.43088021005390298</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
+                  <c:v>-0.42044081136003031</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
+                  <c:v>-0.40981029549249992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
+                  <c:v>-0.39898520148903849</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9888110299354667</c:v>
+                  <c:v>-0.38796200822394078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
+                  <c:v>-0.37673713346687876</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
+                  <c:v>-0.36530693293068039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
+                  <c:v>-0.35366769930807995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
+                  <c:v>-0.34181566129744212</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
+                  <c:v>-0.3297469826174757</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
+                  <c:v>-0.31745776101095202</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
+                  <c:v>-0.30494402723745362</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7240625640325113</c:v>
+                  <c:v>-0.29220174405518462</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
+                  <c:v>-0.2792268051918797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
+                  <c:v>-0.26601503430485651</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
+                  <c:v>-0.2525621839302653</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5381025994476083</c:v>
+                  <c:v>-0.23886393442159415</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
+                  <c:v>-0.22491589287749869</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
+                  <c:v>-0.21071359205903351</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
+                  <c:v>-0.19625248929636763</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.31351928059747</c:v>
+                  <c:v>-0.1815279653850802</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
+                  <c:v>-0.16653532347213817</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
+                  <c:v>-0.15126978793166734</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
+                  <c:v>-0.13572650323064284</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0480580072365706</c:v>
+                  <c:v>-0.1199005327846242</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
+                  <c:v>-0.10378685780368624</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
+                  <c:v>-8.7380376128692872E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
+                  <c:v>-7.0675901058081525E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7394002188287248</c:v>
+                  <c:v>-5.3668160165333156E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
+                  <c:v>-3.6351794107318702E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
+                  <c:v>-1.8721355423718777E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
+                  <c:v>-7.7130732773200705E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3851633945470994</c:v>
+                  <c:v>1.7503977511701851E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
+                  <c:v>3.6110218195924082E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
+                  <c:v>5.505322683057523E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
+                  <c:v>7.4338909767331263E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9829010532742082</c:v>
+                  <c:v>9.3973268853088765E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
+                  <c:v>0.11396240268628999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
+                  <c:v>0.13431250788008109</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
+                  <c:v>0.15502988033197407</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
+                  <c:v>0.17612091649966</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
+                  <c:v>0.19759211468262339</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
+                  <c:v>0.21945007630916669</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
+                  <c:v>0.24170150722844919</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.024194093831392</c:v>
+                  <c:v>0.26435321900713271</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
+                  <c:v>0.28741213023018819</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
+                  <c:v>0.31088526780541414</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
+                  <c:v>0.33477976827119438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.46253671197322532</c:v>
+                  <c:v>0.35910287910699701</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
+                  <c:v>0.38386196004610573</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
+                  <c:v>0.4090644843900364</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
+                  <c:v>0.43471804032409578</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.15757171425269867</c:v>
+                  <c:v>0.46083033223348457</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
+                  <c:v>0.48740918201935624</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
+                  <c:v>0.51446253041419698</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
+                  <c:v>0.54199843829587357</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
+                  <c:v>0.5700250879996831</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
+                  <c:v>0.59855078462769185</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
+                  <c:v>0.62758395735464867</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
+                  <c:v>0.6571331607297084</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
+                  <c:v>0.68720707597319386</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
+                  <c:v>0.71781451226759385</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
+                  <c:v>0.74896440804194353</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
+                  <c:v>0.78066583224874408</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
+                  <c:v>0.81292798563252555</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
+                  <c:v>0.84576020198911039</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
+                  <c:v>0.87917194941465882</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
+                  <c:v>0.91317283154348106</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
+                  <c:v>0.94777258877362258</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
+                  <c:v>0.98298109947916235</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
+                  <c:v>1.0188083812081539</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
+                  <c:v>1.0552645918650891</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
+                  <c:v>1.0923600308767401</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
+                  <c:v>1.1301051403402038</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>1.1685105061519181</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>1.2075868591164181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A10E-4943-8DC7-DAC2148B2B35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620144863"/>
+        <c:axId val="1611889647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620144863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611889647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1611889647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620144863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>kahan.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>b</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kahan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[0]!xvalues</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0303030303030303E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0606060606060606E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0909090909090905E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2121212121212121E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5151515151515152E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1212121212121213E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4242424242424242E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7272727272727271E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6363636363636362E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9393939393939391E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2424242424242427E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8484848484848485E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1515151515151514E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4545454545454543E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7575757575757579E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0606060606060608E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.363636363636363E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9696969696969702E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2727272727272724E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.575757575757576E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8787878787878782E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1818181818181818E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4848484848484854E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7878787878787876E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3939393939393934E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.696969696969697E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11212121212121212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11515151515151516</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.15454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15757575757575756</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.16363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16969696969696971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17575757575757575</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19696969696969696</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.20303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.20909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.21515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.22121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.22424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.23939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.24242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24848484848484848</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25454545454545452</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25757575757575757</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.26060606060606062</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26363636363636361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.26969696969696971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.27878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.2818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.28484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.2878787878787879</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.29090909090909089</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.29393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.29696969696969699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[0]!yvalues</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-0.63212055882855767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.62537066502315808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.61849692384929211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.61149706413723726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6043687739116177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59710969970385341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.58971744585476127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58218957380722958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.57452360138888703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56671700208469011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.55876720429935367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.55067159060955218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.54242749700582227</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.53403221212409657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.52548297646680397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5167769816134743</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.50791136942078396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.49888323121198841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.48968960695568309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.48032748443384499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.47079379839910374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.46108542972119881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.45119920452258133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.44113189330312363</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43088021005390298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.42044081136003031</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.40981029549249992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.39898520148903849</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38796200822394078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.37673713346687876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.36530693293068039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35366769930807995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.34181566129744212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3297469826174757</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.31745776101095202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.30494402723745362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.29220174405518462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2792268051918797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.26601503430485651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2525621839302653</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.23886393442159415</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.22491589287749869</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21071359205903351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.19625248929636763</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1815279653850802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.16653532347213817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.15126978793166734</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.13572650323064284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1199005327846242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10378685780368624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.7380376128692872E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.0675901058081525E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.3668160165333156E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.6351794107318702E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.8721355423718777E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.7130732773200705E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7503977511701851E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6110218195924082E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.505322683057523E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4338909767331263E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.3973268853088765E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.11396240268628999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.13431250788008109</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.15502988033197407</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17612091649966</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19759211468262339</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.21945007630916669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24170150722844919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26435321900713271</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.28741213023018819</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31088526780541414</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.33477976827119438</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35910287910699701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.38386196004610573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.4090644843900364</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.43471804032409578</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.46083033223348457</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.48740918201935624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.51446253041419698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.54199843829587357</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.5700250879996831</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.59855078462769185</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62758395735464867</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.6571331607297084</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68720707597319386</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.71781451226759385</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.74896440804194353</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78066583224874408</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.81292798563252555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.84576020198911039</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.87917194941465882</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91317283154348106</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94777258877362258</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98298109947916235</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0188083812081539</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0552645918650891</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0923600308767401</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1301051403402038</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1685105061519181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2075868591164181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +2056,992 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>kahan.c</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kahan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[0]!xvalues</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0303030303030303E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0606060606060606E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0909090909090905E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2121212121212121E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5151515151515152E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1212121212121213E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4242424242424242E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7272727272727271E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6363636363636362E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9393939393939391E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2424242424242427E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8484848484848485E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1515151515151514E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4545454545454543E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7575757575757579E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0606060606060608E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.363636363636363E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9696969696969702E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2727272727272724E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.575757575757576E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8787878787878782E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1818181818181818E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4848484848484854E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7878787878787876E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3939393939393934E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.696969696969697E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11212121212121212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11515151515151516</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.15454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15757575757575756</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.16363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16969696969696971</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17575757575757575</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19696969696969696</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.20303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.20909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.21515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.22121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.22424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.23939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.24242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24848484848484848</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25454545454545452</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25757575757575757</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.26060606060606062</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26363636363636361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.26969696969696971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.27878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.2818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.28484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.2878787878787879</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.29090909090909089</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.29393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.29696969696969699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[0]!yvalues</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-0.63212055882855767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.62537066502315808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.61849692384929211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.61149706413723726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6043687739116177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59710969970385341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.58971744585476127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58218957380722958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.57452360138888703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56671700208469011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.55876720429935367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.55067159060955218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.54242749700582227</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.53403221212409657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.52548297646680397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5167769816134743</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.50791136942078396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.49888323121198841</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.48968960695568309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.48032748443384499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.47079379839910374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.46108542972119881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.45119920452258133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.44113189330312363</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43088021005390298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.42044081136003031</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.40981029549249992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.39898520148903849</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38796200822394078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.37673713346687876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.36530693293068039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35366769930807995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.34181566129744212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3297469826174757</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.31745776101095202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.30494402723745362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.29220174405518462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2792268051918797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.26601503430485651</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.2525621839302653</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.23886393442159415</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.22491589287749869</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21071359205903351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.19625248929636763</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1815279653850802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.16653532347213817</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.15126978793166734</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.13572650323064284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1199005327846242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10378685780368624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.7380376128692872E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.0675901058081525E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.3668160165333156E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.6351794107318702E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.8721355423718777E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.7130732773200705E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7503977511701851E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6110218195924082E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.505322683057523E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4338909767331263E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.3973268853088765E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.11396240268628999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.13431250788008109</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.15502988033197407</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17612091649966</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19759211468262339</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.21945007630916669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24170150722844919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26435321900713271</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.28741213023018819</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.31088526780541414</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.33477976827119438</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35910287910699701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.38386196004610573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.4090644843900364</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.43471804032409578</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.46083033223348457</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.48740918201935624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.51446253041419698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.54199843829587357</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.5700250879996831</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.59855078462769185</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62758395735464867</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.6571331607297084</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68720707597319386</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.71781451226759385</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.74896440804194353</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78066583224874408</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.81292798563252555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.84576020198911039</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.87917194941465882</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91317283154348106</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94777258877362258</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98298109947916235</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0188083812081539</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0552645918650891</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0923600308767401</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1301051403402038</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1685105061519181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2075868591164181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A885-41FD-96BB-EEF042AAD402}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1620144863"/>
+        <c:axId val="1611889647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1620144863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611889647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1611889647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620144863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1619,7 +3597,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>62932</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C580A652-8B58-4C7E-95C5-2F5A2CAD3930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1644,6 +4697,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>62932</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1252F179-E68F-4056-B080-D2EEEEF1C8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1956,31 +5052,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC51FD4-FEE4-437C-BA04-F24A57BD1802}">
   <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.A</f>
+        <v>-2104295354</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1991,11 +5087,9 @@
         <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2003,21 +5097,18 @@
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
         <v>-5</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>423526</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-22423334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2030,10 +5121,10 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2044,7 +5135,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,16 +5157,23 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="7">
+        <f t="array" ref="I7:J7">_xll.FALSE_POSITION(function,C3,C4)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
         <v>1.75</v>
@@ -2091,8 +5189,23 @@
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I8" s="7">
+        <f t="array" ref="I8:J8">_xll.FALSE_POSITION(function,I7,J7)</f>
+        <v>1.6658722156017967</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>0.33412778439820334</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>1.2938854517857425</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
         <v>1.75</v>
@@ -2108,8 +5221,23 @@
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I9" s="7">
+        <f t="array" ref="I9:J9">_xll.FALSE_POSITION(function,I8,J8)</f>
+        <v>1.7345615939805494</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K33" si="1">J9-I9</f>
+        <v>0.26543840601945057</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>0.35507026572820344</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
@@ -2125,8 +5253,23 @@
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10" s="7">
+        <f t="array" ref="I10:J10">_xll.FALSE_POSITION(function,I9,J9)</f>
+        <v>1.7521616030715563</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.24783839692844367</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>8.7638074160922841E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
@@ -2142,8 +5285,23 @@
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11" s="7">
+        <f t="array" ref="I11:J11">_xll.FALSE_POSITION(function,I10,J10)</f>
+        <v>1.7564307903630523</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.24356920963694773</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>2.1056661126134912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
@@ -2159,8 +5317,23 @@
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12" s="7">
+        <f t="array" ref="I12:J12">_xll.FALSE_POSITION(function,I11,J11)</f>
+        <v>1.7574522395627381</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.24254776043726189</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>5.0264299055626793E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
         <v>1.75</v>
@@ -2176,8 +5349,23 @@
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I13" s="7">
+        <f t="array" ref="I13:J13">_xll.FALSE_POSITION(function,I12,J12)</f>
+        <v>1.7576958245534795</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.2423041754465205</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>1.1979918895850261E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
         <v>1.75390625</v>
@@ -2193,8 +5381,23 @@
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
         <v>6.0510217910632491E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I14" s="7">
+        <f t="array" ref="I14:J14">_xll.FALSE_POSITION(function,I13,J13)</f>
+        <v>1.7577538663341623</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.24224613366583769</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>2.8542168946898983E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
         <v>1.755859375</v>
@@ -2210,8 +5413,23 @@
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
         <v>3.0007383538759314E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I15" s="7">
+        <f t="array" ref="I15:J15">_xll.FALSE_POSITION(function,I14,J14)</f>
+        <v>1.7577676940049667</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.24223230599503331</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>6.7995734383430317E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
         <v>1.7568359375</v>
@@ -2227,8 +5445,23 @@
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
         <v>1.4703062041917292E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I16" s="7">
+        <f t="array" ref="I16:J16">_xll.FALSE_POSITION(function,I15,J15)</f>
+        <v>1.7577709881128771</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.24222901188712287</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>1.6198217164031803E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
         <v>1.75732421875</v>
@@ -2244,8 +5477,23 @@
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
         <v>7.0376580442257364E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I17" s="7">
+        <f t="array" ref="I17:J17">_xll.FALSE_POSITION(function,I16,J16)</f>
+        <v>1.7577717728459625</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.24222822715403747</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>3.8587850408333679E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
         <v>1.757568359375</v>
@@ -2261,8 +5509,23 @@
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
         <v>3.2016430855001943E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I18" s="7">
+        <f t="array" ref="I18:J18">_xll.FALSE_POSITION(function,I17,J17)</f>
+        <v>1.7577719597871502</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.24222804021284983</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>9.1924957246192207E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
         <v>1.7576904296875</v>
@@ -2278,8 +5541,23 @@
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
         <v>1.2828070976524941E-3</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I19" s="7">
+        <f t="array" ref="I19:J19">_xll.FALSE_POSITION(function,I18,J18)</f>
+        <v>1.7577720043207463</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.24222799567925368</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>2.1898590674140905E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
         <v>1.75775146484375</v>
@@ -2295,8 +5573,23 @@
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I20" s="7">
+        <f t="array" ref="I20:J20">_xll.FALSE_POSITION(function,I19,J19)</f>
+        <v>1.7577720149296494</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.24222798507035059</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>5.2167358433052868E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
         <v>1.75775146484375</v>
@@ -2312,8 +5605,23 @@
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I21" s="7">
+        <f t="array" ref="I21:J21">_xll.FALSE_POSITION(function,I20,J20)</f>
+        <v>1.757772017456928</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.24222798254307198</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>1.2427440410078816E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
         <v>1.7577667236328125</v>
@@ -2329,8 +5637,23 @@
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I22" s="7">
+        <f t="array" ref="I22:J22">_xll.FALSE_POSITION(function,I21,J21)</f>
+        <v>1.7577720180589826</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.24222798194101736</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>2.9604958484696908E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
         <v>1.7577667236328125</v>
@@ -2346,8 +5669,32 @@
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I23" s="7">
+        <f t="array" ref="I23:J23">_xll.FALSE_POSITION(function,I22,J22)</f>
+        <v>1.7577720182024055</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.24222798179759453</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>7.0525807416288444E-10</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
         <v>1.7577705383300781</v>
@@ -2363,8 +5710,34 @@
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I24" s="7">
+        <f t="array" ref="I24:J24">_xll.FALSE_POSITION(function,I23,J23)</f>
+        <v>1.7577720182365721</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.24222798176342786</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>1.6800960622731509E-10</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="9">
+        <f>C57</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="P24" s="9">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
         <v>1.7577705383300781</v>
@@ -2380,8 +5753,34 @@
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I25" s="7">
+        <f t="array" ref="I25:J25">_xll.FALSE_POSITION(function,I24,J24)</f>
+        <v>1.7577720182447114</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.24222798175528859</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>4.0024872305366443E-11</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="10">
+        <f>I33</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="P25" s="9">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
         <v>1.7577714920043945</v>
@@ -2397,8 +5796,23 @@
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
         <v>8.2748439389490613E-6</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I26" s="7">
+        <f t="array" ref="I26:J26">_xll.FALSE_POSITION(function,I25,J25)</f>
+        <v>1.7577720182466503</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.2422279817533497</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>9.5354835139005445E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
         <v>1.7577719688415527</v>
@@ -2414,8 +5828,23 @@
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I27" s="7">
+        <f t="array" ref="I27:J27">_xll.FALSE_POSITION(function,I26,J26)</f>
+        <v>1.7577720182471124</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.24222798175288762</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>2.2701840407535201E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
         <v>1.7577719688415527</v>
@@ -2431,8 +5860,23 @@
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I28" s="7">
+        <f t="array" ref="I28:J28">_xll.FALSE_POSITION(function,I27,J27)</f>
+        <v>1.7577720182472225</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.24222798175277749</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>5.3823612233827589E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
@@ -2448,8 +5892,23 @@
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29" s="7">
+        <f t="array" ref="I29:J29">_xll.FALSE_POSITION(function,I28,J28)</f>
+        <v>1.7577720182472487</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.24222798175275129</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>1.2789769243681803E-13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
         <v>1.7577719688415527</v>
@@ -2465,8 +5924,23 @@
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I30" s="7">
+        <f t="array" ref="I30:J30">_xll.FALSE_POSITION(function,I29,J29)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274507</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
         <v>1.7577719986438751</v>
@@ -2482,8 +5956,23 @@
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
         <v>3.0825125207911697E-7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I31" s="7">
+        <f t="array" ref="I31:J31">_xll.FALSE_POSITION(function,I30,J30)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274352</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
         <v>1.7577720135450363</v>
@@ -2499,8 +5988,23 @@
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I32" s="7">
+        <f t="array" ref="I32:J32">_xll.FALSE_POSITION(function,I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
         <v>1.7577720135450363</v>
@@ -2516,8 +6020,23 @@
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I33" s="7">
+        <f t="array" ref="I33:J33">_xll.FALSE_POSITION(function,I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
         <v>1.7577720172703266</v>
@@ -2534,7 +6053,7 @@
         <v>1.5361633742827507E-8</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
         <v>1.7577720172703266</v>
@@ -2551,7 +6070,7 @@
         <v>1.5361633742827507E-8</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
         <v>1.7577720182016492</v>
@@ -2568,7 +6087,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
         <v>1.7577720182016492</v>
@@ -2585,7 +6104,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
         <v>1.7577720182016492</v>
@@ -2602,7 +6121,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
         <v>1.7577720182016492</v>
@@ -2619,7 +6138,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
         <v>1.7577720182016492</v>
@@ -2636,7 +6155,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
         <v>1.757772018230753</v>
@@ -2653,7 +6172,7 @@
         <v>2.5951152338166139E-10</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
         <v>1.7577720182453049</v>
@@ -2670,7 +6189,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
         <v>1.7577720182453049</v>
@@ -2687,7 +6206,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
         <v>1.7577720182453049</v>
@@ -2704,7 +6223,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
@@ -2721,7 +6240,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
         <v>1.7577720182471239</v>
@@ -2738,7 +6257,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
@@ -2755,7 +6274,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
@@ -2772,7 +6291,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
         <v>1.7577720182472376</v>
@@ -2789,7 +6308,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
         <v>1.7577720182472376</v>
@@ -2806,7 +6325,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
@@ -2823,7 +6342,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
         <v>1.7577720182472518</v>
@@ -2840,7 +6359,7 @@
         <v>7.815970093361102E-14</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
         <v>1.7577720182472518</v>
@@ -2857,7 +6376,7 @@
         <v>7.815970093361102E-14</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
         <v>1.7577720182472554</v>
@@ -2874,7 +6393,7 @@
         <v>2.3092638912203256E-14</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
         <v>1.7577720182472554</v>
@@ -2891,7 +6410,7 @@
         <v>2.3092638912203256E-14</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
@@ -2908,13 +6427,3219 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="D57">
         <v>1.7577720182472572</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
+  <dimension ref="B2:Q56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.B</f>
+        <v>-2103246777</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
+        <v>-0.63212055882855767</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
+        <v>1.2075868591164181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" cm="1">
+        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
+        <v>-8</v>
+      </c>
+      <c r="O5" s="5" cm="1">
+        <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
+        <v>20552288</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0.15</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
+        <v>-9.5620539976518537E-2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE_POSITION(function,C3,C4)</f>
+        <v>0.1030795254717178</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <f>J7-I7</f>
+        <v>0.19692047452828221</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
+        <v>-0.31725629999444116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D8">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E57" si="0">D8-C8</f>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
+        <v>-9.5620539976518537E-2</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE_POSITION(function,I7,J7)</f>
+        <v>0.14405046780681102</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>0.15594953219318897</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>-0.12726889043383793</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D9">
+        <v>0.1875</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
+        <v>-9.5620539976518537E-2</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE_POSITION(function,I8,J8)</f>
+        <v>0.15891913352787515</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K22" si="1">J9-I9</f>
+        <v>0.14108086647212484</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>-4.6029975184495475E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000017E-2</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
+        <v>-9.5620539976518537E-2</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE_POSITION(function,I9,J9)</f>
+        <v>0.16409930389974192</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.13590069610025807</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>-1.5999944084633122E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
+        <v>0.15937499999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.3750000000000222E-3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
+        <v>-4.3424136729964924E-2</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE_POSITION(function,I10,J10)</f>
+        <v>0.16587637728184965</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.13412362271815034</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>-5.4837192400734036E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C12" cm="1">
+        <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
+        <v>0.1640625</v>
+      </c>
+      <c r="D12">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.6875000000000111E-3</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
+        <v>-1.6216570556385035E-2</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE_POSITION(function,I11,J11)</f>
+        <v>0.16648268684336281</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.13351731315663717</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>-1.8703312282003504E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
+        <v>0.16640625000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.3437500000000056E-3</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
+        <v>-2.3265829989583819E-3</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE_POSITION(function,I12,J12)</f>
+        <v>0.16668916095612668</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.13331083904387331</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>-6.3685296977500361E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" cm="1">
+        <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
+        <v>0.16640625000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.16757812500000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1718750000000167E-3</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
+        <v>-2.3265829989583819E-3</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE_POSITION(function,I13,J13)</f>
+        <v>0.16675942890642351</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.13324057109357648</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>-2.1672726490884475E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" cm="1">
+        <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
+        <v>0.16640625000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.1669921875</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.8593749999999445E-4</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
+        <v>-2.3265829989583819E-3</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE_POSITION(function,I14,J14)</f>
+        <v>0.1667833374830113</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.13321666251698869</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>-7.3740161676383309E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
+        <v>0.16669921874999999</v>
+      </c>
+      <c r="D16">
+        <v>0.1669921875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.929687500000111E-4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
+        <v>-5.767290590844576E-4</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE_POSITION(function,I15,J15)</f>
+        <v>0.16679147173715345</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.13320852826284654</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>-2.5088002997941672E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" cm="1">
+        <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
+        <v>0.16669921874999999</v>
+      </c>
+      <c r="D17">
+        <v>0.16684570312499999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.4648437500000555E-4</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
+        <v>-5.767290590844576E-4</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE_POSITION(function,I16,J16)</f>
+        <v>0.16679423912941416</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.13320576087058583</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>-8.5352922145620624E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" cm="1">
+        <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
+        <v>0.16677246093749998</v>
+      </c>
+      <c r="D18">
+        <v>0.16684570312499999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.3242187500016653E-5</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
+        <v>-1.3879070030897722E-4</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE_POSITION(function,I17,J17)</f>
+        <v>0.16679518062861079</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.1332048193713892</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>-2.9038046298612841E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
+        <v>0.16677246093749998</v>
+      </c>
+      <c r="D19">
+        <v>0.16680908203125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.6621093750022204E-5</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
+        <v>-1.3879070030897722E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE_POSITION(function,I18,J18)</f>
+        <v>0.16679550093670142</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.13320449906329856</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>-9.8790519476033012E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" cm="1">
+        <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
+        <v>0.16679077148437499</v>
+      </c>
+      <c r="D20">
+        <v>0.16680908203125</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.8310546875011102E-5</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
+        <v>-2.9276409099887601E-5</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE_POSITION(function,I19,J19)</f>
+        <v>0.16679560990882872</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.13320439009117127</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>-3.3609555005753577E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
+        <v>0.16679077148437499</v>
+      </c>
+      <c r="D21">
+        <v>0.16679992675781249</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>9.1552734375055511E-6</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
+        <v>-2.9276409099887601E-5</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE_POSITION(function,I20,J20)</f>
+        <v>0.16679564698226154</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.13320435301773845</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>-1.1434314306502102E-7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" cm="1">
+        <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
+        <v>0.16679534912109373</v>
+      </c>
+      <c r="D22">
+        <v>0.16679992675781249</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.5776367187666533E-6</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
+        <v>-1.8959796104223159E-6</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE_POSITION(function,I21,J21)</f>
+        <v>0.16679565959502135</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.13320434040497864</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>-3.8900702215016736E-8</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="10">
+        <f>C56</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="P22" s="9">
+        <f>F56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" cm="1">
+        <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
+        <v>0.16679534912109373</v>
+      </c>
+      <c r="D23">
+        <v>0.16679763793945313</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.2888183593972045E-6</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
+        <v>-1.8959796104223159E-6</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE_POSITION(function,I22,J22)</f>
+        <v>0.16679566388601058</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K32" si="2">J23-I23</f>
+        <v>0.13320433611398941</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>-1.3234415230378715E-8</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="10">
+        <f>I43</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="P23" s="9">
+        <f>L43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" cm="1">
+        <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
+        <v>0.16679534912109373</v>
+      </c>
+      <c r="D24">
+        <v>0.16679649353027343</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.1444091796986022E-6</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
+        <v>-1.8959796104223159E-6</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE_POSITION(function,I23,J23)</f>
+        <v>0.1667956653458488</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0.13320433465415119</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>-4.5024826089701264E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" cm="1">
+        <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
+        <v>0.16679534912109373</v>
+      </c>
+      <c r="D25">
+        <v>0.16679592132568358</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.7220458984930112E-7</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
+        <v>-1.8959796104223159E-6</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE_POSITION(function,I24,J24)</f>
+        <v>0.16679566584250061</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0.13320433415749938</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>-1.5317904722422782E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" cm="1">
+        <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
+        <v>0.16679563522338864</v>
+      </c>
+      <c r="D26">
+        <v>0.16679592132568358</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.8610229493852835E-7</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE_POSITION(function,I25,J25)</f>
+        <v>0.16679566601146659</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.1332043339885334</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>-5.2113080517557364E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" cm="1">
+        <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
+        <v>0.16679563522338864</v>
+      </c>
+      <c r="D27">
+        <v>0.16679577827453612</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.4305114748314196E-7</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE_POSITION(function,I26,J26)</f>
+        <v>0.16679566606895058</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0.13320433393104941</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>-1.7729384627074296E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" cm="1">
+        <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
+        <v>0.16679563522338864</v>
+      </c>
+      <c r="D28">
+        <v>0.16679570674896238</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>7.152557374157098E-8</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE_POSITION(function,I27,J27)</f>
+        <v>0.16679566608850718</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0.13320433391149281</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>-6.0317195682557667E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" cm="1">
+        <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
+        <v>0.16679563522338864</v>
+      </c>
+      <c r="D29">
+        <v>0.16679567098617551</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>3.576278687078549E-8</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="array" ref="I29:J29">_xll.FALSE_POSITION(function,I28,J28)</f>
+        <v>0.16679566609516056</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.13320433390483943</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>-2.0520585231054156E-11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" cm="1">
+        <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
+        <v>0.16679565310478206</v>
+      </c>
+      <c r="D30">
+        <v>0.16679567098617551</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.7881393449270533E-8</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
+        <v>-7.7721666991159566E-8</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="array" ref="I30:J30">_xll.FALSE_POSITION(function,I29,J29)</f>
+        <v>0.16679566609742413</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.13320433390257586</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>-6.9810823788429843E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
+        <v>0.1667956620454788</v>
+      </c>
+      <c r="D31">
+        <v>0.16679567098617551</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8.9406967107574786E-9</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
+        <v>-2.4243442364735301E-8</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="array" ref="I31:J31">_xll.FALSE_POSITION(function,I30,J30)</f>
+        <v>0.16679566609819418</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0.1332043339018058</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>-2.3751001165805974E-12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" cm="1">
+        <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
+        <v>0.1667956620454788</v>
+      </c>
+      <c r="D32">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.4703483692565271E-9</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
+        <v>-2.4243442364735301E-8</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="array" ref="I32:J32">_xll.FALSE_POSITION(function,I31,J31)</f>
+        <v>0.1667956660984562</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0.13320433390154379</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>-8.077982727172639E-13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" cm="1">
+        <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
+        <v>0.16679566428065298</v>
+      </c>
+      <c r="D33">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2.2351741846282636E-9</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
+        <v>-1.0873885791795601E-8</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="array" ref="I33:J33">_xll.FALSE_POSITION(function,I32,J32)</f>
+        <v>0.16679566609854529</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K51" si="3">J33-I33</f>
+        <v>0.1332043339014547</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>-2.7478019859472624E-13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" cm="1">
+        <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
+        <v>0.16679566539824009</v>
+      </c>
+      <c r="D34">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.117587078436344E-9</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
+        <v>-4.1891073943034485E-9</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="array" ref="I34:J34">_xll.FALSE_POSITION(function,I33,J33)</f>
+        <v>0.16679566609857557</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.13320433390142442</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>-9.3702823278363212E-14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" cm="1">
+        <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
+        <v>0.16679566595703363</v>
+      </c>
+      <c r="D35">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.5879353921817199E-10</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
+        <v>-8.4671825106852339E-10</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="array" ref="I35:J35">_xll.FALSE_POSITION(function,I34,J34)</f>
+        <v>0.16679566609858593</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.13320433390141406</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>-3.1752378504279477E-14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" cm="1">
+        <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
+        <v>0.16679566595703363</v>
+      </c>
+      <c r="D36">
+        <v>0.16679566623643038</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.7939675573129819E-10</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
+        <v>-8.4671825106852339E-10</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="array" ref="I36:J36">_xll.FALSE_POSITION(function,I35,J35)</f>
+        <v>0.16679566609858942</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.13320433390141057</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>-1.099120794378905E-14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" cm="1">
+        <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D37">
+        <v>0.16679566623643038</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.3969836398786128E-10</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="array" ref="I37:J37">_xll.FALSE_POSITION(function,I36,J36)</f>
+        <v>0.16679566609859062</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.13320433390140937</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>-3.8857805861880479E-15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" cm="1">
+        <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D38">
+        <v>0.1667956661665812</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6.9849181993930642E-11</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="array" ref="I38:J38">_xll.FALSE_POSITION(function,I37,J37)</f>
+        <v>0.16679566609859103</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.13320433390140896</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>-1.2212453270876722E-15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" cm="1">
+        <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D39">
+        <v>0.16679566613165661</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3.4924590996965321E-11</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="array" ref="I39:J39">_xll.FALSE_POSITION(function,I38,J38)</f>
+        <v>0.16679566609859114</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.13320433390140884</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" cm="1">
+        <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D40">
+        <v>0.16679566611419433</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.7462309376270468E-11</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="array" ref="I40:J40">_xll.FALSE_POSITION(function,I39,J39)</f>
+        <v>0.1667956660985912</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.13320433390140879</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" cm="1">
+        <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D41">
+        <v>0.16679566610546318</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8.7311546881352342E-12</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="array" ref="I41:J41">_xll.FALSE_POSITION(function,I40,J40)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.13320433390140876</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" cm="1">
+        <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D42">
+        <v>0.16679566610109758</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4.3655634662798093E-12</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="array" ref="I42:J42">_xll.FALSE_POSITION(function,I41,J41)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" cm="1">
+        <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D43">
+        <v>0.1667956660989148</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2.1827817331399046E-12</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="array" ref="I43:J43">_xll.FALSE_POSITION(function,I42,J42)</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
+        <v>0.16679566609782343</v>
+      </c>
+      <c r="D44">
+        <v>0.1667956660989148</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.0913769887821445E-12</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
+        <v>-4.5926595859668851E-12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" cm="1">
+        <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
+        <v>0.1667956660983691</v>
+      </c>
+      <c r="D45">
+        <v>0.1667956660989148</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.4570237217888007E-13</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
+        <v>-1.3289369604763124E-12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" cm="1">
+        <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
+        <v>0.1667956660983691</v>
+      </c>
+      <c r="D46">
+        <v>0.16679566609864194</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2.7283730830163222E-13</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
+        <v>-1.3289369604763124E-12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" cm="1">
+        <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
+        <v>0.16679566609850552</v>
+      </c>
+      <c r="D47">
+        <v>0.16679566609864194</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.3641865415081611E-13</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
+        <v>-5.1281201507435981E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" cm="1">
+        <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
+        <v>0.16679566609857371</v>
+      </c>
+      <c r="D48">
+        <v>0.16679566609864194</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6.8223204863215869E-14</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
+        <v>-1.0480505352461478E-13</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" cm="1">
+        <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
+        <v>0.16679566609857371</v>
+      </c>
+      <c r="D49">
+        <v>0.16679566609860783</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>3.4111602431607935E-14</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
+        <v>-1.0480505352461478E-13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" cm="1">
+        <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D50">
+        <v>0.16679566609860783</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.7069679003611782E-14</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" cm="1">
+        <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D51">
+        <v>0.1667956660985993</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>8.5487172896137054E-15</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" cm="1">
+        <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D52">
+        <v>0.16679566609859503</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>4.2743586448068527E-15</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" cm="1">
+        <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D53">
+        <v>0.16679566609859289</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>2.1371793224034263E-15</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" cm="1">
+        <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D54">
+        <v>0.16679566609859181</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.0547118733938987E-15</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" cm="1">
+        <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
+        <v>0.16679566609859076</v>
+      </c>
+      <c r="D55">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>5.2735593669694936E-16</v>
+      </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" cm="1">
+        <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="D56">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B2A43-1547-4A04-B8BB-9DF6D2458464}">
+  <dimension ref="B2:Q57"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.C</f>
+        <v>-2102198200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
+        <v>-1.1960046346767577</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
+        <v>22683854</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
+        <v>22684824</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
+        <v>1.5169716847615065</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="array" ref="I7:J7">_xll.FALSE_POSITION(function,C3,C4)</f>
+        <v>1.4589473169832847</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K7">
+        <f>J7-I7</f>
+        <v>0.34105268301671532</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
+        <v>1.4405589292812713</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E57" si="0">D8-C8</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
+        <v>1.1139605656149092</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="array" ref="I8:J8">_xll.FALSE_POSITION(function,I7,J7)</f>
+        <v>1.6452908190293767</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>0.15470918097062336</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>0.93373529482834194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D9">
+        <v>1.8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
+        <v>0.61404985920124144</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="array" ref="I9:J9">_xll.FALSE_POSITION(function,I8,J8)</f>
+        <v>1.7131194870770408</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K51" si="1">J9-I9</f>
+        <v>8.6880512922959285E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>0.51030116646466472</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D10">
+        <v>1.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="array" ref="I10:J10">_xll.FALSE_POSITION(function,I9,J9)</f>
+        <v>1.7391026532000045</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.0897346799995589E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>0.25242931794235723</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D11">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="array" ref="I11:J11">_xll.FALSE_POSITION(function,I10,J10)</f>
+        <v>1.7497156850813862</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>5.0284314918613848E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>0.11821083424804374</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C12" cm="1">
+        <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D12">
+        <v>1.7625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="array" ref="I12:J12">_xll.FALSE_POSITION(function,I11,J11)</f>
+        <v>1.7542386502698755</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.5761349730124579E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>5.3852495541040067E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" cm="1">
+        <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.7625</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="array" ref="I13:J13">_xll.FALSE_POSITION(function,I12,J12)</f>
+        <v>1.7562103659345802</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.3789634065419802E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>2.4215278066760219E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" cm="1">
+        <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="array" ref="I14:J14">_xll.FALSE_POSITION(function,I13,J13)</f>
+        <v>1.7570793717213746</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.2920628278625417E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>1.0823764943083252E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" cm="1">
+        <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.7578125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="array" ref="I15:J15">_xll.FALSE_POSITION(function,I14,J14)</f>
+        <v>1.7574643169147786</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4.2535683085221487E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>4.8250022853870769E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
+        <v>1.75703125</v>
+      </c>
+      <c r="D16">
+        <v>1.7578125</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
+        <v>1.1570760192645028E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="array" ref="I16:J16">_xll.FALSE_POSITION(function,I15,J15)</f>
+        <v>1.7576352277265872</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4.2364772273412843E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>2.1482916729410615E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" cm="1">
+        <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
+        <v>1.7574218749999999</v>
+      </c>
+      <c r="D17">
+        <v>1.7578125</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
+        <v>5.4884281423483693E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="array" ref="I17:J17">_xll.FALSE_POSITION(function,I16,J16)</f>
+        <v>1.7577111878861786</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.2288812113821406E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>9.5599473947151781E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" cm="1">
+        <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
+        <v>1.7576171875</v>
+      </c>
+      <c r="D18">
+        <v>1.7578125</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
+        <v>2.4312171733975305E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="array" ref="I18:J18">_xll.FALSE_POSITION(function,I17,J17)</f>
+        <v>1.7577449633345317</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.2255036665468371E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>4.2531802420047967E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
+        <v>1.7577148437500001</v>
+      </c>
+      <c r="D19">
+        <v>1.7578125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
+        <v>8.9856977481273675E-4</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="array" ref="I19:J19">_xll.FALSE_POSITION(function,I18,J18)</f>
+        <v>1.7577599845471541</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.2240015452845947E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>1.8920203369262063E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" cm="1">
+        <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D20">
+        <v>1.7578125</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="array" ref="I20:J20">_xll.FALSE_POSITION(function,I19,J19)</f>
+        <v>1.7577666656523241</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.2233334347675955E-2</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>8.4162228267112499E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D21">
+        <v>1.7577880859374999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="array" ref="I21:J21">_xll.FALSE_POSITION(function,I20,J20)</f>
+        <v>1.7577696373811247</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>4.2230362618875361E-2</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>3.7436866597947921E-5</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" cm="1">
+        <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D22">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="array" ref="I22:J22">_xll.FALSE_POSITION(function,I21,J21)</f>
+        <v>1.7577709592179473</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.2229040782052696E-2</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>1.6652432596528626E-5</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="9">
+        <f>C57</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="P22" s="9">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" cm="1">
+        <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D23">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="array" ref="I23:J23">_xll.FALSE_POSITION(function,I22,J22)</f>
+        <v>1.7577715471809399</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>4.222845281906018E-2</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>7.4071998959084565E-6</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="10">
+        <f>I51</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="P23" s="9">
+        <f>L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" cm="1">
+        <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D24">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="array" ref="I24:J24">_xll.FALSE_POSITION(function,I23,J23)</f>
+        <v>1.757771808712246</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>4.2228191287754013E-2</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>3.2948044139732438E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" cm="1">
+        <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D25">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="array" ref="I25:J25">_xll.FALSE_POSITION(function,I24,J24)</f>
+        <v>1.7577719250439421</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>4.2228074956057959E-2</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>1.4655642254013908E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" cm="1">
+        <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D26">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="array" ref="I26:J26">_xll.FALSE_POSITION(function,I25,J25)</f>
+        <v>1.7577719767894606</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>4.2228023210539423E-2</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>6.518983954981754E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" cm="1">
+        <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
+        <v>1.757771682739258</v>
+      </c>
+      <c r="D27">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
+        <v>5.275643301520878E-6</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="array" ref="I27:J27">_xll.FALSE_POSITION(function,I26,J26)</f>
+        <v>1.7577719998063994</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>4.2228000193600623E-2</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>2.8997122273581861E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" cm="1">
+        <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
+        <v>1.7577718734741212</v>
+      </c>
+      <c r="D28">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
+        <v>2.2764665606997894E-6</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="array" ref="I28:J28">_xll.FALSE_POSITION(function,I27,J27)</f>
+        <v>1.757772010044572</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>4.2227989955428091E-2</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>1.2898222102333842E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" cm="1">
+        <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="D29">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
+        <v>7.7687431264962918E-7</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="array" ref="I29:J29">_xll.FALSE_POSITION(function,I28,J28)</f>
+        <v>1.7577720145986171</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4.222798540138295E-2</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>5.7372640102733229E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" cm="1">
+        <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D30">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="array" ref="I30:J30">_xll.FALSE_POSITION(function,I29,J29)</f>
+        <v>1.757772016624304</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>4.2227983375695999E-2</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>2.5519944942481611E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D31">
+        <v>1.7577720403671266</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="array" ref="I31:J31">_xll.FALSE_POSITION(function,I30,J30)</f>
+        <v>1.7577720175253504</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>4.222798247464965E-2</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>1.1351540087875821E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" cm="1">
+        <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D32">
+        <v>1.7577720284461975</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="array" ref="I32:J32">_xll.FALSE_POSITION(function,I31,J31)</f>
+        <v>1.7577720179261456</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>4.2227982073854475E-2</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>5.0492800923928817E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" cm="1">
+        <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D33">
+        <v>1.7577720224857329</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="array" ref="I33:J33">_xll.FALSE_POSITION(function,I32,J32)</f>
+        <v>1.757772018104423</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>4.2227981895577082E-2</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>2.2459758472239699E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" cm="1">
+        <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D34">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="array" ref="I34:J34">_xll.FALSE_POSITION(function,I33,J33)</f>
+        <v>1.7577720181837229</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>4.2227981816277183E-2</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>9.9903196776386538E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" cm="1">
+        <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D35">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="array" ref="I35:J35">_xll.FALSE_POSITION(function,I34,J34)</f>
+        <v>1.7577720182189962</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>4.2227981781003843E-2</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>4.4438053227298722E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" cm="1">
+        <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D36">
+        <v>1.7577720187604429</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="array" ref="I36:J36">_xll.FALSE_POSITION(function,I35,J35)</f>
+        <v>1.7577720182346863</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>4.2227981765313727E-2</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>1.9766410728472732E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" cm="1">
+        <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D37">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="array" ref="I37:J37">_xll.FALSE_POSITION(function,I36,J36)</f>
+        <v>1.7577720182416654</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>4.2227981758334643E-2</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>8.7920781762250369E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" cm="1">
+        <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D38">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="array" ref="I38:J38">_xll.FALSE_POSITION(function,I37,J37)</f>
+        <v>1.7577720182447698</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>4.2227981755230237E-2</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>3.9104719461792521E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" cm="1">
+        <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D39">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="array" ref="I39:J39">_xll.FALSE_POSITION(function,I38,J38)</f>
+        <v>1.7577720182461507</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>4.2227981753849342E-2</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>1.7392309814416607E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" cm="1">
+        <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D40">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="array" ref="I40:J40">_xll.FALSE_POSITION(function,I39,J39)</f>
+        <v>1.7577720182467644</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>4.2227981753235611E-2</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>7.7431394629157129E-12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" cm="1">
+        <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
+        <v>1.7577720182249323</v>
+      </c>
+      <c r="D41">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
+        <v>3.5104008582698413E-10</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="array" ref="I41:J41">_xll.FALSE_POSITION(function,I40,J40)</f>
+        <v>1.7577720182470378</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>4.2227981752962274E-2</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>3.444355911591154E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" cm="1">
+        <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
+        <v>1.7577720182365739</v>
+      </c>
+      <c r="D42">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
+        <v>1.6798118450377585E-10</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="array" ref="I42:J42">_xll.FALSE_POSITION(function,I41,J41)</f>
+        <v>1.7577720182471597</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>4.2227981752840371E-2</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>1.5276668818830485E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" cm="1">
+        <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
+        <v>1.7577720182423948</v>
+      </c>
+      <c r="D43">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
+        <v>7.6450845651185615E-11</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="array" ref="I43:J43">_xll.FALSE_POSITION(function,I42,J42)</f>
+        <v>1.7577720182472136</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>4.2227981752786414E-2</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>6.7856831265066546E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
+        <v>1.7577720182453052</v>
+      </c>
+      <c r="D44">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
+        <v>3.0688340757007842E-11</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="array" ref="I44:J44">_xll.FALSE_POSITION(function,I43,J43)</f>
+        <v>1.7577720182472374</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>4.2227981752762656E-2</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>3.0375701953739668E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" cm="1">
+        <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D45">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="array" ref="I45:J45">_xll.FALSE_POSITION(function,I44,J44)</f>
+        <v>1.757772018247248</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>4.2227981752751997E-2</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>1.3677947663380992E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" cm="1">
+        <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D46">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="array" ref="I46:J46">_xll.FALSE_POSITION(function,I45,J45)</f>
+        <v>1.7577720182472527</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>4.2227981752747334E-2</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>6.3948846218406972E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" cm="1">
+        <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D47">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="array" ref="I47:J47">_xll.FALSE_POSITION(function,I46,J46)</f>
+        <v>1.7577720182472547</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>4.2227981752745336E-2</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>3.3750779948604191E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" cm="1">
+        <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D48">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="array" ref="I48:J48">_xll.FALSE_POSITION(function,I47,J47)</f>
+        <v>1.757772018247256</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>4.2227981752744004E-2</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>1.0658141036401446E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49" cm="1">
+        <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D49">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="array" ref="I49:J49">_xll.FALSE_POSITION(function,I48,J48)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743782E-2</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C50" cm="1">
+        <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D50">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="array" ref="I50:J50">_xll.FALSE_POSITION(function,I49,J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C51" cm="1">
+        <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
+        <v>1.7577720182472376</v>
+      </c>
+      <c r="D51">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
+        <v>3.0198066269799699E-13</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="array" ref="I51:J51">_xll.FALSE_POSITION(function,I50,J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52" cm="1">
+        <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
+        <v>1.7577720182472492</v>
+      </c>
+      <c r="D52">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
+        <v>1.2079226507920974E-13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C53" cm="1">
+        <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D53">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C54" cm="1">
+        <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D54">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C55" cm="1">
+        <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D55">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" cm="1">
+        <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D56">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C57" cm="1">
+        <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D57">
+        <v>1.7577720182472569</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiqi\source\repos\xllfloat_homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6253FA1-9809-4334-B672-B2F1F8B78FF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12312" activeTab="2" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KAHAN.A" sheetId="1" r:id="rId1"/>
+    <sheet name="KAHAN.B" sheetId="2" r:id="rId2"/>
+    <sheet name="KAHAN.C" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="function">Sheet1!$C$2</definedName>
-    <definedName name="xvalues">_xll.ARRAY.GET(Sheet1!$N$5)</definedName>
-    <definedName name="yvalues">_xll.ARRAY.GET(Sheet1!$O$5)</definedName>
+    <definedName name="function">KAHAN.A!$C$2</definedName>
+    <definedName name="xvalues">_xll.ARRAY.GET(KAHAN.A!$N$5)</definedName>
+    <definedName name="yvalues">_xll.ARRAY.GET(KAHAN.A!$O$5)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +30,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>Bisect</t>
   </si>
@@ -91,12 +90,24 @@
   <si>
     <t>!!!Add enough rows so kahan_a,b,and c all converge.</t>
   </si>
+  <si>
+    <t>plot:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PLOT:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +118,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -165,6 +184,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -198,6 +225,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KAHAN.A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,13 +269,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -230,649 +294,189 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>kahan</c:v>
+            <c:strRef>
+              <c:f>KAHAN.A!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>[0]!xvalues</c:f>
+              <c:f>KAHAN.A!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0404040404040404</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0808080808080809</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212121212121211</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1616161616161615</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.202020202020202</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2424242424242424</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.2828282828282829</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.3636363636363638</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.404040404040404</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.4444444444444444</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.4848484848484849</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.5252525252525253</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.5656565656565657</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.606060606060606</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.6868686868686869</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.7272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.7676767676767677</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>[0]!yvalues</c:f>
+              <c:f>KAHAN.A!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>4.08449375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>4.1359000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>4.1509937499999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0707466607111975</c:v>
+                  <c:v>4.1263999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
+                  <c:v>4.05859375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>3.9439000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>3.7784937500000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1202831562875222</c:v>
+                  <c:v>3.5583999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
+                  <c:v>3.2794937499999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
+                  <c:v>2.9375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>2.5279937500000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469305290993246</c:v>
+                  <c:v>2.0464000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
+                  <c:v>1.4879937500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
+                  <c:v>0.84790000000000099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
+                  <c:v>0.12109375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1489458612263022</c:v>
+                  <c:v>-0.69759999999999955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
+                  <c:v>-1.6135062500000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
+                  <c:v>-2.6320999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
+                  <c:v>-3.7590062499999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.124522274457501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0717889302913104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9888110299354667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7240625640325113</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.5381025994476083</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.31351928059747</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.0480580072365706</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.7394002188287248</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.3851633945470994</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.9829010532742082</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.024194093831392</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.46253671197322532</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.15757171425269867</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9DB-456F-9309-8BDD1F9E79D3}"/>
+              <c16:uniqueId val="{00000000-EDD3-49B3-A2C1-92C13F2B1D11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -884,30 +488,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1620144863"/>
-        <c:axId val="1611889647"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1620144863"/>
+        <c:smooth val="0"/>
+        <c:axId val="2119592015"/>
+        <c:axId val="2066570431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2119592015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -916,9 +565,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -932,9 +581,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -945,12 +593,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611889647"/>
+        <c:crossAx val="2066570431"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1611889647"/>
+        <c:axId val="2066570431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,9 +611,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -970,6 +621,491 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t> Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119592015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KAHAN.B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KAHAN.B!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KAHAN.B!$M$2:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KAHAN.B!$N$2:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.63212055882855767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.60937216854775722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.58521715468367919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.55956870224349642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53233477021461151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50341779985704016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.47271440962248479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.44011507643299541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.40550380309273737</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.36875777165435086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3297469826174757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.28833387990200376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.24437296161336708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.19771037670256164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.14818350772058508</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.5620539976518537E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9840017531624361E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9349613400361898E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2150472923026685E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14877572690301588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21945007630916669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-597A-4E75-970B-549F020E6E31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054171967"/>
+        <c:axId val="1844926799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054171967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -978,9 +1114,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -994,9 +1130,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1007,9 +1142,120 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620144863"/>
+        <c:crossAx val="1844926799"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844926799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054171967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1021,27 +1267,940 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KAHAN.C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KAHAN.C!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KAHAN.C!$M$2:$M$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KAHAN.C!$N$2:$N$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6133096057473884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6169233941796408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6202771926091701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.623368714649863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6261954670222203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6287547433189364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6310436171303588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6330589344910011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6347973056037144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.636255095793125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.637428415634427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6383131101975512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6389047473399829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6391986049740386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6391896572260822</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6388725593958813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6382416316139157</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6372908410828091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6360137827759778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6344036584518482</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6324532538253782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6301549137198026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6275005150002031</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.624481437066277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6210885296540756</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6173120776650005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6131417627042917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6085666209699085</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6035749970851556</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5981544934136136</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5922919143315686</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5859732048597075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5791833829704884</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5719064647880829</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5641253817814194</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.555821888914364</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5469764625564186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5375681867675914</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5275746263462784</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5169716847615065</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5057334447715287</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4938319891477916</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4812371984622343</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.467916522338176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4538347198874735</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4389535642292473</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4232315049700346</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.406623281272235</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3890794765826826</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3705460041517514</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3509635100340096</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3302666771756413</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3083834102623439</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2852338759541306</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2607293666010257</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.234770947005621</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2072478325616116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1780354321436872</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1469929690104816</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1139605656149092</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0787556405128291</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0411684129113139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0009562357872155</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95783637106044062</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91147666281590012</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86148332918162951</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80738473397117805</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.74860943673743552</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68445591570042996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61404985920124333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.53628234825093712</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44971765315534612</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.35245074757064193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.24187756078286488</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11430477128005863</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.5757507379225208E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.21699053251933142</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.4443492315141308</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.74708989735900511</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.1960046346767577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-030B-49D7-A1D0-8660FDBCFDE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2122785695"/>
+        <c:axId val="1952258159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2122785695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1952258159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1952258159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122785695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1103,36 +2262,114 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1140,26 +2377,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1168,9 +2413,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1189,14 +2433,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1205,20 +2441,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1227,13 +2463,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1245,10 +2481,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1257,18 +2493,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1284,21 +2521,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1317,14 +2551,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1336,14 +2569,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1357,9 +2590,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1373,12 +2605,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1390,9 +2616,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1407,14 +2633,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1426,14 +2651,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1445,14 +2670,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1461,14 +2685,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1476,7 +2699,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1489,11 +2712,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1501,14 +2734,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1520,12 +2753,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1541,7 +2781,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1550,9 +2789,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1568,14 +2806,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1584,22 +2821,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1609,12 +2834,998 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1623,23 +3834,105 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB3BBCD-13FF-4D41-84A3-A320742D6B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>62932</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96611</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311019</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85531</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75506F0C-902A-4F97-ABFD-C8CAC1283D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD84BFCA-2B7C-4CCF-AEBA-8302159AF099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D935C46-14E5-4E6C-81AA-272A5555B0EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,21 +4250,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1979,8 +4284,15 @@
         <f t="array" ref="C2">_xll.KAHAN.A</f>
         <v>-1412235196</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="array" ref="P2">_xll.XLL.UDF(_xll.KAHAN.A,O2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1994,8 +4306,15 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="O3">
+        <v>1.05</v>
+      </c>
+      <c r="P3">
+        <f t="array" ref="P3">_xll.XLL.UDF(_xll.KAHAN.A,O3)</f>
+        <v>4.08449375</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2006,18 +4325,24 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="N5" cm="1">
-        <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
-      </c>
-      <c r="O5" cm="1">
-        <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4">
+        <f t="array" ref="P4">_xll.XLL.UDF(_xll.KAHAN.A,O4)</f>
+        <v>4.1359000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P5">
+        <f t="array" ref="P5">_xll.XLL.UDF(_xll.KAHAN.A,O5)</f>
+        <v>4.1509937499999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +4367,16 @@
       <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="O6">
+        <v>1.2</v>
+      </c>
+      <c r="P6">
+        <f t="array" ref="P6">_xll.XLL.UDF(_xll.KAHAN.A,O6)</f>
+        <v>4.1263999999999994</v>
+      </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,16 +4398,30 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE_POSITION(_xll.KAHAN.A,C3,C4)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" cm="1">
-        <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L7">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I7)</f>
+        <v>3.31351928059747</v>
+      </c>
+      <c r="O7">
+        <v>1.25</v>
+      </c>
+      <c r="P7">
+        <f t="array" ref="P7">_xll.XLL.UDF(_xll.KAHAN.A,O7)</f>
+        <v>4.05859375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
         <v>1.75</v>
@@ -2091,8 +4437,30 @@
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE_POSITION(_xll.KAHAN.A,I7,J7)</f>
+        <v>1.6658722156017967</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>0.33412778439820334</v>
+      </c>
+      <c r="L8">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I8)</f>
+        <v>1.2938854517857425</v>
+      </c>
+      <c r="O8">
+        <v>1.3</v>
+      </c>
+      <c r="P8">
+        <f t="array" ref="P8">_xll.XLL.UDF(_xll.KAHAN.A,O8)</f>
+        <v>3.9439000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
         <v>1.75</v>
@@ -2108,8 +4476,30 @@
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE_POSITION(_xll.KAHAN.A,I8,J8)</f>
+        <v>1.7345615939805494</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K33" si="1">J9-I9</f>
+        <v>0.26543840601945057</v>
+      </c>
+      <c r="L9">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I9)</f>
+        <v>0.35507026572820344</v>
+      </c>
+      <c r="O9">
+        <v>1.35</v>
+      </c>
+      <c r="P9">
+        <f t="array" ref="P9">_xll.XLL.UDF(_xll.KAHAN.A,O9)</f>
+        <v>3.7784937500000009</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
@@ -2125,8 +4515,30 @@
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE_POSITION(_xll.KAHAN.A,I9,J9)</f>
+        <v>1.7521616030715563</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.24783839692844367</v>
+      </c>
+      <c r="L10">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I10)</f>
+        <v>8.7638074160922841E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.4</v>
+      </c>
+      <c r="P10">
+        <f t="array" ref="P10">_xll.XLL.UDF(_xll.KAHAN.A,O10)</f>
+        <v>3.5583999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
@@ -2142,8 +4554,30 @@
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE_POSITION(_xll.KAHAN.A,I10,J10)</f>
+        <v>1.7564307903630523</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.24356920963694773</v>
+      </c>
+      <c r="L11">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I11)</f>
+        <v>2.1056661126134912E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.45</v>
+      </c>
+      <c r="P11">
+        <f t="array" ref="P11">_xll.XLL.UDF(_xll.KAHAN.A,O11)</f>
+        <v>3.2794937499999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
@@ -2159,8 +4593,30 @@
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE_POSITION(_xll.KAHAN.A,I11,J11)</f>
+        <v>1.7574522395627383</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.24254776043726167</v>
+      </c>
+      <c r="L12">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I12)</f>
+        <v>5.026429905560903E-3</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <f t="array" ref="P12">_xll.XLL.UDF(_xll.KAHAN.A,O12)</f>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
         <v>1.75</v>
@@ -2176,8 +4632,30 @@
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE_POSITION(_xll.KAHAN.A,I12,J12)</f>
+        <v>1.7576958245534797</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.24230417544652028</v>
+      </c>
+      <c r="L13">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I13)</f>
+        <v>1.1979918895814734E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.55</v>
+      </c>
+      <c r="P13">
+        <f t="array" ref="P13">_xll.XLL.UDF(_xll.KAHAN.A,O13)</f>
+        <v>2.5279937500000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
         <v>1.75390625</v>
@@ -2193,8 +4671,30 @@
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
         <v>6.0510217910632491E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE_POSITION(_xll.KAHAN.A,I13,J13)</f>
+        <v>1.7577538663341625</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.24224613366583747</v>
+      </c>
+      <c r="L14">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I14)</f>
+        <v>2.8542168946543711E-4</v>
+      </c>
+      <c r="O14">
+        <v>1.6</v>
+      </c>
+      <c r="P14">
+        <f t="array" ref="P14">_xll.XLL.UDF(_xll.KAHAN.A,O14)</f>
+        <v>2.0464000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
         <v>1.755859375</v>
@@ -2210,8 +4710,30 @@
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
         <v>3.0007383538759314E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE_POSITION(_xll.KAHAN.A,I14,J14)</f>
+        <v>1.7577676940049665</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.24223230599503354</v>
+      </c>
+      <c r="L15">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I15)</f>
+        <v>6.7995734386983031E-5</v>
+      </c>
+      <c r="O15">
+        <v>1.65</v>
+      </c>
+      <c r="P15">
+        <f t="array" ref="P15">_xll.XLL.UDF(_xll.KAHAN.A,O15)</f>
+        <v>1.4879937500000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
         <v>1.7568359375</v>
@@ -2227,8 +4749,30 @@
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
         <v>1.4703062041917292E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE_POSITION(_xll.KAHAN.A,I15,J15)</f>
+        <v>1.7577709881128771</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.24222901188712287</v>
+      </c>
+      <c r="L16">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I16)</f>
+        <v>1.6198217164031803E-5</v>
+      </c>
+      <c r="O16">
+        <v>1.7</v>
+      </c>
+      <c r="P16">
+        <f t="array" ref="P16">_xll.XLL.UDF(_xll.KAHAN.A,O16)</f>
+        <v>0.84790000000000099</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
         <v>1.75732421875</v>
@@ -2244,8 +4788,30 @@
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
         <v>7.0376580442257364E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE_POSITION(_xll.KAHAN.A,I16,J16)</f>
+        <v>1.7577717728459625</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.24222822715403747</v>
+      </c>
+      <c r="L17">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I17)</f>
+        <v>3.8587850408333679E-6</v>
+      </c>
+      <c r="O17">
+        <v>1.75</v>
+      </c>
+      <c r="P17">
+        <f t="array" ref="P17">_xll.XLL.UDF(_xll.KAHAN.A,O17)</f>
+        <v>0.12109375</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
         <v>1.757568359375</v>
@@ -2261,8 +4827,30 @@
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
         <v>3.2016430855001943E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE_POSITION(_xll.KAHAN.A,I17,J17)</f>
+        <v>1.7577719597871502</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.24222804021284983</v>
+      </c>
+      <c r="L18">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I18)</f>
+        <v>9.1924957246192207E-7</v>
+      </c>
+      <c r="O18">
+        <v>1.8</v>
+      </c>
+      <c r="P18">
+        <f t="array" ref="P18">_xll.XLL.UDF(_xll.KAHAN.A,O18)</f>
+        <v>-0.69759999999999955</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
         <v>1.7576904296875</v>
@@ -2278,8 +4866,30 @@
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
         <v>1.2828070976524941E-3</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE_POSITION(_xll.KAHAN.A,I18,J18)</f>
+        <v>1.7577720043207465</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.24222799567925346</v>
+      </c>
+      <c r="L19">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I19)</f>
+        <v>2.1898590318869537E-7</v>
+      </c>
+      <c r="O19">
+        <v>1.85</v>
+      </c>
+      <c r="P19">
+        <f t="array" ref="P19">_xll.XLL.UDF(_xll.KAHAN.A,O19)</f>
+        <v>-1.6135062500000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
         <v>1.75775146484375</v>
@@ -2295,8 +4905,30 @@
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE_POSITION(_xll.KAHAN.A,I19,J19)</f>
+        <v>1.7577720149296494</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.24222798507035059</v>
+      </c>
+      <c r="L20">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I20)</f>
+        <v>5.2167358433052868E-8</v>
+      </c>
+      <c r="O20">
+        <v>1.9</v>
+      </c>
+      <c r="P20">
+        <f t="array" ref="P20">_xll.XLL.UDF(_xll.KAHAN.A,O20)</f>
+        <v>-2.6320999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
         <v>1.75775146484375</v>
@@ -2312,8 +4944,30 @@
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE_POSITION(_xll.KAHAN.A,I20,J20)</f>
+        <v>1.7577720174569282</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.24222798254307176</v>
+      </c>
+      <c r="L21">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I21)</f>
+        <v>1.2427435081008298E-8</v>
+      </c>
+      <c r="O21">
+        <v>1.95</v>
+      </c>
+      <c r="P21">
+        <f t="array" ref="P21">_xll.XLL.UDF(_xll.KAHAN.A,O21)</f>
+        <v>-3.7590062499999988</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
         <v>1.7577667236328125</v>
@@ -2329,8 +4983,30 @@
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE_POSITION(_xll.KAHAN.A,I21,J21)</f>
+        <v>1.7577720180589826</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.24222798194101736</v>
+      </c>
+      <c r="L22">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I22)</f>
+        <v>2.9604958484696908E-9</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="array" ref="P22">_xll.XLL.UDF(_xll.KAHAN.A,O22)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
         <v>1.7577667236328125</v>
@@ -2346,8 +5022,23 @@
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE_POSITION(_xll.KAHAN.A,I22,J22)</f>
+        <v>1.7577720182024057</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.24222798179759431</v>
+      </c>
+      <c r="L23">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I23)</f>
+        <v>7.0525629780604504E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
         <v>1.7577705383300781</v>
@@ -2363,8 +5054,23 @@
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE_POSITION(_xll.KAHAN.A,I23,J23)</f>
+        <v>1.7577720182365724</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.24222798176342764</v>
+      </c>
+      <c r="L24">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I24)</f>
+        <v>1.6800605351363629E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
         <v>1.7577705383300781</v>
@@ -2380,8 +5086,23 @@
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE_POSITION(_xll.KAHAN.A,I24,J24)</f>
+        <v>1.7577720182447114</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.24222798175528859</v>
+      </c>
+      <c r="L25">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I25)</f>
+        <v>4.0024872305366443E-11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
         <v>1.7577714920043945</v>
@@ -2397,8 +5118,23 @@
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
         <v>8.2748439389490613E-6</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE_POSITION(_xll.KAHAN.A,I25,J25)</f>
+        <v>1.7577720182466505</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.24222798175334948</v>
+      </c>
+      <c r="L26">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I26)</f>
+        <v>9.5337071570611442E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
         <v>1.7577719688415527</v>
@@ -2414,8 +5150,23 @@
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE_POSITION(_xll.KAHAN.A,I26,J26)</f>
+        <v>1.7577720182471124</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.24222798175288762</v>
+      </c>
+      <c r="L27">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I27)</f>
+        <v>2.2701840407535201E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
         <v>1.7577719688415527</v>
@@ -2431,8 +5182,23 @@
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE_POSITION(_xll.KAHAN.A,I27,J27)</f>
+        <v>1.7577720182472223</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.24222798175277771</v>
+      </c>
+      <c r="L28">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I28)</f>
+        <v>5.4178883601707639E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
@@ -2448,8 +5214,23 @@
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE_POSITION(_xll.KAHAN.A,I28,J28)</f>
+        <v>1.7577720182472485</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.24222798175275151</v>
+      </c>
+      <c r="L29">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I29)</f>
+        <v>1.3145040611561853E-13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
         <v>1.7577719688415527</v>
@@ -2465,8 +5246,23 @@
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE_POSITION(_xll.KAHAN.A,I29,J29)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274507</v>
+      </c>
+      <c r="L30">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I30)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
         <v>1.7577719986438751</v>
@@ -2482,8 +5278,23 @@
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
         <v>3.0825125207911697E-7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE_POSITION(_xll.KAHAN.A,I30,J30)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274374</v>
+      </c>
+      <c r="L31">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I31)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
         <v>1.7577720135450363</v>
@@ -2499,8 +5310,23 @@
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE_POSITION(_xll.KAHAN.A,I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L32">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
         <v>1.7577720135450363</v>
@@ -2516,8 +5342,23 @@
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE_POSITION(_xll.KAHAN.A,I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>_xll.XLL.UDF(_xll.KAHAN.A,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
         <v>1.7577720172703266</v>
@@ -2534,7 +5375,7 @@
         <v>1.5361633742827507E-8</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
         <v>1.7577720172703266</v>
@@ -2551,7 +5392,7 @@
         <v>1.5361633742827507E-8</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
         <v>1.7577720182016492</v>
@@ -2568,7 +5409,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
         <v>1.7577720182016492</v>
@@ -2585,7 +5426,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
         <v>1.7577720182016492</v>
@@ -2602,7 +5443,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
         <v>1.7577720182016492</v>
@@ -2619,7 +5460,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
         <v>1.7577720182016492</v>
@@ -2636,7 +5477,7 @@
         <v>7.1715255955950852E-10</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
         <v>1.757772018230753</v>
@@ -2653,7 +5494,7 @@
         <v>2.5951152338166139E-10</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
         <v>1.7577720182453049</v>
@@ -2670,7 +5511,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
         <v>1.7577720182453049</v>
@@ -2687,7 +5528,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
         <v>1.7577720182453049</v>
@@ -2704,7 +5545,7 @@
         <v>3.0691893471157528E-11</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
@@ -2721,7 +5562,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
         <v>1.7577720182471239</v>
@@ -2738,7 +5579,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
@@ -2755,7 +5596,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
@@ -2772,7 +5613,7 @@
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
         <v>1.7577720182472376</v>
@@ -2789,7 +5630,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
         <v>1.7577720182472376</v>
@@ -2806,7 +5647,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
@@ -2823,7 +5664,7 @@
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
         <v>1.7577720182472518</v>
@@ -2840,7 +5681,7 @@
         <v>7.815970093361102E-14</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
         <v>1.7577720182472518</v>
@@ -2857,7 +5698,7 @@
         <v>7.815970093361102E-14</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
         <v>1.7577720182472554</v>
@@ -2874,7 +5715,7 @@
         <v>2.3092638912203256E-14</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
         <v>1.7577720182472554</v>
@@ -2891,7 +5732,7 @@
         <v>2.3092638912203256E-14</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
@@ -2908,7 +5749,7 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
@@ -2930,4 +5771,3585 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D803F-B4C6-45AF-B89A-490743637EE2}">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4">
+        <f t="array" ref="B1">_xll.KAHAN.B</f>
+        <v>-434044818</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="array" ref="C2">_xll.XLL.UDF(_xll.KAHAN.B,B2)</f>
+        <v>-0.63212055882855767</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="array" ref="N2">_xll.XLL.UDF(_xll.KAHAN.B,M2)</f>
+        <v>-0.63212055882855767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3">_xll.XLL.UDF(_xll.KAHAN.B,B3)</f>
+        <v>0.21945007630916669</v>
+      </c>
+      <c r="M3">
+        <v>0.01</v>
+      </c>
+      <c r="N3">
+        <f t="array" ref="N3">_xll.XLL.UDF(_xll.KAHAN.B,M3)</f>
+        <v>-0.60937216854775722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <f t="array" ref="N4">_xll.XLL.UDF(_xll.KAHAN.B,M4)</f>
+        <v>-0.58521715468367919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>0.03</v>
+      </c>
+      <c r="N5">
+        <f t="array" ref="N5">_xll.XLL.UDF(_xll.KAHAN.B,M5)</f>
+        <v>-0.55956870224349642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f t="array" ref="B6:C6">_xll.BISECT(_xll.KAHAN.B,B2,B3)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">_xll.XLL.UDF(_xll.KAHAN.B,B6)</f>
+        <v>-0.3297469826174757</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <f t="array" ref="H6:I6">_xll.FALSE_POSITION(_xll.KAHAN.B,B2,B3)</f>
+        <v>0.14845992399123178</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <f t="array" ref="K6">_xll.XLL.UDF(_xll.KAHAN.B,H6)</f>
+        <v>-0.10392058134012183</v>
+      </c>
+      <c r="M6">
+        <v>0.04</v>
+      </c>
+      <c r="N6">
+        <f t="array" ref="N6">_xll.XLL.UDF(_xll.KAHAN.B,M6)</f>
+        <v>-0.53233477021461151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="array" ref="B7:C7">_xll.BISECT(_xll.KAHAN.B,B6,C6)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D58" si="0">C7-B7</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">_xll.XLL.UDF(_xll.KAHAN.B,B7)</f>
+        <v>-9.5620539976518315E-2</v>
+      </c>
+      <c r="H7">
+        <f t="array" ref="H7:I7">_xll.FALSE_POSITION(_xll.KAHAN.B,H6,I6)</f>
+        <v>0.16502319135779103</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <f t="array" ref="K7">_xll.XLL.UDF(_xll.KAHAN.B,H7)</f>
+        <v>-1.0546461218628789E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.05</v>
+      </c>
+      <c r="N7">
+        <f t="array" ref="N7">_xll.XLL.UDF(_xll.KAHAN.B,M7)</f>
+        <v>-0.50341779985704016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="array" ref="B8:C8">_xll.BISECT(_xll.KAHAN.B,B7,C7)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">_xll.XLL.UDF(_xll.KAHAN.B,B8)</f>
+        <v>-9.5620539976518315E-2</v>
+      </c>
+      <c r="H8">
+        <f t="array" ref="H8:I8">_xll.FALSE_POSITION(_xll.KAHAN.B,H7,I7)</f>
+        <v>0.16662704835434203</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <f t="array" ref="K8">_xll.XLL.UDF(_xll.KAHAN.B,H8)</f>
+        <v>-1.008072954058914E-3</v>
+      </c>
+      <c r="M8">
+        <v>0.06</v>
+      </c>
+      <c r="N8">
+        <f t="array" ref="N8">_xll.XLL.UDF(_xll.KAHAN.B,M8)</f>
+        <v>-0.47271440962248479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="array" ref="B9:C9">_xll.BISECT(_xll.KAHAN.B,B8,C8)</f>
+        <v>0.16250000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999983E-2</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">_xll.XLL.UDF(_xll.KAHAN.B,B9)</f>
+        <v>-2.5369924809050426E-2</v>
+      </c>
+      <c r="H9">
+        <f t="array" ref="H9:I9">_xll.FALSE_POSITION(_xll.KAHAN.B,H8,I8)</f>
+        <v>0.16677965042445619</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <f t="array" ref="K9">_xll.XLL.UDF(_xll.KAHAN.B,H9)</f>
+        <v>-9.579222349398453E-5</v>
+      </c>
+      <c r="M9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N9">
+        <f t="array" ref="N9">_xll.XLL.UDF(_xll.KAHAN.B,M9)</f>
+        <v>-0.44011507643299541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="array" ref="B10:C10">_xll.BISECT(_xll.KAHAN.B,B9,C9)</f>
+        <v>0.16250000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">_xll.XLL.UDF(_xll.KAHAN.B,B10)</f>
+        <v>-2.5369924809050426E-2</v>
+      </c>
+      <c r="H10">
+        <f t="array" ref="H10:I10">_xll.FALSE_POSITION(_xll.KAHAN.B,H9,I9)</f>
+        <v>0.16679414512286414</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <f t="array" ref="K10">_xll.XLL.UDF(_xll.KAHAN.B,H10)</f>
+        <v>-9.0975816962046707E-6</v>
+      </c>
+      <c r="M10">
+        <v>0.08</v>
+      </c>
+      <c r="N10">
+        <f t="array" ref="N10">_xll.XLL.UDF(_xll.KAHAN.B,M10)</f>
+        <v>-0.40550380309273737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="array" ref="B11:C11">_xll.BISECT(_xll.KAHAN.B,B10,C10)</f>
+        <v>0.16562500000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.1249999999999889E-3</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">_xll.XLL.UDF(_xll.KAHAN.B,B11)</f>
+        <v>-6.9780345676845323E-3</v>
+      </c>
+      <c r="H11">
+        <f t="array" ref="H11:I11">_xll.FALSE_POSITION(_xll.KAHAN.B,H10,I10)</f>
+        <v>0.16679552165669584</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <f t="array" ref="K11">_xll.XLL.UDF(_xll.KAHAN.B,H11)</f>
+        <v>-8.6396993703719005E-7</v>
+      </c>
+      <c r="M11">
+        <v>0.09</v>
+      </c>
+      <c r="N11">
+        <f t="array" ref="N11">_xll.XLL.UDF(_xll.KAHAN.B,M11)</f>
+        <v>-0.36875777165435086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="array" ref="B12:C12">_xll.BISECT(_xll.KAHAN.B,B11,C11)</f>
+        <v>0.16562500000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.16718750000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999944E-3</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">_xll.XLL.UDF(_xll.KAHAN.B,B12)</f>
+        <v>-6.9780345676845323E-3</v>
+      </c>
+      <c r="H12">
+        <f t="array" ref="H12:I12">_xll.FALSE_POSITION(_xll.KAHAN.B,H11,I11)</f>
+        <v>0.16679565238145386</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <f t="array" ref="K12">_xll.XLL.UDF(_xll.KAHAN.B,H12)</f>
+        <v>-8.2048209781859782E-8</v>
+      </c>
+      <c r="M12">
+        <v>0.1</v>
+      </c>
+      <c r="N12">
+        <f t="array" ref="N12">_xll.XLL.UDF(_xll.KAHAN.B,M12)</f>
+        <v>-0.3297469826174757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="array" ref="B13:C13">_xll.BISECT(_xll.KAHAN.B,B12,C12)</f>
+        <v>0.16640625000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.16718750000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7.8124999999998335E-4</v>
+      </c>
+      <c r="E13">
+        <f t="array" ref="E13">_xll.XLL.UDF(_xll.KAHAN.B,B13)</f>
+        <v>-2.3265829989582709E-3</v>
+      </c>
+      <c r="H13">
+        <f t="array" ref="H13:I13">_xll.FALSE_POSITION(_xll.KAHAN.B,H12,I12)</f>
+        <v>0.16679566479592328</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <f t="array" ref="K13">_xll.XLL.UDF(_xll.KAHAN.B,H13)</f>
+        <v>-7.7918281826683256E-9</v>
+      </c>
+      <c r="M13">
+        <v>0.11</v>
+      </c>
+      <c r="N13">
+        <f t="array" ref="N13">_xll.XLL.UDF(_xll.KAHAN.B,M13)</f>
+        <v>-0.28833387990200376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="array" ref="B14:C14">_xll.BISECT(_xll.KAHAN.B,B13,C13)</f>
+        <v>0.16640625000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.906249999999778E-4</v>
+      </c>
+      <c r="E14">
+        <f t="array" ref="E14">_xll.XLL.UDF(_xll.KAHAN.B,B14)</f>
+        <v>-2.3265829989582709E-3</v>
+      </c>
+      <c r="H14">
+        <f t="array" ref="H14:I14">_xll.FALSE_POSITION(_xll.KAHAN.B,H13,I13)</f>
+        <v>0.16679566597488146</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <f t="array" ref="K14">_xll.XLL.UDF(_xll.KAHAN.B,H14)</f>
+        <v>-7.3996253568964221E-10</v>
+      </c>
+      <c r="M14">
+        <v>0.12</v>
+      </c>
+      <c r="N14">
+        <f t="array" ref="N14">_xll.XLL.UDF(_xll.KAHAN.B,M14)</f>
+        <v>-0.24437296161336708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="array" ref="B15:C15">_xll.BISECT(_xll.KAHAN.B,B14,C14)</f>
+        <v>0.16660156250000002</v>
+      </c>
+      <c r="C15">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.953124999999889E-4</v>
+      </c>
+      <c r="E15">
+        <f t="array" ref="E15">_xll.XLL.UDF(_xll.KAHAN.B,B15)</f>
+        <v>-1.1603512830218321E-3</v>
+      </c>
+      <c r="H15">
+        <f t="array" ref="H15:I15">_xll.FALSE_POSITION(_xll.KAHAN.B,H14,I14)</f>
+        <v>0.16679566608684299</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <f t="array" ref="K15">_xll.XLL.UDF(_xll.KAHAN.B,H15)</f>
+        <v>-7.0271677365951746E-11</v>
+      </c>
+      <c r="M15">
+        <v>0.13</v>
+      </c>
+      <c r="N15">
+        <f t="array" ref="N15">_xll.XLL.UDF(_xll.KAHAN.B,M15)</f>
+        <v>-0.19771037670256164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="array" ref="B16:C16">_xll.BISECT(_xll.KAHAN.B,B15,C15)</f>
+        <v>0.16669921875000002</v>
+      </c>
+      <c r="C16">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>9.7656249999994449E-5</v>
+      </c>
+      <c r="E16">
+        <f t="array" ref="E16">_xll.XLL.UDF(_xll.KAHAN.B,B16)</f>
+        <v>-5.7672905908423555E-4</v>
+      </c>
+      <c r="H16">
+        <f t="array" ref="H16:I16">_xll.FALSE_POSITION(_xll.KAHAN.B,H15,I15)</f>
+        <v>0.16679566609747559</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <f t="array" ref="K16">_xll.XLL.UDF(_xll.KAHAN.B,H16)</f>
+        <v>-6.6734395787193534E-12</v>
+      </c>
+      <c r="M16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N16">
+        <f t="array" ref="N16">_xll.XLL.UDF(_xll.KAHAN.B,M16)</f>
+        <v>-0.14818350772058508</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="array" ref="B17:C17">_xll.BISECT(_xll.KAHAN.B,B16,C16)</f>
+        <v>0.166748046875</v>
+      </c>
+      <c r="C17">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4.8828125000011102E-5</v>
+      </c>
+      <c r="E17">
+        <f t="array" ref="E17">_xll.XLL.UDF(_xll.KAHAN.B,B17)</f>
+        <v>-2.847912725801871E-4</v>
+      </c>
+      <c r="H17">
+        <f t="array" ref="H17:I17">_xll.FALSE_POSITION(_xll.KAHAN.B,H16,I16)</f>
+        <v>0.16679566609848534</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <f t="array" ref="K17">_xll.XLL.UDF(_xll.KAHAN.B,H17)</f>
+        <v>-6.3338223554865181E-13</v>
+      </c>
+      <c r="M17">
+        <v>0.15</v>
+      </c>
+      <c r="N17">
+        <f t="array" ref="N17">_xll.XLL.UDF(_xll.KAHAN.B,M17)</f>
+        <v>-9.5620539976518537E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="array" ref="B18:C18">_xll.BISECT(_xll.KAHAN.B,B17,C17)</f>
+        <v>0.16677246093750001</v>
+      </c>
+      <c r="C18">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.4414062500005551E-5</v>
+      </c>
+      <c r="E18">
+        <f t="array" ref="E18">_xll.XLL.UDF(_xll.KAHAN.B,B18)</f>
+        <v>-1.3879070030875518E-4</v>
+      </c>
+      <c r="H18">
+        <f t="array" ref="H18:I18">_xll.FALSE_POSITION(_xll.KAHAN.B,H17,I17)</f>
+        <v>0.16679566609858118</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <f t="array" ref="K18">_xll.XLL.UDF(_xll.KAHAN.B,H18)</f>
+        <v>-6.0285110237146E-14</v>
+      </c>
+      <c r="M18">
+        <v>0.16</v>
+      </c>
+      <c r="N18">
+        <f t="array" ref="N18">_xll.XLL.UDF(_xll.KAHAN.B,M18)</f>
+        <v>-3.9840017531624361E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="array" ref="B19:C19">_xll.BISECT(_xll.KAHAN.B,B18,C18)</f>
+        <v>0.16678466796875002</v>
+      </c>
+      <c r="C19">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.2207031249988898E-5</v>
+      </c>
+      <c r="E19">
+        <f t="array" ref="E19">_xll.XLL.UDF(_xll.KAHAN.B,B19)</f>
+        <v>-6.5782493119725949E-5</v>
+      </c>
+      <c r="H19">
+        <f t="array" ref="H19:I19">_xll.FALSE_POSITION(_xll.KAHAN.B,H18,I18)</f>
+        <v>0.16679566609859031</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <f t="array" ref="K19">_xll.XLL.UDF(_xll.KAHAN.B,H19)</f>
+        <v>-5.6621374255882984E-15</v>
+      </c>
+      <c r="M19">
+        <v>0.17</v>
+      </c>
+      <c r="N19">
+        <f t="array" ref="N19">_xll.XLL.UDF(_xll.KAHAN.B,M19)</f>
+        <v>1.9349613400361898E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="array" ref="B20:C20">_xll.BISECT(_xll.KAHAN.B,B19,C19)</f>
+        <v>0.16679077148437502</v>
+      </c>
+      <c r="C20">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6.1035156249944489E-6</v>
+      </c>
+      <c r="E20">
+        <f t="array" ref="E20">_xll.XLL.UDF(_xll.KAHAN.B,B20)</f>
+        <v>-2.9276409099665557E-5</v>
+      </c>
+      <c r="H20">
+        <f t="array" ref="H20:I20">_xll.FALSE_POSITION(_xll.KAHAN.B,H19,I19)</f>
+        <v>0.16679566609859117</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <f t="array" ref="K20">_xll.XLL.UDF(_xll.KAHAN.B,H20)</f>
+        <v>-5.5511151231257827E-16</v>
+      </c>
+      <c r="M20">
+        <v>0.18</v>
+      </c>
+      <c r="N20">
+        <f t="array" ref="N20">_xll.XLL.UDF(_xll.KAHAN.B,M20)</f>
+        <v>8.2150472923026685E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="array" ref="B21:C21">_xll.BISECT(_xll.KAHAN.B,B20,C20)</f>
+        <v>0.1667938232421875</v>
+      </c>
+      <c r="C21">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3.0517578125111022E-6</v>
+      </c>
+      <c r="E21">
+        <f t="array" ref="E21">_xll.XLL.UDF(_xll.KAHAN.B,B21)</f>
+        <v>-1.1022871962862446E-5</v>
+      </c>
+      <c r="H21">
+        <f t="array" ref="H21:I21">_xll.FALSE_POSITION(_xll.KAHAN.B,H20,I20)</f>
+        <v>0.16679566609859117</v>
+      </c>
+      <c r="I21">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="K21">
+        <f t="array" ref="K21">_xll.XLL.UDF(_xll.KAHAN.B,H21)</f>
+        <v>-5.5511151231257827E-16</v>
+      </c>
+      <c r="M21">
+        <v>0.19</v>
+      </c>
+      <c r="N21">
+        <f t="array" ref="N21">_xll.XLL.UDF(_xll.KAHAN.B,M21)</f>
+        <v>0.14877572690301588</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="array" ref="B22:C22">_xll.BISECT(_xll.KAHAN.B,B21,C21)</f>
+        <v>0.16679534912109376</v>
+      </c>
+      <c r="C22">
+        <v>0.16679687500000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.5258789062555511E-6</v>
+      </c>
+      <c r="E22">
+        <f t="array" ref="E22">_xll.XLL.UDF(_xll.KAHAN.B,B22)</f>
+        <v>-1.8959796102002713E-6</v>
+      </c>
+      <c r="H22">
+        <f t="array" ref="H22:I22">_xll.FALSE_POSITION(_xll.KAHAN.B,H21,I21)</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="I22">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="K22">
+        <f t="array" ref="K22">_xll.XLL.UDF(_xll.KAHAN.B,H22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.2</v>
+      </c>
+      <c r="N22">
+        <f t="array" ref="N22">_xll.XLL.UDF(_xll.KAHAN.B,M22)</f>
+        <v>0.21945007630916669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="array" ref="B23:C23">_xll.BISECT(_xll.KAHAN.B,B22,C22)</f>
+        <v>0.16679534912109376</v>
+      </c>
+      <c r="C23">
+        <v>0.1667961120605469</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>7.6293945314165335E-7</v>
+      </c>
+      <c r="E23">
+        <f t="array" ref="E23">_xll.XLL.UDF(_xll.KAHAN.B,B23)</f>
+        <v>-1.8959796102002713E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="array" ref="B24:C24">_xll.BISECT(_xll.KAHAN.B,B23,C23)</f>
+        <v>0.16679534912109376</v>
+      </c>
+      <c r="C24">
+        <v>0.16679573059082031</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.8146972655694888E-7</v>
+      </c>
+      <c r="E24">
+        <f t="array" ref="E24">_xll.XLL.UDF(_xll.KAHAN.B,B24)</f>
+        <v>-1.8959796102002713E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="array" ref="B25:C25">_xll.BISECT(_xll.KAHAN.B,B24,C24)</f>
+        <v>0.16679553985595702</v>
+      </c>
+      <c r="C25">
+        <v>0.16679573059082031</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.9073486329235223E-7</v>
+      </c>
+      <c r="E25">
+        <f t="array" ref="E25">_xll.XLL.UDF(_xll.KAHAN.B,B25)</f>
+        <v>-7.5511226393931707E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="array" ref="B26:C26">_xll.BISECT(_xll.KAHAN.B,B25,C25)</f>
+        <v>0.16679563522338867</v>
+      </c>
+      <c r="C26">
+        <v>0.16679573059082031</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>9.5367431646176115E-8</v>
+      </c>
+      <c r="E26">
+        <f t="array" ref="E26">_xll.XLL.UDF(_xll.KAHAN.B,B26)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="array" ref="B27:C27">_xll.BISECT(_xll.KAHAN.B,B26,C26)</f>
+        <v>0.16679563522338867</v>
+      </c>
+      <c r="C27">
+        <v>0.1667956829071045</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4.7683715836965845E-8</v>
+      </c>
+      <c r="E27">
+        <f t="array" ref="E27">_xll.XLL.UDF(_xll.KAHAN.B,B27)</f>
+        <v>-1.8467810702915699E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="array" ref="B28:C28">_xll.BISECT(_xll.KAHAN.B,B27,C27)</f>
+        <v>0.16679565906524657</v>
+      </c>
+      <c r="C28">
+        <v>0.1667956829071045</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.384185793236071E-8</v>
+      </c>
+      <c r="E28">
+        <f t="array" ref="E28">_xll.XLL.UDF(_xll.KAHAN.B,B28)</f>
+        <v>-4.206951753626953E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="array" ref="B29:C29">_xll.BISECT(_xll.KAHAN.B,B28,C28)</f>
+        <v>0.16679565906524657</v>
+      </c>
+      <c r="C29">
+        <v>0.16679567098617554</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.1920928966180355E-8</v>
+      </c>
+      <c r="E29">
+        <f t="array" ref="E29">_xll.XLL.UDF(_xll.KAHAN.B,B29)</f>
+        <v>-4.206951753626953E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="array" ref="B30:C30">_xll.BISECT(_xll.KAHAN.B,B29,C29)</f>
+        <v>0.16679566502571105</v>
+      </c>
+      <c r="C30">
+        <v>0.16679567098617554</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5.9604644830901776E-9</v>
+      </c>
+      <c r="E30">
+        <f t="array" ref="E30">_xll.XLL.UDF(_xll.KAHAN.B,B30)</f>
+        <v>-6.4173669711564685E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="array" ref="B31:C31">_xll.BISECT(_xll.KAHAN.B,B30,C30)</f>
+        <v>0.16679566502571105</v>
+      </c>
+      <c r="C31">
+        <v>0.16679566800594331</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.9802322554228766E-9</v>
+      </c>
+      <c r="E31">
+        <f t="array" ref="E31">_xll.XLL.UDF(_xll.KAHAN.B,B31)</f>
+        <v>-6.4173669711564685E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="array" ref="B32:C32">_xll.BISECT(_xll.KAHAN.B,B31,C31)</f>
+        <v>0.16679566502571105</v>
+      </c>
+      <c r="C32">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.4901161138336505E-9</v>
+      </c>
+      <c r="E32">
+        <f t="array" ref="E32">_xll.XLL.UDF(_xll.KAHAN.B,B32)</f>
+        <v>-6.4173669711564685E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="array" ref="B33:C33">_xll.BISECT(_xll.KAHAN.B,B32,C32)</f>
+        <v>0.1667956657707691</v>
+      </c>
+      <c r="C33">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7.4505807079461306E-10</v>
+      </c>
+      <c r="E33">
+        <f t="array" ref="E33">_xll.XLL.UDF(_xll.KAHAN.B,B33)</f>
+        <v>-1.9608480394950334E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="array" ref="B34:C34">_xll.BISECT(_xll.KAHAN.B,B33,C33)</f>
+        <v>0.1667956657707691</v>
+      </c>
+      <c r="C34">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3.7252903539730653E-10</v>
+      </c>
+      <c r="E34">
+        <f t="array" ref="E34">_xll.XLL.UDF(_xll.KAHAN.B,B34)</f>
+        <v>-1.9608480394950334E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="array" ref="B35:C35">_xll.BISECT(_xll.KAHAN.B,B34,C34)</f>
+        <v>0.1667956659570336</v>
+      </c>
+      <c r="C35">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.8626453157644107E-10</v>
+      </c>
+      <c r="E35">
+        <f t="array" ref="E35">_xll.XLL.UDF(_xll.KAHAN.B,B35)</f>
+        <v>-8.4671825106852339E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="array" ref="B36:C36">_xll.BISECT(_xll.KAHAN.B,B35,C35)</f>
+        <v>0.16679566605016588</v>
+      </c>
+      <c r="C36">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>9.3132251910432728E-11</v>
+      </c>
+      <c r="E36">
+        <f t="array" ref="E36">_xll.XLL.UDF(_xll.KAHAN.B,B36)</f>
+        <v>-2.8965352338872208E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="array" ref="B37:C37">_xll.BISECT(_xll.KAHAN.B,B36,C36)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="C37">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>4.6566112077428556E-11</v>
+      </c>
+      <c r="E37">
+        <f t="array" ref="E37">_xll.XLL.UDF(_xll.KAHAN.B,B37)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="array" ref="B38:C38">_xll.BISECT(_xll.KAHAN.B,B37,C37)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="C38">
+        <v>0.16679566612001506</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.328304216092647E-11</v>
+      </c>
+      <c r="E38">
+        <f t="array" ref="E38">_xll.XLL.UDF(_xll.KAHAN.B,B38)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="array" ref="B39:C39">_xll.BISECT(_xll.KAHAN.B,B38,C38)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="C39">
+        <v>0.16679566610837354</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1.1641521080463235E-11</v>
+      </c>
+      <c r="E39">
+        <f t="array" ref="E39">_xll.XLL.UDF(_xll.KAHAN.B,B39)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="array" ref="B40:C40">_xll.BISECT(_xll.KAHAN.B,B39,C39)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="C40">
+        <v>0.16679566610255278</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5.8207605402316176E-12</v>
+      </c>
+      <c r="E40">
+        <f t="array" ref="E40">_xll.XLL.UDF(_xll.KAHAN.B,B40)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="array" ref="B41:C41">_xll.BISECT(_xll.KAHAN.B,B40,C40)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="C41">
+        <v>0.16679566609964241</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.9103941479036166E-12</v>
+      </c>
+      <c r="E41">
+        <f t="array" ref="E41">_xll.XLL.UDF(_xll.KAHAN.B,B41)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="array" ref="B42:C42">_xll.BISECT(_xll.KAHAN.B,B41,C41)</f>
+        <v>0.16679566609818722</v>
+      </c>
+      <c r="C42">
+        <v>0.16679566609964241</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.4551970739518083E-12</v>
+      </c>
+      <c r="E42">
+        <f t="array" ref="E42">_xll.XLL.UDF(_xll.KAHAN.B,B42)</f>
+        <v>-2.4166224577015782E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="array" ref="B43:C43">_xll.BISECT(_xll.KAHAN.B,B42,C42)</f>
+        <v>0.16679566609818722</v>
+      </c>
+      <c r="C43">
+        <v>0.16679566609891483</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>7.2761241476371197E-13</v>
+      </c>
+      <c r="E43">
+        <f t="array" ref="E43">_xll.XLL.UDF(_xll.KAHAN.B,B43)</f>
+        <v>-2.4166224577015782E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="array" ref="B44:C44">_xll.BISECT(_xll.KAHAN.B,B43,C43)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="C44">
+        <v>0.16679566609891483</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>3.638200851696638E-13</v>
+      </c>
+      <c r="E44">
+        <f t="array" ref="E44">_xll.XLL.UDF(_xll.KAHAN.B,B44)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f t="array" ref="B45:C45">_xll.BISECT(_xll.KAHAN.B,B44,C44)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="C45">
+        <v>0.16679566609873292</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.819100425848319E-13</v>
+      </c>
+      <c r="E45">
+        <f t="array" ref="E45">_xll.XLL.UDF(_xll.KAHAN.B,B45)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f t="array" ref="B46:C46">_xll.BISECT(_xll.KAHAN.B,B45,C45)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="C46">
+        <v>0.16679566609864196</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>9.095502129241595E-14</v>
+      </c>
+      <c r="E46">
+        <f t="array" ref="E46">_xll.XLL.UDF(_xll.KAHAN.B,B46)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f t="array" ref="B47:C47">_xll.BISECT(_xll.KAHAN.B,B46,C46)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="C47">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>4.546363285840016E-14</v>
+      </c>
+      <c r="E47">
+        <f t="array" ref="E47">_xll.XLL.UDF(_xll.KAHAN.B,B47)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f t="array" ref="B48:C48">_xll.BISECT(_xll.KAHAN.B,B47,C47)</f>
+        <v>0.16679566609857374</v>
+      </c>
+      <c r="C48">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2.273181642920008E-14</v>
+      </c>
+      <c r="E48">
+        <f t="array" ref="E48">_xll.XLL.UDF(_xll.KAHAN.B,B48)</f>
+        <v>-1.0480505352461478E-13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f t="array" ref="B49:C49">_xll.BISECT(_xll.KAHAN.B,B48,C48)</f>
+        <v>0.16679566609858509</v>
+      </c>
+      <c r="C49">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.1379786002407855E-14</v>
+      </c>
+      <c r="E49">
+        <f t="array" ref="E49">_xll.XLL.UDF(_xll.KAHAN.B,B49)</f>
+        <v>-3.6859404417555197E-14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <f t="array" ref="B50:C50">_xll.BISECT(_xll.KAHAN.B,B49,C49)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="C50">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>5.6898930012039273E-15</v>
+      </c>
+      <c r="E50">
+        <f t="array" ref="E50">_xll.XLL.UDF(_xll.KAHAN.B,B50)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f t="array" ref="B51:C51">_xll.BISECT(_xll.KAHAN.B,B50,C50)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="C51">
+        <v>0.16679566609859364</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>2.8588242884097781E-15</v>
+      </c>
+      <c r="E51">
+        <f t="array" ref="E51">_xll.XLL.UDF(_xll.KAHAN.B,B51)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f t="array" ref="B52:C52">_xll.BISECT(_xll.KAHAN.B,B51,C51)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="C52">
+        <v>0.1667956660985922</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.4155343563970746E-15</v>
+      </c>
+      <c r="E52">
+        <f t="array" ref="E52">_xll.XLL.UDF(_xll.KAHAN.B,B52)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="array" ref="B53:C53">_xll.BISECT(_xll.KAHAN.B,B52,C52)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="C53">
+        <v>0.16679566609859148</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>6.9388939039072284E-16</v>
+      </c>
+      <c r="E53">
+        <f t="array" ref="E53">_xll.XLL.UDF(_xll.KAHAN.B,B53)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="array" ref="B54:C54">_xll.BISECT(_xll.KAHAN.B,B53,C53)</f>
+        <v>0.16679566609859114</v>
+      </c>
+      <c r="C54">
+        <v>0.16679566609859148</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="E54">
+        <f t="array" ref="E54">_xll.XLL.UDF(_xll.KAHAN.B,B54)</f>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="array" ref="B55:C55">_xll.BISECT(_xll.KAHAN.B,B54,C54)</f>
+        <v>0.16679566609859114</v>
+      </c>
+      <c r="C55">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="array" ref="E55">_xll.XLL.UDF(_xll.KAHAN.B,B55)</f>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="array" ref="B56:C56">_xll.BISECT(_xll.KAHAN.B,B55,C55)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="C56">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="array" ref="E56">_xll.XLL.UDF(_xll.KAHAN.B,B56)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="array" ref="B57:C57">_xll.BISECT(_xll.KAHAN.B,B56,C56)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="C57">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="array" ref="E57">_xll.XLL.UDF(_xll.KAHAN.B,B57)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f t="array" ref="B58:C58">_xll.BISECT(_xll.KAHAN.B,B57,C57)</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="C58">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="array" ref="E58">_xll.XLL.UDF(_xll.KAHAN.B,B58)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE0CDBF-A941-44F0-8284-3A27CB1F399E}">
+  <dimension ref="A1:N82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4">
+        <f t="array" ref="B1">_xll.KAHAN.C</f>
+        <v>-432996241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="array" ref="C2">_xll.XLL.UDF(_xll.KAHAN.C,B2)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="array" ref="N2">_xll.XLL.UDF(_xll.KAHAN.C,M2)</f>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1.8</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3">_xll.XLL.UDF(_xll.KAHAN.C,B3)</f>
+        <v>-1.1960046346767577</v>
+      </c>
+      <c r="M3">
+        <v>1.01</v>
+      </c>
+      <c r="N3">
+        <f t="array" ref="N3">_xll.XLL.UDF(_xll.KAHAN.C,M3)</f>
+        <v>1.6133096057473884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1.02</v>
+      </c>
+      <c r="N4">
+        <f t="array" ref="N4">_xll.XLL.UDF(_xll.KAHAN.C,M4)</f>
+        <v>1.6169233941796408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1.03</v>
+      </c>
+      <c r="N5">
+        <f t="array" ref="N5">_xll.XLL.UDF(_xll.KAHAN.C,M5)</f>
+        <v>1.6202771926091701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f t="array" ref="B6:C6">_xll.BISECT(_xll.KAHAN.C,B2,B3)</f>
+        <v>1.4</v>
+      </c>
+      <c r="C6">
+        <v>1.8</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">_xll.XLL.UDF(_xll.KAHAN.C,B6)</f>
+        <v>1.5169716847615065</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6">
+        <f t="array" ref="H6:I6">_xll.FALSE_POSITION(_xll.KAHAN.C,B2,B3)</f>
+        <v>1.4589473169832847</v>
+      </c>
+      <c r="I6">
+        <v>1.8</v>
+      </c>
+      <c r="J6">
+        <f>I6-H6</f>
+        <v>0.34105268301671532</v>
+      </c>
+      <c r="K6">
+        <f t="array" ref="K6">_xll.XLL.UDF(_xll.KAHAN.C,H6)</f>
+        <v>1.4405589292812713</v>
+      </c>
+      <c r="M6">
+        <v>1.04</v>
+      </c>
+      <c r="N6">
+        <f t="array" ref="N6">_xll.XLL.UDF(_xll.KAHAN.C,M6)</f>
+        <v>1.623368714649863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="array" ref="B7:C7">_xll.BISECT(_xll.KAHAN.C,B6,C6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="C7">
+        <v>1.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D56" si="0">C7-B7</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">_xll.XLL.UDF(_xll.KAHAN.C,B7)</f>
+        <v>1.1139605656149092</v>
+      </c>
+      <c r="H7">
+        <f t="array" ref="H7:I7">_xll.FALSE_POSITION(_xll.KAHAN.C,H6,I6)</f>
+        <v>1.6452908190293767</v>
+      </c>
+      <c r="I7">
+        <v>1.8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J49" si="1">I7-H7</f>
+        <v>0.15470918097062336</v>
+      </c>
+      <c r="K7">
+        <f t="array" ref="K7">_xll.XLL.UDF(_xll.KAHAN.C,H7)</f>
+        <v>0.93373529482834194</v>
+      </c>
+      <c r="M7">
+        <v>1.05</v>
+      </c>
+      <c r="N7">
+        <f t="array" ref="N7">_xll.XLL.UDF(_xll.KAHAN.C,M7)</f>
+        <v>1.6261954670222203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="array" ref="B8:C8">_xll.BISECT(_xll.KAHAN.C,B7,C7)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">_xll.XLL.UDF(_xll.KAHAN.C,B8)</f>
+        <v>0.61404985920124144</v>
+      </c>
+      <c r="H8">
+        <f t="array" ref="H8:I8">_xll.FALSE_POSITION(_xll.KAHAN.C,H7,I7)</f>
+        <v>1.7131194870770405</v>
+      </c>
+      <c r="I8">
+        <v>1.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>8.6880512922959507E-2</v>
+      </c>
+      <c r="K8">
+        <f t="array" ref="K8">_xll.XLL.UDF(_xll.KAHAN.C,H8)</f>
+        <v>0.51030116646466683</v>
+      </c>
+      <c r="M8">
+        <v>1.06</v>
+      </c>
+      <c r="N8">
+        <f t="array" ref="N8">_xll.XLL.UDF(_xll.KAHAN.C,M8)</f>
+        <v>1.6287547433189364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="array" ref="B9:C9">_xll.BISECT(_xll.KAHAN.C,B8,C8)</f>
+        <v>1.75</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">_xll.XLL.UDF(_xll.KAHAN.C,B9)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="H9">
+        <f t="array" ref="H9:I9">_xll.FALSE_POSITION(_xll.KAHAN.C,H8,I8)</f>
+        <v>1.7391026532000045</v>
+      </c>
+      <c r="I9">
+        <v>1.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>6.0897346799995589E-2</v>
+      </c>
+      <c r="K9">
+        <f t="array" ref="K9">_xll.XLL.UDF(_xll.KAHAN.C,H9)</f>
+        <v>0.25242931794235723</v>
+      </c>
+      <c r="M9">
+        <v>1.07</v>
+      </c>
+      <c r="N9">
+        <f t="array" ref="N9">_xll.XLL.UDF(_xll.KAHAN.C,M9)</f>
+        <v>1.6310436171303588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="array" ref="B10:C10">_xll.BISECT(_xll.KAHAN.C,B9,C9)</f>
+        <v>1.75</v>
+      </c>
+      <c r="C10">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">_xll.XLL.UDF(_xll.KAHAN.C,B10)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="H10">
+        <f t="array" ref="H10:I10">_xll.FALSE_POSITION(_xll.KAHAN.C,H9,I9)</f>
+        <v>1.749715685081386</v>
+      </c>
+      <c r="I10">
+        <v>1.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>5.028431491861407E-2</v>
+      </c>
+      <c r="K10">
+        <f t="array" ref="K10">_xll.XLL.UDF(_xll.KAHAN.C,H10)</f>
+        <v>0.11821083424804847</v>
+      </c>
+      <c r="M10">
+        <v>1.08</v>
+      </c>
+      <c r="N10">
+        <f t="array" ref="N10">_xll.XLL.UDF(_xll.KAHAN.C,M10)</f>
+        <v>1.6330589344910011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="array" ref="B11:C11">_xll.BISECT(_xll.KAHAN.C,B10,C10)</f>
+        <v>1.75</v>
+      </c>
+      <c r="C11">
+        <v>1.7625</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">_xll.XLL.UDF(_xll.KAHAN.C,B11)</f>
+        <v>0.11430477128005863</v>
+      </c>
+      <c r="H11">
+        <f t="array" ref="H11:I11">_xll.FALSE_POSITION(_xll.KAHAN.C,H10,I10)</f>
+        <v>1.7542386502698752</v>
+      </c>
+      <c r="I11">
+        <v>1.8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.5761349730124801E-2</v>
+      </c>
+      <c r="K11">
+        <f t="array" ref="K11">_xll.XLL.UDF(_xll.KAHAN.C,H11)</f>
+        <v>5.3852495541041746E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="N11">
+        <f t="array" ref="N11">_xll.XLL.UDF(_xll.KAHAN.C,M11)</f>
+        <v>1.6347973056037144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="array" ref="B12:C12">_xll.BISECT(_xll.KAHAN.C,B11,C11)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.7625</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">_xll.XLL.UDF(_xll.KAHAN.C,B12)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="H12">
+        <f t="array" ref="H12:I12">_xll.FALSE_POSITION(_xll.KAHAN.C,H11,I11)</f>
+        <v>1.7562103659345802</v>
+      </c>
+      <c r="I12">
+        <v>1.8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4.3789634065419802E-2</v>
+      </c>
+      <c r="K12">
+        <f t="array" ref="K12">_xll.XLL.UDF(_xll.KAHAN.C,H12)</f>
+        <v>2.4215278066760219E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="array" ref="N12">_xll.XLL.UDF(_xll.KAHAN.C,M12)</f>
+        <v>1.636255095793125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="array" ref="B13:C13">_xll.BISECT(_xll.KAHAN.C,B12,C12)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="E13">
+        <f t="array" ref="E13">_xll.XLL.UDF(_xll.KAHAN.C,B13)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="H13">
+        <f t="array" ref="H13:I13">_xll.FALSE_POSITION(_xll.KAHAN.C,H12,I12)</f>
+        <v>1.7570793717213746</v>
+      </c>
+      <c r="I13">
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.2920628278625417E-2</v>
+      </c>
+      <c r="K13">
+        <f t="array" ref="K13">_xll.XLL.UDF(_xll.KAHAN.C,H13)</f>
+        <v>1.0823764943083252E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N13">
+        <f t="array" ref="N13">_xll.XLL.UDF(_xll.KAHAN.C,M13)</f>
+        <v>1.637428415634427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="array" ref="B14:C14">_xll.BISECT(_xll.KAHAN.C,B13,C13)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.7578125</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="E14">
+        <f t="array" ref="E14">_xll.XLL.UDF(_xll.KAHAN.C,B14)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+      <c r="H14">
+        <f t="array" ref="H14:I14">_xll.FALSE_POSITION(_xll.KAHAN.C,H13,I13)</f>
+        <v>1.7574643169147788</v>
+      </c>
+      <c r="I14">
+        <v>1.8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>4.2535683085221265E-2</v>
+      </c>
+      <c r="K14">
+        <f t="array" ref="K14">_xll.XLL.UDF(_xll.KAHAN.C,H14)</f>
+        <v>4.8250022853835407E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N14">
+        <f t="array" ref="N14">_xll.XLL.UDF(_xll.KAHAN.C,M14)</f>
+        <v>1.6383131101975512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="array" ref="B15:C15">_xll.BISECT(_xll.KAHAN.C,B14,C14)</f>
+        <v>1.75703125</v>
+      </c>
+      <c r="C15">
+        <v>1.7578125</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="E15">
+        <f t="array" ref="E15">_xll.XLL.UDF(_xll.KAHAN.C,B15)</f>
+        <v>1.1570760192645028E-2</v>
+      </c>
+      <c r="H15">
+        <f t="array" ref="H15:I15">_xll.FALSE_POSITION(_xll.KAHAN.C,H14,I14)</f>
+        <v>1.757635227726587</v>
+      </c>
+      <c r="I15">
+        <v>1.8</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>4.2364772273413065E-2</v>
+      </c>
+      <c r="K15">
+        <f t="array" ref="K15">_xll.XLL.UDF(_xll.KAHAN.C,H15)</f>
+        <v>2.1482916729463793E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N15">
+        <f t="array" ref="N15">_xll.XLL.UDF(_xll.KAHAN.C,M15)</f>
+        <v>1.6389047473399829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="array" ref="B16:C16">_xll.BISECT(_xll.KAHAN.C,B15,C15)</f>
+        <v>1.7574218749999999</v>
+      </c>
+      <c r="C16">
+        <v>1.7578125</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="E16">
+        <f t="array" ref="E16">_xll.XLL.UDF(_xll.KAHAN.C,B16)</f>
+        <v>5.4884281423483693E-3</v>
+      </c>
+      <c r="H16">
+        <f t="array" ref="H16:I16">_xll.FALSE_POSITION(_xll.KAHAN.C,H15,I15)</f>
+        <v>1.7577111878861791</v>
+      </c>
+      <c r="I16">
+        <v>1.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>4.2288812113820962E-2</v>
+      </c>
+      <c r="K16">
+        <f t="array" ref="K16">_xll.XLL.UDF(_xll.KAHAN.C,H16)</f>
+        <v>9.5599473946441911E-4</v>
+      </c>
+      <c r="M16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N16">
+        <f t="array" ref="N16">_xll.XLL.UDF(_xll.KAHAN.C,M16)</f>
+        <v>1.6391986049740386</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="array" ref="B17:C17">_xll.BISECT(_xll.KAHAN.C,B16,C16)</f>
+        <v>1.7576171875</v>
+      </c>
+      <c r="C17">
+        <v>1.7578125</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="E17">
+        <f t="array" ref="E17">_xll.XLL.UDF(_xll.KAHAN.C,B17)</f>
+        <v>2.4312171733975305E-3</v>
+      </c>
+      <c r="H17">
+        <f t="array" ref="H17:I17">_xll.FALSE_POSITION(_xll.KAHAN.C,H16,I16)</f>
+        <v>1.7577449633345317</v>
+      </c>
+      <c r="I17">
+        <v>1.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>4.2255036665468371E-2</v>
+      </c>
+      <c r="K17">
+        <f t="array" ref="K17">_xll.XLL.UDF(_xll.KAHAN.C,H17)</f>
+        <v>4.2531802420047967E-4</v>
+      </c>
+      <c r="M17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17">
+        <f t="array" ref="N17">_xll.XLL.UDF(_xll.KAHAN.C,M17)</f>
+        <v>1.6391896572260822</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="array" ref="B18:C18">_xll.BISECT(_xll.KAHAN.C,B17,C17)</f>
+        <v>1.7577148437500001</v>
+      </c>
+      <c r="C18">
+        <v>1.7578125</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="E18">
+        <f t="array" ref="E18">_xll.XLL.UDF(_xll.KAHAN.C,B18)</f>
+        <v>8.9856977481273675E-4</v>
+      </c>
+      <c r="H18">
+        <f t="array" ref="H18:I18">_xll.FALSE_POSITION(_xll.KAHAN.C,H17,I17)</f>
+        <v>1.7577599845471539</v>
+      </c>
+      <c r="I18">
+        <v>1.8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>4.2240015452846169E-2</v>
+      </c>
+      <c r="K18">
+        <f t="array" ref="K18">_xll.XLL.UDF(_xll.KAHAN.C,H18)</f>
+        <v>1.8920203369439666E-4</v>
+      </c>
+      <c r="M18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N18">
+        <f t="array" ref="N18">_xll.XLL.UDF(_xll.KAHAN.C,M18)</f>
+        <v>1.6388725593958813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="array" ref="B19:C19">_xll.BISECT(_xll.KAHAN.C,B18,C18)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="C19">
+        <v>1.7578125</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="E19">
+        <f t="array" ref="E19">_xll.XLL.UDF(_xll.KAHAN.C,B19)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="H19">
+        <f t="array" ref="H19:I19">_xll.FALSE_POSITION(_xll.KAHAN.C,H18,I18)</f>
+        <v>1.7577666656523241</v>
+      </c>
+      <c r="I19">
+        <v>1.8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4.2233334347675955E-2</v>
+      </c>
+      <c r="K19">
+        <f t="array" ref="K19">_xll.XLL.UDF(_xll.KAHAN.C,H19)</f>
+        <v>8.4162228267112499E-5</v>
+      </c>
+      <c r="M19">
+        <v>1.17</v>
+      </c>
+      <c r="N19">
+        <f t="array" ref="N19">_xll.XLL.UDF(_xll.KAHAN.C,M19)</f>
+        <v>1.6382416316139157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="array" ref="B20:C20">_xll.BISECT(_xll.KAHAN.C,B19,C19)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="C20">
+        <v>1.7577880859374999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="E20">
+        <f t="array" ref="E20">_xll.XLL.UDF(_xll.KAHAN.C,B20)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="H20">
+        <f t="array" ref="H20:I20">_xll.FALSE_POSITION(_xll.KAHAN.C,H19,I19)</f>
+        <v>1.7577696373811247</v>
+      </c>
+      <c r="I20">
+        <v>1.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>4.2230362618875361E-2</v>
+      </c>
+      <c r="K20">
+        <f t="array" ref="K20">_xll.XLL.UDF(_xll.KAHAN.C,H20)</f>
+        <v>3.7436866597947921E-5</v>
+      </c>
+      <c r="M20">
+        <v>1.18</v>
+      </c>
+      <c r="N20">
+        <f t="array" ref="N20">_xll.XLL.UDF(_xll.KAHAN.C,M20)</f>
+        <v>1.6372908410828091</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="array" ref="B21:C21">_xll.BISECT(_xll.KAHAN.C,B20,C20)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="C21">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="E21">
+        <f t="array" ref="E21">_xll.XLL.UDF(_xll.KAHAN.C,B21)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+      <c r="H21">
+        <f t="array" ref="H21:I21">_xll.FALSE_POSITION(_xll.KAHAN.C,H20,I20)</f>
+        <v>1.7577709592179473</v>
+      </c>
+      <c r="I21">
+        <v>1.8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>4.2229040782052696E-2</v>
+      </c>
+      <c r="K21">
+        <f t="array" ref="K21">_xll.XLL.UDF(_xll.KAHAN.C,H21)</f>
+        <v>1.6652432596528626E-5</v>
+      </c>
+      <c r="M21">
+        <v>1.19</v>
+      </c>
+      <c r="N21">
+        <f t="array" ref="N21">_xll.XLL.UDF(_xll.KAHAN.C,M21)</f>
+        <v>1.6360137827759778</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="array" ref="B22:C22">_xll.BISECT(_xll.KAHAN.C,B21,C21)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="C22">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="E22">
+        <f t="array" ref="E22">_xll.XLL.UDF(_xll.KAHAN.C,B22)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="H22">
+        <f t="array" ref="H22:I22">_xll.FALSE_POSITION(_xll.KAHAN.C,H21,I21)</f>
+        <v>1.7577715471809401</v>
+      </c>
+      <c r="I22">
+        <v>1.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>4.2228452819059958E-2</v>
+      </c>
+      <c r="K22">
+        <f t="array" ref="K22">_xll.XLL.UDF(_xll.KAHAN.C,H22)</f>
+        <v>7.4071998923557691E-6</v>
+      </c>
+      <c r="M22">
+        <v>1.2</v>
+      </c>
+      <c r="N22">
+        <f t="array" ref="N22">_xll.XLL.UDF(_xll.KAHAN.C,M22)</f>
+        <v>1.6344036584518482</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="array" ref="B23:C23">_xll.BISECT(_xll.KAHAN.C,B22,C22)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="C23">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="E23">
+        <f t="array" ref="E23">_xll.XLL.UDF(_xll.KAHAN.C,B23)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+      <c r="H23">
+        <f t="array" ref="H23:I23">_xll.FALSE_POSITION(_xll.KAHAN.C,H22,I22)</f>
+        <v>1.757771808712246</v>
+      </c>
+      <c r="I23">
+        <v>1.8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>4.2228191287754013E-2</v>
+      </c>
+      <c r="K23">
+        <f t="array" ref="K23">_xll.XLL.UDF(_xll.KAHAN.C,H23)</f>
+        <v>3.2948044139732438E-6</v>
+      </c>
+      <c r="M23">
+        <v>1.21</v>
+      </c>
+      <c r="N23">
+        <f t="array" ref="N23">_xll.XLL.UDF(_xll.KAHAN.C,M23)</f>
+        <v>1.6324532538253782</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="array" ref="B24:C24">_xll.BISECT(_xll.KAHAN.C,B23,C23)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="C24">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="E24">
+        <f t="array" ref="E24">_xll.XLL.UDF(_xll.KAHAN.C,B24)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="H24">
+        <f t="array" ref="H24:I24">_xll.FALSE_POSITION(_xll.KAHAN.C,H23,I23)</f>
+        <v>1.7577719250439421</v>
+      </c>
+      <c r="I24">
+        <v>1.8</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>4.2228074956057959E-2</v>
+      </c>
+      <c r="K24">
+        <f t="array" ref="K24">_xll.XLL.UDF(_xll.KAHAN.C,H24)</f>
+        <v>1.4655642254013908E-6</v>
+      </c>
+      <c r="M24">
+        <v>1.22</v>
+      </c>
+      <c r="N24">
+        <f t="array" ref="N24">_xll.XLL.UDF(_xll.KAHAN.C,M24)</f>
+        <v>1.6301549137198026</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="array" ref="B25:C25">_xll.BISECT(_xll.KAHAN.C,B24,C24)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="C25">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="E25">
+        <f t="array" ref="E25">_xll.XLL.UDF(_xll.KAHAN.C,B25)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+      <c r="H25">
+        <f t="array" ref="H25:I25">_xll.FALSE_POSITION(_xll.KAHAN.C,H24,I24)</f>
+        <v>1.7577719767894608</v>
+      </c>
+      <c r="I25">
+        <v>1.8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>4.2228023210539201E-2</v>
+      </c>
+      <c r="K25">
+        <f t="array" ref="K25">_xll.XLL.UDF(_xll.KAHAN.C,H25)</f>
+        <v>6.5189839194546405E-7</v>
+      </c>
+      <c r="M25">
+        <v>1.23</v>
+      </c>
+      <c r="N25">
+        <f t="array" ref="N25">_xll.XLL.UDF(_xll.KAHAN.C,M25)</f>
+        <v>1.6275005150002031</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="array" ref="B26:C26">_xll.BISECT(_xll.KAHAN.C,B25,C25)</f>
+        <v>1.757771682739258</v>
+      </c>
+      <c r="C26">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="E26">
+        <f t="array" ref="E26">_xll.XLL.UDF(_xll.KAHAN.C,B26)</f>
+        <v>5.275643301520878E-6</v>
+      </c>
+      <c r="H26">
+        <f t="array" ref="H26:I26">_xll.FALSE_POSITION(_xll.KAHAN.C,H25,I25)</f>
+        <v>1.7577719998063996</v>
+      </c>
+      <c r="I26">
+        <v>1.8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>4.2228000193600401E-2</v>
+      </c>
+      <c r="K26">
+        <f t="array" ref="K26">_xll.XLL.UDF(_xll.KAHAN.C,H26)</f>
+        <v>2.8997121918310599E-7</v>
+      </c>
+      <c r="M26">
+        <v>1.24</v>
+      </c>
+      <c r="N26">
+        <f t="array" ref="N26">_xll.XLL.UDF(_xll.KAHAN.C,M26)</f>
+        <v>1.624481437066277</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="array" ref="B27:C27">_xll.BISECT(_xll.KAHAN.C,B26,C26)</f>
+        <v>1.7577718734741212</v>
+      </c>
+      <c r="C27">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="E27">
+        <f t="array" ref="E27">_xll.XLL.UDF(_xll.KAHAN.C,B27)</f>
+        <v>2.2764665606997894E-6</v>
+      </c>
+      <c r="H27">
+        <f t="array" ref="H27:I27">_xll.FALSE_POSITION(_xll.KAHAN.C,H26,I26)</f>
+        <v>1.7577720100445722</v>
+      </c>
+      <c r="I27">
+        <v>1.8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>4.2227989955427869E-2</v>
+      </c>
+      <c r="K27">
+        <f t="array" ref="K27">_xll.XLL.UDF(_xll.KAHAN.C,H27)</f>
+        <v>1.2898221924698182E-7</v>
+      </c>
+      <c r="M27">
+        <v>1.25</v>
+      </c>
+      <c r="N27">
+        <f t="array" ref="N27">_xll.XLL.UDF(_xll.KAHAN.C,M27)</f>
+        <v>1.6210885296540756</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="array" ref="B28:C28">_xll.BISECT(_xll.KAHAN.C,B27,C27)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="C28">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="E28">
+        <f t="array" ref="E28">_xll.XLL.UDF(_xll.KAHAN.C,B28)</f>
+        <v>7.7687431264962918E-7</v>
+      </c>
+      <c r="H28">
+        <f t="array" ref="H28:I28">_xll.FALSE_POSITION(_xll.KAHAN.C,H27,I27)</f>
+        <v>1.7577720145986175</v>
+      </c>
+      <c r="I28">
+        <v>1.8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>4.2227985401382506E-2</v>
+      </c>
+      <c r="K28">
+        <f t="array" ref="K28">_xll.XLL.UDF(_xll.KAHAN.C,H28)</f>
+        <v>5.7372631220949542E-8</v>
+      </c>
+      <c r="M28">
+        <v>1.26</v>
+      </c>
+      <c r="N28">
+        <f t="array" ref="N28">_xll.XLL.UDF(_xll.KAHAN.C,M28)</f>
+        <v>1.6173120776650005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="array" ref="B29:C29">_xll.BISECT(_xll.KAHAN.C,B28,C28)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="C29">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="E29">
+        <f t="array" ref="E29">_xll.XLL.UDF(_xll.KAHAN.C,B29)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="H29">
+        <f t="array" ref="H29:I29">_xll.FALSE_POSITION(_xll.KAHAN.C,H28,I28)</f>
+        <v>1.757772016624304</v>
+      </c>
+      <c r="I29">
+        <v>1.8</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>4.2227983375695999E-2</v>
+      </c>
+      <c r="K29">
+        <f t="array" ref="K29">_xll.XLL.UDF(_xll.KAHAN.C,H29)</f>
+        <v>2.5519944942481611E-8</v>
+      </c>
+      <c r="M29">
+        <v>1.27</v>
+      </c>
+      <c r="N29">
+        <f t="array" ref="N29">_xll.XLL.UDF(_xll.KAHAN.C,M29)</f>
+        <v>1.6131417627042917</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="array" ref="B30:C30">_xll.BISECT(_xll.KAHAN.C,B29,C29)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="C30">
+        <v>1.7577720403671266</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="E30">
+        <f t="array" ref="E30">_xll.XLL.UDF(_xll.KAHAN.C,B30)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="H30">
+        <f t="array" ref="H30:I30">_xll.FALSE_POSITION(_xll.KAHAN.C,H29,I29)</f>
+        <v>1.7577720175253506</v>
+      </c>
+      <c r="I30">
+        <v>1.8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>4.2227982474649428E-2</v>
+      </c>
+      <c r="K30">
+        <f t="array" ref="K30">_xll.XLL.UDF(_xll.KAHAN.C,H30)</f>
+        <v>1.1351534758805362E-8</v>
+      </c>
+      <c r="M30">
+        <v>1.28</v>
+      </c>
+      <c r="N30">
+        <f t="array" ref="N30">_xll.XLL.UDF(_xll.KAHAN.C,M30)</f>
+        <v>1.6085666209699085</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="array" ref="B31:C31">_xll.BISECT(_xll.KAHAN.C,B30,C30)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="C31">
+        <v>1.7577720284461975</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="E31">
+        <f t="array" ref="E31">_xll.XLL.UDF(_xll.KAHAN.C,B31)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="H31">
+        <f t="array" ref="H31:I31">_xll.FALSE_POSITION(_xll.KAHAN.C,H30,I30)</f>
+        <v>1.7577720179261453</v>
+      </c>
+      <c r="I31">
+        <v>1.8</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>4.2227982073854697E-2</v>
+      </c>
+      <c r="K31">
+        <f t="array" ref="K31">_xll.XLL.UDF(_xll.KAHAN.C,H31)</f>
+        <v>5.0492818687497128E-9</v>
+      </c>
+      <c r="M31">
+        <v>1.29</v>
+      </c>
+      <c r="N31">
+        <f t="array" ref="N31">_xll.XLL.UDF(_xll.KAHAN.C,M31)</f>
+        <v>1.6035749970851556</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="array" ref="B32:C32">_xll.BISECT(_xll.KAHAN.C,B31,C31)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="C32">
+        <v>1.7577720224857329</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="E32">
+        <f t="array" ref="E32">_xll.XLL.UDF(_xll.KAHAN.C,B32)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="H32">
+        <f t="array" ref="H32:I32">_xll.FALSE_POSITION(_xll.KAHAN.C,H31,I31)</f>
+        <v>1.757772018104423</v>
+      </c>
+      <c r="I32">
+        <v>1.8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>4.2227981895577082E-2</v>
+      </c>
+      <c r="K32">
+        <f t="array" ref="K32">_xll.XLL.UDF(_xll.KAHAN.C,H32)</f>
+        <v>2.2459758472239699E-9</v>
+      </c>
+      <c r="M32">
+        <v>1.3</v>
+      </c>
+      <c r="N32">
+        <f t="array" ref="N32">_xll.XLL.UDF(_xll.KAHAN.C,M32)</f>
+        <v>1.5981544934136136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="array" ref="B33:C33">_xll.BISECT(_xll.KAHAN.C,B32,C32)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="C33">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="E33">
+        <f t="array" ref="E33">_xll.XLL.UDF(_xll.KAHAN.C,B33)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+      <c r="H33">
+        <f t="array" ref="H33:I33">_xll.FALSE_POSITION(_xll.KAHAN.C,H32,I32)</f>
+        <v>1.7577720181837229</v>
+      </c>
+      <c r="I33">
+        <v>1.8</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>4.2227981816277183E-2</v>
+      </c>
+      <c r="K33">
+        <f t="array" ref="K33">_xll.XLL.UDF(_xll.KAHAN.C,H33)</f>
+        <v>9.9903196776386538E-10</v>
+      </c>
+      <c r="M33">
+        <v>1.31</v>
+      </c>
+      <c r="N33">
+        <f t="array" ref="N33">_xll.XLL.UDF(_xll.KAHAN.C,M33)</f>
+        <v>1.5922919143315686</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f t="array" ref="B34:C34">_xll.BISECT(_xll.KAHAN.C,B33,C33)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="C34">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="E34">
+        <f t="array" ref="E34">_xll.XLL.UDF(_xll.KAHAN.C,B34)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="H34">
+        <f t="array" ref="H34:I34">_xll.FALSE_POSITION(_xll.KAHAN.C,H33,I33)</f>
+        <v>1.7577720182189962</v>
+      </c>
+      <c r="I34">
+        <v>1.8</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>4.2227981781003843E-2</v>
+      </c>
+      <c r="K34">
+        <f t="array" ref="K34">_xll.XLL.UDF(_xll.KAHAN.C,H34)</f>
+        <v>4.4438053227298722E-10</v>
+      </c>
+      <c r="M34">
+        <v>1.32</v>
+      </c>
+      <c r="N34">
+        <f t="array" ref="N34">_xll.XLL.UDF(_xll.KAHAN.C,M34)</f>
+        <v>1.5859732048597075</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="array" ref="B35:C35">_xll.BISECT(_xll.KAHAN.C,B34,C34)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="C35">
+        <v>1.7577720187604429</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="E35">
+        <f t="array" ref="E35">_xll.XLL.UDF(_xll.KAHAN.C,B35)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="H35">
+        <f t="array" ref="H35:I35">_xll.FALSE_POSITION(_xll.KAHAN.C,H34,I34)</f>
+        <v>1.7577720182346861</v>
+      </c>
+      <c r="I35">
+        <v>1.8</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>4.2227981765313949E-2</v>
+      </c>
+      <c r="K35">
+        <f t="array" ref="K35">_xll.XLL.UDF(_xll.KAHAN.C,H35)</f>
+        <v>1.9766765999840542E-10</v>
+      </c>
+      <c r="M35">
+        <v>1.33</v>
+      </c>
+      <c r="N35">
+        <f t="array" ref="N35">_xll.XLL.UDF(_xll.KAHAN.C,M35)</f>
+        <v>1.5791833829704884</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="array" ref="B36:C36">_xll.BISECT(_xll.KAHAN.C,B35,C35)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="C36">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="E36">
+        <f t="array" ref="E36">_xll.XLL.UDF(_xll.KAHAN.C,B36)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+      <c r="H36">
+        <f t="array" ref="H36:I36">_xll.FALSE_POSITION(_xll.KAHAN.C,H35,I35)</f>
+        <v>1.7577720182416652</v>
+      </c>
+      <c r="I36">
+        <v>1.8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>4.2227981758334865E-2</v>
+      </c>
+      <c r="K36">
+        <f t="array" ref="K36">_xll.XLL.UDF(_xll.KAHAN.C,H36)</f>
+        <v>8.7924334475928847E-11</v>
+      </c>
+      <c r="M36">
+        <v>1.34</v>
+      </c>
+      <c r="N36">
+        <f t="array" ref="N36">_xll.XLL.UDF(_xll.KAHAN.C,M36)</f>
+        <v>1.5719064647880829</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="array" ref="B37:C37">_xll.BISECT(_xll.KAHAN.C,B36,C36)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="C37">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="E37">
+        <f t="array" ref="E37">_xll.XLL.UDF(_xll.KAHAN.C,B37)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="H37">
+        <f t="array" ref="H37:I37">_xll.FALSE_POSITION(_xll.KAHAN.C,H36,I36)</f>
+        <v>1.7577720182447696</v>
+      </c>
+      <c r="I37">
+        <v>1.8</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>4.2227981755230459E-2</v>
+      </c>
+      <c r="K37">
+        <f t="array" ref="K37">_xll.XLL.UDF(_xll.KAHAN.C,H37)</f>
+        <v>3.9110048532310515E-11</v>
+      </c>
+      <c r="M37">
+        <v>1.35</v>
+      </c>
+      <c r="N37">
+        <f t="array" ref="N37">_xll.XLL.UDF(_xll.KAHAN.C,M37)</f>
+        <v>1.5641253817814194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="array" ref="B38:C38">_xll.BISECT(_xll.KAHAN.C,B37,C37)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="C38">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="E38">
+        <f t="array" ref="E38">_xll.XLL.UDF(_xll.KAHAN.C,B38)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="H38">
+        <f t="array" ref="H38:I38">_xll.FALSE_POSITION(_xll.KAHAN.C,H37,I37)</f>
+        <v>1.7577720182461505</v>
+      </c>
+      <c r="I38">
+        <v>1.8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>4.2227981753849564E-2</v>
+      </c>
+      <c r="K38">
+        <f t="array" ref="K38">_xll.XLL.UDF(_xll.KAHAN.C,H38)</f>
+        <v>1.7395862528095343E-11</v>
+      </c>
+      <c r="M38">
+        <v>1.36</v>
+      </c>
+      <c r="N38">
+        <f t="array" ref="N38">_xll.XLL.UDF(_xll.KAHAN.C,M38)</f>
+        <v>1.555821888914364</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="array" ref="B39:C39">_xll.BISECT(_xll.KAHAN.C,B38,C38)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="C39">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="E39">
+        <f t="array" ref="E39">_xll.XLL.UDF(_xll.KAHAN.C,B39)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+      <c r="H39">
+        <f t="array" ref="H39:I39">_xll.FALSE_POSITION(_xll.KAHAN.C,H38,I38)</f>
+        <v>1.7577720182467647</v>
+      </c>
+      <c r="I39">
+        <v>1.8</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>4.2227981753235388E-2</v>
+      </c>
+      <c r="K39">
+        <f t="array" ref="K39">_xll.XLL.UDF(_xll.KAHAN.C,H39)</f>
+        <v>7.7378103923975542E-12</v>
+      </c>
+      <c r="M39">
+        <v>1.37</v>
+      </c>
+      <c r="N39">
+        <f t="array" ref="N39">_xll.XLL.UDF(_xll.KAHAN.C,M39)</f>
+        <v>1.5469764625564186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="array" ref="B40:C40">_xll.BISECT(_xll.KAHAN.C,B39,C39)</f>
+        <v>1.7577720182249323</v>
+      </c>
+      <c r="C40">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="E40">
+        <f t="array" ref="E40">_xll.XLL.UDF(_xll.KAHAN.C,B40)</f>
+        <v>3.5104008582698413E-10</v>
+      </c>
+      <c r="H40">
+        <f t="array" ref="H40:I40">_xll.FALSE_POSITION(_xll.KAHAN.C,H39,I39)</f>
+        <v>1.7577720182470378</v>
+      </c>
+      <c r="I40">
+        <v>1.8</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>4.2227981752962274E-2</v>
+      </c>
+      <c r="K40">
+        <f t="array" ref="K40">_xll.XLL.UDF(_xll.KAHAN.C,H40)</f>
+        <v>3.444355911591154E-12</v>
+      </c>
+      <c r="M40">
+        <v>1.38</v>
+      </c>
+      <c r="N40">
+        <f t="array" ref="N40">_xll.XLL.UDF(_xll.KAHAN.C,M40)</f>
+        <v>1.5375681867675914</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="array" ref="B41:C41">_xll.BISECT(_xll.KAHAN.C,B40,C40)</f>
+        <v>1.7577720182365739</v>
+      </c>
+      <c r="C41">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="E41">
+        <f t="array" ref="E41">_xll.XLL.UDF(_xll.KAHAN.C,B41)</f>
+        <v>1.6798118450377585E-10</v>
+      </c>
+      <c r="H41">
+        <f t="array" ref="H41:I41">_xll.FALSE_POSITION(_xll.KAHAN.C,H40,I40)</f>
+        <v>1.7577720182471595</v>
+      </c>
+      <c r="I41">
+        <v>1.8</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>4.2227981752840593E-2</v>
+      </c>
+      <c r="K41">
+        <f t="array" ref="K41">_xll.XLL.UDF(_xll.KAHAN.C,H41)</f>
+        <v>1.5312195955618436E-12</v>
+      </c>
+      <c r="M41">
+        <v>1.39</v>
+      </c>
+      <c r="N41">
+        <f t="array" ref="N41">_xll.XLL.UDF(_xll.KAHAN.C,M41)</f>
+        <v>1.5275746263462784</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="array" ref="B42:C42">_xll.BISECT(_xll.KAHAN.C,B41,C41)</f>
+        <v>1.7577720182423948</v>
+      </c>
+      <c r="C42">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="E42">
+        <f t="array" ref="E42">_xll.XLL.UDF(_xll.KAHAN.C,B42)</f>
+        <v>7.6450845651185615E-11</v>
+      </c>
+      <c r="H42">
+        <f t="array" ref="H42:I42">_xll.FALSE_POSITION(_xll.KAHAN.C,H41,I41)</f>
+        <v>1.7577720182472134</v>
+      </c>
+      <c r="I42">
+        <v>1.8</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>4.2227981752786636E-2</v>
+      </c>
+      <c r="K42">
+        <f t="array" ref="K42">_xll.XLL.UDF(_xll.KAHAN.C,H42)</f>
+        <v>6.8212102632946353E-13</v>
+      </c>
+      <c r="M42">
+        <v>1.4</v>
+      </c>
+      <c r="N42">
+        <f t="array" ref="N42">_xll.XLL.UDF(_xll.KAHAN.C,M42)</f>
+        <v>1.5169716847615065</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="array" ref="B43:C43">_xll.BISECT(_xll.KAHAN.C,B42,C42)</f>
+        <v>1.7577720182453052</v>
+      </c>
+      <c r="C43">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="E43">
+        <f t="array" ref="E43">_xll.XLL.UDF(_xll.KAHAN.C,B43)</f>
+        <v>3.0688340757007842E-11</v>
+      </c>
+      <c r="H43">
+        <f t="array" ref="H43:I43">_xll.FALSE_POSITION(_xll.KAHAN.C,H42,I42)</f>
+        <v>1.7577720182472374</v>
+      </c>
+      <c r="I43">
+        <v>1.8</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>4.2227981752762656E-2</v>
+      </c>
+      <c r="K43">
+        <f t="array" ref="K43">_xll.XLL.UDF(_xll.KAHAN.C,H43)</f>
+        <v>3.0375701953739668E-13</v>
+      </c>
+      <c r="M43">
+        <v>1.41</v>
+      </c>
+      <c r="N43">
+        <f t="array" ref="N43">_xll.XLL.UDF(_xll.KAHAN.C,M43)</f>
+        <v>1.5057334447715287</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="array" ref="B44:C44">_xll.BISECT(_xll.KAHAN.C,B43,C43)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="C44">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="E44">
+        <f t="array" ref="E44">_xll.XLL.UDF(_xll.KAHAN.C,B44)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="H44">
+        <f t="array" ref="H44:I44">_xll.FALSE_POSITION(_xll.KAHAN.C,H43,I43)</f>
+        <v>1.757772018247248</v>
+      </c>
+      <c r="I44">
+        <v>1.8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>4.2227981752751997E-2</v>
+      </c>
+      <c r="K44">
+        <f t="array" ref="K44">_xll.XLL.UDF(_xll.KAHAN.C,H44)</f>
+        <v>1.3677947663380992E-13</v>
+      </c>
+      <c r="M44">
+        <v>1.42</v>
+      </c>
+      <c r="N44">
+        <f t="array" ref="N44">_xll.XLL.UDF(_xll.KAHAN.C,M44)</f>
+        <v>1.4938319891477916</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f t="array" ref="B45:C45">_xll.BISECT(_xll.KAHAN.C,B44,C44)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="C45">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="E45">
+        <f t="array" ref="E45">_xll.XLL.UDF(_xll.KAHAN.C,B45)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+      <c r="H45">
+        <f t="array" ref="H45:I45">_xll.FALSE_POSITION(_xll.KAHAN.C,H44,I44)</f>
+        <v>1.7577720182472529</v>
+      </c>
+      <c r="I45">
+        <v>1.8</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>4.2227981752747112E-2</v>
+      </c>
+      <c r="K45">
+        <f t="array" ref="K45">_xll.XLL.UDF(_xll.KAHAN.C,H45)</f>
+        <v>6.0396132539606698E-14</v>
+      </c>
+      <c r="M45">
+        <v>1.43</v>
+      </c>
+      <c r="N45">
+        <f t="array" ref="N45">_xll.XLL.UDF(_xll.KAHAN.C,M45)</f>
+        <v>1.4812371984622343</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f t="array" ref="B46:C46">_xll.BISECT(_xll.KAHAN.C,B45,C45)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="C46">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="E46">
+        <f t="array" ref="E46">_xll.XLL.UDF(_xll.KAHAN.C,B46)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="H46">
+        <f t="array" ref="H46:I46">_xll.FALSE_POSITION(_xll.KAHAN.C,H45,I45)</f>
+        <v>1.7577720182472552</v>
+      </c>
+      <c r="I46">
+        <v>1.8</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>4.2227981752744892E-2</v>
+      </c>
+      <c r="K46">
+        <f t="array" ref="K46">_xll.XLL.UDF(_xll.KAHAN.C,H46)</f>
+        <v>2.4868995751603197E-14</v>
+      </c>
+      <c r="M46">
+        <v>1.44</v>
+      </c>
+      <c r="N46">
+        <f t="array" ref="N46">_xll.XLL.UDF(_xll.KAHAN.C,M46)</f>
+        <v>1.467916522338176</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f t="array" ref="B47:C47">_xll.BISECT(_xll.KAHAN.C,B46,C46)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="C47">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="E47">
+        <f t="array" ref="E47">_xll.XLL.UDF(_xll.KAHAN.C,B47)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+      <c r="H47">
+        <f t="array" ref="H47:I47">_xll.FALSE_POSITION(_xll.KAHAN.C,H46,I46)</f>
+        <v>1.757772018247256</v>
+      </c>
+      <c r="I47">
+        <v>1.8</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>4.2227981752744004E-2</v>
+      </c>
+      <c r="K47">
+        <f t="array" ref="K47">_xll.XLL.UDF(_xll.KAHAN.C,H47)</f>
+        <v>1.0658141036401446E-14</v>
+      </c>
+      <c r="M47">
+        <v>1.45</v>
+      </c>
+      <c r="N47">
+        <f t="array" ref="N47">_xll.XLL.UDF(_xll.KAHAN.C,M47)</f>
+        <v>1.4538347198874735</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f t="array" ref="B48:C48">_xll.BISECT(_xll.KAHAN.C,B47,C47)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="C48">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="E48">
+        <f t="array" ref="E48">_xll.XLL.UDF(_xll.KAHAN.C,B48)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="H48">
+        <f t="array" ref="H48:I48">_xll.FALSE_POSITION(_xll.KAHAN.C,H47,I47)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="I48">
+        <v>1.8</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>4.222798175274356E-2</v>
+      </c>
+      <c r="K48">
+        <f t="array" ref="K48">_xll.XLL.UDF(_xll.KAHAN.C,H48)</f>
+        <v>5.3290705182007372E-15</v>
+      </c>
+      <c r="M48">
+        <v>1.46</v>
+      </c>
+      <c r="N48">
+        <f t="array" ref="N48">_xll.XLL.UDF(_xll.KAHAN.C,M48)</f>
+        <v>1.4389535642292473</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f t="array" ref="B49:C49">_xll.BISECT(_xll.KAHAN.C,B48,C48)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="C49">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="E49">
+        <f t="array" ref="E49">_xll.XLL.UDF(_xll.KAHAN.C,B49)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+      <c r="H49">
+        <f t="array" ref="H49:I49">_xll.FALSE_POSITION(_xll.KAHAN.C,H48,I48)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="I49">
+        <v>1.8</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="K49">
+        <f t="array" ref="K49">_xll.XLL.UDF(_xll.KAHAN.C,H49)</f>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1.47</v>
+      </c>
+      <c r="N49">
+        <f t="array" ref="N49">_xll.XLL.UDF(_xll.KAHAN.C,M49)</f>
+        <v>1.4232315049700346</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <f t="array" ref="B50:C50">_xll.BISECT(_xll.KAHAN.C,B49,C49)</f>
+        <v>1.7577720182472376</v>
+      </c>
+      <c r="C50">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="E50">
+        <f t="array" ref="E50">_xll.XLL.UDF(_xll.KAHAN.C,B50)</f>
+        <v>3.0198066269799699E-13</v>
+      </c>
+      <c r="M50">
+        <v>1.48</v>
+      </c>
+      <c r="N50">
+        <f t="array" ref="N50">_xll.XLL.UDF(_xll.KAHAN.C,M50)</f>
+        <v>1.406623281272235</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f t="array" ref="B51:C51">_xll.BISECT(_xll.KAHAN.C,B50,C50)</f>
+        <v>1.7577720182472492</v>
+      </c>
+      <c r="C51">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="E51">
+        <f t="array" ref="E51">_xll.XLL.UDF(_xll.KAHAN.C,B51)</f>
+        <v>1.2079226507920974E-13</v>
+      </c>
+      <c r="M51">
+        <v>1.49</v>
+      </c>
+      <c r="N51">
+        <f t="array" ref="N51">_xll.XLL.UDF(_xll.KAHAN.C,M51)</f>
+        <v>1.3890794765826826</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f t="array" ref="B52:C52">_xll.BISECT(_xll.KAHAN.C,B51,C51)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="C52">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="E52">
+        <f t="array" ref="E52">_xll.XLL.UDF(_xll.KAHAN.C,B52)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+      <c r="M52">
+        <v>1.5</v>
+      </c>
+      <c r="N52">
+        <f t="array" ref="N52">_xll.XLL.UDF(_xll.KAHAN.C,M52)</f>
+        <v>1.3705460041517514</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="array" ref="B53:C53">_xll.BISECT(_xll.KAHAN.C,B52,C52)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="C53">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="E53">
+        <f t="array" ref="E53">_xll.XLL.UDF(_xll.KAHAN.C,B53)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+      <c r="M53">
+        <v>1.51</v>
+      </c>
+      <c r="N53">
+        <f t="array" ref="N53">_xll.XLL.UDF(_xll.KAHAN.C,M53)</f>
+        <v>1.3509635100340096</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="array" ref="B54:C54">_xll.BISECT(_xll.KAHAN.C,B53,C53)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="C54">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="array" ref="E54">_xll.XLL.UDF(_xll.KAHAN.C,B54)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+      <c r="M54">
+        <v>1.52</v>
+      </c>
+      <c r="N54">
+        <f t="array" ref="N54">_xll.XLL.UDF(_xll.KAHAN.C,M54)</f>
+        <v>1.3302666771756413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="array" ref="B55:C55">_xll.BISECT(_xll.KAHAN.C,B54,C54)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="C55">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="array" ref="E55">_xll.XLL.UDF(_xll.KAHAN.C,B55)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+      <c r="M55">
+        <v>1.53</v>
+      </c>
+      <c r="N55">
+        <f t="array" ref="N55">_xll.XLL.UDF(_xll.KAHAN.C,M55)</f>
+        <v>1.3083834102623439</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="array" ref="B56:C56">_xll.BISECT(_xll.KAHAN.C,B55,C55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="C56">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="array" ref="E56">_xll.XLL.UDF(_xll.KAHAN.C,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1.54</v>
+      </c>
+      <c r="N56">
+        <f t="array" ref="N56">_xll.XLL.UDF(_xll.KAHAN.C,M56)</f>
+        <v>1.2852338759541306</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>1.55</v>
+      </c>
+      <c r="N57">
+        <f t="array" ref="N57">_xll.XLL.UDF(_xll.KAHAN.C,M57)</f>
+        <v>1.2607293666010257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>1.56</v>
+      </c>
+      <c r="N58">
+        <f t="array" ref="N58">_xll.XLL.UDF(_xll.KAHAN.C,M58)</f>
+        <v>1.234770947005621</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>1.57</v>
+      </c>
+      <c r="N59">
+        <f t="array" ref="N59">_xll.XLL.UDF(_xll.KAHAN.C,M59)</f>
+        <v>1.2072478325616116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>1.58</v>
+      </c>
+      <c r="N60">
+        <f t="array" ref="N60">_xll.XLL.UDF(_xll.KAHAN.C,M60)</f>
+        <v>1.1780354321436872</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>1.59</v>
+      </c>
+      <c r="N61">
+        <f t="array" ref="N61">_xll.XLL.UDF(_xll.KAHAN.C,M61)</f>
+        <v>1.1469929690104816</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1.6</v>
+      </c>
+      <c r="N62">
+        <f t="array" ref="N62">_xll.XLL.UDF(_xll.KAHAN.C,M62)</f>
+        <v>1.1139605656149092</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1.61</v>
+      </c>
+      <c r="N63">
+        <f t="array" ref="N63">_xll.XLL.UDF(_xll.KAHAN.C,M63)</f>
+        <v>1.0787556405128291</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>1.62</v>
+      </c>
+      <c r="N64">
+        <f t="array" ref="N64">_xll.XLL.UDF(_xll.KAHAN.C,M64)</f>
+        <v>1.0411684129113139</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>1.63</v>
+      </c>
+      <c r="N65">
+        <f t="array" ref="N65">_xll.XLL.UDF(_xll.KAHAN.C,M65)</f>
+        <v>1.0009562357872155</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>1.64</v>
+      </c>
+      <c r="N66">
+        <f t="array" ref="N66">_xll.XLL.UDF(_xll.KAHAN.C,M66)</f>
+        <v>0.95783637106044062</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>1.65</v>
+      </c>
+      <c r="N67">
+        <f t="array" ref="N67">_xll.XLL.UDF(_xll.KAHAN.C,M67)</f>
+        <v>0.91147666281590012</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>1.66</v>
+      </c>
+      <c r="N68">
+        <f t="array" ref="N68">_xll.XLL.UDF(_xll.KAHAN.C,M68)</f>
+        <v>0.86148332918162951</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>1.67</v>
+      </c>
+      <c r="N69">
+        <f t="array" ref="N69">_xll.XLL.UDF(_xll.KAHAN.C,M69)</f>
+        <v>0.80738473397117805</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>1.68</v>
+      </c>
+      <c r="N70">
+        <f t="array" ref="N70">_xll.XLL.UDF(_xll.KAHAN.C,M70)</f>
+        <v>0.74860943673743552</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>1.69</v>
+      </c>
+      <c r="N71">
+        <f t="array" ref="N71">_xll.XLL.UDF(_xll.KAHAN.C,M71)</f>
+        <v>0.68445591570042996</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>1.7</v>
+      </c>
+      <c r="N72">
+        <f t="array" ref="N72">_xll.XLL.UDF(_xll.KAHAN.C,M72)</f>
+        <v>0.61404985920124333</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>1.71</v>
+      </c>
+      <c r="N73">
+        <f t="array" ref="N73">_xll.XLL.UDF(_xll.KAHAN.C,M73)</f>
+        <v>0.53628234825093712</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>1.72</v>
+      </c>
+      <c r="N74">
+        <f t="array" ref="N74">_xll.XLL.UDF(_xll.KAHAN.C,M74)</f>
+        <v>0.44971765315534612</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>1.73</v>
+      </c>
+      <c r="N75">
+        <f t="array" ref="N75">_xll.XLL.UDF(_xll.KAHAN.C,M75)</f>
+        <v>0.35245074757064193</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>1.74</v>
+      </c>
+      <c r="N76">
+        <f t="array" ref="N76">_xll.XLL.UDF(_xll.KAHAN.C,M76)</f>
+        <v>0.24187756078286488</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>1.75</v>
+      </c>
+      <c r="N77">
+        <f t="array" ref="N77">_xll.XLL.UDF(_xll.KAHAN.C,M77)</f>
+        <v>0.11430477128005863</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>1.76</v>
+      </c>
+      <c r="N78">
+        <f t="array" ref="N78">_xll.XLL.UDF(_xll.KAHAN.C,M78)</f>
+        <v>-3.5757507379225208E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>1.77</v>
+      </c>
+      <c r="N79">
+        <f t="array" ref="N79">_xll.XLL.UDF(_xll.KAHAN.C,M79)</f>
+        <v>-0.21699053251933142</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>1.78</v>
+      </c>
+      <c r="N80">
+        <f t="array" ref="N80">_xll.XLL.UDF(_xll.KAHAN.C,M80)</f>
+        <v>-0.4443492315141308</v>
+      </c>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>1.79</v>
+      </c>
+      <c r="N81">
+        <f t="array" ref="N81">_xll.XLL.UDF(_xll.KAHAN.C,M81)</f>
+        <v>-0.74708989735900511</v>
+      </c>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>1.8</v>
+      </c>
+      <c r="N82">
+        <f t="array" ref="N82">_xll.XLL.UDF(_xll.KAHAN.C,M82)</f>
+        <v>-1.1960046346767577</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiqi\source\repos\xllfloat_homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6253FA1-9809-4334-B672-B2F1F8B78FF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221B6C8-4092-44B3-B1AB-7D8F3DF547C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12312" activeTab="2" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="KAHAN.A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="function">KAHAN.A!$C$2</definedName>
     <definedName name="xvalues">_xll.ARRAY.GET(KAHAN.A!$N$5)</definedName>
-    <definedName name="yvalues">_xll.ARRAY.GET(KAHAN.A!$O$5)</definedName>
+    <definedName name="yvalues">_xll.ARRAY.GET(KAHAN.A!#REF!)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -188,10 +188,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -336,67 +336,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.05</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.35</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.45</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.55</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.65</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.75</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.85</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.95</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,67 +408,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>-0.4000999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.08449375</c:v>
+                  <c:v>-0.37012155062499996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1359000000000004</c:v>
+                  <c:v>-0.34014641000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1509937499999996</c:v>
+                  <c:v>-0.31017490062499997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1263999999999994</c:v>
+                  <c:v>-0.28020736000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.05859375</c:v>
+                  <c:v>-0.250244140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9439000000000002</c:v>
+                  <c:v>-0.22028561000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7784937500000009</c:v>
+                  <c:v>-0.19033215062499997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5583999999999989</c:v>
+                  <c:v>-0.16038415999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2794937499999994</c:v>
+                  <c:v>-0.13044205062500014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9375</c:v>
+                  <c:v>-0.10050625000000013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5279937500000003</c:v>
+                  <c:v>-7.0577200625000058E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0464000000000002</c:v>
+                  <c:v>-4.0655360000000029E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4879937500000002</c:v>
+                  <c:v>-1.0741200625000058E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84790000000000099</c:v>
+                  <c:v>1.9164790000000043E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12109375</c:v>
+                  <c:v>4.9062109374999885E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.69759999999999955</c:v>
+                  <c:v>7.8950240000000171E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.6135062500000004</c:v>
+                  <c:v>0.10882864937499992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.6320999999999994</c:v>
+                  <c:v>0.13869679000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.7590062499999988</c:v>
+                  <c:v>0.16855409937499988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5</c:v>
+                  <c:v>0.19840000000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,64 +890,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.2</c:v>
@@ -962,64 +962,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-0.63212055882855767</c:v>
+                  <c:v>-0.3297469826174757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.60937216854775722</c:v>
+                  <c:v>-0.30934962344980399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.58521715468367919</c:v>
+                  <c:v>-0.28833387990200376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.55956870224349642</c:v>
+                  <c:v>-0.26668131288925767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.53233477021461151</c:v>
+                  <c:v>-0.24437296161336708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.50341779985704016</c:v>
+                  <c:v>-0.22138933063034139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.47271440962248479</c:v>
+                  <c:v>-0.19771037670256164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.44011507643299541</c:v>
+                  <c:v>-0.17331549543814118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.40550380309273737</c:v>
+                  <c:v>-0.14818350772058508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.36875777165435086</c:v>
+                  <c:v>-0.12229264593235967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.3297469826174757</c:v>
+                  <c:v>-9.5620539976518537E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.28833387990200376</c:v>
+                  <c:v>-6.8144203101102363E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.24437296161336708</c:v>
+                  <c:v>-3.9840017531624361E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.19771037670256164</c:v>
+                  <c:v>-1.0683719917586654E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.14818350772058508</c:v>
+                  <c:v>1.9349613400361898E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.5620539976518537E-2</c:v>
+                  <c:v>5.0285581295318238E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.9840017531624361E-2</c:v>
+                  <c:v>8.2150472923026685E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9349613400361898E-2</c:v>
+                  <c:v>0.11497128294596659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2150472923026685E-2</c:v>
+                  <c:v>0.14877572690301588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14877572690301588</c:v>
+                  <c:v>0.1835922567141981</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.21945007630916669</c:v>
@@ -1434,504 +1434,144 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>KAHAN.C!$M$2:$M$82</c:f>
+              <c:f>KAHAN.C!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.05</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.07</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.17</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.18</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.19</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KAHAN.C!$N$2:$N$82</c:f>
+              <c:f>KAHAN.C!$N$2:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>-0.51099230432308951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6133096057473884</c:v>
+                  <c:v>-0.46222841571139245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6169233941796408</c:v>
+                  <c:v>-0.41573730190365249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6202771926091701</c:v>
+                  <c:v>-0.37131719268877245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.623368714649863</c:v>
+                  <c:v>-0.32879210845200041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6261954670222203</c:v>
+                  <c:v>-0.28800764627852132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6287547433189364</c:v>
+                  <c:v>-0.24882759302054969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6310436171303588</c:v>
+                  <c:v>-0.21113117791427077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6330589344910011</c:v>
+                  <c:v>-0.17481082508689511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6347973056037144</c:v>
+                  <c:v>-0.13977030062883897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.636255095793125</c:v>
+                  <c:v>-0.10592317392030266</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.637428415634427</c:v>
+                  <c:v>-7.319153134852234E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6383131101975512</c:v>
+                  <c:v>-4.1504894309913616E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6389047473399829</c:v>
+                  <c:v>-1.0799303759954434E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6391986049740386</c:v>
+                  <c:v>1.8983458535714089E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6391896572260822</c:v>
+                  <c:v>4.7896535835877094E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6388725593958813</c:v>
+                  <c:v>7.598856843779514E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6382416316139157</c:v>
+                  <c:v>0.10330418730061793</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6372908410828091</c:v>
+                  <c:v>0.12988444182632136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6360137827759778</c:v>
+                  <c:v>0.15576717206368904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6344036584518482</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6324532538253782</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6301549137198026</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6275005150002031</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.624481437066277</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6210885296540756</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.6173120776650005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6131417627042917</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6085666209699085</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6035749970851556</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5981544934136136</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5922919143315686</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.5859732048597075</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.5791833829704884</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.5719064647880829</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5641253817814194</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.555821888914364</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5469764625564186</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.5375681867675914</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5275746263462784</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5169716847615065</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.5057334447715287</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4938319891477916</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4812371984622343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.467916522338176</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4538347198874735</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4389535642292473</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4232315049700346</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.406623281272235</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.3890794765826826</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.3705460041517514</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.3509635100340096</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.3302666771756413</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.3083834102623439</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.2852338759541306</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.2607293666010257</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.234770947005621</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.2072478325616116</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1780354321436872</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.1469929690104816</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1139605656149092</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.0787556405128291</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0411684129113139</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0009562357872155</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.95783637106044062</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.91147666281590012</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.86148332918162951</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.80738473397117805</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.74860943673743552</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.68445591570042996</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.61404985920124333</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.53628234825093712</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.44971765315534612</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.35245074757064193</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.24187756078286488</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.11430477128005863</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-3.5757507379225208E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.21699053251933142</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.4443492315141308</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.74708989735900511</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-1.1960046346767577</c:v>
+                  <c:v>0.18098733378081808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,15 +3475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8829</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>582201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3876,13 +3516,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
+      <xdr:colOff>570831</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>311019</xdr:colOff>
+      <xdr:colOff>266329</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85531</xdr:rowOff>
     </xdr:to>
@@ -3917,13 +3557,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -4250,19 +3890,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B1:Q57"/>
+  <dimension ref="B1:Q58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
@@ -4285,11 +3928,11 @@
         <v>-1412235196</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P2">
         <f t="array" ref="P2">_xll.XLL.UDF(_xll.KAHAN.A,O2)</f>
-        <v>4</v>
+        <v>-0.4000999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -4297,49 +3940,49 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
-        <v>4</v>
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <f t="array" ref="D3">_xll.XLL.UDF(_xll.KAHAN.A,C3)</f>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="O3">
-        <v>1.05</v>
+        <v>0.105</v>
       </c>
       <c r="P3">
         <f t="array" ref="P3">_xll.XLL.UDF(_xll.KAHAN.A,O3)</f>
-        <v>4.08449375</v>
+        <v>-0.37012155062499996</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4">_xll.XLL.UDF(_xll.KAHAN.A,C4)</f>
+        <v>0.19840000000000013</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="O4">
-        <v>1.1000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="P4">
         <f t="array" ref="P4">_xll.XLL.UDF(_xll.KAHAN.A,O4)</f>
-        <v>4.1359000000000004</v>
+        <v>-0.34014641000000001</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O5">
-        <v>1.1499999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="P5">
         <f t="array" ref="P5">_xll.XLL.UDF(_xll.KAHAN.A,O5)</f>
-        <v>4.1509937499999996</v>
+        <v>-0.31017490062499997</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -4368,11 +4011,11 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="P6">
         <f t="array" ref="P6">_xll.XLL.UDF(_xll.KAHAN.A,O6)</f>
-        <v>4.1263999999999994</v>
+        <v>-0.28020736000000002</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
@@ -4380,1389 +4023,1106 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" cm="1">
-        <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+      <c r="C7">
+        <f t="array" ref="C7:D7">_xll.BISECT(_xll.KAHAN.A,C3,C4)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F7">
+        <f t="array" ref="F7">_xll.XLL.UDF(_xll.KAHAN.A,C7)</f>
+        <v>-0.10050624999999991</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7">
         <f t="array" ref="I7:J7">_xll.FALSE_POSITION(_xll.KAHAN.A,C3,C4)</f>
-        <v>1.4444444444444444</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0.16685045948203842</v>
       </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0.55555555555555558</v>
+        <v>6.685045948203841E-2</v>
       </c>
       <c r="L7">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I7)</f>
-        <v>3.31351928059747</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O7">
-        <v>1.25</v>
+        <v>0.125</v>
       </c>
       <c r="P7">
         <f t="array" ref="P7">_xll.XLL.UDF(_xll.KAHAN.A,O7)</f>
-        <v>4.05859375</v>
+        <v>-0.250244140625</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C8" cm="1">
-        <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+      <c r="C8">
+        <f t="array" ref="C8:D8">_xll.BISECT(_xll.KAHAN.A,C7,D7)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
-      </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
+        <f t="shared" ref="E8:E60" si="0">D8-C8</f>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="F8">
+        <f t="array" ref="F8">_xll.XLL.UDF(_xll.KAHAN.A,C8)</f>
+        <v>-0.10050624999999991</v>
       </c>
       <c r="I8">
         <f t="array" ref="I8:J8">_xll.FALSE_POSITION(_xll.KAHAN.A,I7,J7)</f>
-        <v>1.6658722156017967</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0.1667957436093935</v>
       </c>
       <c r="K8">
         <f>J8-I8</f>
-        <v>0.33412778439820334</v>
+        <v>6.6795743609393499E-2</v>
       </c>
       <c r="L8">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I8)</f>
-        <v>1.2938854517857425</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O8">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="P8">
         <f t="array" ref="P8">_xll.XLL.UDF(_xll.KAHAN.A,O8)</f>
-        <v>3.9439000000000002</v>
+        <v>-0.22028561000000002</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C9" cm="1">
-        <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+      <c r="C9">
+        <f t="array" ref="C9:D9">_xll.BISECT(_xll.KAHAN.A,C8,D8)</f>
+        <v>0.16250000000000003</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
+        <v>1.2499999999999983E-2</v>
+      </c>
+      <c r="F9">
+        <f t="array" ref="F9">_xll.XLL.UDF(_xll.KAHAN.A,C9)</f>
+        <v>-2.5697290039062293E-2</v>
       </c>
       <c r="I9">
         <f t="array" ref="I9:J9">_xll.FALSE_POSITION(_xll.KAHAN.A,I8,J8)</f>
-        <v>1.7345615939805494</v>
+        <v>0.1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0.16679566620820963</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K33" si="1">J9-I9</f>
-        <v>0.26543840601945057</v>
+        <v>6.679566620820962E-2</v>
       </c>
       <c r="L9">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I9)</f>
-        <v>0.35507026572820344</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O9">
-        <v>1.35</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="P9">
         <f t="array" ref="P9">_xll.XLL.UDF(_xll.KAHAN.A,O9)</f>
-        <v>3.7784937500000009</v>
+        <v>-0.19033215062499997</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C10" cm="1">
-        <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
-        <v>1.75</v>
+      <c r="C10">
+        <f t="array" ref="C10:D10">_xll.BISECT(_xll.KAHAN.A,C9,D9)</f>
+        <v>0.16250000000000003</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
-        <v>0.12109375</v>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F10">
+        <f t="array" ref="F10">_xll.XLL.UDF(_xll.KAHAN.A,C10)</f>
+        <v>-2.5697290039062293E-2</v>
       </c>
       <c r="I10">
         <f t="array" ref="I10:J10">_xll.FALSE_POSITION(_xll.KAHAN.A,I9,J9)</f>
-        <v>1.7521616030715563</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0.1667956660987463</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.24783839692844367</v>
+        <v>6.6795666098746292E-2</v>
       </c>
       <c r="L10">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I10)</f>
-        <v>8.7638074160922841E-2</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O10">
-        <v>1.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P10">
         <f t="array" ref="P10">_xll.XLL.UDF(_xll.KAHAN.A,O10)</f>
-        <v>3.5583999999999989</v>
+        <v>-0.16038415999999989</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C11" cm="1">
-        <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
-        <v>1.75</v>
+      <c r="C11">
+        <f t="array" ref="C11:D11">_xll.BISECT(_xll.KAHAN.A,C10,D10)</f>
+        <v>0.16562500000000002</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
-        <v>0.12109375</v>
+        <v>3.1249999999999889E-3</v>
+      </c>
+      <c r="F11">
+        <f t="array" ref="F11">_xll.XLL.UDF(_xll.KAHAN.A,C11)</f>
+        <v>-7.002494907379031E-3</v>
       </c>
       <c r="I11">
         <f t="array" ref="I11:J11">_xll.FALSE_POSITION(_xll.KAHAN.A,I10,J10)</f>
-        <v>1.7564307903630523</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0.16679566609859145</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.24356920963694773</v>
+        <v>6.6795666098591444E-2</v>
       </c>
       <c r="L11">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I11)</f>
-        <v>2.1056661126134912E-2</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O11">
-        <v>1.45</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="P11">
         <f t="array" ref="P11">_xll.XLL.UDF(_xll.KAHAN.A,O11)</f>
-        <v>3.2794937499999994</v>
+        <v>-0.13044205062500014</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C12" cm="1">
-        <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
-        <v>1.75</v>
+      <c r="C12">
+        <f t="array" ref="C12:D12">_xll.BISECT(_xll.KAHAN.A,C11,D11)</f>
+        <v>0.16562500000000002</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
-        <v>0.12109375</v>
+        <v>1.5624999999999944E-3</v>
+      </c>
+      <c r="F12">
+        <f t="array" ref="F12">_xll.XLL.UDF(_xll.KAHAN.A,C12)</f>
+        <v>-7.002494907379031E-3</v>
       </c>
       <c r="I12">
         <f t="array" ref="I12:J12">_xll.FALSE_POSITION(_xll.KAHAN.A,I11,J11)</f>
-        <v>1.7574522395627383</v>
+        <v>0.1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.24254776043726167</v>
+        <v>6.679566609859125E-2</v>
       </c>
       <c r="L12">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I12)</f>
-        <v>5.026429905560903E-3</v>
+        <v>-0.4000999999999999</v>
       </c>
       <c r="O12">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="P12">
         <f t="array" ref="P12">_xll.XLL.UDF(_xll.KAHAN.A,O12)</f>
-        <v>2.9375</v>
+        <v>-0.10050625000000013</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C13" cm="1">
-        <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+      <c r="C13">
+        <f t="array" ref="C13:D13">_xll.BISECT(_xll.KAHAN.A,C12,D12)</f>
+        <v>0.16640625000000003</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
+        <v>7.8124999999998335E-4</v>
+      </c>
+      <c r="F13">
+        <f t="array" ref="F13">_xll.XLL.UDF(_xll.KAHAN.A,C13)</f>
+        <v>-2.329293698444812E-3</v>
       </c>
       <c r="I13">
         <f t="array" ref="I13:J13">_xll.FALSE_POSITION(_xll.KAHAN.A,I12,J12)</f>
-        <v>1.7576958245534797</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0.24230417544652028</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f>_xll.XLL.UDF(_xll.KAHAN.A,I13)</f>
-        <v>1.1979918895814734E-3</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.55</v>
+        <v>0.155</v>
       </c>
       <c r="P13">
         <f t="array" ref="P13">_xll.XLL.UDF(_xll.KAHAN.A,O13)</f>
-        <v>2.5279937500000003</v>
+        <v>-7.0577200625000058E-2</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C14" cm="1">
-        <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+      <c r="C14">
+        <f t="array" ref="C14:D14">_xll.BISECT(_xll.KAHAN.A,C13,D13)</f>
+        <v>0.16640625000000003</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-      <c r="I14">
-        <f t="array" ref="I14:J14">_xll.FALSE_POSITION(_xll.KAHAN.A,I13,J13)</f>
-        <v>1.7577538663341625</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.24224613366583747</v>
-      </c>
-      <c r="L14">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I14)</f>
-        <v>2.8542168946543711E-4</v>
+        <v>3.906249999999778E-4</v>
+      </c>
+      <c r="F14">
+        <f t="array" ref="F14">_xll.XLL.UDF(_xll.KAHAN.A,C14)</f>
+        <v>-2.329293698444812E-3</v>
       </c>
       <c r="O14">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="P14">
         <f t="array" ref="P14">_xll.XLL.UDF(_xll.KAHAN.A,O14)</f>
-        <v>2.0464000000000002</v>
+        <v>-4.0655360000000029E-2</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C15" cm="1">
-        <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+      <c r="C15">
+        <f t="array" ref="C15:D15">_xll.BISECT(_xll.KAHAN.A,C14,D14)</f>
+        <v>0.16660156250000002</v>
       </c>
       <c r="D15">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-      <c r="I15">
-        <f t="array" ref="I15:J15">_xll.FALSE_POSITION(_xll.KAHAN.A,I14,J14)</f>
-        <v>1.7577676940049665</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0.24223230599503354</v>
-      </c>
-      <c r="L15">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I15)</f>
-        <v>6.7995734386983031E-5</v>
+        <v>1.953124999999889E-4</v>
+      </c>
+      <c r="F15">
+        <f t="array" ref="F15">_xll.XLL.UDF(_xll.KAHAN.A,C15)</f>
+        <v>-1.1610250117969345E-3</v>
       </c>
       <c r="O15">
-        <v>1.65</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P15">
         <f t="array" ref="P15">_xll.XLL.UDF(_xll.KAHAN.A,O15)</f>
-        <v>1.4879937500000002</v>
+        <v>-1.0741200625000058E-2</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C16" cm="1">
-        <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+      <c r="C16">
+        <f t="array" ref="C16:D16">_xll.BISECT(_xll.KAHAN.A,C15,D15)</f>
+        <v>0.16669921875000002</v>
       </c>
       <c r="D16">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-      <c r="I16">
-        <f t="array" ref="I16:J16">_xll.FALSE_POSITION(_xll.KAHAN.A,I15,J15)</f>
-        <v>1.7577709881128771</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>0.24222901188712287</v>
-      </c>
-      <c r="L16">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I16)</f>
-        <v>1.6198217164031803E-5</v>
+        <v>9.7656249999994449E-5</v>
+      </c>
+      <c r="F16">
+        <f t="array" ref="F16">_xll.XLL.UDF(_xll.KAHAN.A,C16)</f>
+        <v>-5.7689543125893916E-4</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="P16">
         <f t="array" ref="P16">_xll.XLL.UDF(_xll.KAHAN.A,O16)</f>
-        <v>0.84790000000000099</v>
+        <v>1.9164790000000043E-2</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" cm="1">
-        <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+      <c r="C17">
+        <f t="array" ref="C17:D17">_xll.BISECT(_xll.KAHAN.A,C16,D16)</f>
+        <v>0.166748046875</v>
       </c>
       <c r="D17">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-      <c r="I17">
-        <f t="array" ref="I17:J17">_xll.FALSE_POSITION(_xll.KAHAN.A,I16,J16)</f>
-        <v>1.7577717728459625</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>0.24222822715403747</v>
-      </c>
-      <c r="L17">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I17)</f>
-        <v>3.8587850408333679E-6</v>
+        <v>4.8828125000011102E-5</v>
+      </c>
+      <c r="F17">
+        <f t="array" ref="F17">_xll.XLL.UDF(_xll.KAHAN.A,C17)</f>
+        <v>-2.8483183331573514E-4</v>
       </c>
       <c r="O17">
-        <v>1.75</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="P17">
         <f t="array" ref="P17">_xll.XLL.UDF(_xll.KAHAN.A,O17)</f>
-        <v>0.12109375</v>
+        <v>4.9062109374999885E-2</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C18" cm="1">
-        <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+      <c r="C18">
+        <f t="array" ref="C18:D18">_xll.BISECT(_xll.KAHAN.A,C17,D17)</f>
+        <v>0.16677246093750001</v>
       </c>
       <c r="D18">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-      <c r="I18">
-        <f t="array" ref="I18:J18">_xll.FALSE_POSITION(_xll.KAHAN.A,I17,J17)</f>
-        <v>1.7577719597871502</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>0.24222804021284983</v>
-      </c>
-      <c r="L18">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I18)</f>
-        <v>9.1924957246192207E-7</v>
+        <v>2.4414062500005551E-5</v>
+      </c>
+      <c r="F18">
+        <f t="array" ref="F18">_xll.XLL.UDF(_xll.KAHAN.A,C18)</f>
+        <v>-1.3880033262925195E-4</v>
       </c>
       <c r="O18">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="P18">
         <f t="array" ref="P18">_xll.XLL.UDF(_xll.KAHAN.A,O18)</f>
-        <v>-0.69759999999999955</v>
+        <v>7.8950240000000171E-2</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C19" cm="1">
-        <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+      <c r="C19">
+        <f t="array" ref="C19:D19">_xll.BISECT(_xll.KAHAN.A,C18,D18)</f>
+        <v>0.16678466796875002</v>
       </c>
       <c r="D19">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-      <c r="I19">
-        <f t="array" ref="I19:J19">_xll.FALSE_POSITION(_xll.KAHAN.A,I18,J18)</f>
-        <v>1.7577720043207465</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>0.24222799567925346</v>
-      </c>
-      <c r="L19">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I19)</f>
-        <v>2.1898590318869537E-7</v>
+        <v>1.2207031249988898E-5</v>
+      </c>
+      <c r="F19">
+        <f t="array" ref="F19">_xll.XLL.UDF(_xll.KAHAN.A,C19)</f>
+        <v>-6.5784656882783565E-5</v>
       </c>
       <c r="O19">
-        <v>1.85</v>
+        <v>0.185</v>
       </c>
       <c r="P19">
         <f t="array" ref="P19">_xll.XLL.UDF(_xll.KAHAN.A,O19)</f>
-        <v>-1.6135062500000004</v>
+        <v>0.10882864937499992</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" cm="1">
-        <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+      <c r="C20">
+        <f t="array" ref="C20:D20">_xll.BISECT(_xll.KAHAN.A,C19,D19)</f>
+        <v>0.16679077148437502</v>
       </c>
       <c r="D20">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-      <c r="I20">
-        <f t="array" ref="I20:J20">_xll.FALSE_POSITION(_xll.KAHAN.A,I19,J19)</f>
-        <v>1.7577720149296494</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>0.24222798507035059</v>
-      </c>
-      <c r="L20">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I20)</f>
-        <v>5.2167358433052868E-8</v>
+        <v>6.1035156249944489E-6</v>
+      </c>
+      <c r="F20">
+        <f t="array" ref="F20">_xll.XLL.UDF(_xll.KAHAN.A,C20)</f>
+        <v>-2.9276837662073341E-5</v>
       </c>
       <c r="O20">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="P20">
         <f t="array" ref="P20">_xll.XLL.UDF(_xll.KAHAN.A,O20)</f>
-        <v>-2.6320999999999994</v>
+        <v>0.13869679000000001</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" cm="1">
-        <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+      <c r="C21">
+        <f t="array" ref="C21:D21">_xll.BISECT(_xll.KAHAN.A,C20,D20)</f>
+        <v>0.1667938232421875</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
-      </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-      <c r="I21">
-        <f t="array" ref="I21:J21">_xll.FALSE_POSITION(_xll.KAHAN.A,I20,J20)</f>
-        <v>1.7577720174569282</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>0.24222798254307176</v>
-      </c>
-      <c r="L21">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I21)</f>
-        <v>1.2427435081008298E-8</v>
+        <v>3.0517578125111022E-6</v>
+      </c>
+      <c r="F21">
+        <f t="array" ref="F21">_xll.XLL.UDF(_xll.KAHAN.A,C21)</f>
+        <v>-1.1022932715154532E-5</v>
       </c>
       <c r="O21">
-        <v>1.95</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="P21">
         <f t="array" ref="P21">_xll.XLL.UDF(_xll.KAHAN.A,O21)</f>
-        <v>-3.7590062499999988</v>
+        <v>0.16855409937499988</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" cm="1">
-        <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+      <c r="C22">
+        <f t="array" ref="C22:D22">_xll.BISECT(_xll.KAHAN.A,C21,D21)</f>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-      <c r="I22">
-        <f t="array" ref="I22:J22">_xll.FALSE_POSITION(_xll.KAHAN.A,I21,J21)</f>
-        <v>1.7577720180589826</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0.24222798194101736</v>
-      </c>
-      <c r="L22">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I22)</f>
-        <v>2.9604958484696908E-9</v>
+        <v>1.5258789062555511E-6</v>
+      </c>
+      <c r="F22">
+        <f t="array" ref="F22">_xll.XLL.UDF(_xll.KAHAN.A,C22)</f>
+        <v>-1.8959814075403258E-6</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P22">
         <f t="array" ref="P22">_xll.XLL.UDF(_xll.KAHAN.A,O22)</f>
-        <v>-5</v>
+        <v>0.19840000000000013</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C23" cm="1">
-        <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+      <c r="C23">
+        <f t="array" ref="C23:D23">_xll.BISECT(_xll.KAHAN.A,C22,D22)</f>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>0.1667961120605469</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
-      </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-      <c r="I23">
-        <f t="array" ref="I23:J23">_xll.FALSE_POSITION(_xll.KAHAN.A,I22,J22)</f>
-        <v>1.7577720182024057</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>0.24222798179759431</v>
-      </c>
-      <c r="L23">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I23)</f>
-        <v>7.0525629780604504E-10</v>
+        <v>7.6293945314165335E-7</v>
+      </c>
+      <c r="F23">
+        <f t="array" ref="F23">_xll.XLL.UDF(_xll.KAHAN.A,C23)</f>
+        <v>-1.8959814075403258E-6</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" cm="1">
-        <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+      <c r="C24">
+        <f t="array" ref="C24:D24">_xll.BISECT(_xll.KAHAN.A,C23,D23)</f>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
-      </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-      <c r="I24">
-        <f t="array" ref="I24:J24">_xll.FALSE_POSITION(_xll.KAHAN.A,I23,J23)</f>
-        <v>1.7577720182365724</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.24222798176342764</v>
-      </c>
-      <c r="L24">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I24)</f>
-        <v>1.6800605351363629E-10</v>
+        <v>3.8146972655694888E-7</v>
+      </c>
+      <c r="F24">
+        <f t="array" ref="F24">_xll.XLL.UDF(_xll.KAHAN.A,C24)</f>
+        <v>-1.8959814075403258E-6</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" cm="1">
-        <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+      <c r="C25">
+        <f t="array" ref="C25:D25">_xll.BISECT(_xll.KAHAN.A,C24,D24)</f>
+        <v>0.16679553985595702</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
-      </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-      <c r="I25">
-        <f t="array" ref="I25:J25">_xll.FALSE_POSITION(_xll.KAHAN.A,I24,J24)</f>
-        <v>1.7577720182447114</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>0.24222798175528859</v>
-      </c>
-      <c r="L25">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I25)</f>
-        <v>4.0024872305366443E-11</v>
+        <v>1.9073486329235223E-7</v>
+      </c>
+      <c r="F25">
+        <f t="array" ref="F25">_xll.XLL.UDF(_xll.KAHAN.A,C25)</f>
+        <v>-7.551125490445898E-7</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C26" cm="1">
-        <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+      <c r="C26">
+        <f t="array" ref="C26:D26">_xll.BISECT(_xll.KAHAN.A,C25,D25)</f>
+        <v>0.16679563522338867</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
-      </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-      <c r="I26">
-        <f t="array" ref="I26:J26">_xll.FALSE_POSITION(_xll.KAHAN.A,I25,J25)</f>
-        <v>1.7577720182466505</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>0.24222798175334948</v>
-      </c>
-      <c r="L26">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I26)</f>
-        <v>9.5337071570611442E-12</v>
+        <v>9.5367431646176115E-8</v>
+      </c>
+      <c r="F26">
+        <f t="array" ref="F26">_xll.XLL.UDF(_xll.KAHAN.A,C26)</f>
+        <v>-1.8467812412659157E-7</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" cm="1">
-        <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+      <c r="C27">
+        <f t="array" ref="C27:D27">_xll.BISECT(_xll.KAHAN.A,C26,D26)</f>
+        <v>0.16679563522338867</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
-      </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-      <c r="I27">
-        <f t="array" ref="I27:J27">_xll.FALSE_POSITION(_xll.KAHAN.A,I26,J26)</f>
-        <v>1.7577720182471124</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>0.24222798175288762</v>
-      </c>
-      <c r="L27">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I27)</f>
-        <v>2.2701840407535201E-12</v>
+        <v>4.7683715836965845E-8</v>
+      </c>
+      <c r="F27">
+        <f t="array" ref="F27">_xll.XLL.UDF(_xll.KAHAN.A,C27)</f>
+        <v>-1.8467812412659157E-7</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" cm="1">
-        <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+      <c r="C28">
+        <f t="array" ref="C28:D28">_xll.BISECT(_xll.KAHAN.A,C27,D27)</f>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
-      </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-      <c r="I28">
-        <f t="array" ref="I28:J28">_xll.FALSE_POSITION(_xll.KAHAN.A,I27,J27)</f>
-        <v>1.7577720182472223</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>0.24222798175277771</v>
-      </c>
-      <c r="L28">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I28)</f>
-        <v>5.4178883601707639E-13</v>
+        <v>2.384185793236071E-8</v>
+      </c>
+      <c r="F28">
+        <f t="array" ref="F28">_xll.XLL.UDF(_xll.KAHAN.A,C28)</f>
+        <v>-4.2069518424447949E-8</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C29" cm="1">
-        <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
-        <v>1.7577719688415527</v>
+      <c r="C29">
+        <f t="array" ref="C29:D29">_xll.BISECT(_xll.KAHAN.A,C28,D28)</f>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
-      </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-      <c r="I29">
-        <f t="array" ref="I29:J29">_xll.FALSE_POSITION(_xll.KAHAN.A,I28,J28)</f>
-        <v>1.7577720182472485</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>0.24222798175275151</v>
-      </c>
-      <c r="L29">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I29)</f>
-        <v>1.3145040611561853E-13</v>
+        <v>1.1920928966180355E-8</v>
+      </c>
+      <c r="F29">
+        <f t="array" ref="F29">_xll.XLL.UDF(_xll.KAHAN.A,C29)</f>
+        <v>-4.2069518424447949E-8</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C30" cm="1">
-        <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+      <c r="C30">
+        <f t="array" ref="C30:D30">_xll.BISECT(_xll.KAHAN.A,C29,D29)</f>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
-      </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-      <c r="I30">
-        <f t="array" ref="I30:J30">_xll.FALSE_POSITION(_xll.KAHAN.A,I29,J29)</f>
-        <v>1.7577720182472549</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>0.24222798175274507</v>
-      </c>
-      <c r="L30">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I30)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>5.9604644830901776E-9</v>
+      </c>
+      <c r="F30">
+        <f t="array" ref="F30">_xll.XLL.UDF(_xll.KAHAN.A,C30)</f>
+        <v>-6.4173669711564685E-9</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C31" cm="1">
-        <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+      <c r="C31">
+        <f t="array" ref="C31:D31">_xll.BISECT(_xll.KAHAN.A,C30,D30)</f>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>0.16679566800594331</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
-      </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-      <c r="I31">
-        <f t="array" ref="I31:J31">_xll.FALSE_POSITION(_xll.KAHAN.A,I30,J30)</f>
-        <v>1.7577720182472563</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>0.24222798175274374</v>
-      </c>
-      <c r="L31">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I31)</f>
-        <v>8.8817841970012523E-15</v>
+        <v>2.9802322554228766E-9</v>
+      </c>
+      <c r="F31">
+        <f t="array" ref="F31">_xll.XLL.UDF(_xll.KAHAN.A,C31)</f>
+        <v>-6.4173669711564685E-9</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C32" cm="1">
-        <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+      <c r="C32">
+        <f t="array" ref="C32:D32">_xll.BISECT(_xll.KAHAN.A,C31,D31)</f>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D32">
-        <v>1.7577720284461975</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
-      </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-      <c r="I32">
-        <f t="array" ref="I32:J32">_xll.FALSE_POSITION(_xll.KAHAN.A,I31,J31)</f>
-        <v>1.7577720182472567</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>0.24222798175274329</v>
-      </c>
-      <c r="L32">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I32)</f>
+        <v>1.4901161138336505E-9</v>
+      </c>
+      <c r="F32">
+        <f t="array" ref="F32">_xll.XLL.UDF(_xll.KAHAN.A,C32)</f>
+        <v>-6.4173669711564685E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f t="array" ref="C33:D33">_xll.BISECT(_xll.KAHAN.A,C32,D32)</f>
+        <v>0.1667956657707691</v>
+      </c>
+      <c r="D33">
+        <v>0.16679566651582717</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.4505807079461306E-10</v>
+      </c>
+      <c r="F33">
+        <f t="array" ref="F33">_xll.XLL.UDF(_xll.KAHAN.A,C33)</f>
+        <v>-1.9608480394950334E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f t="array" ref="C34:D34">_xll.BISECT(_xll.KAHAN.A,C33,D33)</f>
+        <v>0.1667956657707691</v>
+      </c>
+      <c r="D34">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3.7252903539730653E-10</v>
+      </c>
+      <c r="F34">
+        <f t="array" ref="F34">_xll.XLL.UDF(_xll.KAHAN.A,C34)</f>
+        <v>-1.9608480394950334E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f t="array" ref="C35:D35">_xll.BISECT(_xll.KAHAN.A,C34,D34)</f>
+        <v>0.1667956659570336</v>
+      </c>
+      <c r="D35">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.8626453157644107E-10</v>
+      </c>
+      <c r="F35">
+        <f t="array" ref="F35">_xll.XLL.UDF(_xll.KAHAN.A,C35)</f>
+        <v>-8.4671825106852339E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f t="array" ref="C36:D36">_xll.BISECT(_xll.KAHAN.A,C35,D35)</f>
+        <v>0.16679566605016588</v>
+      </c>
+      <c r="D36">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>9.3132251910432728E-11</v>
+      </c>
+      <c r="F36">
+        <f t="array" ref="F36">_xll.XLL.UDF(_xll.KAHAN.A,C36)</f>
+        <v>-2.8965352338872208E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f t="array" ref="C37:D37">_xll.BISECT(_xll.KAHAN.A,C36,D36)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D37">
+        <v>0.16679566614329813</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4.6566112077428556E-11</v>
+      </c>
+      <c r="F37">
+        <f t="array" ref="F37">_xll.XLL.UDF(_xll.KAHAN.A,C37)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f t="array" ref="C38:D38">_xll.BISECT(_xll.KAHAN.A,C37,D37)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D38">
+        <v>0.16679566612001506</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.328304216092647E-11</v>
+      </c>
+      <c r="F38">
+        <f t="array" ref="F38">_xll.XLL.UDF(_xll.KAHAN.A,C38)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f t="array" ref="C39:D39">_xll.BISECT(_xll.KAHAN.A,C38,D38)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D39">
+        <v>0.16679566610837354</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.1641521080463235E-11</v>
+      </c>
+      <c r="F39">
+        <f t="array" ref="F39">_xll.XLL.UDF(_xll.KAHAN.A,C39)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f t="array" ref="C40:D40">_xll.BISECT(_xll.KAHAN.A,C39,D39)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D40">
+        <v>0.16679566610255278</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5.8207605402316176E-12</v>
+      </c>
+      <c r="F40">
+        <f t="array" ref="F40">_xll.XLL.UDF(_xll.KAHAN.A,C40)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f t="array" ref="C41:D41">_xll.BISECT(_xll.KAHAN.A,C40,D40)</f>
+        <v>0.16679566609673202</v>
+      </c>
+      <c r="D41">
+        <v>0.16679566609964241</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.9103941479036166E-12</v>
+      </c>
+      <c r="F41">
+        <f t="array" ref="F41">_xll.XLL.UDF(_xll.KAHAN.A,C41)</f>
+        <v>-1.1120881993065268E-11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f t="array" ref="C42:D42">_xll.BISECT(_xll.KAHAN.A,C41,D41)</f>
+        <v>0.16679566609818722</v>
+      </c>
+      <c r="D42">
+        <v>0.16679566609964241</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.4551970739518083E-12</v>
+      </c>
+      <c r="F42">
+        <f t="array" ref="F42">_xll.XLL.UDF(_xll.KAHAN.A,C42)</f>
+        <v>-2.4166224577015782E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="array" ref="C43:D43">_xll.BISECT(_xll.KAHAN.A,C42,D42)</f>
+        <v>0.16679566609818722</v>
+      </c>
+      <c r="D43">
+        <v>0.16679566609891483</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>7.2761241476371197E-13</v>
+      </c>
+      <c r="F43">
+        <f t="array" ref="F43">_xll.XLL.UDF(_xll.KAHAN.A,C43)</f>
+        <v>-2.4166224577015782E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f t="array" ref="C44:D44">_xll.BISECT(_xll.KAHAN.A,C43,D43)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="D44">
+        <v>0.16679566609891483</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>3.638200851696638E-13</v>
+      </c>
+      <c r="F44">
+        <f t="array" ref="F44">_xll.XLL.UDF(_xll.KAHAN.A,C44)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f t="array" ref="C45:D45">_xll.BISECT(_xll.KAHAN.A,C44,D44)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="D45">
+        <v>0.16679566609873292</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.819100425848319E-13</v>
+      </c>
+      <c r="F45">
+        <f t="array" ref="F45">_xll.XLL.UDF(_xll.KAHAN.A,C45)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <f t="array" ref="C46:D46">_xll.BISECT(_xll.KAHAN.A,C45,D45)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="D46">
+        <v>0.16679566609864196</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>9.095502129241595E-14</v>
+      </c>
+      <c r="F46">
+        <f t="array" ref="F46">_xll.XLL.UDF(_xll.KAHAN.A,C46)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f t="array" ref="C47:D47">_xll.BISECT(_xll.KAHAN.A,C46,D46)</f>
+        <v>0.16679566609855101</v>
+      </c>
+      <c r="D47">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>4.546363285840016E-14</v>
+      </c>
+      <c r="F47">
+        <f t="array" ref="F47">_xll.XLL.UDF(_xll.KAHAN.A,C47)</f>
+        <v>-2.4069635173873394E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <f t="array" ref="C48:D48">_xll.BISECT(_xll.KAHAN.A,C47,D47)</f>
+        <v>0.16679566609857374</v>
+      </c>
+      <c r="D48">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2.273181642920008E-14</v>
+      </c>
+      <c r="F48">
+        <f t="array" ref="F48">_xll.XLL.UDF(_xll.KAHAN.A,C48)</f>
+        <v>-1.0480505352461478E-13</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <f t="array" ref="C49:D49">_xll.BISECT(_xll.KAHAN.A,C48,D48)</f>
+        <v>0.16679566609858509</v>
+      </c>
+      <c r="D49">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.1379786002407855E-14</v>
+      </c>
+      <c r="F49">
+        <f t="array" ref="F49">_xll.XLL.UDF(_xll.KAHAN.A,C49)</f>
+        <v>-3.6859404417555197E-14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f t="array" ref="C50:D50">_xll.BISECT(_xll.KAHAN.A,C49,D49)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="D50">
+        <v>0.16679566609859647</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>5.6898930012039273E-15</v>
+      </c>
+      <c r="F50">
+        <f t="array" ref="F50">_xll.XLL.UDF(_xll.KAHAN.A,C50)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f t="array" ref="C51:D51">_xll.BISECT(_xll.KAHAN.A,C50,D50)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="D51">
+        <v>0.16679566609859364</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.8588242884097781E-15</v>
+      </c>
+      <c r="F51">
+        <f t="array" ref="F51">_xll.XLL.UDF(_xll.KAHAN.A,C51)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f t="array" ref="C52:D52">_xll.BISECT(_xll.KAHAN.A,C51,D51)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="D52">
+        <v>0.1667956660985922</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.4155343563970746E-15</v>
+      </c>
+      <c r="F52">
+        <f t="array" ref="F52">_xll.XLL.UDF(_xll.KAHAN.A,C52)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <f t="array" ref="C53:D53">_xll.BISECT(_xll.KAHAN.A,C52,D52)</f>
+        <v>0.16679566609859078</v>
+      </c>
+      <c r="D53">
+        <v>0.16679566609859148</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>6.9388939039072284E-16</v>
+      </c>
+      <c r="F53">
+        <f t="array" ref="F53">_xll.XLL.UDF(_xll.KAHAN.A,C53)</f>
+        <v>-2.7755575615628914E-15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f t="array" ref="C54:D54">_xll.BISECT(_xll.KAHAN.A,C53,D53)</f>
+        <v>0.16679566609859114</v>
+      </c>
+      <c r="D54">
+        <v>0.16679566609859148</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+      <c r="F54">
+        <f t="array" ref="F54">_xll.XLL.UDF(_xll.KAHAN.A,C54)</f>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <f t="array" ref="C55:D55">_xll.BISECT(_xll.KAHAN.A,C54,D54)</f>
+        <v>0.16679566609859114</v>
+      </c>
+      <c r="D55">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" cm="1">
-        <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
-      </c>
-      <c r="D33">
-        <v>1.7577720209956169</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
-      </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-      <c r="I33">
-        <f t="array" ref="I33:J33">_xll.FALSE_POSITION(_xll.KAHAN.A,I32,J32)</f>
-        <v>1.7577720182472567</v>
-      </c>
-      <c r="J33">
-        <v>1.7577720182472567</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
+      <c r="F55">
+        <f t="array" ref="F55">_xll.XLL.UDF(_xll.KAHAN.A,C55)</f>
+        <v>-7.7715611723760958E-16</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="array" ref="C56:D56">_xll.BISECT(_xll.KAHAN.A,C55,D55)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="D56">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33">
-        <f>_xll.XLL.UDF(_xll.KAHAN.A,I33)</f>
+      <c r="F56">
+        <f t="array" ref="F56">_xll.XLL.UDF(_xll.KAHAN.A,C56)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <f t="array" ref="C57:D57">_xll.BISECT(_xll.KAHAN.A,C56,D56)</f>
+        <v>0.16679566609859123</v>
+      </c>
+      <c r="D57">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" cm="1">
-        <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
-      </c>
-      <c r="D34">
-        <v>1.7577720209956169</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
-      </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" cm="1">
-        <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
-      </c>
-      <c r="D35">
-        <v>1.7577720191329718</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
-      </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" cm="1">
-        <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
-      </c>
-      <c r="D36">
-        <v>1.7577720191329718</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
-      </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" cm="1">
-        <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
-      </c>
-      <c r="D37">
-        <v>1.7577720186673105</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
-      </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" cm="1">
-        <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
-      </c>
-      <c r="D38">
-        <v>1.7577720184344798</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
-      </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" cm="1">
-        <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
-      </c>
-      <c r="D39">
-        <v>1.7577720183180645</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
-      </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" cm="1">
-        <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
-      </c>
-      <c r="D40">
-        <v>1.7577720182598568</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
-      </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" cm="1">
-        <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
-      </c>
-      <c r="D41">
-        <v>1.7577720182598568</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
-      </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" cm="1">
-        <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
-      </c>
-      <c r="D42">
-        <v>1.7577720182598568</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
-      </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" cm="1">
-        <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
-      </c>
-      <c r="D43">
-        <v>1.7577720182525809</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
-      </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" cm="1">
-        <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
-      </c>
-      <c r="D44">
-        <v>1.7577720182489429</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45" cm="1">
-        <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
-      </c>
-      <c r="D45">
-        <v>1.7577720182489429</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
-      </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46" cm="1">
-        <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
-      </c>
-      <c r="D46">
-        <v>1.7577720182480334</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
-      </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47" cm="1">
-        <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
-        <v>1.7577720182471239</v>
-      </c>
-      <c r="D47">
-        <v>1.7577720182475787</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
-      </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48" cm="1">
-        <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
-        <v>1.7577720182471239</v>
-      </c>
-      <c r="D48">
-        <v>1.7577720182473513</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
-      </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" cm="1">
-        <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
-      </c>
-      <c r="D49">
-        <v>1.7577720182473513</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
-      </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" cm="1">
-        <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
-      </c>
-      <c r="D50">
-        <v>1.7577720182472945</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
-      </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" cm="1">
-        <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
-        <v>1.7577720182472376</v>
-      </c>
-      <c r="D51">
-        <v>1.757772018247266</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" cm="1">
-        <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
-      </c>
-      <c r="D52">
-        <v>1.757772018247266</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
-      </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" cm="1">
-        <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
-      </c>
-      <c r="D53">
-        <v>1.7577720182472589</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
-      </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" cm="1">
-        <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
-      </c>
-      <c r="D54">
-        <v>1.7577720182472589</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
-      </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" cm="1">
-        <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
-      </c>
-      <c r="D55">
-        <v>1.7577720182472572</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" cm="1">
-        <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
-        <v>1.7577720182472563</v>
-      </c>
-      <c r="D56">
-        <v>1.7577720182472572</v>
-      </c>
-      <c r="E56">
+      <c r="F57">
+        <f t="array" ref="F57">_xll.XLL.UDF(_xll.KAHAN.A,C57)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <f t="array" ref="C58:D58">_xll.BISECT(_xll.KAHAN.A,C57,D57)</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="D58">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
-        <v>8.8817841970012523E-15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" cm="1">
-        <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
-        <v>1.7577720182472567</v>
-      </c>
-      <c r="D57">
-        <v>1.7577720182472572</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+      <c r="F58">
+        <f t="array" ref="F58">_xll.XLL.UDF(_xll.KAHAN.A,C58)</f>
         <v>0</v>
       </c>
     </row>
@@ -5775,21 +5135,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D803F-B4C6-45AF-B89A-490743637EE2}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.21875" customWidth="1"/>
-    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5800,7 +5164,7 @@
         <f t="array" ref="B1">_xll.KAHAN.B</f>
         <v>-434044818</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
@@ -5815,18 +5179,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f t="array" ref="C2">_xll.XLL.UDF(_xll.KAHAN.B,B2)</f>
-        <v>-0.63212055882855767</v>
+        <v>-0.3297469826174757</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <f t="array" ref="N2">_xll.XLL.UDF(_xll.KAHAN.B,M2)</f>
-        <v>-0.63212055882855767</v>
+        <v>-0.3297469826174757</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5838,20 +5202,20 @@
         <v>0.21945007630916669</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.105</v>
       </c>
       <c r="N3">
         <f t="array" ref="N3">_xll.XLL.UDF(_xll.KAHAN.B,M3)</f>
-        <v>-0.60937216854775722</v>
+        <v>-0.30934962344980399</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M4">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="N4">
         <f t="array" ref="N4">_xll.XLL.UDF(_xll.KAHAN.B,M4)</f>
-        <v>-0.58521715468367919</v>
+        <v>-0.28833387990200376</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5880,11 +5244,11 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.03</v>
+        <v>0.115</v>
       </c>
       <c r="N5">
         <f t="array" ref="N5">_xll.XLL.UDF(_xll.KAHAN.B,M5)</f>
-        <v>-0.55956870224349642</v>
+        <v>-0.26668131288925767</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5893,40 +5257,44 @@
       </c>
       <c r="B6">
         <f t="array" ref="B6:C6">_xll.BISECT(_xll.KAHAN.B,B2,B3)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="C6">
         <v>0.2</v>
       </c>
       <c r="D6">
         <f>C6-B6</f>
-        <v>0.1</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="E6">
         <f t="array" ref="E6">_xll.XLL.UDF(_xll.KAHAN.B,B6)</f>
-        <v>-0.3297469826174757</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>-9.5620539976518315E-2</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6">
         <f t="array" ref="H6:I6">_xll.FALSE_POSITION(_xll.KAHAN.B,B2,B3)</f>
-        <v>0.14845992399123178</v>
+        <v>0.16004165121749511</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
+      <c r="J6">
+        <f>I6-H6</f>
+        <v>3.9958348782504899E-2</v>
+      </c>
       <c r="K6">
         <f t="array" ref="K6">_xll.XLL.UDF(_xll.KAHAN.B,H6)</f>
-        <v>-0.10392058134012183</v>
+        <v>-3.96006921984976E-2</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="N6">
         <f t="array" ref="N6">_xll.XLL.UDF(_xll.KAHAN.B,M6)</f>
-        <v>-0.53233477021461151</v>
+        <v>-0.24437296161336708</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -5935,11 +5303,11 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D58" si="0">C7-B7</f>
-        <v>4.9999999999999989E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="E7">
         <f t="array" ref="E7">_xll.XLL.UDF(_xll.KAHAN.B,B7)</f>
@@ -5947,56 +5315,64 @@
       </c>
       <c r="H7">
         <f t="array" ref="H7:I7">_xll.FALSE_POSITION(_xll.KAHAN.B,H6,I6)</f>
-        <v>0.16502319135779103</v>
+        <v>0.16615002248391492</v>
       </c>
       <c r="I7">
         <v>0.2</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J22" si="1">I7-H7</f>
+        <v>3.3849977516085095E-2</v>
+      </c>
       <c r="K7">
         <f t="array" ref="K7">_xll.XLL.UDF(_xll.KAHAN.B,H7)</f>
-        <v>-1.0546461218628789E-2</v>
+        <v>-3.8544992184775806E-3</v>
       </c>
       <c r="M7">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="N7">
         <f t="array" ref="N7">_xll.XLL.UDF(_xll.KAHAN.B,M7)</f>
-        <v>-0.50341779985704016</v>
+        <v>-0.22138933063034139</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="array" ref="B8:C8">_xll.BISECT(_xll.KAHAN.B,B7,C7)</f>
-        <v>0.15000000000000002</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="C8">
         <v>0.17500000000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
+        <v>1.2499999999999983E-2</v>
       </c>
       <c r="E8">
         <f t="array" ref="E8">_xll.XLL.UDF(_xll.KAHAN.B,B8)</f>
-        <v>-9.5620539976518315E-2</v>
+        <v>-2.5369924809050426E-2</v>
       </c>
       <c r="H8">
         <f t="array" ref="H8:I8">_xll.FALSE_POSITION(_xll.KAHAN.B,H7,I7)</f>
-        <v>0.16662704835434203</v>
+        <v>0.16673431284864629</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.3265687151353723E-2</v>
+      </c>
       <c r="K8">
         <f t="array" ref="K8">_xll.XLL.UDF(_xll.KAHAN.B,H8)</f>
-        <v>-1.008072954058914E-3</v>
+        <v>-3.6691398693478039E-4</v>
       </c>
       <c r="M8">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="N8">
         <f t="array" ref="N8">_xll.XLL.UDF(_xll.KAHAN.B,M8)</f>
-        <v>-0.47271440962248479</v>
+        <v>-0.19771037670256164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -6005,11 +5381,11 @@
         <v>0.16250000000000003</v>
       </c>
       <c r="C9">
-        <v>0.17500000000000002</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.2499999999999983E-2</v>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="E9">
         <f t="array" ref="E9">_xll.XLL.UDF(_xll.KAHAN.B,B9)</f>
@@ -6017,56 +5393,64 @@
       </c>
       <c r="H9">
         <f t="array" ref="H9:I9">_xll.FALSE_POSITION(_xll.KAHAN.B,H8,I8)</f>
-        <v>0.16677965042445619</v>
+        <v>0.16678983924760382</v>
       </c>
       <c r="I9">
         <v>0.2</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.3210160752396189E-2</v>
+      </c>
       <c r="K9">
         <f t="array" ref="K9">_xll.XLL.UDF(_xll.KAHAN.B,H9)</f>
-        <v>-9.579222349398453E-5</v>
+        <v>-3.4852348839264913E-5</v>
       </c>
       <c r="M9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N9">
         <f t="array" ref="N9">_xll.XLL.UDF(_xll.KAHAN.B,M9)</f>
-        <v>-0.44011507643299541</v>
+        <v>-0.17331549543814118</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="array" ref="B10:C10">_xll.BISECT(_xll.KAHAN.B,B9,C9)</f>
-        <v>0.16250000000000003</v>
+        <v>0.16562500000000002</v>
       </c>
       <c r="C10">
         <v>0.16875000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.2499999999999778E-3</v>
+        <v>3.1249999999999889E-3</v>
       </c>
       <c r="E10">
         <f t="array" ref="E10">_xll.XLL.UDF(_xll.KAHAN.B,B10)</f>
-        <v>-2.5369924809050426E-2</v>
+        <v>-6.9780345676845323E-3</v>
       </c>
       <c r="H10">
         <f t="array" ref="H10:I10">_xll.FALSE_POSITION(_xll.KAHAN.B,H9,I9)</f>
-        <v>0.16679414512286414</v>
+        <v>0.16679511274002368</v>
       </c>
       <c r="I10">
         <v>0.2</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.3204887259976335E-2</v>
+      </c>
       <c r="K10">
         <f t="array" ref="K10">_xll.XLL.UDF(_xll.KAHAN.B,H10)</f>
-        <v>-9.0975816962046707E-6</v>
+        <v>-3.3098747853621546E-6</v>
       </c>
       <c r="M10">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N10">
         <f t="array" ref="N10">_xll.XLL.UDF(_xll.KAHAN.B,M10)</f>
-        <v>-0.40550380309273737</v>
+        <v>-0.14818350772058508</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -6075,11 +5459,11 @@
         <v>0.16562500000000002</v>
       </c>
       <c r="C11">
-        <v>0.16875000000000001</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>3.1249999999999889E-3</v>
+        <v>1.5624999999999944E-3</v>
       </c>
       <c r="E11">
         <f t="array" ref="E11">_xll.XLL.UDF(_xll.KAHAN.B,B11)</f>
@@ -6087,56 +5471,64 @@
       </c>
       <c r="H11">
         <f t="array" ref="H11:I11">_xll.FALSE_POSITION(_xll.KAHAN.B,H10,I10)</f>
-        <v>0.16679552165669584</v>
+        <v>0.16679561354805861</v>
       </c>
       <c r="I11">
         <v>0.2</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.3204386451941403E-2</v>
+      </c>
       <c r="K11">
         <f t="array" ref="K11">_xll.XLL.UDF(_xll.KAHAN.B,H11)</f>
-        <v>-8.6396993703719005E-7</v>
+        <v>-3.1432772751305293E-7</v>
       </c>
       <c r="M11">
-        <v>0.09</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N11">
         <f t="array" ref="N11">_xll.XLL.UDF(_xll.KAHAN.B,M11)</f>
-        <v>-0.36875777165435086</v>
+        <v>-0.12229264593235967</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="array" ref="B12:C12">_xll.BISECT(_xll.KAHAN.B,B11,C11)</f>
-        <v>0.16562500000000002</v>
+        <v>0.16640625000000003</v>
       </c>
       <c r="C12">
         <v>0.16718750000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.5624999999999944E-3</v>
+        <v>7.8124999999998335E-4</v>
       </c>
       <c r="E12">
         <f t="array" ref="E12">_xll.XLL.UDF(_xll.KAHAN.B,B12)</f>
-        <v>-6.9780345676845323E-3</v>
+        <v>-2.3265829989582709E-3</v>
       </c>
       <c r="H12">
         <f t="array" ref="H12:I12">_xll.FALSE_POSITION(_xll.KAHAN.B,H11,I11)</f>
-        <v>0.16679565238145386</v>
+        <v>0.16679566110805294</v>
       </c>
       <c r="I12">
         <v>0.2</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3.3204338891947072E-2</v>
+      </c>
       <c r="K12">
         <f t="array" ref="K12">_xll.XLL.UDF(_xll.KAHAN.B,H12)</f>
-        <v>-8.2048209781859782E-8</v>
+        <v>-2.9850597438318971E-8</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N12">
         <f t="array" ref="N12">_xll.XLL.UDF(_xll.KAHAN.B,M12)</f>
-        <v>-0.3297469826174757</v>
+        <v>-9.5620539976518537E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -6145,11 +5537,11 @@
         <v>0.16640625000000003</v>
       </c>
       <c r="C13">
-        <v>0.16718750000000002</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>7.8124999999998335E-4</v>
+        <v>3.906249999999778E-4</v>
       </c>
       <c r="E13">
         <f t="array" ref="E13">_xll.XLL.UDF(_xll.KAHAN.B,B13)</f>
@@ -6157,301 +5549,337 @@
       </c>
       <c r="H13">
         <f t="array" ref="H13:I13">_xll.FALSE_POSITION(_xll.KAHAN.B,H12,I12)</f>
-        <v>0.16679566479592328</v>
+        <v>0.1667956656246575</v>
       </c>
       <c r="I13">
         <v>0.2</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3.3204334375342509E-2</v>
+      </c>
       <c r="K13">
         <f t="array" ref="K13">_xll.XLL.UDF(_xll.KAHAN.B,H13)</f>
-        <v>-7.7918281826683256E-9</v>
+        <v>-2.834805612472735E-9</v>
       </c>
       <c r="M13">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="N13">
         <f t="array" ref="N13">_xll.XLL.UDF(_xll.KAHAN.B,M13)</f>
-        <v>-0.28833387990200376</v>
+        <v>-6.8144203101102363E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="array" ref="B14:C14">_xll.BISECT(_xll.KAHAN.B,B13,C13)</f>
-        <v>0.16640625000000003</v>
+        <v>0.16660156250000002</v>
       </c>
       <c r="C14">
         <v>0.16679687500000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3.906249999999778E-4</v>
+        <v>1.953124999999889E-4</v>
       </c>
       <c r="E14">
         <f t="array" ref="E14">_xll.XLL.UDF(_xll.KAHAN.B,B14)</f>
-        <v>-2.3265829989582709E-3</v>
+        <v>-1.1603512830218321E-3</v>
       </c>
       <c r="H14">
         <f t="array" ref="H14:I14">_xll.FALSE_POSITION(_xll.KAHAN.B,H13,I13)</f>
-        <v>0.16679566597488146</v>
+        <v>0.16679566605358345</v>
       </c>
       <c r="I14">
         <v>0.2</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3.3204333946416559E-2</v>
+      </c>
       <c r="K14">
         <f t="array" ref="K14">_xll.XLL.UDF(_xll.KAHAN.B,H14)</f>
-        <v>-7.3996253568964221E-10</v>
+        <v>-2.6921131990320646E-10</v>
       </c>
       <c r="M14">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="N14">
         <f t="array" ref="N14">_xll.XLL.UDF(_xll.KAHAN.B,M14)</f>
-        <v>-0.24437296161336708</v>
+        <v>-3.9840017531624361E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="array" ref="B15:C15">_xll.BISECT(_xll.KAHAN.B,B14,C14)</f>
-        <v>0.16660156250000002</v>
+        <v>0.16669921875000002</v>
       </c>
       <c r="C15">
         <v>0.16679687500000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.953124999999889E-4</v>
+        <v>9.7656249999994449E-5</v>
       </c>
       <c r="E15">
         <f t="array" ref="E15">_xll.XLL.UDF(_xll.KAHAN.B,B15)</f>
-        <v>-1.1603512830218321E-3</v>
+        <v>-5.7672905908423555E-4</v>
       </c>
       <c r="H15">
         <f t="array" ref="H15:I15">_xll.FALSE_POSITION(_xll.KAHAN.B,H14,I14)</f>
-        <v>0.16679566608684299</v>
+        <v>0.16679566609431701</v>
       </c>
       <c r="I15">
         <v>0.2</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3.3204333905683003E-2</v>
+      </c>
       <c r="K15">
         <f t="array" ref="K15">_xll.XLL.UDF(_xll.KAHAN.B,H15)</f>
-        <v>-7.0271677365951746E-11</v>
+        <v>-2.5566215811068105E-11</v>
       </c>
       <c r="M15">
-        <v>0.13</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N15">
         <f t="array" ref="N15">_xll.XLL.UDF(_xll.KAHAN.B,M15)</f>
-        <v>-0.19771037670256164</v>
+        <v>-1.0683719917586654E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="array" ref="B16:C16">_xll.BISECT(_xll.KAHAN.B,B15,C15)</f>
-        <v>0.16669921875000002</v>
+        <v>0.166748046875</v>
       </c>
       <c r="C16">
         <v>0.16679687500000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>9.7656249999994449E-5</v>
+        <v>4.8828125000011102E-5</v>
       </c>
       <c r="E16">
         <f t="array" ref="E16">_xll.XLL.UDF(_xll.KAHAN.B,B16)</f>
-        <v>-5.7672905908423555E-4</v>
+        <v>-2.847912725801871E-4</v>
       </c>
       <c r="H16">
         <f t="array" ref="H16:I16">_xll.FALSE_POSITION(_xll.KAHAN.B,H15,I15)</f>
-        <v>0.16679566609747559</v>
+        <v>0.16679566609818536</v>
       </c>
       <c r="I16">
         <v>0.2</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.3204333901814653E-2</v>
+      </c>
       <c r="K16">
         <f t="array" ref="K16">_xll.XLL.UDF(_xll.KAHAN.B,H16)</f>
-        <v>-6.6734395787193534E-12</v>
+        <v>-2.4277246879478298E-12</v>
       </c>
       <c r="M16">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="N16">
         <f t="array" ref="N16">_xll.XLL.UDF(_xll.KAHAN.B,M16)</f>
-        <v>-0.14818350772058508</v>
+        <v>1.9349613400361898E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="array" ref="B17:C17">_xll.BISECT(_xll.KAHAN.B,B16,C16)</f>
-        <v>0.166748046875</v>
+        <v>0.16677246093750001</v>
       </c>
       <c r="C17">
         <v>0.16679687500000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4.8828125000011102E-5</v>
+        <v>2.4414062500005551E-5</v>
       </c>
       <c r="E17">
         <f t="array" ref="E17">_xll.XLL.UDF(_xll.KAHAN.B,B17)</f>
-        <v>-2.847912725801871E-4</v>
+        <v>-1.3879070030875518E-4</v>
       </c>
       <c r="H17">
         <f t="array" ref="H17:I17">_xll.FALSE_POSITION(_xll.KAHAN.B,H16,I16)</f>
-        <v>0.16679566609848534</v>
+        <v>0.1667956660985527</v>
       </c>
       <c r="I17">
         <v>0.2</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3.3204333901447308E-2</v>
+      </c>
       <c r="K17">
         <f t="array" ref="K17">_xll.XLL.UDF(_xll.KAHAN.B,H17)</f>
-        <v>-6.3338223554865181E-13</v>
+        <v>-2.3059332221464501E-13</v>
       </c>
       <c r="M17">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N17">
         <f t="array" ref="N17">_xll.XLL.UDF(_xll.KAHAN.B,M17)</f>
-        <v>-9.5620539976518537E-2</v>
+        <v>5.0285581295318238E-2</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="array" ref="B18:C18">_xll.BISECT(_xll.KAHAN.B,B17,C17)</f>
-        <v>0.16677246093750001</v>
+        <v>0.16678466796875002</v>
       </c>
       <c r="C18">
         <v>0.16679687500000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>2.4414062500005551E-5</v>
+        <v>1.2207031249988898E-5</v>
       </c>
       <c r="E18">
         <f t="array" ref="E18">_xll.XLL.UDF(_xll.KAHAN.B,B18)</f>
-        <v>-1.3879070030875518E-4</v>
+        <v>-6.5782493119725949E-5</v>
       </c>
       <c r="H18">
         <f t="array" ref="H18:I18">_xll.FALSE_POSITION(_xll.KAHAN.B,H17,I17)</f>
-        <v>0.16679566609858118</v>
+        <v>0.16679566609858759</v>
       </c>
       <c r="I18">
         <v>0.2</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>3.3204333901412419E-2</v>
+      </c>
       <c r="K18">
         <f t="array" ref="K18">_xll.XLL.UDF(_xll.KAHAN.B,H18)</f>
-        <v>-6.0285110237146E-14</v>
+        <v>-2.19824158875781E-14</v>
       </c>
       <c r="M18">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="N18">
         <f t="array" ref="N18">_xll.XLL.UDF(_xll.KAHAN.B,M18)</f>
-        <v>-3.9840017531624361E-2</v>
+        <v>8.2150472923026685E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="array" ref="B19:C19">_xll.BISECT(_xll.KAHAN.B,B18,C18)</f>
-        <v>0.16678466796875002</v>
+        <v>0.16679077148437502</v>
       </c>
       <c r="C19">
         <v>0.16679687500000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.2207031249988898E-5</v>
+        <v>6.1035156249944489E-6</v>
       </c>
       <c r="E19">
         <f t="array" ref="E19">_xll.XLL.UDF(_xll.KAHAN.B,B19)</f>
-        <v>-6.5782493119725949E-5</v>
+        <v>-2.9276409099665557E-5</v>
       </c>
       <c r="H19">
         <f t="array" ref="H19:I19">_xll.FALSE_POSITION(_xll.KAHAN.B,H18,I18)</f>
-        <v>0.16679566609859031</v>
+        <v>0.16679566609859092</v>
       </c>
       <c r="I19">
         <v>0.2</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>3.3204333901409089E-2</v>
+      </c>
       <c r="K19">
         <f t="array" ref="K19">_xll.XLL.UDF(_xll.KAHAN.B,H19)</f>
-        <v>-5.6621374255882984E-15</v>
+        <v>-2.1094237467877974E-15</v>
       </c>
       <c r="M19">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="N19">
         <f t="array" ref="N19">_xll.XLL.UDF(_xll.KAHAN.B,M19)</f>
-        <v>1.9349613400361898E-2</v>
+        <v>0.11497128294596659</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="array" ref="B20:C20">_xll.BISECT(_xll.KAHAN.B,B19,C19)</f>
-        <v>0.16679077148437502</v>
+        <v>0.1667938232421875</v>
       </c>
       <c r="C20">
         <v>0.16679687500000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>6.1035156249944489E-6</v>
+        <v>3.0517578125111022E-6</v>
       </c>
       <c r="E20">
         <f t="array" ref="E20">_xll.XLL.UDF(_xll.KAHAN.B,B20)</f>
-        <v>-2.9276409099665557E-5</v>
+        <v>-1.1022871962862446E-5</v>
       </c>
       <c r="H20">
         <f t="array" ref="H20:I20">_xll.FALSE_POSITION(_xll.KAHAN.B,H19,I19)</f>
-        <v>0.16679566609859117</v>
+        <v>0.16679566609859123</v>
       </c>
       <c r="I20">
         <v>0.2</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>3.3204333901408783E-2</v>
+      </c>
       <c r="K20">
         <f t="array" ref="K20">_xll.XLL.UDF(_xll.KAHAN.B,H20)</f>
-        <v>-5.5511151231257827E-16</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="M20">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="N20">
         <f t="array" ref="N20">_xll.XLL.UDF(_xll.KAHAN.B,M20)</f>
-        <v>8.2150472923026685E-2</v>
+        <v>0.14877572690301588</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="array" ref="B21:C21">_xll.BISECT(_xll.KAHAN.B,B20,C20)</f>
-        <v>0.1667938232421875</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="C21">
         <v>0.16679687500000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>3.0517578125111022E-6</v>
+        <v>1.5258789062555511E-6</v>
       </c>
       <c r="E21">
         <f t="array" ref="E21">_xll.XLL.UDF(_xll.KAHAN.B,B21)</f>
-        <v>-1.1022871962862446E-5</v>
+        <v>-1.8959796102002713E-6</v>
       </c>
       <c r="H21">
         <f t="array" ref="H21:I21">_xll.FALSE_POSITION(_xll.KAHAN.B,H20,I20)</f>
-        <v>0.16679566609859117</v>
+        <v>0.16679566609859123</v>
       </c>
       <c r="I21">
         <v>0.16679566609859126</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K21">
         <f t="array" ref="K21">_xll.XLL.UDF(_xll.KAHAN.B,H21)</f>
-        <v>-5.5511151231257827E-16</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="M21">
-        <v>0.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="N21">
         <f t="array" ref="N21">_xll.XLL.UDF(_xll.KAHAN.B,M21)</f>
-        <v>0.14877572690301588</v>
+        <v>0.1835922567141981</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -6460,11 +5888,11 @@
         <v>0.16679534912109376</v>
       </c>
       <c r="C22">
-        <v>0.16679687500000001</v>
+        <v>0.1667961120605469</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1.5258789062555511E-6</v>
+        <v>7.6293945314165335E-7</v>
       </c>
       <c r="E22">
         <f t="array" ref="E22">_xll.XLL.UDF(_xll.KAHAN.B,B22)</f>
@@ -6476,6 +5904,10 @@
       </c>
       <c r="I22">
         <v>0.16679566609859126</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="array" ref="K22">_xll.XLL.UDF(_xll.KAHAN.B,H22)</f>
@@ -6495,11 +5927,11 @@
         <v>0.16679534912109376</v>
       </c>
       <c r="C23">
-        <v>0.1667961120605469</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>7.6293945314165335E-7</v>
+        <v>3.8146972655694888E-7</v>
       </c>
       <c r="E23">
         <f t="array" ref="E23">_xll.XLL.UDF(_xll.KAHAN.B,B23)</f>
@@ -6509,35 +5941,35 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="array" ref="B24:C24">_xll.BISECT(_xll.KAHAN.B,B23,C23)</f>
-        <v>0.16679534912109376</v>
+        <v>0.16679553985595702</v>
       </c>
       <c r="C24">
         <v>0.16679573059082031</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>3.8146972655694888E-7</v>
+        <v>1.9073486329235223E-7</v>
       </c>
       <c r="E24">
         <f t="array" ref="E24">_xll.XLL.UDF(_xll.KAHAN.B,B24)</f>
-        <v>-1.8959796102002713E-6</v>
+        <v>-7.5511226393931707E-7</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="array" ref="B25:C25">_xll.BISECT(_xll.KAHAN.B,B24,C24)</f>
-        <v>0.16679553985595702</v>
+        <v>0.16679563522338867</v>
       </c>
       <c r="C25">
         <v>0.16679573059082031</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1.9073486329235223E-7</v>
+        <v>9.5367431646176115E-8</v>
       </c>
       <c r="E25">
         <f t="array" ref="E25">_xll.XLL.UDF(_xll.KAHAN.B,B25)</f>
-        <v>-7.5511226393931707E-7</v>
+        <v>-1.8467810702915699E-7</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -6546,11 +5978,11 @@
         <v>0.16679563522338867</v>
       </c>
       <c r="C26">
-        <v>0.16679573059082031</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>9.5367431646176115E-8</v>
+        <v>4.7683715836965845E-8</v>
       </c>
       <c r="E26">
         <f t="array" ref="E26">_xll.XLL.UDF(_xll.KAHAN.B,B26)</f>
@@ -6560,18 +5992,18 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="array" ref="B27:C27">_xll.BISECT(_xll.KAHAN.B,B26,C26)</f>
-        <v>0.16679563522338867</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="C27">
         <v>0.1667956829071045</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>4.7683715836965845E-8</v>
+        <v>2.384185793236071E-8</v>
       </c>
       <c r="E27">
         <f t="array" ref="E27">_xll.XLL.UDF(_xll.KAHAN.B,B27)</f>
-        <v>-1.8467810702915699E-7</v>
+        <v>-4.206951753626953E-8</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -6580,11 +6012,11 @@
         <v>0.16679565906524657</v>
       </c>
       <c r="C28">
-        <v>0.1667956829071045</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>2.384185793236071E-8</v>
+        <v>1.1920928966180355E-8</v>
       </c>
       <c r="E28">
         <f t="array" ref="E28">_xll.XLL.UDF(_xll.KAHAN.B,B28)</f>
@@ -6594,18 +6026,18 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="array" ref="B29:C29">_xll.BISECT(_xll.KAHAN.B,B28,C28)</f>
-        <v>0.16679565906524657</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="C29">
         <v>0.16679567098617554</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1.1920928966180355E-8</v>
+        <v>5.9604644830901776E-9</v>
       </c>
       <c r="E29">
         <f t="array" ref="E29">_xll.XLL.UDF(_xll.KAHAN.B,B29)</f>
-        <v>-4.206951753626953E-8</v>
+        <v>-6.4173669711564685E-9</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -6614,11 +6046,11 @@
         <v>0.16679566502571105</v>
       </c>
       <c r="C30">
-        <v>0.16679567098617554</v>
+        <v>0.16679566800594331</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>5.9604644830901776E-9</v>
+        <v>2.9802322554228766E-9</v>
       </c>
       <c r="E30">
         <f t="array" ref="E30">_xll.XLL.UDF(_xll.KAHAN.B,B30)</f>
@@ -6631,11 +6063,11 @@
         <v>0.16679566502571105</v>
       </c>
       <c r="C31">
-        <v>0.16679566800594331</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>2.9802322554228766E-9</v>
+        <v>1.4901161138336505E-9</v>
       </c>
       <c r="E31">
         <f t="array" ref="E31">_xll.XLL.UDF(_xll.KAHAN.B,B31)</f>
@@ -6645,18 +6077,18 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="array" ref="B32:C32">_xll.BISECT(_xll.KAHAN.B,B31,C31)</f>
-        <v>0.16679566502571105</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="C32">
         <v>0.16679566651582717</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1.4901161138336505E-9</v>
+        <v>7.4505807079461306E-10</v>
       </c>
       <c r="E32">
         <f t="array" ref="E32">_xll.XLL.UDF(_xll.KAHAN.B,B32)</f>
-        <v>-6.4173669711564685E-9</v>
+        <v>-1.9608480394950334E-9</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -6665,11 +6097,11 @@
         <v>0.1667956657707691</v>
       </c>
       <c r="C33">
-        <v>0.16679566651582717</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>7.4505807079461306E-10</v>
+        <v>3.7252903539730653E-10</v>
       </c>
       <c r="E33">
         <f t="array" ref="E33">_xll.XLL.UDF(_xll.KAHAN.B,B33)</f>
@@ -6679,52 +6111,52 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="array" ref="B34:C34">_xll.BISECT(_xll.KAHAN.B,B33,C33)</f>
-        <v>0.1667956657707691</v>
+        <v>0.1667956659570336</v>
       </c>
       <c r="C34">
         <v>0.16679566614329813</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>3.7252903539730653E-10</v>
+        <v>1.8626453157644107E-10</v>
       </c>
       <c r="E34">
         <f t="array" ref="E34">_xll.XLL.UDF(_xll.KAHAN.B,B34)</f>
-        <v>-1.9608480394950334E-9</v>
+        <v>-8.4671825106852339E-10</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="array" ref="B35:C35">_xll.BISECT(_xll.KAHAN.B,B34,C34)</f>
-        <v>0.1667956659570336</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="C35">
         <v>0.16679566614329813</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1.8626453157644107E-10</v>
+        <v>9.3132251910432728E-11</v>
       </c>
       <c r="E35">
         <f t="array" ref="E35">_xll.XLL.UDF(_xll.KAHAN.B,B35)</f>
-        <v>-8.4671825106852339E-10</v>
+        <v>-2.8965352338872208E-10</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <f t="array" ref="B36:C36">_xll.BISECT(_xll.KAHAN.B,B35,C35)</f>
-        <v>0.16679566605016588</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C36">
         <v>0.16679566614329813</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>9.3132251910432728E-11</v>
+        <v>4.6566112077428556E-11</v>
       </c>
       <c r="E36">
         <f t="array" ref="E36">_xll.XLL.UDF(_xll.KAHAN.B,B36)</f>
-        <v>-2.8965352338872208E-10</v>
+        <v>-1.1120881993065268E-11</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -6733,11 +6165,11 @@
         <v>0.16679566609673202</v>
       </c>
       <c r="C37">
-        <v>0.16679566614329813</v>
+        <v>0.16679566612001506</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>4.6566112077428556E-11</v>
+        <v>2.328304216092647E-11</v>
       </c>
       <c r="E37">
         <f t="array" ref="E37">_xll.XLL.UDF(_xll.KAHAN.B,B37)</f>
@@ -6750,11 +6182,11 @@
         <v>0.16679566609673202</v>
       </c>
       <c r="C38">
-        <v>0.16679566612001506</v>
+        <v>0.16679566610837354</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>2.328304216092647E-11</v>
+        <v>1.1641521080463235E-11</v>
       </c>
       <c r="E38">
         <f t="array" ref="E38">_xll.XLL.UDF(_xll.KAHAN.B,B38)</f>
@@ -6767,11 +6199,11 @@
         <v>0.16679566609673202</v>
       </c>
       <c r="C39">
-        <v>0.16679566610837354</v>
+        <v>0.16679566610255278</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1.1641521080463235E-11</v>
+        <v>5.8207605402316176E-12</v>
       </c>
       <c r="E39">
         <f t="array" ref="E39">_xll.XLL.UDF(_xll.KAHAN.B,B39)</f>
@@ -6784,11 +6216,11 @@
         <v>0.16679566609673202</v>
       </c>
       <c r="C40">
-        <v>0.16679566610255278</v>
+        <v>0.16679566609964241</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>5.8207605402316176E-12</v>
+        <v>2.9103941479036166E-12</v>
       </c>
       <c r="E40">
         <f t="array" ref="E40">_xll.XLL.UDF(_xll.KAHAN.B,B40)</f>
@@ -6798,18 +6230,18 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="array" ref="B41:C41">_xll.BISECT(_xll.KAHAN.B,B40,C40)</f>
-        <v>0.16679566609673202</v>
+        <v>0.16679566609818722</v>
       </c>
       <c r="C41">
         <v>0.16679566609964241</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>2.9103941479036166E-12</v>
+        <v>1.4551970739518083E-12</v>
       </c>
       <c r="E41">
         <f t="array" ref="E41">_xll.XLL.UDF(_xll.KAHAN.B,B41)</f>
-        <v>-1.1120881993065268E-11</v>
+        <v>-2.4166224577015782E-12</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -6818,11 +6250,11 @@
         <v>0.16679566609818722</v>
       </c>
       <c r="C42">
-        <v>0.16679566609964241</v>
+        <v>0.16679566609891483</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>1.4551970739518083E-12</v>
+        <v>7.2761241476371197E-13</v>
       </c>
       <c r="E42">
         <f t="array" ref="E42">_xll.XLL.UDF(_xll.KAHAN.B,B42)</f>
@@ -6832,18 +6264,18 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="array" ref="B43:C43">_xll.BISECT(_xll.KAHAN.B,B42,C42)</f>
-        <v>0.16679566609818722</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="C43">
         <v>0.16679566609891483</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>7.2761241476371197E-13</v>
+        <v>3.638200851696638E-13</v>
       </c>
       <c r="E43">
         <f t="array" ref="E43">_xll.XLL.UDF(_xll.KAHAN.B,B43)</f>
-        <v>-2.4166224577015782E-12</v>
+        <v>-2.4069635173873394E-13</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -6852,11 +6284,11 @@
         <v>0.16679566609855101</v>
       </c>
       <c r="C44">
-        <v>0.16679566609891483</v>
+        <v>0.16679566609873292</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>3.638200851696638E-13</v>
+        <v>1.819100425848319E-13</v>
       </c>
       <c r="E44">
         <f t="array" ref="E44">_xll.XLL.UDF(_xll.KAHAN.B,B44)</f>
@@ -6869,11 +6301,11 @@
         <v>0.16679566609855101</v>
       </c>
       <c r="C45">
-        <v>0.16679566609873292</v>
+        <v>0.16679566609864196</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>1.819100425848319E-13</v>
+        <v>9.095502129241595E-14</v>
       </c>
       <c r="E45">
         <f t="array" ref="E45">_xll.XLL.UDF(_xll.KAHAN.B,B45)</f>
@@ -6886,11 +6318,11 @@
         <v>0.16679566609855101</v>
       </c>
       <c r="C46">
-        <v>0.16679566609864196</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>9.095502129241595E-14</v>
+        <v>4.546363285840016E-14</v>
       </c>
       <c r="E46">
         <f t="array" ref="E46">_xll.XLL.UDF(_xll.KAHAN.B,B46)</f>
@@ -6900,52 +6332,52 @@
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="array" ref="B47:C47">_xll.BISECT(_xll.KAHAN.B,B46,C46)</f>
-        <v>0.16679566609855101</v>
+        <v>0.16679566609857374</v>
       </c>
       <c r="C47">
         <v>0.16679566609859647</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>4.546363285840016E-14</v>
+        <v>2.273181642920008E-14</v>
       </c>
       <c r="E47">
         <f t="array" ref="E47">_xll.XLL.UDF(_xll.KAHAN.B,B47)</f>
-        <v>-2.4069635173873394E-13</v>
+        <v>-1.0480505352461478E-13</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="array" ref="B48:C48">_xll.BISECT(_xll.KAHAN.B,B47,C47)</f>
-        <v>0.16679566609857374</v>
+        <v>0.16679566609858509</v>
       </c>
       <c r="C48">
         <v>0.16679566609859647</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>2.273181642920008E-14</v>
+        <v>1.1379786002407855E-14</v>
       </c>
       <c r="E48">
         <f t="array" ref="E48">_xll.XLL.UDF(_xll.KAHAN.B,B48)</f>
-        <v>-1.0480505352461478E-13</v>
+        <v>-3.6859404417555197E-14</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="array" ref="B49:C49">_xll.BISECT(_xll.KAHAN.B,B48,C48)</f>
-        <v>0.16679566609858509</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="C49">
         <v>0.16679566609859647</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>1.1379786002407855E-14</v>
+        <v>5.6898930012039273E-15</v>
       </c>
       <c r="E49">
         <f t="array" ref="E49">_xll.XLL.UDF(_xll.KAHAN.B,B49)</f>
-        <v>-3.6859404417555197E-14</v>
+        <v>-2.7755575615628914E-15</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -6954,11 +6386,11 @@
         <v>0.16679566609859078</v>
       </c>
       <c r="C50">
-        <v>0.16679566609859647</v>
+        <v>0.16679566609859364</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>5.6898930012039273E-15</v>
+        <v>2.8588242884097781E-15</v>
       </c>
       <c r="E50">
         <f t="array" ref="E50">_xll.XLL.UDF(_xll.KAHAN.B,B50)</f>
@@ -6971,11 +6403,11 @@
         <v>0.16679566609859078</v>
       </c>
       <c r="C51">
-        <v>0.16679566609859364</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>2.8588242884097781E-15</v>
+        <v>1.4155343563970746E-15</v>
       </c>
       <c r="E51">
         <f t="array" ref="E51">_xll.XLL.UDF(_xll.KAHAN.B,B51)</f>
@@ -6988,11 +6420,11 @@
         <v>0.16679566609859078</v>
       </c>
       <c r="C52">
-        <v>0.1667956660985922</v>
+        <v>0.16679566609859148</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>1.4155343563970746E-15</v>
+        <v>6.9388939039072284E-16</v>
       </c>
       <c r="E52">
         <f t="array" ref="E52">_xll.XLL.UDF(_xll.KAHAN.B,B52)</f>
@@ -7002,18 +6434,18 @@
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="array" ref="B53:C53">_xll.BISECT(_xll.KAHAN.B,B52,C52)</f>
-        <v>0.16679566609859078</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="C53">
         <v>0.16679566609859148</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>6.9388939039072284E-16</v>
+        <v>3.3306690738754696E-16</v>
       </c>
       <c r="E53">
         <f t="array" ref="E53">_xll.XLL.UDF(_xll.KAHAN.B,B53)</f>
-        <v>-2.7755575615628914E-15</v>
+        <v>-7.7715611723760958E-16</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -7022,11 +6454,11 @@
         <v>0.16679566609859114</v>
       </c>
       <c r="C54">
-        <v>0.16679566609859148</v>
+        <v>0.16679566609859131</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>3.3306690738754696E-16</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="array" ref="E54">_xll.XLL.UDF(_xll.KAHAN.B,B54)</f>
@@ -7036,7 +6468,7 @@
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="array" ref="B55:C55">_xll.BISECT(_xll.KAHAN.B,B54,C54)</f>
-        <v>0.16679566609859114</v>
+        <v>0.16679566609859123</v>
       </c>
       <c r="C55">
         <v>0.16679566609859131</v>
@@ -7047,7 +6479,7 @@
       </c>
       <c r="E55">
         <f t="array" ref="E55">_xll.XLL.UDF(_xll.KAHAN.B,B55)</f>
-        <v>-7.7715611723760958E-16</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -7056,7 +6488,7 @@
         <v>0.16679566609859123</v>
       </c>
       <c r="C56">
-        <v>0.16679566609859131</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -7070,7 +6502,7 @@
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
         <f t="array" ref="B57:C57">_xll.BISECT(_xll.KAHAN.B,B56,C56)</f>
-        <v>0.16679566609859123</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="C57">
         <v>0.16679566609859126</v>
@@ -7081,23 +6513,6 @@
       </c>
       <c r="E57">
         <f t="array" ref="E57">_xll.XLL.UDF(_xll.KAHAN.B,B57)</f>
-        <v>-1.1102230246251565E-16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <f t="array" ref="B58:C58">_xll.BISECT(_xll.KAHAN.B,B57,C57)</f>
-        <v>0.16679566609859126</v>
-      </c>
-      <c r="C58">
-        <v>0.16679566609859126</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="array" ref="E58">_xll.XLL.UDF(_xll.KAHAN.B,B58)</f>
         <v>0</v>
       </c>
     </row>
@@ -7113,10 +6528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE0CDBF-A941-44F0-8284-3A27CB1F399E}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7148,43 +6563,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f t="array" ref="C2">_xll.XLL.UDF(_xll.KAHAN.C,B2)</f>
-        <v>1.6094379124341003</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <f t="array" ref="N2">_xll.XLL.UDF(_xll.KAHAN.C,M2)</f>
-        <v>1.6094379124341003</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3">_xll.XLL.UDF(_xll.KAHAN.C,B3)</f>
-        <v>-1.1960046346767577</v>
+        <v>0.18098733378081808</v>
       </c>
       <c r="M3">
-        <v>1.01</v>
+        <v>0.105</v>
       </c>
       <c r="N3">
         <f t="array" ref="N3">_xll.XLL.UDF(_xll.KAHAN.C,M3)</f>
-        <v>1.6133096057473884</v>
+        <v>-0.46222841571139245</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M4">
-        <v>1.02</v>
+        <v>0.11</v>
       </c>
       <c r="N4">
         <f t="array" ref="N4">_xll.XLL.UDF(_xll.KAHAN.C,M4)</f>
-        <v>1.6169233941796408</v>
+        <v>-0.41573730190365249</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -7213,11 +6628,11 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>1.03</v>
+        <v>0.115</v>
       </c>
       <c r="N5">
         <f t="array" ref="N5">_xll.XLL.UDF(_xll.KAHAN.C,M5)</f>
-        <v>1.6202771926091701</v>
+        <v>-0.37131719268877245</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -7226,1826 +6641,1324 @@
       </c>
       <c r="B6">
         <f t="array" ref="B6:C6">_xll.BISECT(_xll.KAHAN.C,B2,B3)</f>
-        <v>1.4</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <f>C6-B6</f>
-        <v>0.40000000000000013</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="E6">
         <f t="array" ref="E6">_xll.XLL.UDF(_xll.KAHAN.C,B6)</f>
-        <v>1.5169716847615065</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>-0.10592317392030241</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="6">
         <f t="array" ref="H6:I6">_xll.FALSE_POSITION(_xll.KAHAN.C,B2,B3)</f>
-        <v>1.4589473169832847</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>1.8</v>
+        <v>0.17384499141091186</v>
       </c>
       <c r="J6">
         <f>I6-H6</f>
-        <v>0.34105268301671532</v>
+        <v>7.3844991410911859E-2</v>
       </c>
       <c r="K6">
         <f t="array" ref="K6">_xll.XLL.UDF(_xll.KAHAN.C,H6)</f>
-        <v>1.4405589292812713</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M6">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="N6">
         <f t="array" ref="N6">_xll.XLL.UDF(_xll.KAHAN.C,M6)</f>
-        <v>1.623368714649863</v>
+        <v>-0.32879210845200041</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="array" ref="B7:C7">_xll.BISECT(_xll.KAHAN.C,B6,C6)</f>
-        <v>1.6</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D56" si="0">C7-B7</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="D7:D57" si="0">C7-B7</f>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="E7">
         <f t="array" ref="E7">_xll.XLL.UDF(_xll.KAHAN.C,B7)</f>
-        <v>1.1139605656149092</v>
+        <v>-0.10592317392030241</v>
       </c>
       <c r="H7">
         <f t="array" ref="H7:I7">_xll.FALSE_POSITION(_xll.KAHAN.C,H6,I6)</f>
-        <v>1.6452908190293767</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>1.8</v>
+        <v>0.16832388443194685</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J49" si="1">I7-H7</f>
-        <v>0.15470918097062336</v>
+        <v>6.8323884431946841E-2</v>
       </c>
       <c r="K7">
         <f t="array" ref="K7">_xll.XLL.UDF(_xll.KAHAN.C,H7)</f>
-        <v>0.93373529482834194</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M7">
-        <v>1.05</v>
+        <v>0.125</v>
       </c>
       <c r="N7">
         <f t="array" ref="N7">_xll.XLL.UDF(_xll.KAHAN.C,M7)</f>
-        <v>1.6261954670222203</v>
+        <v>-0.28800764627852132</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="array" ref="B8:C8">_xll.BISECT(_xll.KAHAN.C,B7,C7)</f>
-        <v>1.7000000000000002</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>9.9999999999999867E-2</v>
+        <v>1.2499999999999983E-2</v>
       </c>
       <c r="E8">
         <f t="array" ref="E8">_xll.XLL.UDF(_xll.KAHAN.C,B8)</f>
-        <v>0.61404985920124144</v>
+        <v>-2.6033233110659918E-2</v>
       </c>
       <c r="H8">
         <f t="array" ref="H8:I8">_xll.FALSE_POSITION(_xll.KAHAN.C,H7,I7)</f>
-        <v>1.7131194870770405</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>1.8</v>
+        <v>0.16712855390074907</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>8.6880512922959507E-2</v>
+        <v>6.7128553900749066E-2</v>
       </c>
       <c r="K8">
         <f t="array" ref="K8">_xll.XLL.UDF(_xll.KAHAN.C,H8)</f>
-        <v>0.51030116646466683</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M8">
-        <v>1.06</v>
+        <v>0.13</v>
       </c>
       <c r="N8">
         <f t="array" ref="N8">_xll.XLL.UDF(_xll.KAHAN.C,M8)</f>
-        <v>1.6287547433189364</v>
+        <v>-0.24882759302054969</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="array" ref="B9:C9">_xll.BISECT(_xll.KAHAN.C,B8,C8)</f>
-        <v>1.75</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="E9">
         <f t="array" ref="E9">_xll.XLL.UDF(_xll.KAHAN.C,B9)</f>
-        <v>0.11430477128005863</v>
+        <v>-2.6033233110659918E-2</v>
       </c>
       <c r="H9">
         <f t="array" ref="H9:I9">_xll.FALSE_POSITION(_xll.KAHAN.C,H8,I8)</f>
-        <v>1.7391026532000045</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
-        <v>1.8</v>
+        <v>0.16686825454255877</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>6.0897346799995589E-2</v>
+        <v>6.6868254542558764E-2</v>
       </c>
       <c r="K9">
         <f t="array" ref="K9">_xll.XLL.UDF(_xll.KAHAN.C,H9)</f>
-        <v>0.25242931794235723</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M9">
-        <v>1.07</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N9">
         <f t="array" ref="N9">_xll.XLL.UDF(_xll.KAHAN.C,M9)</f>
-        <v>1.6310436171303588</v>
+        <v>-0.21113117791427077</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="array" ref="B10:C10">_xll.BISECT(_xll.KAHAN.C,B9,C9)</f>
-        <v>1.75</v>
+        <v>0.16562500000000002</v>
       </c>
       <c r="C10">
-        <v>1.7749999999999999</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
+        <v>3.1249999999999889E-3</v>
       </c>
       <c r="E10">
         <f t="array" ref="E10">_xll.XLL.UDF(_xll.KAHAN.C,B10)</f>
-        <v>0.11430477128005863</v>
+        <v>-7.0271274349637119E-3</v>
       </c>
       <c r="H10">
         <f t="array" ref="H10:I10">_xll.FALSE_POSITION(_xll.KAHAN.C,H9,I9)</f>
-        <v>1.749715685081386</v>
+        <v>0.1</v>
       </c>
       <c r="I10">
-        <v>1.8</v>
+        <v>0.16681149814384322</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>5.028431491861407E-2</v>
+        <v>6.6811498143843212E-2</v>
       </c>
       <c r="K10">
         <f t="array" ref="K10">_xll.XLL.UDF(_xll.KAHAN.C,H10)</f>
-        <v>0.11821083424804847</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M10">
-        <v>1.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N10">
         <f t="array" ref="N10">_xll.XLL.UDF(_xll.KAHAN.C,M10)</f>
-        <v>1.6330589344910011</v>
+        <v>-0.17481082508689511</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="array" ref="B11:C11">_xll.BISECT(_xll.KAHAN.C,B10,C10)</f>
-        <v>1.75</v>
+        <v>0.16562500000000002</v>
       </c>
       <c r="C11">
-        <v>1.7625</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.2499999999999956E-2</v>
+        <v>1.5624999999999944E-3</v>
       </c>
       <c r="E11">
         <f t="array" ref="E11">_xll.XLL.UDF(_xll.KAHAN.C,B11)</f>
-        <v>0.11430477128005863</v>
+        <v>-7.0271274349637119E-3</v>
       </c>
       <c r="H11">
         <f t="array" ref="H11:I11">_xll.FALSE_POSITION(_xll.KAHAN.C,H10,I10)</f>
-        <v>1.7542386502698752</v>
+        <v>0.1</v>
       </c>
       <c r="I11">
-        <v>1.8</v>
+        <v>0.16679911935133684</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>4.5761349730124801E-2</v>
+        <v>6.6799119351336839E-2</v>
       </c>
       <c r="K11">
         <f t="array" ref="K11">_xll.XLL.UDF(_xll.KAHAN.C,H11)</f>
-        <v>5.3852495541041746E-2</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M11">
-        <v>1.0900000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N11">
         <f t="array" ref="N11">_xll.XLL.UDF(_xll.KAHAN.C,M11)</f>
-        <v>1.6347973056037144</v>
+        <v>-0.13977030062883897</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="array" ref="B12:C12">_xll.BISECT(_xll.KAHAN.C,B11,C11)</f>
-        <v>1.7562500000000001</v>
+        <v>0.16640625000000003</v>
       </c>
       <c r="C12">
-        <v>1.7625</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>6.2499999999998668E-3</v>
+        <v>7.8124999999998335E-4</v>
       </c>
       <c r="E12">
         <f t="array" ref="E12">_xll.XLL.UDF(_xll.KAHAN.C,B12)</f>
-        <v>2.3608992566446038E-2</v>
+        <v>-2.3320107229970566E-3</v>
       </c>
       <c r="H12">
         <f t="array" ref="H12:I12">_xll.FALSE_POSITION(_xll.KAHAN.C,H11,I11)</f>
-        <v>1.7562103659345802</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
-        <v>1.8</v>
+        <v>0.16679641932314054</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>4.3789634065419802E-2</v>
+        <v>6.6796419323140538E-2</v>
       </c>
       <c r="K12">
         <f t="array" ref="K12">_xll.XLL.UDF(_xll.KAHAN.C,H12)</f>
-        <v>2.4215278066760219E-2</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M12">
-        <v>1.1000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="N12">
         <f t="array" ref="N12">_xll.XLL.UDF(_xll.KAHAN.C,M12)</f>
-        <v>1.636255095793125</v>
+        <v>-0.10592317392030266</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="array" ref="B13:C13">_xll.BISECT(_xll.KAHAN.C,B12,C12)</f>
-        <v>1.7562500000000001</v>
+        <v>0.16640625000000003</v>
       </c>
       <c r="C13">
-        <v>1.7593749999999999</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.1249999999998224E-3</v>
+        <v>3.906249999999778E-4</v>
       </c>
       <c r="E13">
         <f t="array" ref="E13">_xll.XLL.UDF(_xll.KAHAN.C,B13)</f>
-        <v>2.3608992566446038E-2</v>
+        <v>-2.3320107229970566E-3</v>
       </c>
       <c r="H13">
         <f t="array" ref="H13:I13">_xll.FALSE_POSITION(_xll.KAHAN.C,H12,I12)</f>
-        <v>1.7570793717213746</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>0.1667958303925538</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>4.2920628278625417E-2</v>
+        <v>6.6795830392553796E-2</v>
       </c>
       <c r="K13">
         <f t="array" ref="K13">_xll.XLL.UDF(_xll.KAHAN.C,H13)</f>
-        <v>1.0823764943083252E-2</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M13">
-        <v>1.1100000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="N13">
         <f t="array" ref="N13">_xll.XLL.UDF(_xll.KAHAN.C,M13)</f>
-        <v>1.637428415634427</v>
+        <v>-7.319153134852234E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="array" ref="B14:C14">_xll.BISECT(_xll.KAHAN.C,B13,C13)</f>
-        <v>1.7562500000000001</v>
+        <v>0.16660156250000002</v>
       </c>
       <c r="C14">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.5624999999999112E-3</v>
+        <v>1.953124999999889E-4</v>
       </c>
       <c r="E14">
         <f t="array" ref="E14">_xll.XLL.UDF(_xll.KAHAN.C,B14)</f>
-        <v>2.3608992566446038E-2</v>
+        <v>-1.1616995234697695E-3</v>
       </c>
       <c r="H14">
         <f t="array" ref="H14:I14">_xll.FALSE_POSITION(_xll.KAHAN.C,H13,I13)</f>
-        <v>1.7574643169147788</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
-        <v>1.8</v>
+        <v>0.16679570193454513</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>4.2535683085221265E-2</v>
+        <v>6.6795701934545121E-2</v>
       </c>
       <c r="K14">
         <f t="array" ref="K14">_xll.XLL.UDF(_xll.KAHAN.C,H14)</f>
-        <v>4.8250022853835407E-3</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M14">
-        <v>1.1200000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N14">
         <f t="array" ref="N14">_xll.XLL.UDF(_xll.KAHAN.C,M14)</f>
-        <v>1.6383131101975512</v>
+        <v>-4.1504894309913616E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="array" ref="B15:C15">_xll.BISECT(_xll.KAHAN.C,B14,C14)</f>
-        <v>1.75703125</v>
+        <v>0.16669921875000002</v>
       </c>
       <c r="C15">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7.8124999999995559E-4</v>
+        <v>9.7656249999994449E-5</v>
       </c>
       <c r="E15">
         <f t="array" ref="E15">_xll.XLL.UDF(_xll.KAHAN.C,B15)</f>
-        <v>1.1570760192645028E-2</v>
+        <v>-5.7706189945448271E-4</v>
       </c>
       <c r="H15">
         <f t="array" ref="H15:I15">_xll.FALSE_POSITION(_xll.KAHAN.C,H14,I14)</f>
-        <v>1.757635227726587</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
-        <v>1.8</v>
+        <v>0.16679567391516417</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>4.2364772273413065E-2</v>
+        <v>6.6795673915164167E-2</v>
       </c>
       <c r="K15">
         <f t="array" ref="K15">_xll.XLL.UDF(_xll.KAHAN.C,H15)</f>
-        <v>2.1482916729463793E-3</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M15">
-        <v>1.1299999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N15">
         <f t="array" ref="N15">_xll.XLL.UDF(_xll.KAHAN.C,M15)</f>
-        <v>1.6389047473399829</v>
+        <v>-1.0799303759954434E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="array" ref="B16:C16">_xll.BISECT(_xll.KAHAN.C,B15,C15)</f>
-        <v>1.7574218749999999</v>
+        <v>0.166748046875</v>
       </c>
       <c r="C16">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>3.9062500000008882E-4</v>
+        <v>4.8828125000011102E-5</v>
       </c>
       <c r="E16">
         <f t="array" ref="E16">_xll.XLL.UDF(_xll.KAHAN.C,B16)</f>
-        <v>5.4884281423483693E-3</v>
+        <v>-2.8487240560673974E-4</v>
       </c>
       <c r="H16">
         <f t="array" ref="H16:I16">_xll.FALSE_POSITION(_xll.KAHAN.C,H15,I15)</f>
-        <v>1.7577111878861791</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
-        <v>1.8</v>
+        <v>0.16679566780354974</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>4.2288812113820962E-2</v>
+        <v>6.679566780354973E-2</v>
       </c>
       <c r="K16">
         <f t="array" ref="K16">_xll.XLL.UDF(_xll.KAHAN.C,H16)</f>
-        <v>9.5599473946441911E-4</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M16">
-        <v>1.1399999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="N16">
         <f t="array" ref="N16">_xll.XLL.UDF(_xll.KAHAN.C,M16)</f>
-        <v>1.6391986049740386</v>
+        <v>1.8983458535714089E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="array" ref="B17:C17">_xll.BISECT(_xll.KAHAN.C,B16,C16)</f>
-        <v>1.7576171875</v>
+        <v>0.16677246093750001</v>
       </c>
       <c r="C17">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.9531250000004441E-4</v>
+        <v>2.4414062500005551E-5</v>
       </c>
       <c r="E17">
         <f t="array" ref="E17">_xll.XLL.UDF(_xll.KAHAN.C,B17)</f>
-        <v>2.4312171733975305E-3</v>
+        <v>-1.3880996628686784E-4</v>
       </c>
       <c r="H17">
         <f t="array" ref="H17:I17">_xll.FALSE_POSITION(_xll.KAHAN.C,H16,I16)</f>
-        <v>1.7577449633345317</v>
+        <v>0.1</v>
       </c>
       <c r="I17">
-        <v>1.8</v>
+        <v>0.16679566647047844</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>4.2255036665468371E-2</v>
+        <v>6.6795666470478438E-2</v>
       </c>
       <c r="K17">
         <f t="array" ref="K17">_xll.XLL.UDF(_xll.KAHAN.C,H17)</f>
-        <v>4.2531802420047967E-4</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M17">
-        <v>1.1499999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N17">
         <f t="array" ref="N17">_xll.XLL.UDF(_xll.KAHAN.C,M17)</f>
-        <v>1.6391896572260822</v>
+        <v>4.7896535835877094E-2</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="array" ref="B18:C18">_xll.BISECT(_xll.KAHAN.C,B17,C17)</f>
-        <v>1.7577148437500001</v>
+        <v>0.16678466796875002</v>
       </c>
       <c r="C18">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>9.7656249999911182E-5</v>
+        <v>1.2207031249988898E-5</v>
       </c>
       <c r="E18">
         <f t="array" ref="E18">_xll.XLL.UDF(_xll.KAHAN.C,B18)</f>
-        <v>8.9856977481273675E-4</v>
+        <v>-6.5786820788225862E-5</v>
       </c>
       <c r="H18">
         <f t="array" ref="H18:I18">_xll.FALSE_POSITION(_xll.KAHAN.C,H17,I17)</f>
-        <v>1.7577599845471539</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>1.8</v>
+        <v>0.16679566617970765</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>4.2240015452846169E-2</v>
+        <v>6.6795666179707641E-2</v>
       </c>
       <c r="K18">
         <f t="array" ref="K18">_xll.XLL.UDF(_xll.KAHAN.C,H18)</f>
-        <v>1.8920203369439666E-4</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M18">
-        <v>1.1599999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N18">
         <f t="array" ref="N18">_xll.XLL.UDF(_xll.KAHAN.C,M18)</f>
-        <v>1.6388725593958813</v>
+        <v>7.598856843779514E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="array" ref="B19:C19">_xll.BISECT(_xll.KAHAN.C,B18,C18)</f>
-        <v>1.757763671875</v>
+        <v>0.16679077148437502</v>
       </c>
       <c r="C19">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>4.8828124999955591E-5</v>
+        <v>6.1035156249944489E-6</v>
       </c>
       <c r="E19">
         <f t="array" ref="E19">_xll.XLL.UDF(_xll.KAHAN.C,B19)</f>
-        <v>1.3123172677205984E-4</v>
+        <v>-2.9277266237049985E-5</v>
       </c>
       <c r="H19">
         <f t="array" ref="H19:I19">_xll.FALSE_POSITION(_xll.KAHAN.C,H18,I18)</f>
-        <v>1.7577666656523241</v>
+        <v>0.1</v>
       </c>
       <c r="I19">
-        <v>1.8</v>
+        <v>0.16679566611628444</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>4.2233334347675955E-2</v>
+        <v>6.679566611628443E-2</v>
       </c>
       <c r="K19">
         <f t="array" ref="K19">_xll.XLL.UDF(_xll.KAHAN.C,H19)</f>
-        <v>8.4162228267112499E-5</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M19">
-        <v>1.17</v>
+        <v>0.185</v>
       </c>
       <c r="N19">
         <f t="array" ref="N19">_xll.XLL.UDF(_xll.KAHAN.C,M19)</f>
-        <v>1.6382416316139157</v>
+        <v>0.10330418730061793</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="array" ref="B20:C20">_xll.BISECT(_xll.KAHAN.C,B19,C19)</f>
-        <v>1.757763671875</v>
+        <v>0.1667938232421875</v>
       </c>
       <c r="C20">
-        <v>1.7577880859374999</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2.4414062499866773E-5</v>
+        <v>3.0517578125111022E-6</v>
       </c>
       <c r="E20">
         <f t="array" ref="E20">_xll.XLL.UDF(_xll.KAHAN.C,B20)</f>
-        <v>1.3123172677205984E-4</v>
+        <v>-1.1022993468123804E-5</v>
       </c>
       <c r="H20">
         <f t="array" ref="H20:I20">_xll.FALSE_POSITION(_xll.KAHAN.C,H19,I19)</f>
-        <v>1.7577696373811247</v>
+        <v>0.1</v>
       </c>
       <c r="I20">
-        <v>1.8</v>
+        <v>0.1667956661024505</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>4.2230362618875361E-2</v>
+        <v>6.6795666102450496E-2</v>
       </c>
       <c r="K20">
         <f t="array" ref="K20">_xll.XLL.UDF(_xll.KAHAN.C,H20)</f>
-        <v>3.7436866597947921E-5</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M20">
-        <v>1.18</v>
+        <v>0.19</v>
       </c>
       <c r="N20">
         <f t="array" ref="N20">_xll.XLL.UDF(_xll.KAHAN.C,M20)</f>
-        <v>1.6372908410828091</v>
+        <v>0.12988444182632136</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="array" ref="B21:C21">_xll.BISECT(_xll.KAHAN.C,B20,C20)</f>
-        <v>1.757763671875</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="C21">
-        <v>1.7577758789062501</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.2207031250044409E-5</v>
+        <v>1.5258789062555511E-6</v>
       </c>
       <c r="E21">
         <f t="array" ref="E21">_xll.XLL.UDF(_xll.KAHAN.C,B21)</f>
-        <v>1.3123172677205984E-4</v>
+        <v>-1.8959832049153466E-6</v>
       </c>
       <c r="H21">
         <f t="array" ref="H21:I21">_xll.FALSE_POSITION(_xll.KAHAN.C,H20,I20)</f>
-        <v>1.7577709592179473</v>
+        <v>0.1</v>
       </c>
       <c r="I21">
-        <v>1.8</v>
+        <v>0.16679566609943305</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>4.2229040782052696E-2</v>
+        <v>6.6795666099433049E-2</v>
       </c>
       <c r="K21">
         <f t="array" ref="K21">_xll.XLL.UDF(_xll.KAHAN.C,H21)</f>
-        <v>1.6652432596528626E-5</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M21">
-        <v>1.19</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="N21">
         <f t="array" ref="N21">_xll.XLL.UDF(_xll.KAHAN.C,M21)</f>
-        <v>1.6360137827759778</v>
+        <v>0.15576717206368904</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="array" ref="B22:C22">_xll.BISECT(_xll.KAHAN.C,B21,C21)</f>
-        <v>1.7577697753906252</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="C22">
-        <v>1.7577758789062501</v>
+        <v>0.1667961120605469</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>6.1035156249111822E-6</v>
+        <v>7.6293945314165335E-7</v>
       </c>
       <c r="E22">
         <f t="array" ref="E22">_xll.XLL.UDF(_xll.KAHAN.C,B22)</f>
-        <v>3.5266841822592148E-5</v>
+        <v>-1.8959832049153466E-6</v>
       </c>
       <c r="H22">
         <f t="array" ref="H22:I22">_xll.FALSE_POSITION(_xll.KAHAN.C,H21,I21)</f>
-        <v>1.7577715471809401</v>
+        <v>0.1</v>
       </c>
       <c r="I22">
-        <v>1.8</v>
+        <v>0.16679566609877489</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>4.2228452819059958E-2</v>
+        <v>6.6795666098774881E-2</v>
       </c>
       <c r="K22">
         <f t="array" ref="K22">_xll.XLL.UDF(_xll.KAHAN.C,H22)</f>
-        <v>7.4071998923557691E-6</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="M22">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
         <f t="array" ref="N22">_xll.XLL.UDF(_xll.KAHAN.C,M22)</f>
-        <v>1.6344036584518482</v>
+        <v>0.18098733378081808</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="array" ref="B23:C23">_xll.BISECT(_xll.KAHAN.C,B22,C22)</f>
-        <v>1.7577697753906252</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="C23">
-        <v>1.7577728271484376</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>3.0517578124555911E-6</v>
+        <v>3.8146972655694888E-7</v>
       </c>
       <c r="E23">
         <f t="array" ref="E23">_xll.XLL.UDF(_xll.KAHAN.C,B23)</f>
-        <v>3.5266841822592148E-5</v>
+        <v>-1.8959832049153466E-6</v>
       </c>
       <c r="H23">
         <f t="array" ref="H23:I23">_xll.FALSE_POSITION(_xll.KAHAN.C,H22,I22)</f>
-        <v>1.757771808712246</v>
+        <v>0.1</v>
       </c>
       <c r="I23">
-        <v>1.8</v>
+        <v>0.16679566609863131</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>4.2228191287754013E-2</v>
+        <v>6.6795666098631301E-2</v>
       </c>
       <c r="K23">
         <f t="array" ref="K23">_xll.XLL.UDF(_xll.KAHAN.C,H23)</f>
-        <v>3.2948044139732438E-6</v>
-      </c>
-      <c r="M23">
-        <v>1.21</v>
-      </c>
-      <c r="N23">
-        <f t="array" ref="N23">_xll.XLL.UDF(_xll.KAHAN.C,M23)</f>
-        <v>1.6324532538253782</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="array" ref="B24:C24">_xll.BISECT(_xll.KAHAN.C,B23,C23)</f>
-        <v>1.7577713012695315</v>
+        <v>0.16679553985595702</v>
       </c>
       <c r="C24">
-        <v>1.7577728271484376</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1.5258789061167732E-6</v>
+        <v>1.9073486329235223E-7</v>
       </c>
       <c r="E24">
         <f t="array" ref="E24">_xll.XLL.UDF(_xll.KAHAN.C,B24)</f>
-        <v>1.1273965753395652E-5</v>
+        <v>-7.5511283414221413E-7</v>
       </c>
       <c r="H24">
         <f t="array" ref="H24:I24">_xll.FALSE_POSITION(_xll.KAHAN.C,H23,I23)</f>
-        <v>1.7577719250439421</v>
+        <v>0.1</v>
       </c>
       <c r="I24">
-        <v>1.8</v>
+        <v>0.16679566609859997</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>4.2228074956057959E-2</v>
+        <v>6.6795666098599965E-2</v>
       </c>
       <c r="K24">
         <f t="array" ref="K24">_xll.XLL.UDF(_xll.KAHAN.C,H24)</f>
-        <v>1.4655642254013908E-6</v>
-      </c>
-      <c r="M24">
-        <v>1.22</v>
-      </c>
-      <c r="N24">
-        <f t="array" ref="N24">_xll.XLL.UDF(_xll.KAHAN.C,M24)</f>
-        <v>1.6301549137198026</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="array" ref="B25:C25">_xll.BISECT(_xll.KAHAN.C,B24,C24)</f>
-        <v>1.7577713012695315</v>
+        <v>0.16679563522338867</v>
       </c>
       <c r="C25">
-        <v>1.7577720642089845</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>7.6293945294736432E-7</v>
+        <v>9.5367431646176115E-8</v>
       </c>
       <c r="E25">
         <f t="array" ref="E25">_xll.XLL.UDF(_xll.KAHAN.C,B25)</f>
-        <v>1.1273965753395652E-5</v>
+        <v>-1.8467814117959842E-7</v>
       </c>
       <c r="H25">
         <f t="array" ref="H25:I25">_xll.FALSE_POSITION(_xll.KAHAN.C,H24,I24)</f>
-        <v>1.7577719767894608</v>
+        <v>0.1</v>
       </c>
       <c r="I25">
-        <v>1.8</v>
+        <v>0.16679566609859314</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>4.2228023210539201E-2</v>
+        <v>6.6795666098593137E-2</v>
       </c>
       <c r="K25">
         <f t="array" ref="K25">_xll.XLL.UDF(_xll.KAHAN.C,H25)</f>
-        <v>6.5189839194546405E-7</v>
-      </c>
-      <c r="M25">
-        <v>1.23</v>
-      </c>
-      <c r="N25">
-        <f t="array" ref="N25">_xll.XLL.UDF(_xll.KAHAN.C,M25)</f>
-        <v>1.6275005150002031</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="array" ref="B26:C26">_xll.BISECT(_xll.KAHAN.C,B25,C25)</f>
-        <v>1.757771682739258</v>
+        <v>0.16679563522338867</v>
       </c>
       <c r="C26">
-        <v>1.7577720642089845</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>3.8146972647368216E-7</v>
+        <v>4.7683715836965845E-8</v>
       </c>
       <c r="E26">
         <f t="array" ref="E26">_xll.XLL.UDF(_xll.KAHAN.C,B26)</f>
-        <v>5.275643301520878E-6</v>
+        <v>-1.8467814117959842E-7</v>
       </c>
       <c r="H26">
         <f t="array" ref="H26:I26">_xll.FALSE_POSITION(_xll.KAHAN.C,H25,I25)</f>
-        <v>1.7577719998063996</v>
+        <v>0.1</v>
       </c>
       <c r="I26">
-        <v>1.8</v>
+        <v>0.1667956660985917</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>4.2228000193600401E-2</v>
+        <v>6.6795666098591694E-2</v>
       </c>
       <c r="K26">
         <f t="array" ref="K26">_xll.XLL.UDF(_xll.KAHAN.C,H26)</f>
-        <v>2.8997121918310599E-7</v>
-      </c>
-      <c r="M26">
-        <v>1.24</v>
-      </c>
-      <c r="N26">
-        <f t="array" ref="N26">_xll.XLL.UDF(_xll.KAHAN.C,M26)</f>
-        <v>1.624481437066277</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="array" ref="B27:C27">_xll.BISECT(_xll.KAHAN.C,B26,C26)</f>
-        <v>1.7577718734741212</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="C27">
-        <v>1.7577720642089845</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>1.9073486323684108E-7</v>
+        <v>2.384185793236071E-8</v>
       </c>
       <c r="E27">
         <f t="array" ref="E27">_xll.XLL.UDF(_xll.KAHAN.C,B27)</f>
-        <v>2.2764665606997894E-6</v>
+        <v>-4.2069519309370162E-8</v>
       </c>
       <c r="H27">
         <f t="array" ref="H27:I27">_xll.FALSE_POSITION(_xll.KAHAN.C,H26,I26)</f>
-        <v>1.7577720100445722</v>
+        <v>0.1</v>
       </c>
       <c r="I27">
-        <v>1.8</v>
+        <v>0.16679566609859137</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>4.2227989955427869E-2</v>
+        <v>6.6795666098591361E-2</v>
       </c>
       <c r="K27">
         <f t="array" ref="K27">_xll.XLL.UDF(_xll.KAHAN.C,H27)</f>
-        <v>1.2898221924698182E-7</v>
-      </c>
-      <c r="M27">
-        <v>1.25</v>
-      </c>
-      <c r="N27">
-        <f t="array" ref="N27">_xll.XLL.UDF(_xll.KAHAN.C,M27)</f>
-        <v>1.6210885296540756</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="array" ref="B28:C28">_xll.BISECT(_xll.KAHAN.C,B27,C27)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="C28">
-        <v>1.7577720642089845</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>9.5367431729442842E-8</v>
+        <v>1.1920928966180355E-8</v>
       </c>
       <c r="E28">
         <f t="array" ref="E28">_xll.XLL.UDF(_xll.KAHAN.C,B28)</f>
-        <v>7.7687431264962918E-7</v>
+        <v>-4.2069519309370162E-8</v>
       </c>
       <c r="H28">
         <f t="array" ref="H28:I28">_xll.FALSE_POSITION(_xll.KAHAN.C,H27,I27)</f>
-        <v>1.7577720145986175</v>
+        <v>0.1</v>
       </c>
       <c r="I28">
-        <v>1.8</v>
+        <v>0.16679566609859131</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>4.2227985401382506E-2</v>
+        <v>6.6795666098591305E-2</v>
       </c>
       <c r="K28">
         <f t="array" ref="K28">_xll.XLL.UDF(_xll.KAHAN.C,H28)</f>
-        <v>5.7372631220949542E-8</v>
-      </c>
-      <c r="M28">
-        <v>1.26</v>
-      </c>
-      <c r="N28">
-        <f t="array" ref="N28">_xll.XLL.UDF(_xll.KAHAN.C,M28)</f>
-        <v>1.6173120776650005</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="array" ref="B29:C29">_xll.BISECT(_xll.KAHAN.C,B28,C28)</f>
-        <v>1.7577720165252686</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="C29">
-        <v>1.7577720642089845</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>4.7683715864721421E-8</v>
+        <v>5.9604644830901776E-9</v>
       </c>
       <c r="E29">
         <f t="array" ref="E29">_xll.XLL.UDF(_xll.KAHAN.C,B29)</f>
-        <v>2.7077216546497234E-8</v>
+        <v>-6.4173669917477683E-9</v>
       </c>
       <c r="H29">
         <f t="array" ref="H29:I29">_xll.FALSE_POSITION(_xll.KAHAN.C,H28,I28)</f>
-        <v>1.757772016624304</v>
+        <v>0.1</v>
       </c>
       <c r="I29">
-        <v>1.8</v>
+        <v>0.16679566609859128</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>4.2227983375695999E-2</v>
+        <v>6.6795666098591278E-2</v>
       </c>
       <c r="K29">
         <f t="array" ref="K29">_xll.XLL.UDF(_xll.KAHAN.C,H29)</f>
-        <v>2.5519944942481611E-8</v>
-      </c>
-      <c r="M29">
-        <v>1.27</v>
-      </c>
-      <c r="N29">
-        <f t="array" ref="N29">_xll.XLL.UDF(_xll.KAHAN.C,M29)</f>
-        <v>1.6131417627042917</v>
+        <v>-0.51099230432308951</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="array" ref="B30:C30">_xll.BISECT(_xll.KAHAN.C,B29,C29)</f>
-        <v>1.7577720165252686</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="C30">
-        <v>1.7577720403671266</v>
+        <v>0.16679566800594331</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>2.3841858043383013E-8</v>
+        <v>2.9802322554228766E-9</v>
       </c>
       <c r="E30">
         <f t="array" ref="E30">_xll.XLL.UDF(_xll.KAHAN.C,B30)</f>
-        <v>2.7077216546497234E-8</v>
+        <v>-6.4173669917477683E-9</v>
       </c>
       <c r="H30">
         <f t="array" ref="H30:I30">_xll.FALSE_POSITION(_xll.KAHAN.C,H29,I29)</f>
-        <v>1.7577720175253506</v>
+        <v>0.16679566609859128</v>
       </c>
       <c r="I30">
-        <v>1.8</v>
+        <v>0.16679566609859128</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>4.2227982474649428E-2</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f t="array" ref="K30">_xll.XLL.UDF(_xll.KAHAN.C,H30)</f>
-        <v>1.1351534758805362E-8</v>
-      </c>
-      <c r="M30">
-        <v>1.28</v>
-      </c>
-      <c r="N30">
-        <f t="array" ref="N30">_xll.XLL.UDF(_xll.KAHAN.C,M30)</f>
-        <v>1.6085666209699085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="array" ref="B31:C31">_xll.BISECT(_xll.KAHAN.C,B30,C30)</f>
-        <v>1.7577720165252686</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="C31">
-        <v>1.7577720284461975</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1.1920928910669204E-8</v>
+        <v>1.4901161138336505E-9</v>
       </c>
       <c r="E31">
         <f t="array" ref="E31">_xll.XLL.UDF(_xll.KAHAN.C,B31)</f>
-        <v>2.7077216546497234E-8</v>
-      </c>
-      <c r="H31">
-        <f t="array" ref="H31:I31">_xll.FALSE_POSITION(_xll.KAHAN.C,H30,I30)</f>
-        <v>1.7577720179261453</v>
-      </c>
-      <c r="I31">
-        <v>1.8</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>4.2227982073854697E-2</v>
-      </c>
-      <c r="K31">
-        <f t="array" ref="K31">_xll.XLL.UDF(_xll.KAHAN.C,H31)</f>
-        <v>5.0492818687497128E-9</v>
-      </c>
-      <c r="M31">
-        <v>1.29</v>
-      </c>
-      <c r="N31">
-        <f t="array" ref="N31">_xll.XLL.UDF(_xll.KAHAN.C,M31)</f>
-        <v>1.6035749970851556</v>
+        <v>-6.4173669917477683E-9</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="array" ref="B32:C32">_xll.BISECT(_xll.KAHAN.C,B31,C31)</f>
-        <v>1.7577720165252686</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="C32">
-        <v>1.7577720224857329</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>5.9604643443122995E-9</v>
+        <v>7.4505807079461306E-10</v>
       </c>
       <c r="E32">
         <f t="array" ref="E32">_xll.XLL.UDF(_xll.KAHAN.C,B32)</f>
-        <v>2.7077216546497234E-8</v>
-      </c>
-      <c r="H32">
-        <f t="array" ref="H32:I32">_xll.FALSE_POSITION(_xll.KAHAN.C,H31,I31)</f>
-        <v>1.757772018104423</v>
-      </c>
-      <c r="I32">
-        <v>1.8</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>4.2227981895577082E-2</v>
-      </c>
-      <c r="K32">
-        <f t="array" ref="K32">_xll.XLL.UDF(_xll.KAHAN.C,H32)</f>
-        <v>2.2459758472239699E-9</v>
-      </c>
-      <c r="M32">
-        <v>1.3</v>
-      </c>
-      <c r="N32">
-        <f t="array" ref="N32">_xll.XLL.UDF(_xll.KAHAN.C,M32)</f>
-        <v>1.5981544934136136</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="array" ref="B33:C33">_xll.BISECT(_xll.KAHAN.C,B32,C32)</f>
-        <v>1.7577720165252686</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="C33">
-        <v>1.7577720195055009</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>2.9802322831784522E-9</v>
+        <v>3.7252903539730653E-10</v>
       </c>
       <c r="E33">
         <f t="array" ref="E33">_xll.XLL.UDF(_xll.KAHAN.C,B33)</f>
-        <v>2.7077216546497234E-8</v>
-      </c>
-      <c r="H33">
-        <f t="array" ref="H33:I33">_xll.FALSE_POSITION(_xll.KAHAN.C,H32,I32)</f>
-        <v>1.7577720181837229</v>
-      </c>
-      <c r="I33">
-        <v>1.8</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>4.2227981816277183E-2</v>
-      </c>
-      <c r="K33">
-        <f t="array" ref="K33">_xll.XLL.UDF(_xll.KAHAN.C,H33)</f>
-        <v>9.9903196776386538E-10</v>
-      </c>
-      <c r="M33">
-        <v>1.31</v>
-      </c>
-      <c r="N33">
-        <f t="array" ref="N33">_xll.XLL.UDF(_xll.KAHAN.C,M33)</f>
-        <v>1.5922919143315686</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="array" ref="B34:C34">_xll.BISECT(_xll.KAHAN.C,B33,C33)</f>
-        <v>1.7577720180153849</v>
+        <v>0.1667956659570336</v>
       </c>
       <c r="C34">
-        <v>1.7577720195055009</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>1.4901160305669237E-9</v>
+        <v>1.8626453157644107E-10</v>
       </c>
       <c r="E34">
         <f t="array" ref="E34">_xll.XLL.UDF(_xll.KAHAN.C,B34)</f>
-        <v>3.6460452368526064E-9</v>
-      </c>
-      <c r="H34">
-        <f t="array" ref="H34:I34">_xll.FALSE_POSITION(_xll.KAHAN.C,H33,I33)</f>
-        <v>1.7577720182189962</v>
-      </c>
-      <c r="I34">
-        <v>1.8</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>4.2227981781003843E-2</v>
-      </c>
-      <c r="K34">
-        <f t="array" ref="K34">_xll.XLL.UDF(_xll.KAHAN.C,H34)</f>
-        <v>4.4438053227298722E-10</v>
-      </c>
-      <c r="M34">
-        <v>1.32</v>
-      </c>
-      <c r="N34">
-        <f t="array" ref="N34">_xll.XLL.UDF(_xll.KAHAN.C,M34)</f>
-        <v>1.5859732048597075</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-8.4671825142698924E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="array" ref="B35:C35">_xll.BISECT(_xll.KAHAN.C,B34,C34)</f>
-        <v>1.7577720180153849</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="C35">
-        <v>1.7577720187604429</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>7.4505801528346183E-10</v>
+        <v>9.3132251910432728E-11</v>
       </c>
       <c r="E35">
         <f t="array" ref="E35">_xll.XLL.UDF(_xll.KAHAN.C,B35)</f>
-        <v>3.6460452368526064E-9</v>
-      </c>
-      <c r="H35">
-        <f t="array" ref="H35:I35">_xll.FALSE_POSITION(_xll.KAHAN.C,H34,I34)</f>
-        <v>1.7577720182346861</v>
-      </c>
-      <c r="I35">
-        <v>1.8</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>4.2227981765313949E-2</v>
-      </c>
-      <c r="K35">
-        <f t="array" ref="K35">_xll.XLL.UDF(_xll.KAHAN.C,H35)</f>
-        <v>1.9766765999840542E-10</v>
-      </c>
-      <c r="M35">
-        <v>1.33</v>
-      </c>
-      <c r="N35">
-        <f t="array" ref="N35">_xll.XLL.UDF(_xll.KAHAN.C,M35)</f>
-        <v>1.5791833829704884</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.8965352343067166E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <f t="array" ref="B36:C36">_xll.BISECT(_xll.KAHAN.C,B35,C35)</f>
-        <v>1.7577720180153849</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C36">
-        <v>1.757772018387914</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>3.7252911866403338E-10</v>
+        <v>4.6566112077428556E-11</v>
       </c>
       <c r="E36">
         <f t="array" ref="E36">_xll.XLL.UDF(_xll.KAHAN.C,B36)</f>
-        <v>3.6460452368526064E-9</v>
-      </c>
-      <c r="H36">
-        <f t="array" ref="H36:I36">_xll.FALSE_POSITION(_xll.KAHAN.C,H35,I35)</f>
-        <v>1.7577720182416652</v>
-      </c>
-      <c r="I36">
-        <v>1.8</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>4.2227981758334865E-2</v>
-      </c>
-      <c r="K36">
-        <f t="array" ref="K36">_xll.XLL.UDF(_xll.KAHAN.C,H36)</f>
-        <v>8.7924334475928847E-11</v>
-      </c>
-      <c r="M36">
-        <v>1.34</v>
-      </c>
-      <c r="N36">
-        <f t="array" ref="N36">_xll.XLL.UDF(_xll.KAHAN.C,M36)</f>
-        <v>1.5719064647880829</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
         <f t="array" ref="B37:C37">_xll.BISECT(_xll.KAHAN.C,B36,C36)</f>
-        <v>1.7577720182016494</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C37">
-        <v>1.757772018387914</v>
+        <v>0.16679566612001506</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>1.8626455933201669E-10</v>
+        <v>2.328304216092647E-11</v>
       </c>
       <c r="E37">
         <f t="array" ref="E37">_xll.XLL.UDF(_xll.KAHAN.C,B37)</f>
-        <v>7.1714900658867839E-10</v>
-      </c>
-      <c r="H37">
-        <f t="array" ref="H37:I37">_xll.FALSE_POSITION(_xll.KAHAN.C,H36,I36)</f>
-        <v>1.7577720182447696</v>
-      </c>
-      <c r="I37">
-        <v>1.8</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>4.2227981755230459E-2</v>
-      </c>
-      <c r="K37">
-        <f t="array" ref="K37">_xll.XLL.UDF(_xll.KAHAN.C,H37)</f>
-        <v>3.9110048532310515E-11</v>
-      </c>
-      <c r="M37">
-        <v>1.35</v>
-      </c>
-      <c r="N37">
-        <f t="array" ref="N37">_xll.XLL.UDF(_xll.KAHAN.C,M37)</f>
-        <v>1.5641253817814194</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
         <f t="array" ref="B38:C38">_xll.BISECT(_xll.KAHAN.C,B37,C37)</f>
-        <v>1.7577720182016494</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C38">
-        <v>1.7577720182947818</v>
+        <v>0.16679566610837354</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>9.3132390688310807E-11</v>
+        <v>1.1641521080463235E-11</v>
       </c>
       <c r="E38">
         <f t="array" ref="E38">_xll.XLL.UDF(_xll.KAHAN.C,B38)</f>
-        <v>7.1714900658867839E-10</v>
-      </c>
-      <c r="H38">
-        <f t="array" ref="H38:I38">_xll.FALSE_POSITION(_xll.KAHAN.C,H37,I37)</f>
-        <v>1.7577720182461505</v>
-      </c>
-      <c r="I38">
-        <v>1.8</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>4.2227981753849564E-2</v>
-      </c>
-      <c r="K38">
-        <f t="array" ref="K38">_xll.XLL.UDF(_xll.KAHAN.C,H38)</f>
-        <v>1.7395862528095343E-11</v>
-      </c>
-      <c r="M38">
-        <v>1.36</v>
-      </c>
-      <c r="N38">
-        <f t="array" ref="N38">_xll.XLL.UDF(_xll.KAHAN.C,M38)</f>
-        <v>1.555821888914364</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <f t="array" ref="B39:C39">_xll.BISECT(_xll.KAHAN.C,B38,C38)</f>
-        <v>1.7577720182016494</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C39">
-        <v>1.7577720182482155</v>
+        <v>0.16679566610255278</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>4.6566084321852941E-11</v>
+        <v>5.8207605402316176E-12</v>
       </c>
       <c r="E39">
         <f t="array" ref="E39">_xll.XLL.UDF(_xll.KAHAN.C,B39)</f>
-        <v>7.1714900658867839E-10</v>
-      </c>
-      <c r="H39">
-        <f t="array" ref="H39:I39">_xll.FALSE_POSITION(_xll.KAHAN.C,H38,I38)</f>
-        <v>1.7577720182467647</v>
-      </c>
-      <c r="I39">
-        <v>1.8</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>4.2227981753235388E-2</v>
-      </c>
-      <c r="K39">
-        <f t="array" ref="K39">_xll.XLL.UDF(_xll.KAHAN.C,H39)</f>
-        <v>7.7378103923975542E-12</v>
-      </c>
-      <c r="M39">
-        <v>1.37</v>
-      </c>
-      <c r="N39">
-        <f t="array" ref="N39">_xll.XLL.UDF(_xll.KAHAN.C,M39)</f>
-        <v>1.5469764625564186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <f t="array" ref="B40:C40">_xll.BISECT(_xll.KAHAN.C,B39,C39)</f>
-        <v>1.7577720182249323</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="C40">
-        <v>1.7577720182482155</v>
+        <v>0.16679566609964241</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>2.3283153183228933E-11</v>
+        <v>2.9103941479036166E-12</v>
       </c>
       <c r="E40">
         <f t="array" ref="E40">_xll.XLL.UDF(_xll.KAHAN.C,B40)</f>
-        <v>3.5104008582698413E-10</v>
-      </c>
-      <c r="H40">
-        <f t="array" ref="H40:I40">_xll.FALSE_POSITION(_xll.KAHAN.C,H39,I39)</f>
-        <v>1.7577720182470378</v>
-      </c>
-      <c r="I40">
-        <v>1.8</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>4.2227981752962274E-2</v>
-      </c>
-      <c r="K40">
-        <f t="array" ref="K40">_xll.XLL.UDF(_xll.KAHAN.C,H40)</f>
-        <v>3.444355911591154E-12</v>
-      </c>
-      <c r="M40">
-        <v>1.38</v>
-      </c>
-      <c r="N40">
-        <f t="array" ref="N40">_xll.XLL.UDF(_xll.KAHAN.C,M40)</f>
-        <v>1.5375681867675914</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="array" ref="B41:C41">_xll.BISECT(_xll.KAHAN.C,B40,C40)</f>
-        <v>1.7577720182365739</v>
+        <v>0.16679566609818722</v>
       </c>
       <c r="C41">
-        <v>1.7577720182482155</v>
+        <v>0.16679566609964241</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>1.1641576591614466E-11</v>
+        <v>1.4551970739518083E-12</v>
       </c>
       <c r="E41">
         <f t="array" ref="E41">_xll.XLL.UDF(_xll.KAHAN.C,B41)</f>
-        <v>1.6798118450377585E-10</v>
-      </c>
-      <c r="H41">
-        <f t="array" ref="H41:I41">_xll.FALSE_POSITION(_xll.KAHAN.C,H40,I40)</f>
-        <v>1.7577720182471595</v>
-      </c>
-      <c r="I41">
-        <v>1.8</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>4.2227981752840593E-2</v>
-      </c>
-      <c r="K41">
-        <f t="array" ref="K41">_xll.XLL.UDF(_xll.KAHAN.C,H41)</f>
-        <v>1.5312195955618436E-12</v>
-      </c>
-      <c r="M41">
-        <v>1.39</v>
-      </c>
-      <c r="N41">
-        <f t="array" ref="N41">_xll.XLL.UDF(_xll.KAHAN.C,M41)</f>
-        <v>1.5275746263462784</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4166224577044984E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <f t="array" ref="B42:C42">_xll.BISECT(_xll.KAHAN.C,B41,C41)</f>
-        <v>1.7577720182423948</v>
+        <v>0.16679566609818722</v>
       </c>
       <c r="C42">
-        <v>1.7577720182482155</v>
+        <v>0.16679566609891483</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>5.8206772735047707E-12</v>
+        <v>7.2761241476371197E-13</v>
       </c>
       <c r="E42">
         <f t="array" ref="E42">_xll.XLL.UDF(_xll.KAHAN.C,B42)</f>
-        <v>7.6450845651185615E-11</v>
-      </c>
-      <c r="H42">
-        <f t="array" ref="H42:I42">_xll.FALSE_POSITION(_xll.KAHAN.C,H41,I41)</f>
-        <v>1.7577720182472134</v>
-      </c>
-      <c r="I42">
-        <v>1.8</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
-        <v>4.2227981752786636E-2</v>
-      </c>
-      <c r="K42">
-        <f t="array" ref="K42">_xll.XLL.UDF(_xll.KAHAN.C,H42)</f>
-        <v>6.8212102632946353E-13</v>
-      </c>
-      <c r="M42">
-        <v>1.4</v>
-      </c>
-      <c r="N42">
-        <f t="array" ref="N42">_xll.XLL.UDF(_xll.KAHAN.C,M42)</f>
-        <v>1.5169716847615065</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4166224577044984E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="array" ref="B43:C43">_xll.BISECT(_xll.KAHAN.C,B42,C42)</f>
-        <v>1.7577720182453052</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="C43">
-        <v>1.7577720182482155</v>
+        <v>0.16679566609891483</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>2.9103386367523854E-12</v>
+        <v>3.638200851696638E-13</v>
       </c>
       <c r="E43">
         <f t="array" ref="E43">_xll.XLL.UDF(_xll.KAHAN.C,B43)</f>
-        <v>3.0688340757007842E-11</v>
-      </c>
-      <c r="H43">
-        <f t="array" ref="H43:I43">_xll.FALSE_POSITION(_xll.KAHAN.C,H42,I42)</f>
-        <v>1.7577720182472374</v>
-      </c>
-      <c r="I43">
-        <v>1.8</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
-        <v>4.2227981752762656E-2</v>
-      </c>
-      <c r="K43">
-        <f t="array" ref="K43">_xll.XLL.UDF(_xll.KAHAN.C,H43)</f>
-        <v>3.0375701953739668E-13</v>
-      </c>
-      <c r="M43">
-        <v>1.41</v>
-      </c>
-      <c r="N43">
-        <f t="array" ref="N43">_xll.XLL.UDF(_xll.KAHAN.C,M43)</f>
-        <v>1.5057334447715287</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <f t="array" ref="B44:C44">_xll.BISECT(_xll.KAHAN.C,B43,C43)</f>
-        <v>1.7577720182467602</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="C44">
-        <v>1.7577720182482155</v>
+        <v>0.16679566609873292</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>1.4552803406786552E-12</v>
+        <v>1.819100425848319E-13</v>
       </c>
       <c r="E44">
         <f t="array" ref="E44">_xll.XLL.UDF(_xll.KAHAN.C,B44)</f>
-        <v>7.8088646659730117E-12</v>
-      </c>
-      <c r="H44">
-        <f t="array" ref="H44:I44">_xll.FALSE_POSITION(_xll.KAHAN.C,H43,I43)</f>
-        <v>1.757772018247248</v>
-      </c>
-      <c r="I44">
-        <v>1.8</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>4.2227981752751997E-2</v>
-      </c>
-      <c r="K44">
-        <f t="array" ref="K44">_xll.XLL.UDF(_xll.KAHAN.C,H44)</f>
-        <v>1.3677947663380992E-13</v>
-      </c>
-      <c r="M44">
-        <v>1.42</v>
-      </c>
-      <c r="N44">
-        <f t="array" ref="N44">_xll.XLL.UDF(_xll.KAHAN.C,M44)</f>
-        <v>1.4938319891477916</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <f t="array" ref="B45:C45">_xll.BISECT(_xll.KAHAN.C,B44,C44)</f>
-        <v>1.7577720182467602</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="C45">
-        <v>1.7577720182474879</v>
+        <v>0.16679566609864196</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>7.276401703393276E-13</v>
+        <v>9.095502129241595E-14</v>
       </c>
       <c r="E45">
         <f t="array" ref="E45">_xll.XLL.UDF(_xll.KAHAN.C,B45)</f>
-        <v>7.8088646659730117E-12</v>
-      </c>
-      <c r="H45">
-        <f t="array" ref="H45:I45">_xll.FALSE_POSITION(_xll.KAHAN.C,H44,I44)</f>
-        <v>1.7577720182472529</v>
-      </c>
-      <c r="I45">
-        <v>1.8</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>4.2227981752747112E-2</v>
-      </c>
-      <c r="K45">
-        <f t="array" ref="K45">_xll.XLL.UDF(_xll.KAHAN.C,H45)</f>
-        <v>6.0396132539606698E-14</v>
-      </c>
-      <c r="M45">
-        <v>1.43</v>
-      </c>
-      <c r="N45">
-        <f t="array" ref="N45">_xll.XLL.UDF(_xll.KAHAN.C,M45)</f>
-        <v>1.4812371984622343</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
         <f t="array" ref="B46:C46">_xll.BISECT(_xll.KAHAN.C,B45,C45)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="C46">
-        <v>1.7577720182474879</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>3.6393110747212631E-13</v>
+        <v>4.546363285840016E-14</v>
       </c>
       <c r="E46">
         <f t="array" ref="E46">_xll.XLL.UDF(_xll.KAHAN.C,B46)</f>
-        <v>2.0889956431325127E-12</v>
-      </c>
-      <c r="H46">
-        <f t="array" ref="H46:I46">_xll.FALSE_POSITION(_xll.KAHAN.C,H45,I45)</f>
-        <v>1.7577720182472552</v>
-      </c>
-      <c r="I46">
-        <v>1.8</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>4.2227981752744892E-2</v>
-      </c>
-      <c r="K46">
-        <f t="array" ref="K46">_xll.XLL.UDF(_xll.KAHAN.C,H46)</f>
-        <v>2.4868995751603197E-14</v>
-      </c>
-      <c r="M46">
-        <v>1.44</v>
-      </c>
-      <c r="N46">
-        <f t="array" ref="N46">_xll.XLL.UDF(_xll.KAHAN.C,M46)</f>
-        <v>1.467916522338176</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="array" ref="B47:C47">_xll.BISECT(_xll.KAHAN.C,B46,C46)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609857374</v>
       </c>
       <c r="C47">
-        <v>1.757772018247306</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>1.8207657603852567E-13</v>
+        <v>2.273181642920008E-14</v>
       </c>
       <c r="E47">
         <f t="array" ref="E47">_xll.XLL.UDF(_xll.KAHAN.C,B47)</f>
-        <v>2.0889956431325127E-12</v>
-      </c>
-      <c r="H47">
-        <f t="array" ref="H47:I47">_xll.FALSE_POSITION(_xll.KAHAN.C,H46,I46)</f>
-        <v>1.757772018247256</v>
-      </c>
-      <c r="I47">
-        <v>1.8</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
-        <v>4.2227981752744004E-2</v>
-      </c>
-      <c r="K47">
-        <f t="array" ref="K47">_xll.XLL.UDF(_xll.KAHAN.C,H47)</f>
-        <v>1.0658141036401446E-14</v>
-      </c>
-      <c r="M47">
-        <v>1.45</v>
-      </c>
-      <c r="N47">
-        <f t="array" ref="N47">_xll.XLL.UDF(_xll.KAHAN.C,M47)</f>
-        <v>1.4538347198874735</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.0480505352462027E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="array" ref="B48:C48">_xll.BISECT(_xll.KAHAN.C,B47,C47)</f>
-        <v>1.757772018247215</v>
+        <v>0.16679566609858509</v>
       </c>
       <c r="C48">
-        <v>1.757772018247306</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>9.1038288019262836E-14</v>
+        <v>1.1379786002407855E-14</v>
       </c>
       <c r="E48">
         <f t="array" ref="E48">_xll.XLL.UDF(_xll.KAHAN.C,B48)</f>
-        <v>6.5902838741727573E-13</v>
-      </c>
-      <c r="H48">
-        <f t="array" ref="H48:I48">_xll.FALSE_POSITION(_xll.KAHAN.C,H47,I47)</f>
-        <v>1.7577720182472565</v>
-      </c>
-      <c r="I48">
-        <v>1.8</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>4.222798175274356E-2</v>
-      </c>
-      <c r="K48">
-        <f t="array" ref="K48">_xll.XLL.UDF(_xll.KAHAN.C,H48)</f>
-        <v>5.3290705182007372E-15</v>
-      </c>
-      <c r="M48">
-        <v>1.46</v>
-      </c>
-      <c r="N48">
-        <f t="array" ref="N48">_xll.XLL.UDF(_xll.KAHAN.C,M48)</f>
-        <v>1.4389535642292473</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-3.6859404417555879E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="array" ref="B49:C49">_xll.BISECT(_xll.KAHAN.C,B48,C48)</f>
-        <v>1.757772018247215</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="C49">
-        <v>1.7577720182472605</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>4.5519144009631418E-14</v>
+        <v>5.6898930012039273E-15</v>
       </c>
       <c r="E49">
         <f t="array" ref="E49">_xll.XLL.UDF(_xll.KAHAN.C,B49)</f>
-        <v>6.5902838741727573E-13</v>
-      </c>
-      <c r="H49">
-        <f t="array" ref="H49:I49">_xll.FALSE_POSITION(_xll.KAHAN.C,H48,I48)</f>
-        <v>1.7577720182472567</v>
-      </c>
-      <c r="I49">
-        <v>1.8</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>4.2227981752743338E-2</v>
-      </c>
-      <c r="K49">
-        <f t="array" ref="K49">_xll.XLL.UDF(_xll.KAHAN.C,H49)</f>
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>1.47</v>
-      </c>
-      <c r="N49">
-        <f t="array" ref="N49">_xll.XLL.UDF(_xll.KAHAN.C,M49)</f>
-        <v>1.4232315049700346</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="array" ref="B50:C50">_xll.BISECT(_xll.KAHAN.C,B49,C49)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="C50">
-        <v>1.7577720182472605</v>
+        <v>0.16679566609859364</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>2.2870594307278225E-14</v>
+        <v>2.8588242884097781E-15</v>
       </c>
       <c r="E50">
         <f t="array" ref="E50">_xll.XLL.UDF(_xll.KAHAN.C,B50)</f>
-        <v>3.0198066269799699E-13</v>
-      </c>
-      <c r="M50">
-        <v>1.48</v>
-      </c>
-      <c r="N50">
-        <f t="array" ref="N50">_xll.XLL.UDF(_xll.KAHAN.C,M50)</f>
-        <v>1.406623281272235</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="array" ref="B51:C51">_xll.BISECT(_xll.KAHAN.C,B50,C50)</f>
-        <v>1.7577720182472492</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="C51">
-        <v>1.7577720182472605</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>1.1324274851176597E-14</v>
+        <v>1.4155343563970746E-15</v>
       </c>
       <c r="E51">
         <f t="array" ref="E51">_xll.XLL.UDF(_xll.KAHAN.C,B51)</f>
-        <v>1.2079226507920974E-13</v>
-      </c>
-      <c r="M51">
-        <v>1.49</v>
-      </c>
-      <c r="N51">
-        <f t="array" ref="N51">_xll.XLL.UDF(_xll.KAHAN.C,M51)</f>
-        <v>1.3890794765826826</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
         <f t="array" ref="B52:C52">_xll.BISECT(_xll.KAHAN.C,B51,C51)</f>
-        <v>1.7577720182472549</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="C52">
-        <v>1.7577720182472605</v>
+        <v>0.16679566609859148</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>5.5511151231257827E-15</v>
+        <v>6.9388939039072284E-16</v>
       </c>
       <c r="E52">
         <f t="array" ref="E52">_xll.XLL.UDF(_xll.KAHAN.C,B52)</f>
-        <v>2.8421709430403604E-14</v>
-      </c>
-      <c r="M52">
-        <v>1.5</v>
-      </c>
-      <c r="N52">
-        <f t="array" ref="N52">_xll.XLL.UDF(_xll.KAHAN.C,M52)</f>
-        <v>1.3705460041517514</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="array" ref="B53:C53">_xll.BISECT(_xll.KAHAN.C,B52,C52)</f>
-        <v>1.7577720182472549</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="C53">
-        <v>1.7577720182472576</v>
+        <v>0.16679566609859148</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>2.6645352591003757E-15</v>
+        <v>3.3306690738754696E-16</v>
       </c>
       <c r="E53">
         <f t="array" ref="E53">_xll.XLL.UDF(_xll.KAHAN.C,B53)</f>
-        <v>2.8421709430403604E-14</v>
-      </c>
-      <c r="M53">
-        <v>1.51</v>
-      </c>
-      <c r="N53">
-        <f t="array" ref="N53">_xll.XLL.UDF(_xll.KAHAN.C,M53)</f>
-        <v>1.3509635100340096</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
         <f t="array" ref="B54:C54">_xll.BISECT(_xll.KAHAN.C,B53,C53)</f>
-        <v>1.7577720182472563</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="C54">
-        <v>1.7577720182472576</v>
+        <v>0.16679566609859131</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -9053,23 +7966,16 @@
       </c>
       <c r="E54">
         <f t="array" ref="E54">_xll.XLL.UDF(_xll.KAHAN.C,B54)</f>
-        <v>8.8817841970012129E-15</v>
-      </c>
-      <c r="M54">
-        <v>1.52</v>
-      </c>
-      <c r="N54">
-        <f t="array" ref="N54">_xll.XLL.UDF(_xll.KAHAN.C,M54)</f>
-        <v>1.3302666771756413</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="array" ref="B55:C55">_xll.BISECT(_xll.KAHAN.C,B54,C54)</f>
-        <v>1.7577720182472563</v>
+        <v>0.16679566609859123</v>
       </c>
       <c r="C55">
-        <v>1.7577720182472569</v>
+        <v>0.16679566609859131</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
@@ -9077,23 +7983,16 @@
       </c>
       <c r="E55">
         <f t="array" ref="E55">_xll.XLL.UDF(_xll.KAHAN.C,B55)</f>
-        <v>8.8817841970012129E-15</v>
-      </c>
-      <c r="M55">
-        <v>1.53</v>
-      </c>
-      <c r="N55">
-        <f t="array" ref="N55">_xll.XLL.UDF(_xll.KAHAN.C,M55)</f>
-        <v>1.3083834102623439</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
         <f t="array" ref="B56:C56">_xll.BISECT(_xll.KAHAN.C,B55,C55)</f>
-        <v>1.7577720182472567</v>
+        <v>0.16679566609859123</v>
       </c>
       <c r="C56">
-        <v>1.7577720182472569</v>
+        <v>0.16679566609859126</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -9101,248 +8000,24 @@
       </c>
       <c r="E56">
         <f t="array" ref="E56">_xll.XLL.UDF(_xll.KAHAN.C,B56)</f>
+        <v>-1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="array" ref="B57:C57">_xll.BISECT(_xll.KAHAN.C,B56,C56)</f>
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="C57">
+        <v>0.16679566609859126</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56">
-        <v>1.54</v>
-      </c>
-      <c r="N56">
-        <f t="array" ref="N56">_xll.XLL.UDF(_xll.KAHAN.C,M56)</f>
-        <v>1.2852338759541306</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M57">
-        <v>1.55</v>
-      </c>
-      <c r="N57">
-        <f t="array" ref="N57">_xll.XLL.UDF(_xll.KAHAN.C,M57)</f>
-        <v>1.2607293666010257</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M58">
-        <v>1.56</v>
-      </c>
-      <c r="N58">
-        <f t="array" ref="N58">_xll.XLL.UDF(_xll.KAHAN.C,M58)</f>
-        <v>1.234770947005621</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M59">
-        <v>1.57</v>
-      </c>
-      <c r="N59">
-        <f t="array" ref="N59">_xll.XLL.UDF(_xll.KAHAN.C,M59)</f>
-        <v>1.2072478325616116</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M60">
-        <v>1.58</v>
-      </c>
-      <c r="N60">
-        <f t="array" ref="N60">_xll.XLL.UDF(_xll.KAHAN.C,M60)</f>
-        <v>1.1780354321436872</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M61">
-        <v>1.59</v>
-      </c>
-      <c r="N61">
-        <f t="array" ref="N61">_xll.XLL.UDF(_xll.KAHAN.C,M61)</f>
-        <v>1.1469929690104816</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M62">
-        <v>1.6</v>
-      </c>
-      <c r="N62">
-        <f t="array" ref="N62">_xll.XLL.UDF(_xll.KAHAN.C,M62)</f>
-        <v>1.1139605656149092</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M63">
-        <v>1.61</v>
-      </c>
-      <c r="N63">
-        <f t="array" ref="N63">_xll.XLL.UDF(_xll.KAHAN.C,M63)</f>
-        <v>1.0787556405128291</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M64">
-        <v>1.62</v>
-      </c>
-      <c r="N64">
-        <f t="array" ref="N64">_xll.XLL.UDF(_xll.KAHAN.C,M64)</f>
-        <v>1.0411684129113139</v>
-      </c>
-    </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M65">
-        <v>1.63</v>
-      </c>
-      <c r="N65">
-        <f t="array" ref="N65">_xll.XLL.UDF(_xll.KAHAN.C,M65)</f>
-        <v>1.0009562357872155</v>
-      </c>
-    </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M66">
-        <v>1.64</v>
-      </c>
-      <c r="N66">
-        <f t="array" ref="N66">_xll.XLL.UDF(_xll.KAHAN.C,M66)</f>
-        <v>0.95783637106044062</v>
-      </c>
-    </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M67">
-        <v>1.65</v>
-      </c>
-      <c r="N67">
-        <f t="array" ref="N67">_xll.XLL.UDF(_xll.KAHAN.C,M67)</f>
-        <v>0.91147666281590012</v>
-      </c>
-    </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M68">
-        <v>1.66</v>
-      </c>
-      <c r="N68">
-        <f t="array" ref="N68">_xll.XLL.UDF(_xll.KAHAN.C,M68)</f>
-        <v>0.86148332918162951</v>
-      </c>
-    </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M69">
-        <v>1.67</v>
-      </c>
-      <c r="N69">
-        <f t="array" ref="N69">_xll.XLL.UDF(_xll.KAHAN.C,M69)</f>
-        <v>0.80738473397117805</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M70">
-        <v>1.68</v>
-      </c>
-      <c r="N70">
-        <f t="array" ref="N70">_xll.XLL.UDF(_xll.KAHAN.C,M70)</f>
-        <v>0.74860943673743552</v>
-      </c>
-    </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M71">
-        <v>1.69</v>
-      </c>
-      <c r="N71">
-        <f t="array" ref="N71">_xll.XLL.UDF(_xll.KAHAN.C,M71)</f>
-        <v>0.68445591570042996</v>
-      </c>
-    </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M72">
-        <v>1.7</v>
-      </c>
-      <c r="N72">
-        <f t="array" ref="N72">_xll.XLL.UDF(_xll.KAHAN.C,M72)</f>
-        <v>0.61404985920124333</v>
-      </c>
-    </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M73">
-        <v>1.71</v>
-      </c>
-      <c r="N73">
-        <f t="array" ref="N73">_xll.XLL.UDF(_xll.KAHAN.C,M73)</f>
-        <v>0.53628234825093712</v>
-      </c>
-    </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M74">
-        <v>1.72</v>
-      </c>
-      <c r="N74">
-        <f t="array" ref="N74">_xll.XLL.UDF(_xll.KAHAN.C,M74)</f>
-        <v>0.44971765315534612</v>
-      </c>
-    </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M75">
-        <v>1.73</v>
-      </c>
-      <c r="N75">
-        <f t="array" ref="N75">_xll.XLL.UDF(_xll.KAHAN.C,M75)</f>
-        <v>0.35245074757064193</v>
-      </c>
-    </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M76">
-        <v>1.74</v>
-      </c>
-      <c r="N76">
-        <f t="array" ref="N76">_xll.XLL.UDF(_xll.KAHAN.C,M76)</f>
-        <v>0.24187756078286488</v>
-      </c>
-    </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M77">
-        <v>1.75</v>
-      </c>
-      <c r="N77">
-        <f t="array" ref="N77">_xll.XLL.UDF(_xll.KAHAN.C,M77)</f>
-        <v>0.11430477128005863</v>
-      </c>
-    </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M78">
-        <v>1.76</v>
-      </c>
-      <c r="N78">
-        <f t="array" ref="N78">_xll.XLL.UDF(_xll.KAHAN.C,M78)</f>
-        <v>-3.5757507379225208E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M79">
-        <v>1.77</v>
-      </c>
-      <c r="N79">
-        <f t="array" ref="N79">_xll.XLL.UDF(_xll.KAHAN.C,M79)</f>
-        <v>-0.21699053251933142</v>
-      </c>
-    </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M80">
-        <v>1.78</v>
-      </c>
-      <c r="N80">
-        <f t="array" ref="N80">_xll.XLL.UDF(_xll.KAHAN.C,M80)</f>
-        <v>-0.4443492315141308</v>
-      </c>
-    </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M81">
-        <v>1.79</v>
-      </c>
-      <c r="N81">
-        <f t="array" ref="N81">_xll.XLL.UDF(_xll.KAHAN.C,M81)</f>
-        <v>-0.74708989735900511</v>
-      </c>
-    </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M82">
-        <v>1.8</v>
-      </c>
-      <c r="N82">
-        <f t="array" ref="N82">_xll.XLL.UDF(_xll.KAHAN.C,M82)</f>
-        <v>-1.1960046346767577</v>
+      <c r="E57">
+        <f t="array" ref="E57">_xll.XLL.UDF(_xll.KAHAN.C,B57)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\source\repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084AB9E-97BE-4D36-92F3-8F0BEFBA177A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,304 +258,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>0.10404040404040404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>0.10808080808080808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>0.11212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0404040404040404</c:v>
+                  <c:v>0.11616161616161616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
+                  <c:v>0.1202020202020202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>0.12424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>0.12828282828282828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0808080808080809</c:v>
+                  <c:v>0.13232323232323234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
+                  <c:v>0.14040404040404042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>0.14444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212121212121211</c:v>
+                  <c:v>0.1484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
+                  <c:v>0.15252525252525254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
+                  <c:v>0.15656565656565657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>0.16060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1616161616161615</c:v>
+                  <c:v>0.16464646464646465</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
+                  <c:v>0.16868686868686869</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
+                  <c:v>0.17272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
+                  <c:v>0.17676767676767677</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.202020202020202</c:v>
+                  <c:v>0.18080808080808081</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
+                  <c:v>0.18484848484848487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>0.18888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
+                  <c:v>0.19292929292929295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2424242424242424</c:v>
+                  <c:v>0.19696969696969696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
+                  <c:v>0.20101010101010103</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
+                  <c:v>0.20505050505050504</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
+                  <c:v>0.20909090909090911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2828282828282829</c:v>
+                  <c:v>0.21313131313131314</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
+                  <c:v>0.21717171717171718</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
+                  <c:v>0.22121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
+                  <c:v>0.22525252525252526</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
+                  <c:v>0.2292929292929293</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
+                  <c:v>0.23737373737373738</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
+                  <c:v>0.24141414141414141</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3636363636363638</c:v>
+                  <c:v>0.24545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
+                  <c:v>0.24949494949494949</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
+                  <c:v>0.2535353535353535</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
+                  <c:v>0.25757575757575757</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.404040404040404</c:v>
+                  <c:v>0.26161616161616164</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
+                  <c:v>0.2656565656565657</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
+                  <c:v>0.26969696969696971</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
+                  <c:v>0.27373737373737372</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>0.28181818181818186</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
+                  <c:v>0.28585858585858587</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
+                  <c:v>0.28989898989898988</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4848484848484849</c:v>
+                  <c:v>0.29393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
+                  <c:v>0.29797979797979801</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
+                  <c:v>0.30202020202020202</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
+                  <c:v>0.30606060606060603</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5252525252525253</c:v>
+                  <c:v>0.3101010101010101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
+                  <c:v>0.31414141414141417</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
+                  <c:v>0.32222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5656565656565657</c:v>
+                  <c:v>0.32626262626262625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
+                  <c:v>0.33030303030303032</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
+                  <c:v>0.33434343434343439</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
+                  <c:v>0.3383838383838384</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.606060606060606</c:v>
+                  <c:v>0.34242424242424241</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
+                  <c:v>0.34646464646464648</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
+                  <c:v>0.35050505050505054</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
+                  <c:v>0.3545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
+                  <c:v>0.35858585858585856</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
+                  <c:v>0.36262626262626263</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
+                  <c:v>0.37070707070707076</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6868686868686869</c:v>
+                  <c:v>0.37474747474747472</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>0.37878787878787878</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
+                  <c:v>0.38282828282828285</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
+                  <c:v>0.38686868686868692</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>0.39090909090909087</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
+                  <c:v>0.39494949494949494</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
+                  <c:v>0.39898989898989901</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
+                  <c:v>0.40303030303030307</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7676767676767677</c:v>
+                  <c:v>0.40707070707070703</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
+                  <c:v>0.41111111111111109</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
+                  <c:v>0.41515151515151516</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
+                  <c:v>0.41919191919191923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
+                  <c:v>0.42323232323232318</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
+                  <c:v>0.42727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
+                  <c:v>0.43131313131313131</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
+                  <c:v>0.43535353535353538</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
+                  <c:v>0.43939393939393945</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
+                  <c:v>0.4434343434343434</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
+                  <c:v>0.44747474747474747</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
+                  <c:v>0.45151515151515154</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>0.4555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
+                  <c:v>0.45959595959595956</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
+                  <c:v>0.46363636363636362</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
+                  <c:v>0.46767676767676769</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
+                  <c:v>0.47171717171717176</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
+                  <c:v>0.47575757575757571</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
+                  <c:v>0.47979797979797978</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
+                  <c:v>0.48383838383838385</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>0.48787878787878791</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
+                  <c:v>0.49191919191919198</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>0.49595959595959593</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,304 +567,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>-0.51099230432308951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>-0.47140419921131316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>-0.43332708520626406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>-0.39665021591742999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0707466607111975</c:v>
+                  <c:v>-0.36127461786849341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
+                  <c:v>-0.32711147968537158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>-0.2940808076936261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>-0.26211029674067837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1202831562875222</c:v>
+                  <c:v>-0.23113437617613841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
+                  <c:v>-0.20109339936436621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
+                  <c:v>-0.17193295157117347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>-0.14360325606551605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469305290993246</c:v>
+                  <c:v>-0.11605866217200039</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
+                  <c:v>-8.9257202068035973E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
+                  <c:v>-6.3160205537478142E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
+                  <c:v>-3.7731963817539203E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1489458612263022</c:v>
+                  <c:v>-1.2939435217864335E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
+                  <c:v>1.1248013566421961E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
+                  <c:v>3.4858835518448282E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
+                  <c:v>5.7919504989836897E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.124522274457501</c:v>
+                  <c:v>8.0454696594655428E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
+                  <c:v>0.10248744433071234</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
+                  <c:v>0.12403928349404224</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
+                  <c:v>0.14513037757217709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0717889302913104</c:v>
+                  <c:v>0.16577963198461465</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
+                  <c:v>0.18600479627327429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
+                  <c:v>0.20582255612236389</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
+                  <c:v>0.22524861639865201</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9888110299354667</c:v>
+                  <c:v>0.24429777624351084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
+                  <c:v>0.26298399711250481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
+                  <c:v>0.28132046454267046</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
+                  <c:v>0.29931964432878305</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
+                  <c:v>0.31699333370508936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
+                  <c:v>0.33435270805604783</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
+                  <c:v>0.3514083636166862</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
+                  <c:v>0.36817035656875413</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7240625640325113</c:v>
+                  <c:v>0.38464823889165689</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
+                  <c:v>0.40085109128610991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
+                  <c:v>0.41678755345270524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
+                  <c:v>0.43246585197634096</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5381025994476083</c:v>
+                  <c:v>0.44789382604011518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
+                  <c:v>0.46307895116830255</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
+                  <c:v>0.47802836117692737</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
+                  <c:v>0.49274886849187155</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.31351928059747</c:v>
+                  <c:v>0.50724698297803839</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
+                  <c:v>0.52152892940859641</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
+                  <c:v>0.53560066369045878</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
+                  <c:v>0.54946788795074508</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0480580072365706</c:v>
+                  <c:v>0.5631360645788217</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
+                  <c:v>0.57661042930947415</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
+                  <c:v>0.58989600342470205</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
+                  <c:v>0.60299760514441392</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7394002188287248</c:v>
+                  <c:v>0.61591986026984724</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
+                  <c:v>0.62866721213775667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
+                  <c:v>0.64124393093822074</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
+                  <c:v>0.65365412244424481</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3851633945470994</c:v>
+                  <c:v>0.66590173619713888</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
+                  <c:v>0.67799057318785705</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
+                  <c:v>0.68992429307106884</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
+                  <c:v>0.7017064209456334</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9829010532742082</c:v>
+                  <c:v>0.71334035373235738</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
+                  <c:v>0.72482936617737603</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
+                  <c:v>0.73617661650719812</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
+                  <c:v>0.74738515175936715</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
+                  <c:v>0.75845791281079178</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
+                  <c:v>0.76939773912406118</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
+                  <c:v>0.78020737323049849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
+                  <c:v>0.79088946496725276</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.024194093831392</c:v>
+                  <c:v>0.80144657548442799</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
+                  <c:v>0.81188118103703832</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
+                  <c:v>0.82219567657548431</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
+                  <c:v>0.83239237914724074</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.46253671197322532</c:v>
+                  <c:v>0.84247353112151502</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
+                  <c:v>0.85244130324780032</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
+                  <c:v>0.86229779755845748</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
+                  <c:v>0.87204505012475164</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.15757171425269867</c:v>
+                  <c:v>0.88168503367511353</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
+                  <c:v>0.89121966008377951</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
+                  <c:v>0.90065078273741606</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
+                  <c:v>0.90998019878681191</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
+                  <c:v>0.91920965129024945</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
+                  <c:v>0.92834083125472577</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
+                  <c:v>0.93737537958078287</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
+                  <c:v>0.94631488891634141</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
+                  <c:v>0.955160905424569</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
+                  <c:v>0.9639149304705058</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
+                  <c:v>0.97257842223085889</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
+                  <c:v>0.98115279723110416</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
+                  <c:v>0.98963943181377878</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
+                  <c:v>0.99803966354160234</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
+                  <c:v>1.0063547925388427</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
+                  <c:v>1.014586082774138</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
+                  <c:v>1.0227347632877895</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
+                  <c:v>1.0308020293663602</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
+                  <c:v>1.0387890436672522</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
+                  <c:v>1.0466969372957633</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
+                  <c:v>1.0545268108370003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
+                  <c:v>1.0622797353448683</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>1.0699567532902383</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>1.0775588794702773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,64 +1960,64 @@
   <dimension ref="B2:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+        <f t="array" ref="C2">_xll.KAHAN.C</f>
+        <v>1913454664</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
-        <v>4</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>1.0775588794702773</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>212736</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>212832</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,877 +2044,1619 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITIVE(function,C3,C4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.22866876674451747</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.12866876674451747</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.51099230432308951</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITIVE(function,I7,J7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.17966878158094995</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K57" si="1">J8-I8</f>
+        <v>7.9668781580949949E-2</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.10592317392030241</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITIVE(function,I8,J8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.16957279561756278</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>6.9572795617562772E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
-        <v>1.75</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.10592317392030241</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITIVE(function,I9,J9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0.16739994031542887</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.7399940315428869E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
-        <v>1.75</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>1.2499999999999983E-2</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-2.6033233110659918E-2</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITIVE(function,I10,J10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.16692740062941941</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>6.6927400629419403E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
-        <v>1.75</v>
+        <v>0.16250000000000003</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>6.2499999999999778E-3</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-2.6033233110659918E-2</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITIVE(function,I11,J11)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0.16682439681438094</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>6.6824396814380932E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>0.16562500000000002</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>3.1249999999999889E-3</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349637119E-3</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITIVE(function,I12,J12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0.16680193271097565</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>6.6801932710975648E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>0.16562500000000002</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>1.5624999999999944E-3</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349637119E-3</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITIVE(function,I13,J13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.166797032970606</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>6.6797032970605991E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>0.16640625000000003</v>
       </c>
       <c r="D15">
-        <v>1.7578125</v>
+        <v>0.16718750000000002</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>7.8124999999998335E-4</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-2.3320107229970566E-3</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITIVE(function,I14,J14)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0.1667959642416853</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>6.6795964241685296E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>0.16640625000000003</v>
       </c>
       <c r="D16">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>3.906249999999778E-4</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.3320107229970566E-3</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITIVE(function,I15,J15)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>0.16679573112983606</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6.6795731129836056E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>0.16660156250000002</v>
       </c>
       <c r="D17">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>1.953124999999889E-4</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1616995234697695E-3</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITIVE(function,I16,J16)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0.16679568028326885</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6.6795680283268849E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>0.16669921875000002</v>
       </c>
       <c r="D18">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>9.7656249999994449E-5</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-5.7706189945448271E-4</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITIVE(function,I17,J17)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>0.16679566919256689</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>6.6795669192566881E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>0.166748046875</v>
       </c>
       <c r="D19">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>4.8828125000011102E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8487240560673974E-4</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITIVE(function,I18,J18)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0.16679566677345226</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>6.679566677345225E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>0.16677246093750001</v>
       </c>
       <c r="D20">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>2.4414062500005551E-5</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.3880996628686784E-4</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITIVE(function,I19,J19)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>0.16679566624579262</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>6.6795666245792612E-2</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>0.16678466796875002</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>1.2207031249988898E-5</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.5786820788225862E-5</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITIVE(function,I20,J20)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>0.16679566613069896</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>6.6795666130698955E-2</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>0.16679077148437502</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>6.1035156249944489E-6</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.9277266237049985E-5</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITIVE(function,I21,J21)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>0.16679566610559465</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>6.6795666105594648E-2</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>0.1667938232421875</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>3.0517578125111022E-6</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1022993468123804E-5</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITIVE(function,I22,J22)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.16679566610011887</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>6.6795666100118861E-2</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>1.5258789062555511E-6</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.8959832049153466E-6</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITIVE(function,I23,J23)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J24">
+        <v>0.16679566609892446</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>6.6795666098924456E-2</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>0.1667961120605469</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>7.6293945314165335E-7</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.8959832049153466E-6</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITIVE(function,I24,J24)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>0.16679566609866392</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>6.6795666098663914E-2</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>0.16679534912109376</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>3.8146972655694888E-7</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.8959832049153466E-6</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITIVE(function,I25,J25)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>0.16679566609860713</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>6.6795666098607126E-2</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679553985595702</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>1.9073486329235223E-7</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.5511283414221413E-7</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITIVE(function,I26,J26)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>0.16679566609859475</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.6795666098594747E-2</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679563522338867</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>9.5367431646176115E-8</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.8467814117959842E-7</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITIVE(function,I27,J27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>0.16679566609859203</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>6.6795666098592027E-2</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679563522338867</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>4.7683715836965845E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.8467814117959842E-7</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITIVE(function,I28,J28)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>0.16679566609859145</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591444E-2</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>0.1667956829071045</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>2.384185793236071E-8</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITIVE(function,I29,J29)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591305E-2</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>1.1920928966180355E-8</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITIVE(function,I30,J30)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591278E-2</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D32">
-        <v>1.7577720284461975</v>
+        <v>0.16679567098617554</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>5.9604644830901776E-9</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.4173669917477683E-9</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITIVE(function,I31,J31)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J32">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>0.16679566800594331</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>2.9802322554228766E-9</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.4173669917477683E-9</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITIVE(function,I32,J32)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J33">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>0.16679566502571105</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>1.4901161138336505E-9</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.4173669917477683E-9</v>
+      </c>
+      <c r="I34" cm="1">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITIVE(function,I33,J33)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J34">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>0.16679566651582717</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>7.4505807079461306E-10</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITIVE(function,I34,J34)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J35">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>3.7252903539730653E-10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITIVE(function,I35,J35)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J36">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>0.1667956659570336</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>1.8626453157644107E-10</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-8.4671825142698924E-10</v>
+      </c>
+      <c r="I37" cm="1">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITIVE(function,I36,J36)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J37">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>9.3132251910432728E-11</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8965352343067166E-10</v>
+      </c>
+      <c r="I38" cm="1">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITIVE(function,I37,J37)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J38">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>0.16679566614329813</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>4.6566112077428556E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+      <c r="I39" cm="1">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITIVE(function,I38,J38)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J39">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>0.16679566612001506</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>2.328304216092647E-11</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+      <c r="I40" cm="1">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITIVE(function,I39,J39)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J40">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>0.16679566610837354</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>1.1641521080463235E-11</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+      <c r="I41" cm="1">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITIVE(function,I40,J40)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J41">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>0.16679566610255278</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>5.8207605402316176E-12</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+      <c r="I42" cm="1">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITIVE(function,I41,J41)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J42">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609673202</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>0.16679566609964241</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>2.9103941479036166E-12</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.1120881993127105E-11</v>
+      </c>
+      <c r="I43" cm="1">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITIVE(function,I42,J42)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J43">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609818722</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>0.16679566609964241</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>1.4551970739518083E-12</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4166224577044984E-12</v>
+      </c>
+      <c r="I44" cm="1">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITIVE(function,I43,J43)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J44">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609818722</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>0.16679566609891483</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>7.2761241476371197E-13</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4166224577044984E-12</v>
+      </c>
+      <c r="I45" cm="1">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITIVE(function,I44,J44)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J45">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>0.16679566609891483</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>3.638200851696638E-13</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+      <c r="I46" cm="1">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITIVE(function,I45,J45)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J46">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>0.16679566609873292</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>1.819100425848319E-13</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+      <c r="I47" cm="1">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITIVE(function,I46,J46)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J47">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>0.16679566609864196</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>9.095502129241595E-14</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+      <c r="I48" cm="1">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITIVE(function,I47,J47)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J48">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609855101</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>4.546363285840016E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4069635173876292E-13</v>
+      </c>
+      <c r="I49" cm="1">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITIVE(function,I48,J48)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J49">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609857374</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>2.273181642920008E-14</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.0480505352462027E-13</v>
+      </c>
+      <c r="I50" cm="1">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITIVE(function,I49,J49)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J50">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609858509</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>1.1379786002407855E-14</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-3.6859404417555879E-14</v>
+      </c>
+      <c r="I51" cm="1">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITIVE(function,I50,J50)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J51">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>5.6898930012039273E-15</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+      <c r="I52" cm="1">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITIVE(function,I51,J51)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J52">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>0.16679566609859364</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>2.8588242884097781E-15</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+      <c r="I53" cm="1">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITIVE(function,I52,J52)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J53">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>1.4155343563970746E-15</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+      <c r="I54" cm="1">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITIVE(function,I53,J53)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J54">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>0.16679566609859078</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859148</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>6.9388939039072284E-16</v>
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.7755575615628953E-15</v>
+      </c>
+      <c r="I55" cm="1">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITIVE(function,I54,J54)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J55">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
-        <v>1.7577720182472563</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859148</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3306690738754696E-16</v>
       </c>
       <c r="F56" cm="1">
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
-        <v>8.8817841970012523E-15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+      <c r="I56" cm="1">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITIVE(function,I55,J55)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J56">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
-        <v>1.7577720182472567</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859131</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -2922,6 +3664,21 @@
       </c>
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>-7.7715611723760987E-16</v>
+      </c>
+      <c r="I57" cm="1">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITIVE(function,I56,J56)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J57">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
         <v>0</v>
       </c>
     </row>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\source\repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,8 @@
     <definedName name="xvalues">_xll.ARRAY.GET(Sheet1!$N$5)</definedName>
     <definedName name="yvalues">_xll.ARRAY.GET(Sheet1!$O$5)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -95,20 +95,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,8 +174,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,7 +193,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -198,6 +205,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -223,7 +231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -258,304 +266,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>0.10303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>0.10606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>0.1090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0404040404040404</c:v>
+                  <c:v>0.11212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
+                  <c:v>0.11515151515151516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>0.11818181818181819</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0808080808080809</c:v>
+                  <c:v>0.12424242424242425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>0.12727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
+                  <c:v>0.13030303030303031</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>0.13333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212121212121211</c:v>
+                  <c:v>0.13636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
+                  <c:v>0.1393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
+                  <c:v>0.14242424242424245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>0.14545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1616161616161615</c:v>
+                  <c:v>0.1484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
+                  <c:v>0.15454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
+                  <c:v>0.15757575757575759</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.202020202020202</c:v>
+                  <c:v>0.16060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
+                  <c:v>0.16363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
+                  <c:v>0.16969696969696971</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2424242424242424</c:v>
+                  <c:v>0.17272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
+                  <c:v>0.17575757575757578</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
+                  <c:v>0.1787878787878788</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2828282828282829</c:v>
+                  <c:v>0.18484848484848487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
+                  <c:v>0.1878787878787879</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
+                  <c:v>0.19090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
+                  <c:v>0.19393939393939397</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
+                  <c:v>0.19696969696969699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
+                  <c:v>0.20303030303030306</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
+                  <c:v>0.20606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3636363636363638</c:v>
+                  <c:v>0.20909090909090911</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
+                  <c:v>0.21212121212121215</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
+                  <c:v>0.21515151515151518</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
+                  <c:v>0.2181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.404040404040404</c:v>
+                  <c:v>0.22121212121212125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
+                  <c:v>0.22424242424242427</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
+                  <c:v>0.22727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
+                  <c:v>0.23030303030303031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>0.23333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>0.23636363636363639</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
+                  <c:v>0.23939393939393941</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
+                  <c:v>0.24242424242424246</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4848484848484849</c:v>
+                  <c:v>0.24545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
+                  <c:v>0.2484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
+                  <c:v>0.25151515151515158</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
+                  <c:v>0.25454545454545457</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5252525252525253</c:v>
+                  <c:v>0.25757575757575757</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
+                  <c:v>0.26060606060606062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
+                  <c:v>0.26363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
+                  <c:v>0.26666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5656565656565657</c:v>
+                  <c:v>0.26969696969696977</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
+                  <c:v>0.27272727272727276</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
+                  <c:v>0.27575757575757576</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
+                  <c:v>0.27878787878787881</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.606060606060606</c:v>
+                  <c:v>0.28181818181818186</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
+                  <c:v>0.28484848484848491</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
+                  <c:v>0.2878787878787879</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
+                  <c:v>0.29090909090909095</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
+                  <c:v>0.29393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
+                  <c:v>0.29696969696969699</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
+                  <c:v>0.30303030303030309</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6868686868686869</c:v>
+                  <c:v>0.30606060606060609</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>0.30909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
+                  <c:v>0.31212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
+                  <c:v>0.31515151515151518</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>0.31818181818181823</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
+                  <c:v>0.32121212121212128</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
+                  <c:v>0.32424242424242428</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
+                  <c:v>0.32727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7676767676767677</c:v>
+                  <c:v>0.33030303030303032</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
+                  <c:v>0.33636363636363642</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
+                  <c:v>0.33939393939393947</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
+                  <c:v>0.34242424242424246</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
+                  <c:v>0.34545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
+                  <c:v>0.34848484848484851</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
+                  <c:v>0.35151515151515156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
+                  <c:v>0.35454545454545461</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
+                  <c:v>0.35757575757575766</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
+                  <c:v>0.3606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
+                  <c:v>0.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
+                  <c:v>0.36969696969696975</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
+                  <c:v>0.3727272727272728</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
+                  <c:v>0.37575757575757585</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
+                  <c:v>0.37878787878787878</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
+                  <c:v>0.38181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
+                  <c:v>0.38484848484848488</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
+                  <c:v>0.38787878787878793</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>0.39090909090909098</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
+                  <c:v>0.39393939393939403</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>0.39696969696969697</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,304 +575,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>-0.51099230432308951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>-0.481154959188071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>-0.45218398686124278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>-0.42403064885226083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0707466607111975</c:v>
+                  <c:v>-0.39665021591742999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
+                  <c:v>-0.37000154027342497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>-0.3440466833878052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>-0.31875059090085295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1202831562875222</c:v>
+                  <c:v>-0.2940808076936261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
+                  <c:v>-0.27000722729583454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
+                  <c:v>-0.24650187078387173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>-0.2235386911000482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469305290993246</c:v>
+                  <c:v>-0.20109339936436593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
+                  <c:v>-0.17914331027783759</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
+                  <c:v>-0.15766720415322097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
+                  <c:v>-0.13664520347227999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1489458612263022</c:v>
+                  <c:v>-0.11605866217200039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
+                  <c:v>-9.5890066116469594E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
+                  <c:v>-7.6122943425104367E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
+                  <c:v>-5.674178350864742E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.124522274457501</c:v>
+                  <c:v>-3.7731963817539203E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
+                  <c:v>-1.9079683437533339E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
+                  <c:v>-7.7190277858182703E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
+                  <c:v>1.7203711301878089E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0717889302913104</c:v>
+                  <c:v>3.4858835518448289E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
+                  <c:v>5.2204535827038642E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
+                  <c:v>6.9251309190133559E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
+                  <c:v>8.6009121831814972E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9888110299354667</c:v>
+                  <c:v>0.10248744433071234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
+                  <c:v>0.11869528385942836</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
+                  <c:v>0.13464121384442582</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
+                  <c:v>0.15033340129013642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
+                  <c:v>0.16577963198461482</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
+                  <c:v>0.18098733378081808</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
+                  <c:v>0.19596359812715802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
+                  <c:v>0.21071520000297411</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7240625640325113</c:v>
+                  <c:v>0.22524861639865201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
+                  <c:v>0.23957004346605054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
+                  <c:v>0.25368541245241116</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
+                  <c:v>0.26760040451985029</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5381025994476083</c:v>
+                  <c:v>0.28132046454267062</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
+                  <c:v>0.29485081396594065</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
+                  <c:v>0.30819646280096014</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
+                  <c:v>0.32136222082620031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.31351928059747</c:v>
+                  <c:v>0.334352708056048</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
+                  <c:v>0.3471723645340406</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
+                  <c:v>0.35982545950222916</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
+                  <c:v>0.37231609999375886</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0480580072365706</c:v>
+                  <c:v>0.384648238891657</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
+                  <c:v>0.39682568249313388</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
+                  <c:v>0.40885209761535662</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
+                  <c:v>0.42073101827564913</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7394002188287248</c:v>
+                  <c:v>0.43246585197634096</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
+                  <c:v>0.44405988562200255</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
+                  <c:v>0.45551629109457559</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
+                  <c:v>0.46683813050985534</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3851633945470994</c:v>
+                  <c:v>0.47802836117692765</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
+                  <c:v>0.48908984028047714</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
+                  <c:v>0.50002532930433974</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
+                  <c:v>0.51083749821326907</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9829010532742082</c:v>
+                  <c:v>0.52152892940859641</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
+                  <c:v>0.53210212147229985</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
+                  <c:v>0.54255949271291304</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
+                  <c:v>0.55290338452572596</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
+                  <c:v>0.5631360645788217</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
+                  <c:v>0.5732597298356702</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
+                  <c:v>0.58327650942423304</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
+                  <c:v>0.59318846736183528</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.024194093831392</c:v>
+                  <c:v>0.60299760514441414</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
+                  <c:v>0.61270586420816509</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
+                  <c:v>0.62231512827104773</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
+                  <c:v>0.63182722556112436</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.46253671197322532</c:v>
+                  <c:v>0.64124393093822085</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
+                  <c:v>0.65056696791498192</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
+                  <c:v>0.65979801058298582</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
+                  <c:v>0.66893868544921731</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.15757171425269867</c:v>
+                  <c:v>0.67799057318785705</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
+                  <c:v>0.68695521031202422</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
+                  <c:v>0.69583409076982283</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
+                  <c:v>0.70462866746875952</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
+                  <c:v>0.71334035373235738</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
+                  <c:v>0.7219705246925473</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
+                  <c:v>0.73052051862119916</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
+                  <c:v>0.73899163820396085</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
+                  <c:v>0.74738515175936737</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
+                  <c:v>0.75570229440602266</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
+                  <c:v>0.76394426918047564</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
+                  <c:v>0.77211224810827028</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
+                  <c:v>0.78020737323049849</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
+                  <c:v>0.78823075758805194</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
+                  <c:v>0.7961834861656486</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
+                  <c:v>0.80406661679758173</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
+                  <c:v>0.81188118103703832</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
+                  <c:v>0.81962818499073087</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
+                  <c:v>0.82730861012047952</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
+                  <c:v>0.83492341401330739</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
+                  <c:v>0.84247353112151513</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
+                  <c:v>0.84995987347412327</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>0.85738333136100031</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>0.86474477399092442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1611889647"/>
@@ -1004,7 +1012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1620144863"/>
@@ -1021,6 +1029,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1028,7 +1037,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1052,7 +1060,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1956,68 +1964,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.59765625" customWidth="1"/>
     <col min="13" max="13" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.C</f>
+        <v>-1288306616</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
-        <v>4</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>0.86474477399092442</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>32121754</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>32121894</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,877 +2052,1619 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>-0.51099230432308951</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE_P(function, C3, C4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.21142949747694192</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.11142949747694192</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.51099230432308951</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE_P(function,I7,J7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.17619260099865774</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K56" si="1">J8-I8</f>
+        <v>7.6192600998657739E-2</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>3.7499999999999978E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-0.19280525476442195</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE_P(function,I8,J8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.16882877073127162</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>6.882877073127161E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
-        <v>1.75</v>
+        <v>0.15625</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>1.8749999999999989E-2</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-6.5174506210815289E-2</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE_P(function,I9,J9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0.16723833599554072</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>6.7238335995540716E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
-        <v>1.75</v>
+        <v>0.16562499999999999</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>9.3749999999999944E-3</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349639357E-3</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE_P(function,I10,J10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.16689218391539937</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>6.6892183915399361E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
-        <v>1.75</v>
+        <v>0.16562499999999999</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>0.17031249999999998</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>4.6874999999999833E-3</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349639357E-3</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE_P(function,I11,J11)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0.16681671686117011</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>6.6816716861170106E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>0.16562499999999999</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>0.16796875</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>2.3437500000000056E-3</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349639357E-3</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE_P(function,I12,J12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0.16680025762589137</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>6.6800257625891368E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>0.16562499999999999</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>1.1718750000000167E-3</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-7.0271274349639357E-3</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE_P(function,I13,J13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.16679666760292713</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>6.6796667602927129E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>0.16621093749999999</v>
       </c>
       <c r="D15">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>5.859375000000222E-4</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-3.5037058762004097E-3</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE_P(function,I14,J14)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0.1667958845474985</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>6.6795884547498491E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>0.16650390625</v>
       </c>
       <c r="D16">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>2.929687500000111E-4</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.7466823305776662E-3</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE_P(function,I15,J15)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>0.16679571374687038</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6.6795713746870378E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>0.16665039062500001</v>
       </c>
       <c r="D17">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>1.4648437500000555E-4</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-8.6933758868652214E-4</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE_P(function,I16,J16)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0.16679567649167987</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6.6795676491679862E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>0.16672363281250002</v>
       </c>
       <c r="D18">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>7.3242187499988898E-5</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.3095638124116751E-4</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE_P(function,I17,J17)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>0.16679566836554183</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>6.6795668365541822E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>0.16676025390625002</v>
       </c>
       <c r="D19">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>3.6621093749994449E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.1183849429879352E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE_P(function,I18,J18)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0.16679566659306072</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>6.6795666593060715E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>0.166778564453125</v>
       </c>
       <c r="D20">
-        <v>1.7578125</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>1.8310546875011102E-5</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.0229772077241178E-4</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE_P(function,I19,J19)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>0.16679566620644543</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>6.679566620644542E-2</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>0.16678771972656251</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>9.1552734375055511E-6</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.7531875339638585E-5</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE_P(function,I20,J20)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>0.16679566612211649</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>6.6795666122116487E-2</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>0.16679229736328127</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>4.5776367187388978E-6</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.0150087811469669E-5</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE_P(function,I21,J21)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>0.1667956661037226</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>6.679566610372259E-2</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>0.16679458618164064</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>0.16679687500000001</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>2.2888183593694489E-6</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.4594778265848902E-6</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE_P(function,I22,J22)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.1667956660997105</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>6.6795666099710493E-2</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>0.16679458618164064</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>1.1444091796708467E-6</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.4594778265848902E-6</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE_P(function,I23,J23)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J24">
+        <v>0.16679566609883539</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>6.6795666098835388E-2</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>0.16679515838623049</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>5.7220458982154554E-7</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-3.0368548897097025E-6</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE_P(function,I24,J24)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>0.16679566609864452</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>6.6795666098644513E-2</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>0.1667954444885254</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>2.8610229491077277E-7</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.3255478550542708E-6</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE_P(function,I25,J25)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>0.16679566609860286</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>6.6795666098602852E-2</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679558753967286</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>1.4305114745538638E-7</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.6989544637581601E-7</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE_P(function,I26,J26)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>0.16679566609859378</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.6795666098593776E-2</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>0.16679573059082031</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>7.152557374157098E-8</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE_P(function,I27,J27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>0.16679566609859181</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591805E-2</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>0.16679569482803344</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>3.576278687078549E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE_P(function,I28,J28)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>0.16679566609859139</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591389E-2</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>0.16679567694663999</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>1.7881393421514957E-8</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE_P(function,I29,J29)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>0.16679566609859131</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591305E-2</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>0.16679565906524657</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>0.16679566800594328</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>8.9406967107574786E-9</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-4.2069519309370162E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE_P(function,I30,J30)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>6.6795666098591278E-2</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>-0.51099230432308951</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>0.16679566353559494</v>
       </c>
       <c r="D32">
-        <v>1.7577720284461975</v>
+        <v>0.16679566800594328</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>4.4703483415009515E-9</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.533040484096769E-8</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE_P(function,I31,J31)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J32">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>0.16679566800594328</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>2.2351741846282636E-9</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE_P(function,I32,J32)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J33">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>0.16679566688835618</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>1.117587078436344E-9</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE_P(function,I33,J33)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J34">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>0.1667956657707691</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>0.16679566632956264</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>5.5879353921817199E-10</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9608480414174958E-9</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE_P(function,I34,J34)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J35">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>0.16679566632956264</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>2.7939675573129819E-10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8965352343067166E-10</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE_P(function,I35,J35)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J36">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>0.16679566618986424</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>1.3969836398786128E-10</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8965352343067166E-10</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE_P(function,I36,J36)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J37">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566605016588</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>0.16679566612001506</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>6.9849181993930642E-11</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8965352343067166E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE_P(function,I37,J37)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J38">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566608509047</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>0.16679566612001506</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>3.4924590996965321E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-8.075407010081569E-11</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE_P(function,I38,J38)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J39">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>0.16679566608509047</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>0.16679566610255275</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>1.7462281620694853E-11</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-8.075407010081569E-11</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE_P(function,I39,J39)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J40">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>0.16679566609382163</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>0.16679566610255275</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>8.7311269325596186E-12</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.8529401064199611E-11</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE_P(function,I40,J40)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J41">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609818719</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>0.16679566610255275</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>4.3655634662798093E-12</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4168445023094239E-12</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE_P(function,I41,J41)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J42">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609818719</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>0.16679566610036997</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>2.1827817331399046E-12</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4168445023094239E-12</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE_P(function,I42,J42)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J43">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>0.16679566609818719</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>0.16679566609927859</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>1.0914047443577601E-12</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4168445023094239E-12</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE_P(function,I43,J43)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J44">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609818719</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>0.16679566609873289</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>5.4570237217888007E-13</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-2.4168445023094239E-12</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE_P(function,I44,J44)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J45">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609846003</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>0.16679566609873289</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>2.7286506387724785E-13</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.8481665610783113E-13</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE_P(function,I45,J45)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J46">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609846003</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>1.3644640972643174E-13</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.8481665610783113E-13</v>
+      </c>
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE_P(function,I46,J46)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J47">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
-        <v>1.7577720182471239</v>
+        <v>0.16679566609852825</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>6.8223204863215869E-14</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-3.7680969455784911E-13</v>
+      </c>
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE_P(function,I47,J47)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J48">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609856236</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>3.4111602431607935E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.7275070263168928E-13</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE_P(function,I48,J48)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J49">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609857943</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>1.7041923427996153E-14</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.0721206668624971E-14</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE_P(function,I49,J49)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J50">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
-        <v>1.7577720182472376</v>
+        <v>0.16679566609858795</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>0.16679566609859647</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>8.5209617139980764E-15</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9761969838327982E-14</v>
+      </c>
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE_P(function,I50,J50)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J51">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>0.16679566609858795</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>4.2466030691912238E-15</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-1.9761969838327982E-14</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE_P(function,I51,J51)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J52">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>0.16679566609859009</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>2.1094237467877974E-15</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-6.9944050551385107E-15</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE_P(function,I52,J52)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J53">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>0.1667956660985922</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>1.0547118733938987E-15</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE_P(function,I53,J53)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J54">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859167</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>5.2735593669694936E-16</v>
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE_P(function,I54,J54)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J55">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
-        <v>1.7577720182472563</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859142</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7755575615628914E-16</v>
       </c>
       <c r="F56" cm="1">
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
-        <v>8.8817841970012523E-15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+        <v>-7.7715611723760987E-16</v>
+      </c>
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE_P(function,I55,J55)</f>
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="J56">
+        <v>0.16679566609859128</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
-        <v>1.7577720182472567</v>
+        <v>0.16679566609859114</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>0.16679566609859128</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -2922,10 +3672,11 @@
       </c>
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
-        <v>0</v>
+        <v>-7.7715611723760987E-16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHENG LU\Source\Repos\LZ2735\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD1A9D-6AB2-498E-8394-73C0B0C68585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87790E-3990-4C13-9D36-7EC362F16F3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2422" yWindow="2678" windowWidth="15106" windowHeight="9802" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="3848" yWindow="1553" windowWidth="14400" windowHeight="8272" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Change this to kahan_b and kahan_c after implmenting them and add enough rows so bisect and false_position converge.</t>
         </r>
@@ -62,14 +59,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -120,6 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +140,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -196,6 +196,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -511,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B2:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -522,6 +523,7 @@
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -529,9 +531,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
+      <c r="C2" s="4">
         <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-2086141883</v>
+        <v>754188418</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
@@ -551,11 +553,11 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>-0.69759999999999955</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -594,63 +596,100 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>3.5583999999999989</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="5">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.6811989100817439</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.11880108991825611</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
+        <v>1.0984881860139231</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
+        <v>2.0464000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function,I7,J7)</f>
+        <v>1.7538576997653428</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>4.6142300234657263E-2</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>6.1266653835719609E-2</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
+        <v>0.84789999999999743</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function,I8,J8)</f>
+        <v>1.7575829712888331</v>
+      </c>
+      <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K49" si="1">J9-I9</f>
+        <v>4.2417028711166926E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>2.9719859898218459E-3</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
@@ -659,15 +698,30 @@
         <v>1.75</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function,I9,J9)</f>
+        <v>1.7577629139893414</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>4.2237086010658675E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>1.4315738406622813E-4</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
@@ -676,15 +730,30 @@
         <v>1.75</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function,I10,J10)</f>
+        <v>1.7577715798582647</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.2228420141735334E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>6.8933968133677581E-6</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
@@ -693,755 +762,1415 @@
         <v>1.75</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>1.7625</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function,I11,J11)</f>
+        <v>1.7577719971380532</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.2228002861946834E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>3.319293853110139E-7</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>1.7625</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>6.2499999999998668E-3</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function,I12,J12)</f>
+        <v>1.7577720172308118</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.2227982769188266E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>1.5982980272610803E-8</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>1.7593749999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>3.1249999999998224E-3</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function,I13,J13)</f>
+        <v>1.7577720181983132</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>4.2227981801686854E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>7.6960837702699791E-10</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D15">
         <v>1.7578125</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>1.5624999999999112E-3</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function,I14,J14)</f>
+        <v>1.7577720182449001</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4.2227981755099897E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>3.7056580026728625E-11</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>1.75703125</v>
       </c>
       <c r="D16">
         <v>1.7578125</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>7.8124999999995559E-4</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1637960373983347E-2</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function,I15,J15)</f>
+        <v>1.757772018247143</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4.2227981752857024E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>1.7887913372760522E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>1.7574218749999999</v>
       </c>
       <c r="D17">
         <v>1.7578125</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>3.9062500000008882E-4</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.5035171564448149E-3</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function,I16,J16)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="J17">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>4.2227981752748667E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>1.7576171875</v>
       </c>
       <c r="D18">
         <v>1.7578125</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>1.9531250000004441E-4</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.434174978406034E-3</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function,I17,J17)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J18">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.222798175274356E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>1.7577148437500001</v>
       </c>
       <c r="D19">
         <v>1.7578125</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>9.7656249999911182E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.9897360958168804E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function,I18,J18)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J19">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D20">
         <v>1.7578125</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>4.8828124999955591E-5</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function,I19,J19)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J20">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>1.7577880859374999</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>2.4414062499866773E-5</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function,I20,J20)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J21">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>1.2207031250044409E-5</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function,I21,J21)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J22">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>6.1035156249111822E-6</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function,I22,J22)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J23">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>3.0517578124555911E-6</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function,I23,J23)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J24">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>1.5258789061167732E-6</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function,I24,J24)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J25">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>7.6293945294736432E-7</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function,I25,J25)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J26">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>1.757771682739258</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>3.8146972647368216E-7</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.2756572177514727E-6</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function,I26,J26)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J27">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577718734741212</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>1.9073486323684108E-7</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.2764691518517566E-6</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function,I27,J27)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J28">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>9.5367431729442842E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function,I28,J28)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J29">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>4.7683715864721421E-8</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function,I29,J29)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J30">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>1.7577720403671266</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>2.3841858043383013E-8</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function,I30,J30)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J31">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D32">
         <v>1.7577720284461975</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>1.1920928910669204E-8</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function,I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>1.7577720224857329</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>5.9604643443122995E-9</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function,I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>2.9802322831784522E-9</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function,I33,J33)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J34">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>1.4901160305669237E-9</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function,I34,J34)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J35">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>1.7577720187604429</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>7.4505801528346183E-10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function,I35,J35)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J36">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>3.7252911866403338E-10</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function,I36,J36)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J37">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>1.8626455933201669E-10</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function,I37,J37)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J38">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>1.7577720182947818</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>9.3132390688310807E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function,I38,J38)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J39">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>4.6566084321852941E-11</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function,I39,J39)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J40">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>1.7577720182249323</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>2.3283153183228933E-11</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.510400858885987E-10</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function,I40,J40)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J41">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182365739</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>1.1641576591614466E-11</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.6798118451788469E-10</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function,I41,J41)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J42">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182423948</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>5.8206772735047707E-12</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.6450845654107979E-11</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function,I42,J42)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J43">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182453052</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>2.9103386367523854E-12</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.0688340757478727E-11</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function,I43,J43)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J44">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>1.4552803406786552E-12</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function,I44,J44)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J45">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>7.276401703393276E-13</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function,I45,J45)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J46">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>3.6393110747212631E-13</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function,I46,J46)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J47">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>1.8207657603852567E-13</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function,I47,J47)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J48">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>9.1038288019262836E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function,I48,J48)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J49">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>4.5519144009631418E-14</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function,I49,J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K60" si="2">J50-I50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>2.2870594307278225E-14</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function,I50,J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472492</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>1.1324274851176597E-14</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.2079226507921703E-13</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function,I51,J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function,I52,J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>2.6645352591003757E-15</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I54">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function,I53,J53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J54">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>0</v>
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="I55">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function,I54,J54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J55">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -1451,14 +2180,29 @@
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
         <v>8.8817841970012523E-15</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function,I55,J55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J56">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -1466,6 +2210,1877 @@
       </c>
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function,I56,J56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J57">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C58" cm="1">
+        <f t="array" ref="C58:D58">_xll.BISECT(function,C57,D57)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D58">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E81" si="3">D58-C58</f>
+        <v>0</v>
+      </c>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">_xll.XLL.UDF(function,C58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="array" ref="I58:J58">_xll.FALSE.POSITION(function,I57,J57)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J58">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" cm="1">
+        <f t="array" ref="L58">_xll.XLL.UDF(function,I58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C59" cm="1">
+        <f t="array" ref="C59:D59">_xll.BISECT(function,C58,D58)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D59">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">_xll.XLL.UDF(function,C59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="array" ref="I59:J59">_xll.FALSE.POSITION(function,I58,J58)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J59">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59" cm="1">
+        <f t="array" ref="L59">_xll.XLL.UDF(function,I59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C60" cm="1">
+        <f t="array" ref="C60:D60">_xll.BISECT(function,C59,D59)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D60">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">_xll.XLL.UDF(function,C60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="array" ref="I60:J60">_xll.FALSE.POSITION(function,I59,J59)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J60">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60" cm="1">
+        <f t="array" ref="L60">_xll.XLL.UDF(function,I60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C61" cm="1">
+        <f t="array" ref="C61:D61">_xll.BISECT(function,C60,D60)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D61">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">_xll.XLL.UDF(function,C61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="array" ref="I61:J61">_xll.FALSE.POSITION(function,I60,J60)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J61">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61:K82" si="4">J61-I61</f>
+        <v>0</v>
+      </c>
+      <c r="L61" cm="1">
+        <f t="array" ref="L61">_xll.XLL.UDF(function,I61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C62" cm="1">
+        <f t="array" ref="C62:D62">_xll.BISECT(function,C61,D61)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D62">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">_xll.XLL.UDF(function,C62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="array" ref="I62:J62">_xll.FALSE.POSITION(function,I61,J61)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J62">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62" cm="1">
+        <f t="array" ref="L62">_xll.XLL.UDF(function,I62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C63" cm="1">
+        <f t="array" ref="C63:D63">_xll.BISECT(function,C62,D62)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D63">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">_xll.XLL.UDF(function,C63)</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="array" ref="I63:J63">_xll.FALSE.POSITION(function,I62,J62)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J63">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63" cm="1">
+        <f t="array" ref="L63">_xll.XLL.UDF(function,I63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C64" cm="1">
+        <f t="array" ref="C64:D64">_xll.BISECT(function,C63,D63)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D64">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">_xll.XLL.UDF(function,C64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="array" ref="I64:J64">_xll.FALSE.POSITION(function,I63,J63)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J64">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L64" cm="1">
+        <f t="array" ref="L64">_xll.XLL.UDF(function,I64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C65" cm="1">
+        <f t="array" ref="C65:D65">_xll.BISECT(function,C64,D64)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D65">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">_xll.XLL.UDF(function,C65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="array" ref="I65:J65">_xll.FALSE.POSITION(function,I64,J64)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J65">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" cm="1">
+        <f t="array" ref="L65">_xll.XLL.UDF(function,I65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C66" cm="1">
+        <f t="array" ref="C66:D66">_xll.BISECT(function,C65,D65)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D66">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">_xll.XLL.UDF(function,C66)</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="array" ref="I66:J66">_xll.FALSE.POSITION(function,I65,J65)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J66">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" cm="1">
+        <f t="array" ref="L66">_xll.XLL.UDF(function,I66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C67" cm="1">
+        <f t="array" ref="C67:D67">_xll.BISECT(function,C66,D66)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D67">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">_xll.XLL.UDF(function,C67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="array" ref="I67:J67">_xll.FALSE.POSITION(function,I66,J66)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J67">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L67" cm="1">
+        <f t="array" ref="L67">_xll.XLL.UDF(function,I67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C68" cm="1">
+        <f t="array" ref="C68:D68">_xll.BISECT(function,C67,D67)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D68">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">_xll.XLL.UDF(function,C68)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="array" ref="I68:J68">_xll.FALSE.POSITION(function,I67,J67)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J68">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" cm="1">
+        <f t="array" ref="L68">_xll.XLL.UDF(function,I68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C69" cm="1">
+        <f t="array" ref="C69:D69">_xll.BISECT(function,C68,D68)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D69">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">_xll.XLL.UDF(function,C69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="array" ref="I69:J69">_xll.FALSE.POSITION(function,I68,J68)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J69">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" cm="1">
+        <f t="array" ref="L69">_xll.XLL.UDF(function,I69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C70" cm="1">
+        <f t="array" ref="C70:D70">_xll.BISECT(function,C69,D69)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D70">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">_xll.XLL.UDF(function,C70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="array" ref="I70:J70">_xll.FALSE.POSITION(function,I69,J69)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J70">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" cm="1">
+        <f t="array" ref="L70">_xll.XLL.UDF(function,I70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C71" cm="1">
+        <f t="array" ref="C71:D71">_xll.BISECT(function,C70,D70)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D71">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">_xll.XLL.UDF(function,C71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="array" ref="I71:J71">_xll.FALSE.POSITION(function,I70,J70)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J71">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" cm="1">
+        <f t="array" ref="L71">_xll.XLL.UDF(function,I71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C72" cm="1">
+        <f t="array" ref="C72:D72">_xll.BISECT(function,C71,D71)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D72">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">_xll.XLL.UDF(function,C72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="array" ref="I72:J72">_xll.FALSE.POSITION(function,I71,J71)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J72">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" cm="1">
+        <f t="array" ref="L72">_xll.XLL.UDF(function,I72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C73" cm="1">
+        <f t="array" ref="C73:D73">_xll.BISECT(function,C72,D72)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D73">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">_xll.XLL.UDF(function,C73)</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="array" ref="I73:J73">_xll.FALSE.POSITION(function,I72,J72)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J73">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73" cm="1">
+        <f t="array" ref="L73">_xll.XLL.UDF(function,I73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C74" cm="1">
+        <f t="array" ref="C74:D74">_xll.BISECT(function,C73,D73)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D74">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">_xll.XLL.UDF(function,C74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="array" ref="I74:J74">_xll.FALSE.POSITION(function,I73,J73)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J74">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" cm="1">
+        <f t="array" ref="L74">_xll.XLL.UDF(function,I74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C75" cm="1">
+        <f t="array" ref="C75:D75">_xll.BISECT(function,C74,D74)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D75">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">_xll.XLL.UDF(function,C75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="array" ref="I75:J75">_xll.FALSE.POSITION(function,I74,J74)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J75">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L75" cm="1">
+        <f t="array" ref="L75">_xll.XLL.UDF(function,I75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C76" cm="1">
+        <f t="array" ref="C76:D76">_xll.BISECT(function,C75,D75)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D76">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">_xll.XLL.UDF(function,C76)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="array" ref="I76:J76">_xll.FALSE.POSITION(function,I75,J75)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J76">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L76" cm="1">
+        <f t="array" ref="L76">_xll.XLL.UDF(function,I76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C77" cm="1">
+        <f t="array" ref="C77:D77">_xll.BISECT(function,C76,D76)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D77">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">_xll.XLL.UDF(function,C77)</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="array" ref="I77:J77">_xll.FALSE.POSITION(function,I76,J76)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J77">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L77" cm="1">
+        <f t="array" ref="L77">_xll.XLL.UDF(function,I77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C78" cm="1">
+        <f t="array" ref="C78:D78">_xll.BISECT(function,C77,D77)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D78">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">_xll.XLL.UDF(function,C78)</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="array" ref="I78:J78">_xll.FALSE.POSITION(function,I77,J77)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J78">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78" cm="1">
+        <f t="array" ref="L78">_xll.XLL.UDF(function,I78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C79" cm="1">
+        <f t="array" ref="C79:D79">_xll.BISECT(function,C78,D78)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D79">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">_xll.XLL.UDF(function,C79)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="array" ref="I79:J79">_xll.FALSE.POSITION(function,I78,J78)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J79">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L79" cm="1">
+        <f t="array" ref="L79">_xll.XLL.UDF(function,I79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C80" cm="1">
+        <f t="array" ref="C80:D80">_xll.BISECT(function,C79,D79)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D80">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">_xll.XLL.UDF(function,C80)</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="array" ref="I80:J80">_xll.FALSE.POSITION(function,I79,J79)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J80">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80" cm="1">
+        <f t="array" ref="L80">_xll.XLL.UDF(function,I80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C81" cm="1">
+        <f t="array" ref="C81:D81">_xll.BISECT(function,C80,D80)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D81">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">_xll.XLL.UDF(function,C81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="array" ref="I81:J81">_xll.FALSE.POSITION(function,I80,J80)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J81">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L81" cm="1">
+        <f t="array" ref="L81">_xll.XLL.UDF(function,I81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I82">
+        <f t="array" ref="I82:J82">_xll.FALSE.POSITION(function,I81,J81)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J82">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82" cm="1">
+        <f t="array" ref="L82">_xll.XLL.UDF(function,I82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I83">
+        <f t="array" ref="I83:J83">_xll.FALSE.POSITION(function,I82,J82)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J83">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:K111" si="5">J83-I83</f>
+        <v>0</v>
+      </c>
+      <c r="L83" cm="1">
+        <f t="array" ref="L83">_xll.XLL.UDF(function,I83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I84">
+        <f t="array" ref="I84:J84">_xll.FALSE.POSITION(function,I83,J83)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J84">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L84" cm="1">
+        <f t="array" ref="L84">_xll.XLL.UDF(function,I84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I85">
+        <f t="array" ref="I85:J85">_xll.FALSE.POSITION(function,I84,J84)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J85">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L85" cm="1">
+        <f t="array" ref="L85">_xll.XLL.UDF(function,I85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I86">
+        <f t="array" ref="I86:J86">_xll.FALSE.POSITION(function,I85,J85)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J86">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L86" cm="1">
+        <f t="array" ref="L86">_xll.XLL.UDF(function,I86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I87">
+        <f t="array" ref="I87:J87">_xll.FALSE.POSITION(function,I86,J86)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J87">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L87" cm="1">
+        <f t="array" ref="L87">_xll.XLL.UDF(function,I87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I88">
+        <f t="array" ref="I88:J88">_xll.FALSE.POSITION(function,I87,J87)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J88">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L88" cm="1">
+        <f t="array" ref="L88">_xll.XLL.UDF(function,I88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I89">
+        <f t="array" ref="I89:J89">_xll.FALSE.POSITION(function,I88,J88)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J89">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L89" cm="1">
+        <f t="array" ref="L89">_xll.XLL.UDF(function,I89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I90">
+        <f t="array" ref="I90:J90">_xll.FALSE.POSITION(function,I89,J89)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J90">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L90" cm="1">
+        <f t="array" ref="L90">_xll.XLL.UDF(function,I90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I91">
+        <f t="array" ref="I91:J91">_xll.FALSE.POSITION(function,I90,J90)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J91">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L91" cm="1">
+        <f t="array" ref="L91">_xll.XLL.UDF(function,I91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I92">
+        <f t="array" ref="I92:J92">_xll.FALSE.POSITION(function,I91,J91)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J92">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L92" cm="1">
+        <f t="array" ref="L92">_xll.XLL.UDF(function,I92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I93">
+        <f t="array" ref="I93:J93">_xll.FALSE.POSITION(function,I92,J92)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J93">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L93" cm="1">
+        <f t="array" ref="L93">_xll.XLL.UDF(function,I93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I94">
+        <f t="array" ref="I94:J94">_xll.FALSE.POSITION(function,I93,J93)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J94">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L94" cm="1">
+        <f t="array" ref="L94">_xll.XLL.UDF(function,I94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I95">
+        <f t="array" ref="I95:J95">_xll.FALSE.POSITION(function,I94,J94)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J95">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L95" cm="1">
+        <f t="array" ref="L95">_xll.XLL.UDF(function,I95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="I96">
+        <f t="array" ref="I96:J96">_xll.FALSE.POSITION(function,I95,J95)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J96">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L96" cm="1">
+        <f t="array" ref="L96">_xll.XLL.UDF(function,I96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I97">
+        <f t="array" ref="I97:J97">_xll.FALSE.POSITION(function,I96,J96)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J97">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L97" cm="1">
+        <f t="array" ref="L97">_xll.XLL.UDF(function,I97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I98">
+        <f t="array" ref="I98:J98">_xll.FALSE.POSITION(function,I97,J97)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J98">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L98" cm="1">
+        <f t="array" ref="L98">_xll.XLL.UDF(function,I98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I99">
+        <f t="array" ref="I99:J99">_xll.FALSE.POSITION(function,I98,J98)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J99">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L99" cm="1">
+        <f t="array" ref="L99">_xll.XLL.UDF(function,I99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I100">
+        <f t="array" ref="I100:J100">_xll.FALSE.POSITION(function,I99,J99)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J100">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L100" cm="1">
+        <f t="array" ref="L100">_xll.XLL.UDF(function,I100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I101">
+        <f t="array" ref="I101:J101">_xll.FALSE.POSITION(function,I100,J100)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J101">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L101" cm="1">
+        <f t="array" ref="L101">_xll.XLL.UDF(function,I101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I102">
+        <f t="array" ref="I102:J102">_xll.FALSE.POSITION(function,I101,J101)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J102">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L102" cm="1">
+        <f t="array" ref="L102">_xll.XLL.UDF(function,I102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I103">
+        <f t="array" ref="I103:J103">_xll.FALSE.POSITION(function,I102,J102)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J103">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L103" cm="1">
+        <f t="array" ref="L103">_xll.XLL.UDF(function,I103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I104">
+        <f t="array" ref="I104:J104">_xll.FALSE.POSITION(function,I103,J103)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J104">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L104" cm="1">
+        <f t="array" ref="L104">_xll.XLL.UDF(function,I104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I105">
+        <f t="array" ref="I105:J105">_xll.FALSE.POSITION(function,I104,J104)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J105">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L105" cm="1">
+        <f t="array" ref="L105">_xll.XLL.UDF(function,I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I106">
+        <f t="array" ref="I106:J106">_xll.FALSE.POSITION(function,I105,J105)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J106">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L106" cm="1">
+        <f t="array" ref="L106">_xll.XLL.UDF(function,I106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I107">
+        <f t="array" ref="I107:J107">_xll.FALSE.POSITION(function,I106,J106)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J107">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L107" cm="1">
+        <f t="array" ref="L107">_xll.XLL.UDF(function,I107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I108">
+        <f t="array" ref="I108:J108">_xll.FALSE.POSITION(function,I107,J107)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J108">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L108" cm="1">
+        <f t="array" ref="L108">_xll.XLL.UDF(function,I108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I109">
+        <f t="array" ref="I109:J109">_xll.FALSE.POSITION(function,I108,J108)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J109">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L109" cm="1">
+        <f t="array" ref="L109">_xll.XLL.UDF(function,I109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I110">
+        <f t="array" ref="I110:J110">_xll.FALSE.POSITION(function,I109,J109)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J110">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L110" cm="1">
+        <f t="array" ref="L110">_xll.XLL.UDF(function,I110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I111">
+        <f t="array" ref="I111:J111">_xll.FALSE.POSITION(function,I110,J110)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J111">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L111" cm="1">
+        <f t="array" ref="L111">_xll.XLL.UDF(function,I111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I112">
+        <f t="array" ref="I112:J112">_xll.FALSE.POSITION(function,I111,J111)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J112">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K112">
+        <f t="shared" ref="K112:K145" si="6">J112-I112</f>
+        <v>0</v>
+      </c>
+      <c r="L112" cm="1">
+        <f t="array" ref="L112">_xll.XLL.UDF(function,I112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I113">
+        <f t="array" ref="I113:J113">_xll.FALSE.POSITION(function,I112,J112)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J113">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L113" cm="1">
+        <f t="array" ref="L113">_xll.XLL.UDF(function,I113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I114">
+        <f t="array" ref="I114:J114">_xll.FALSE.POSITION(function,I113,J113)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J114">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L114" cm="1">
+        <f t="array" ref="L114">_xll.XLL.UDF(function,I114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I115">
+        <f t="array" ref="I115:J115">_xll.FALSE.POSITION(function,I114,J114)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J115">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L115" cm="1">
+        <f t="array" ref="L115">_xll.XLL.UDF(function,I115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I116">
+        <f t="array" ref="I116:J116">_xll.FALSE.POSITION(function,I115,J115)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J116">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L116" cm="1">
+        <f t="array" ref="L116">_xll.XLL.UDF(function,I116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I117">
+        <f t="array" ref="I117:J117">_xll.FALSE.POSITION(function,I116,J116)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J117">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L117" cm="1">
+        <f t="array" ref="L117">_xll.XLL.UDF(function,I117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I118">
+        <f t="array" ref="I118:J118">_xll.FALSE.POSITION(function,I117,J117)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J118">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L118" cm="1">
+        <f t="array" ref="L118">_xll.XLL.UDF(function,I118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I119">
+        <f t="array" ref="I119:J119">_xll.FALSE.POSITION(function,I118,J118)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J119">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L119" cm="1">
+        <f t="array" ref="L119">_xll.XLL.UDF(function,I119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I120">
+        <f t="array" ref="I120:J120">_xll.FALSE.POSITION(function,I119,J119)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J120">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L120" cm="1">
+        <f t="array" ref="L120">_xll.XLL.UDF(function,I120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I121">
+        <f t="array" ref="I121:J121">_xll.FALSE.POSITION(function,I120,J120)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J121">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L121" cm="1">
+        <f t="array" ref="L121">_xll.XLL.UDF(function,I121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I122">
+        <f t="array" ref="I122:J122">_xll.FALSE.POSITION(function,I121,J121)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J122">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L122" cm="1">
+        <f t="array" ref="L122">_xll.XLL.UDF(function,I122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I123">
+        <f t="array" ref="I123:J123">_xll.FALSE.POSITION(function,I122,J122)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J123">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L123" cm="1">
+        <f t="array" ref="L123">_xll.XLL.UDF(function,I123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I124">
+        <f t="array" ref="I124:J124">_xll.FALSE.POSITION(function,I123,J123)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J124">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L124" cm="1">
+        <f t="array" ref="L124">_xll.XLL.UDF(function,I124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I125">
+        <f t="array" ref="I125:J125">_xll.FALSE.POSITION(function,I124,J124)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J125">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L125" cm="1">
+        <f t="array" ref="L125">_xll.XLL.UDF(function,I125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I126">
+        <f t="array" ref="I126:J126">_xll.FALSE.POSITION(function,I125,J125)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J126">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L126" cm="1">
+        <f t="array" ref="L126">_xll.XLL.UDF(function,I126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I127">
+        <f t="array" ref="I127:J127">_xll.FALSE.POSITION(function,I126,J126)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J127">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L127" cm="1">
+        <f t="array" ref="L127">_xll.XLL.UDF(function,I127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I128">
+        <f t="array" ref="I128:J128">_xll.FALSE.POSITION(function,I127,J127)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J128">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L128" cm="1">
+        <f t="array" ref="L128">_xll.XLL.UDF(function,I128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I129">
+        <f t="array" ref="I129:J129">_xll.FALSE.POSITION(function,I128,J128)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J129">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L129" cm="1">
+        <f t="array" ref="L129">_xll.XLL.UDF(function,I129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I130">
+        <f t="array" ref="I130:J130">_xll.FALSE.POSITION(function,I129,J129)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J130">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L130" cm="1">
+        <f t="array" ref="L130">_xll.XLL.UDF(function,I130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I131">
+        <f t="array" ref="I131:J131">_xll.FALSE.POSITION(function,I130,J130)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J131">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L131" cm="1">
+        <f t="array" ref="L131">_xll.XLL.UDF(function,I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I132">
+        <f t="array" ref="I132:J132">_xll.FALSE.POSITION(function,I131,J131)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J132">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L132" cm="1">
+        <f t="array" ref="L132">_xll.XLL.UDF(function,I132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I133">
+        <f t="array" ref="I133:J133">_xll.FALSE.POSITION(function,I132,J132)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J133">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L133" cm="1">
+        <f t="array" ref="L133">_xll.XLL.UDF(function,I133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I134">
+        <f t="array" ref="I134:J134">_xll.FALSE.POSITION(function,I133,J133)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J134">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L134" cm="1">
+        <f t="array" ref="L134">_xll.XLL.UDF(function,I134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I135">
+        <f t="array" ref="I135:J135">_xll.FALSE.POSITION(function,I134,J134)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J135">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L135" cm="1">
+        <f t="array" ref="L135">_xll.XLL.UDF(function,I135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I136">
+        <f t="array" ref="I136:J136">_xll.FALSE.POSITION(function,I135,J135)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J136">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L136" cm="1">
+        <f t="array" ref="L136">_xll.XLL.UDF(function,I136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I137">
+        <f t="array" ref="I137:J137">_xll.FALSE.POSITION(function,I136,J136)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J137">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L137" cm="1">
+        <f t="array" ref="L137">_xll.XLL.UDF(function,I137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I138">
+        <f t="array" ref="I138:J138">_xll.FALSE.POSITION(function,I137,J137)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J138">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L138" cm="1">
+        <f t="array" ref="L138">_xll.XLL.UDF(function,I138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I139">
+        <f t="array" ref="I139:J139">_xll.FALSE.POSITION(function,I138,J138)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J139">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L139" cm="1">
+        <f t="array" ref="L139">_xll.XLL.UDF(function,I139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I140">
+        <f t="array" ref="I140:J140">_xll.FALSE.POSITION(function,I139,J139)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J140">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L140" cm="1">
+        <f t="array" ref="L140">_xll.XLL.UDF(function,I140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I141">
+        <f t="array" ref="I141:J141">_xll.FALSE.POSITION(function,I140,J140)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J141">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L141" cm="1">
+        <f t="array" ref="L141">_xll.XLL.UDF(function,I141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I142">
+        <f t="array" ref="I142:J142">_xll.FALSE.POSITION(function,I141,J141)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J142">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L142" cm="1">
+        <f t="array" ref="L142">_xll.XLL.UDF(function,I142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I143">
+        <f t="array" ref="I143:J143">_xll.FALSE.POSITION(function,I142,J142)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J143">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L143" cm="1">
+        <f t="array" ref="L143">_xll.XLL.UDF(function,I143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I144">
+        <f t="array" ref="I144:J144">_xll.FALSE.POSITION(function,I143,J143)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J144">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L144" cm="1">
+        <f t="array" ref="L144">_xll.XLL.UDF(function,I144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I145">
+        <f t="array" ref="I145:J145">_xll.FALSE.POSITION(function,I144,J144)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J145">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L145" cm="1">
+        <f t="array" ref="L145">_xll.XLL.UDF(function,I145)</f>
         <v>0</v>
       </c>
     </row>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiwq\source\repos\FeiwQiu\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE161728-1718-4B95-96A5-2D9DDB50F675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="2964" yWindow="1644" windowWidth="20064" windowHeight="10716" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1957,30 +1954,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B2:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.A</f>
+        <v>-606011322</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2007,17 +2004,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>452</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-287480</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2041,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,16 +2063,24 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f>_xll.FALSE_POSITION(function,C3,C4)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J7">
+        <f>_xll.FALSE_POSITION(function,C3,C4)</f>
+        <v>1.4444444444444444</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
         <v>0</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
         <v>1.75</v>
@@ -2091,8 +2096,24 @@
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f>_xll.FALSE_POSITION(function,I7,J7)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J8">
+        <f>_xll.FALSE_POSITION(function,I7,J7)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="1">J8-I8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
         <v>1.75</v>
@@ -2108,8 +2129,24 @@
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f>_xll.FALSE_POSITION(function,I8,J8)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J9">
+        <f>_xll.FALSE_POSITION(function,I8,J8)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K72" si="2">J9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
@@ -2125,8 +2162,24 @@
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f>_xll.FALSE_POSITION(function,I9,J9)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J10">
+        <f>_xll.FALSE_POSITION(function,I9,J9)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
@@ -2142,8 +2195,24 @@
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f>_xll.FALSE_POSITION(function,I10,J10)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J11">
+        <f>_xll.FALSE_POSITION(function,I10,J10)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
@@ -2159,8 +2228,24 @@
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f>_xll.FALSE_POSITION(function,I11,J11)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J12">
+        <f>_xll.FALSE_POSITION(function,I11,J11)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
         <v>1.75</v>
@@ -2176,8 +2261,24 @@
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f>_xll.FALSE_POSITION(function,I12,J12)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J13">
+        <f>_xll.FALSE_POSITION(function,I12,J12)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
         <v>1.75390625</v>
@@ -2193,8 +2294,24 @@
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
         <v>6.0510217910632491E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f>_xll.FALSE_POSITION(function,I13,J13)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J14">
+        <f>_xll.FALSE_POSITION(function,I13,J13)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
         <v>1.755859375</v>
@@ -2210,8 +2327,24 @@
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
         <v>3.0007383538759314E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f>_xll.FALSE_POSITION(function,I14,J14)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J15">
+        <f>_xll.FALSE_POSITION(function,I14,J14)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
         <v>1.7568359375</v>
@@ -2227,8 +2360,24 @@
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
         <v>1.4703062041917292E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f>_xll.FALSE_POSITION(function,I15,J15)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J16">
+        <f>_xll.FALSE_POSITION(function,I15,J15)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
         <v>1.75732421875</v>
@@ -2244,8 +2393,24 @@
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
         <v>7.0376580442257364E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f>_xll.FALSE_POSITION(function,I16,J16)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J17">
+        <f>_xll.FALSE_POSITION(function,I16,J16)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
         <v>1.757568359375</v>
@@ -2261,8 +2426,24 @@
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
         <v>3.2016430855001943E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f>_xll.FALSE_POSITION(function,I17,J17)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J18">
+        <f>_xll.FALSE_POSITION(function,I17,J17)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
         <v>1.7576904296875</v>
@@ -2278,8 +2459,24 @@
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
         <v>1.2828070976524941E-3</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f>_xll.FALSE_POSITION(function,I18,J18)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J19">
+        <f>_xll.FALSE_POSITION(function,I18,J18)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
         <v>1.75775146484375</v>
@@ -2295,8 +2492,24 @@
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f>_xll.FALSE_POSITION(function,I19,J19)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J20">
+        <f>_xll.FALSE_POSITION(function,I19,J19)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
         <v>1.75775146484375</v>
@@ -2312,8 +2525,24 @@
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f>_xll.FALSE_POSITION(function,I20,J20)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J21">
+        <f>_xll.FALSE_POSITION(function,I20,J20)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
         <v>1.7577667236328125</v>
@@ -2329,8 +2558,24 @@
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f>_xll.FALSE_POSITION(function,I21,J21)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J22">
+        <f>_xll.FALSE_POSITION(function,I21,J21)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
         <v>1.7577667236328125</v>
@@ -2346,8 +2591,24 @@
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>_xll.FALSE_POSITION(function,I22,J22)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J23">
+        <f>_xll.FALSE_POSITION(function,I22,J22)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
         <v>1.7577705383300781</v>
@@ -2363,8 +2624,24 @@
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f>_xll.FALSE_POSITION(function,I23,J23)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J24">
+        <f>_xll.FALSE_POSITION(function,I23,J23)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
         <v>1.7577705383300781</v>
@@ -2380,8 +2657,24 @@
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f>_xll.FALSE_POSITION(function,I24,J24)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J25">
+        <f>_xll.FALSE_POSITION(function,I24,J24)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
         <v>1.7577714920043945</v>
@@ -2397,8 +2690,24 @@
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
         <v>8.2748439389490613E-6</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f>_xll.FALSE_POSITION(function,I25,J25)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J26">
+        <f>_xll.FALSE_POSITION(function,I25,J25)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
         <v>1.7577719688415527</v>
@@ -2414,8 +2723,24 @@
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <f>_xll.FALSE_POSITION(function,I26,J26)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J27">
+        <f>_xll.FALSE_POSITION(function,I26,J26)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
         <v>1.7577719688415527</v>
@@ -2431,8 +2756,24 @@
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <f>_xll.FALSE_POSITION(function,I27,J27)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J28">
+        <f>_xll.FALSE_POSITION(function,I27,J27)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
@@ -2448,8 +2789,24 @@
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f>_xll.FALSE_POSITION(function,I28,J28)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J29">
+        <f>_xll.FALSE_POSITION(function,I28,J28)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
         <v>1.7577719688415527</v>
@@ -2465,8 +2822,24 @@
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <f>_xll.FALSE_POSITION(function,I29,J29)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J30">
+        <f>_xll.FALSE_POSITION(function,I29,J29)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
         <v>1.7577719986438751</v>
@@ -2482,8 +2855,24 @@
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
         <v>3.0825125207911697E-7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <f>_xll.FALSE_POSITION(function,I30,J30)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J31">
+        <f>_xll.FALSE_POSITION(function,I30,J30)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
         <v>1.7577720135450363</v>
@@ -2499,8 +2888,24 @@
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <f>_xll.FALSE_POSITION(function,I31,J31)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J32">
+        <f>_xll.FALSE_POSITION(function,I31,J31)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
         <v>1.7577720135450363</v>
@@ -2516,8 +2921,24 @@
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <f>_xll.FALSE_POSITION(function,I32,J32)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J33">
+        <f>_xll.FALSE_POSITION(function,I32,J32)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
         <v>1.7577720172703266</v>
@@ -2533,8 +2954,24 @@
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <f>_xll.FALSE_POSITION(function,I33,J33)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J34">
+        <f>_xll.FALSE_POSITION(function,I33,J33)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
         <v>1.7577720172703266</v>
@@ -2550,8 +2987,24 @@
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <f>_xll.FALSE_POSITION(function,I34,J34)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J35">
+        <f>_xll.FALSE_POSITION(function,I34,J34)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
         <v>1.7577720182016492</v>
@@ -2567,8 +3020,24 @@
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <f>_xll.FALSE_POSITION(function,I35,J35)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J36">
+        <f>_xll.FALSE_POSITION(function,I35,J35)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
         <v>1.7577720182016492</v>
@@ -2584,8 +3053,24 @@
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I37">
+        <f>_xll.FALSE_POSITION(function,I36,J36)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J37">
+        <f>_xll.FALSE_POSITION(function,I36,J36)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
         <v>1.7577720182016492</v>
@@ -2601,8 +3086,24 @@
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I38">
+        <f>_xll.FALSE_POSITION(function,I37,J37)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J38">
+        <f>_xll.FALSE_POSITION(function,I37,J37)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
         <v>1.7577720182016492</v>
@@ -2618,8 +3119,24 @@
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I39">
+        <f>_xll.FALSE_POSITION(function,I38,J38)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J39">
+        <f>_xll.FALSE_POSITION(function,I38,J38)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
         <v>1.7577720182016492</v>
@@ -2635,8 +3152,24 @@
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I40">
+        <f>_xll.FALSE_POSITION(function,I39,J39)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J40">
+        <f>_xll.FALSE_POSITION(function,I39,J39)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
         <v>1.757772018230753</v>
@@ -2652,8 +3185,24 @@
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
         <v>2.5951152338166139E-10</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I41">
+        <f>_xll.FALSE_POSITION(function,I40,J40)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J41">
+        <f>_xll.FALSE_POSITION(function,I40,J40)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
         <v>1.7577720182453049</v>
@@ -2669,8 +3218,24 @@
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I42">
+        <f>_xll.FALSE_POSITION(function,I41,J41)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J42">
+        <f>_xll.FALSE_POSITION(function,I41,J41)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
         <v>1.7577720182453049</v>
@@ -2686,8 +3251,24 @@
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I43">
+        <f>_xll.FALSE_POSITION(function,I42,J42)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J43">
+        <f>_xll.FALSE_POSITION(function,I42,J42)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
         <v>1.7577720182453049</v>
@@ -2703,8 +3284,24 @@
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I44">
+        <f>_xll.FALSE_POSITION(function,I43,J43)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J44">
+        <f>_xll.FALSE_POSITION(function,I43,J43)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
@@ -2720,8 +3317,24 @@
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I45">
+        <f>_xll.FALSE_POSITION(function,I44,J44)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J45">
+        <f>_xll.FALSE_POSITION(function,I44,J44)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
         <v>1.7577720182471239</v>
@@ -2737,8 +3350,24 @@
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I46">
+        <f>_xll.FALSE_POSITION(function,I45,J45)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J46">
+        <f>_xll.FALSE_POSITION(function,I45,J45)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
@@ -2754,8 +3383,24 @@
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <f>_xll.FALSE_POSITION(function,I46,J46)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J47">
+        <f>_xll.FALSE_POSITION(function,I46,J46)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
@@ -2771,8 +3416,24 @@
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <f>_xll.FALSE_POSITION(function,I47,J47)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J48">
+        <f>_xll.FALSE_POSITION(function,I47,J47)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
         <v>1.7577720182472376</v>
@@ -2788,8 +3449,24 @@
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I49">
+        <f>_xll.FALSE_POSITION(function,I48,J48)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J49">
+        <f>_xll.FALSE_POSITION(function,I48,J48)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
         <v>1.7577720182472376</v>
@@ -2805,8 +3482,24 @@
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I50">
+        <f>_xll.FALSE_POSITION(function,I49,J49)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J50">
+        <f>_xll.FALSE_POSITION(function,I49,J49)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
@@ -2822,8 +3515,24 @@
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <f>_xll.FALSE_POSITION(function,I50,J50)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J51">
+        <f>_xll.FALSE_POSITION(function,I50,J50)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
         <v>1.7577720182472518</v>
@@ -2839,8 +3548,24 @@
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I52">
+        <f>_xll.FALSE_POSITION(function,I51,J51)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J52">
+        <f>_xll.FALSE_POSITION(function,I51,J51)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
         <v>1.7577720182472518</v>
@@ -2856,8 +3581,24 @@
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I53">
+        <f>_xll.FALSE_POSITION(function,I52,J52)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J53">
+        <f>_xll.FALSE_POSITION(function,I52,J52)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
         <v>1.7577720182472554</v>
@@ -2873,8 +3614,24 @@
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <f>_xll.FALSE_POSITION(function,I53,J53)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J54">
+        <f>_xll.FALSE_POSITION(function,I53,J53)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
         <v>1.7577720182472554</v>
@@ -2890,8 +3647,24 @@
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I55">
+        <f>_xll.FALSE_POSITION(function,I54,J54)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J55">
+        <f>_xll.FALSE_POSITION(function,I54,J54)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
@@ -2907,8 +3680,24 @@
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
         <v>8.8817841970012523E-15</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <f>_xll.FALSE_POSITION(function,I55,J55)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J56">
+        <f>_xll.FALSE_POSITION(function,I55,J55)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
@@ -2923,6 +3712,490 @@
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
         <v>0</v>
+      </c>
+      <c r="I57">
+        <f>_xll.FALSE_POSITION(function,I56,J56)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J57">
+        <f>_xll.FALSE_POSITION(function,I56,J56)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f>_xll.FALSE_POSITION(function,I57,J57)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J58">
+        <f>_xll.FALSE_POSITION(function,I57,J57)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" cm="1">
+        <f t="array" ref="L58">_xll.XLL.UDF(function,I58)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f>_xll.FALSE_POSITION(function,I58,J58)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J59">
+        <f>_xll.FALSE_POSITION(function,I58,J58)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59" cm="1">
+        <f t="array" ref="L59">_xll.XLL.UDF(function,I59)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f>_xll.FALSE_POSITION(function,I59,J59)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J60">
+        <f>_xll.FALSE_POSITION(function,I59,J59)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60" cm="1">
+        <f t="array" ref="L60">_xll.XLL.UDF(function,I60)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f>_xll.FALSE_POSITION(function,I60,J60)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J61">
+        <f>_xll.FALSE_POSITION(function,I60,J60)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61" cm="1">
+        <f t="array" ref="L61">_xll.XLL.UDF(function,I61)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f>_xll.FALSE_POSITION(function,I61,J61)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J62">
+        <f>_xll.FALSE_POSITION(function,I61,J61)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62" cm="1">
+        <f t="array" ref="L62">_xll.XLL.UDF(function,I62)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f>_xll.FALSE_POSITION(function,I62,J62)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J63">
+        <f>_xll.FALSE_POSITION(function,I62,J62)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L63" cm="1">
+        <f t="array" ref="L63">_xll.XLL.UDF(function,I63)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f>_xll.FALSE_POSITION(function,I63,J63)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J64">
+        <f>_xll.FALSE_POSITION(function,I63,J63)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L64" cm="1">
+        <f t="array" ref="L64">_xll.XLL.UDF(function,I64)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f>_xll.FALSE_POSITION(function,I64,J64)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J65">
+        <f>_xll.FALSE_POSITION(function,I64,J64)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L65" cm="1">
+        <f t="array" ref="L65">_xll.XLL.UDF(function,I65)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f>_xll.FALSE_POSITION(function,I65,J65)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J66">
+        <f>_xll.FALSE_POSITION(function,I65,J65)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L66" cm="1">
+        <f t="array" ref="L66">_xll.XLL.UDF(function,I66)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f>_xll.FALSE_POSITION(function,I66,J66)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J67">
+        <f>_xll.FALSE_POSITION(function,I66,J66)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L67" cm="1">
+        <f t="array" ref="L67">_xll.XLL.UDF(function,I67)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f>_xll.FALSE_POSITION(function,I67,J67)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J68">
+        <f>_xll.FALSE_POSITION(function,I67,J67)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L68" cm="1">
+        <f t="array" ref="L68">_xll.XLL.UDF(function,I68)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f>_xll.FALSE_POSITION(function,I68,J68)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J69">
+        <f>_xll.FALSE_POSITION(function,I68,J68)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L69" cm="1">
+        <f t="array" ref="L69">_xll.XLL.UDF(function,I69)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="70" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f>_xll.FALSE_POSITION(function,I69,J69)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J70">
+        <f>_xll.FALSE_POSITION(function,I69,J69)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L70" cm="1">
+        <f t="array" ref="L70">_xll.XLL.UDF(function,I70)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="71" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f>_xll.FALSE_POSITION(function,I70,J70)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J71">
+        <f>_xll.FALSE_POSITION(function,I70,J70)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L71" cm="1">
+        <f t="array" ref="L71">_xll.XLL.UDF(function,I71)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <f>_xll.FALSE_POSITION(function,I71,J71)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J72">
+        <f>_xll.FALSE_POSITION(function,I71,J71)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L72" cm="1">
+        <f t="array" ref="L72">_xll.XLL.UDF(function,I72)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="73" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f>_xll.FALSE_POSITION(function,I72,J72)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J73">
+        <f>_xll.FALSE_POSITION(function,I72,J72)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73:K83" si="3">J73-I73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" cm="1">
+        <f t="array" ref="L73">_xll.XLL.UDF(function,I73)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f>_xll.FALSE_POSITION(function,I73,J73)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J74">
+        <f>_xll.FALSE_POSITION(function,I73,J73)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74" cm="1">
+        <f t="array" ref="L74">_xll.XLL.UDF(function,I74)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f>_xll.FALSE_POSITION(function,I74,J74)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J75">
+        <f>_xll.FALSE_POSITION(function,I74,J74)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L75" cm="1">
+        <f t="array" ref="L75">_xll.XLL.UDF(function,I75)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f>_xll.FALSE_POSITION(function,I75,J75)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J76">
+        <f>_xll.FALSE_POSITION(function,I75,J75)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L76" cm="1">
+        <f t="array" ref="L76">_xll.XLL.UDF(function,I76)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f>_xll.FALSE_POSITION(function,I76,J76)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J77">
+        <f>_xll.FALSE_POSITION(function,I76,J76)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L77" cm="1">
+        <f t="array" ref="L77">_xll.XLL.UDF(function,I77)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <f>_xll.FALSE_POSITION(function,I77,J77)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J78">
+        <f>_xll.FALSE_POSITION(function,I77,J77)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L78" cm="1">
+        <f t="array" ref="L78">_xll.XLL.UDF(function,I78)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="79" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f>_xll.FALSE_POSITION(function,I78,J78)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J79">
+        <f>_xll.FALSE_POSITION(function,I78,J78)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L79" cm="1">
+        <f t="array" ref="L79">_xll.XLL.UDF(function,I79)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="80" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f>_xll.FALSE_POSITION(function,I79,J79)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J80">
+        <f>_xll.FALSE_POSITION(function,I79,J79)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L80" cm="1">
+        <f t="array" ref="L80">_xll.XLL.UDF(function,I80)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f>_xll.FALSE_POSITION(function,I80,J80)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J81">
+        <f>_xll.FALSE_POSITION(function,I80,J80)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L81" cm="1">
+        <f t="array" ref="L81">_xll.XLL.UDF(function,I81)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="82" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f>_xll.FALSE_POSITION(function,I81,J81)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J82">
+        <f>_xll.FALSE_POSITION(function,I81,J81)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L82" cm="1">
+        <f t="array" ref="L82">_xll.XLL.UDF(function,I82)</f>
+        <v>3.31351928059747</v>
+      </c>
+    </row>
+    <row r="83" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f>_xll.FALSE_POSITION(function,I82,J82)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J83">
+        <f>_xll.FALSE_POSITION(function,I82,J82)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L83" cm="1">
+        <f t="array" ref="L83">_xll.XLL.UDF(function,I83)</f>
+        <v>3.31351928059747</v>
       </c>
     </row>
   </sheetData>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE8E11-C96F-4949-99A6-3A17B4B15A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="function">Sheet1!$C$2</definedName>
+    <definedName name="function_a">Sheet1!$Q$2</definedName>
+    <definedName name="function_b">Sheet1!$Q$3</definedName>
+    <definedName name="function_c">Sheet1!$Q$4</definedName>
     <definedName name="xvalues">_xll.ARRAY.GET(Sheet1!$N$5)</definedName>
     <definedName name="yvalues">_xll.ARRAY.GET(Sheet1!$O$5)</definedName>
   </definedNames>
@@ -28,9 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Bisect</t>
   </si>
@@ -91,24 +91,59 @@
   <si>
     <t>!!!Add enough rows so kahan_a,b,and c all converge.</t>
   </si>
+  <si>
+    <t>function_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAHAN.A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAHAN.B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAHAN.C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,7 +258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -258,304 +293,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>1.7010101010101009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>1.702020202020202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>1.7030303030303029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0404040404040404</c:v>
+                  <c:v>1.704040404040404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
+                  <c:v>1.7050505050505049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>1.7060606060606061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>1.707070707070707</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0808080808080809</c:v>
+                  <c:v>1.7080808080808081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>1.709090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
+                  <c:v>1.7101010101010101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.711111111111111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212121212121211</c:v>
+                  <c:v>1.7121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
+                  <c:v>1.7131313131313131</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
+                  <c:v>1.7141414141414142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>1.7151515151515151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1616161616161615</c:v>
+                  <c:v>1.7161616161616162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
+                  <c:v>1.7171717171717171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
+                  <c:v>1.7181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
+                  <c:v>1.7191919191919192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.202020202020202</c:v>
+                  <c:v>1.7202020202020201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
+                  <c:v>1.7212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
+                  <c:v>1.7222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
+                  <c:v>1.7232323232323232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2424242424242424</c:v>
+                  <c:v>1.7242424242424241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
+                  <c:v>1.7252525252525253</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
+                  <c:v>1.7262626262626262</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
+                  <c:v>1.7272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2828282828282829</c:v>
+                  <c:v>1.7282828282828282</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
+                  <c:v>1.7292929292929293</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
+                  <c:v>1.7303030303030302</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
+                  <c:v>1.7313131313131314</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
+                  <c:v>1.7323232323232323</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
+                  <c:v>1.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
+                  <c:v>1.7343434343434343</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
+                  <c:v>1.7353535353535354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3636363636363638</c:v>
+                  <c:v>1.7363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
+                  <c:v>1.7373737373737375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
+                  <c:v>1.7383838383838384</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
+                  <c:v>1.7393939393939393</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.404040404040404</c:v>
+                  <c:v>1.7404040404040404</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
+                  <c:v>1.7414141414141413</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
+                  <c:v>1.7424242424242424</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
+                  <c:v>1.7434343434343433</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4444444444444444</c:v>
+                  <c:v>1.7444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>1.7454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
+                  <c:v>1.7464646464646465</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
+                  <c:v>1.7474747474747474</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4848484848484849</c:v>
+                  <c:v>1.7484848484848485</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
+                  <c:v>1.7494949494949494</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
+                  <c:v>1.7505050505050506</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
+                  <c:v>1.7515151515151515</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5252525252525253</c:v>
+                  <c:v>1.7525252525252526</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
+                  <c:v>1.7535353535353535</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
+                  <c:v>1.7545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
+                  <c:v>1.7555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5656565656565657</c:v>
+                  <c:v>1.7565656565656567</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
+                  <c:v>1.7575757575757576</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
+                  <c:v>1.7585858585858587</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
+                  <c:v>1.7595959595959596</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.606060606060606</c:v>
+                  <c:v>1.7606060606060605</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
+                  <c:v>1.7616161616161616</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
+                  <c:v>1.7626262626262625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
+                  <c:v>1.7636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
+                  <c:v>1.7646464646464646</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
+                  <c:v>1.7656565656565657</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.7666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
+                  <c:v>1.7676767676767677</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6868686868686869</c:v>
+                  <c:v>1.7686868686868686</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>1.7696969696969698</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
+                  <c:v>1.7707070707070707</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
+                  <c:v>1.7717171717171718</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7272727272727273</c:v>
+                  <c:v>1.7727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
+                  <c:v>1.7737373737373738</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
+                  <c:v>1.7747474747474747</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
+                  <c:v>1.7757575757575759</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7676767676767677</c:v>
+                  <c:v>1.7767676767676768</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
+                  <c:v>1.7777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
+                  <c:v>1.7787878787878788</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1.7797979797979799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7808080808080808</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7828282828282829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7838383838383838</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7848484848484849</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7858585858585858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7868686868686869</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.788888888888889</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7898989898989899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.790909090909091</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7919191919191919</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.792929292929293</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7949494949494951</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.795959595959596</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7969696969696971</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1.797979797979798</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>1.7989898989898991</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,304 +602,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.84790000000000099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>0.83409240192867529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>0.82024937764940198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>0.80637088507582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0707466607111975</c:v>
+                  <c:v>0.79245688209656429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
+                  <c:v>0.77850732657530308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>0.76452217635070063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>0.75050138923646159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1202831562875222</c:v>
+                  <c:v>0.73644492302128128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
+                  <c:v>0.72235273546889012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
+                  <c:v>0.70822478431801983</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>0.69406102728242658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469305290993246</c:v>
+                  <c:v>0.67986142205087852</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
+                  <c:v>0.66562592628715933</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
+                  <c:v>0.65135449763007003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
+                  <c:v>0.63704709369342538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1489458612263022</c:v>
+                  <c:v>0.62270367206605215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
+                  <c:v>0.60832419031180507</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
+                  <c:v>0.59390860596953488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
+                  <c:v>0.57945687655313094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.124522274457501</c:v>
+                  <c:v>0.56496895955147863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
+                  <c:v>0.5504448124284842</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
+                  <c:v>0.53588439262307652</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
+                  <c:v>0.52128765754919293</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0717889302913104</c:v>
+                  <c:v>0.50665456459578806</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
+                  <c:v>0.49198507112683032</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
+                  <c:v>0.47727913448131254</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
+                  <c:v>0.46253671197322532</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9888110299354667</c:v>
+                  <c:v>0.44775776089159613</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
+                  <c:v>0.43294223850044844</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
+                  <c:v>0.41809010203883723</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
+                  <c:v>0.40320130872082238</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
+                  <c:v>0.38827581573548464</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
+                  <c:v>0.37331358024691319</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
+                  <c:v>0.35831455939422518</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
+                  <c:v>0.34327871029153911</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7240625640325113</c:v>
+                  <c:v>0.32820599002800321</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
+                  <c:v>0.31309635566776883</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
+                  <c:v>0.29794976425000996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
+                  <c:v>0.28276617278891436</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5381025994476083</c:v>
+                  <c:v>0.26754553827367999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
+                  <c:v>0.25228781766853459</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
+                  <c:v>0.23699296791270363</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
+                  <c:v>0.22166094592044239</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.31351928059747</c:v>
+                  <c:v>0.2062917085810092</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
+                  <c:v>0.19088521275869397</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
+                  <c:v>0.17544141529278257</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
+                  <c:v>0.15996027299759596</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.0480580072365706</c:v>
+                  <c:v>0.14444174266245469</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
+                  <c:v>0.12888578105170367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
+                  <c:v>0.11329234490470164</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
+                  <c:v>9.7661390935821046E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7394002188287248</c:v>
+                  <c:v>8.1992875834451695E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
+                  <c:v>6.6286756264998914E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
+                  <c:v>5.0542988866878247E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
+                  <c:v>3.4761530254534989E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3851633945470994</c:v>
+                  <c:v>1.8942337017408661E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
+                  <c:v>3.0853657199756412E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
+                  <c:v>-1.280942709828814E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
+                  <c:v>-2.8742084922878774E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9829010532742082</c:v>
+                  <c:v>-4.4712651264291026E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
+                  <c:v>-6.072116965799168E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
+                  <c:v>-7.6767683664435538E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
+                  <c:v>-9.2852236869067184E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
+                  <c:v>-0.10897487288230323</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
+                  <c:v>-0.12513563533956429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
+                  <c:v>-0.14133456790123411</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
+                  <c:v>-0.15757171425269867</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.024194093831392</c:v>
+                  <c:v>-0.17384711810431064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
+                  <c:v>-0.19016082319142669</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
+                  <c:v>-0.20651287327437373</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
+                  <c:v>-0.22290331213847203</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.46253671197322532</c:v>
+                  <c:v>-0.23933218359401565</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
+                  <c:v>-0.25579953147629908</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
+                  <c:v>-0.27230539964557998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
+                  <c:v>-0.28884983198712355</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.15757171425269867</c:v>
+                  <c:v>-0.30543287241116168</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
+                  <c:v>-0.32205456485291961</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
+                  <c:v>-0.33871495327260526</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>-0.355414081655411</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.37215199401151011</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.38892873437606568</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.40574434680922877</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.42259887539611896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.43949236424686156</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.45642485749654504</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.47339639930526012</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.49040703385807305</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.50745680536503635</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.5245457580611852</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.54167393620654458</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.55884138408611506</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.57604814600989407</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.59329426631284932</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.61057978935494717</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.62790475952112423</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.64526922122131403</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>-0.66267321889042563</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>-0.68011679698836325</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>-0.69759999999999955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1611889647"/>
@@ -1004,7 +1039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1620144863"/>
@@ -1052,7 +1087,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1623,16 +1658,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>62932</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96611</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>401070</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>91849</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1957,67 +1992,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" customWidth="1"/>
+    <col min="16" max="16" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
-        <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C2" s="4">
+        <f>_xll.KAHAN.A</f>
+        <v>30933062</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>function_b</f>
+        <v>31981639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>function_c</f>
+        <v>33030216</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <f>_xll.KAHAN.A</f>
+        <v>30933062</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
-        <v>4</v>
+        <v>1.7</v>
+      </c>
+      <c r="D3">
+        <f>_xll.XLL.UDF(function,C3)</f>
+        <v>0.84790000000000099</v>
+      </c>
+      <c r="F3">
+        <f>_xll.XLL.UDF(function_b,C3)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="G3">
+        <f>_xll.XLL.UDF(function_c,C3)</f>
+        <v>0.61404985920124333</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <f>_xll.KAHAN.B</f>
+        <v>31981639</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <f>_xll.XLL.UDF(function,C4)</f>
+        <v>-0.69759999999999955</v>
+      </c>
+      <c r="F4">
+        <f>_xll.XLL.UDF(function_b,C4)</f>
+        <v>-0.5022214601689966</v>
+      </c>
+      <c r="G4">
+        <f>_xll.XLL.UDF(function_c,C4)</f>
+        <v>-1.1960046346767577</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <f>_xll.KAHAN.C</f>
+        <v>33030216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>-8</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,888 +2145,4051 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" cm="1">
+      <c r="C7">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F7">
+        <f>_xll.XLL.UDF(function,C7)</f>
+        <v>0.12109375</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function,C3,C4)</f>
+        <v>1.7548625040439989</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" cm="1">
-        <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C8" cm="1">
+        <v>4.5137495956001139E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xll.XLL.UDF(function_a,I7)</f>
+        <v>4.5593580980270332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
         <v>1.75</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
-      </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F8">
+        <f>_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C9" cm="1">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function,I7,J7)</f>
+        <v>1.7576316077200589</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>4.2368392279941158E-2</v>
+      </c>
+      <c r="L8">
+        <f>_xll.XLL.UDF(function_a,I8)</f>
+        <v>2.2075047052378949E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C9">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
         <v>1.75</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>1.7625</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
+        <f t="shared" ref="E9:E56" si="1">D9-C9</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F9">
+        <f>_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C10" cm="1">
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function,I8,J8)</f>
+        <v>1.7577652565087363</v>
+      </c>
+      <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K21" si="2">J9-I9</f>
+        <v>4.2234743491263771E-2</v>
+      </c>
+      <c r="L9">
+        <f>_xll.XLL.UDF(function_a,I9)</f>
+        <v>1.0632337975380324E-4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C10">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>1.7625</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C11" cm="1">
+        <f t="shared" si="1"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="F10">
+        <f>_xll.XLL.UDF(function,C10)</f>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function,I9,J9)</f>
+        <v>1.7577716926560387</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>4.2228307343961324E-2</v>
+      </c>
+      <c r="L10">
+        <f>_xll.XLL.UDF(function_a,I10)</f>
+        <v>5.1197219903542646E-6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <f t="array" ref="P10:Q10">_xll.FALSE.POSITION(function_c,C3,C4)</f>
+        <v>1.7339243852203399</v>
+      </c>
+      <c r="Q10">
+        <v>1.8</v>
+      </c>
+      <c r="R10">
+        <f>Q10-P10</f>
+        <v>6.6075614779660174E-2</v>
+      </c>
+      <c r="S10">
+        <f>_xll.XLL.UDF(function_c,P10)</f>
+        <v>0.31081847496191789</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C11">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>1.7593749999999999</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C12" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="F11">
+        <f>_xll.XLL.UDF(function,C11)</f>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function,I10,J10)</f>
+        <v>1.7577720025694661</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4.2227997430533959E-2</v>
+      </c>
+      <c r="L11">
+        <f>_xll.XLL.UDF(function_a,I11)</f>
+        <v>2.4652372410116641E-7</v>
+      </c>
+      <c r="P11">
+        <f t="array" ref="P11:Q11">_xll.FALSE.POSITION(function_c,P10,Q10)</f>
+        <v>1.7475540685498647</v>
+      </c>
+      <c r="Q11">
+        <v>1.8</v>
+      </c>
+      <c r="R11">
+        <f>Q11-P11</f>
+        <v>5.2445931450135319E-2</v>
+      </c>
+      <c r="S11">
+        <f>_xll.XLL.UDF(function_c,P11)</f>
+        <v>0.14733578759866967</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C12">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>1.7578125</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C13" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="F12">
+        <f>_xll.XLL.UDF(function,C12)</f>
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function,I11,J11)</f>
+        <v>1.7577720174923439</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4.2227982507656137E-2</v>
+      </c>
+      <c r="L12">
+        <f>_xll.XLL.UDF(function_a,I12)</f>
+        <v>1.1870547211856319E-8</v>
+      </c>
+      <c r="P12">
+        <f t="array" ref="P12:Q12">_xll.FALSE.POSITION(function_c,P11,Q11)</f>
+        <v>1.7533062684304155</v>
+      </c>
+      <c r="Q12">
+        <v>1.8</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R52" si="3">Q12-P12</f>
+        <v>4.6693731569584562E-2</v>
+      </c>
+      <c r="S12">
+        <f>_xll.XLL.UDF(function_c,P12)</f>
+        <v>6.7520427066349295E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C13">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>1.75703125</v>
       </c>
       <c r="D13">
         <v>1.7578125</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C14" cm="1">
+        <f t="shared" si="1"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="F13">
+        <f>_xll.XLL.UDF(function,C13)</f>
+        <v>1.1637960373983347E-2</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function,I12,J12)</f>
+        <v>1.7577720182109067</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>4.2227981789093372E-2</v>
+      </c>
+      <c r="L13">
+        <f>_xll.XLL.UDF(function_a,I13)</f>
+        <v>5.7158366928433679E-10</v>
+      </c>
+      <c r="P13">
+        <f t="array" ref="P13:Q13">_xll.FALSE.POSITION(function_c,P12,Q12)</f>
+        <v>1.7558014945184131</v>
+      </c>
+      <c r="Q13">
+        <v>1.8</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>4.4198505481586992E-2</v>
+      </c>
+      <c r="S13">
+        <f>_xll.XLL.UDF(function_c,P13)</f>
+        <v>3.0445163483528374E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C14">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>1.7574218749999999</v>
       </c>
       <c r="D14">
         <v>1.7578125</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C15" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="F14">
+        <f>_xll.XLL.UDF(function,C14)</f>
+        <v>5.5035171564448149E-3</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function,I13,J13)</f>
+        <v>1.7577720182455066</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>4.2227981754493493E-2</v>
+      </c>
+      <c r="L14">
+        <f>_xll.XLL.UDF(function_a,I14)</f>
+        <v>2.752109651282808E-11</v>
+      </c>
+      <c r="P14">
+        <f t="array" ref="P14:Q14">_xll.FALSE.POSITION(function_c,P13,Q13)</f>
+        <v>1.7568986700629263</v>
+      </c>
+      <c r="Q14">
+        <v>1.8</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>4.3101329937073718E-2</v>
+      </c>
+      <c r="S14">
+        <f>_xll.XLL.UDF(function_c,P14)</f>
+        <v>1.3625483911519009E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C15">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>1.7576171875</v>
       </c>
       <c r="D15">
         <v>1.7578125</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C16" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="F15">
+        <f>_xll.XLL.UDF(function,C15)</f>
+        <v>2.434174978406034E-3</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function,I14,J14)</f>
+        <v>1.7577720182471723</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>4.2227981752827715E-2</v>
+      </c>
+      <c r="L15">
+        <f>_xll.XLL.UDF(function_a,I15)</f>
+        <v>1.3287149158713873E-12</v>
+      </c>
+      <c r="P15">
+        <f t="array" ref="P15:Q15">_xll.FALSE.POSITION(function_c,P14,Q14)</f>
+        <v>1.7573841709351334</v>
+      </c>
+      <c r="Q15">
+        <v>1.8</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>4.2615829064866606E-2</v>
+      </c>
+      <c r="S15">
+        <f>_xll.XLL.UDF(function_c,P15)</f>
+        <v>6.0773702397159627E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C16">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>1.7577148437500001</v>
       </c>
       <c r="D16">
         <v>1.7578125</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C17" cm="1">
+        <f t="shared" si="1"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="F16">
+        <f>_xll.XLL.UDF(function,C16)</f>
+        <v>8.9897360958168804E-4</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function,I15,J15)</f>
+        <v>1.7577720182472527</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>4.2227981752747334E-2</v>
+      </c>
+      <c r="L16">
+        <f>_xll.XLL.UDF(function_a,I16)</f>
+        <v>6.3948846218409017E-14</v>
+      </c>
+      <c r="P16">
+        <f t="array" ref="P16:Q16">_xll.FALSE.POSITION(function_c,P15,Q15)</f>
+        <v>1.7575996239327165</v>
+      </c>
+      <c r="Q16">
+        <v>1.8</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>4.2400376067283529E-2</v>
+      </c>
+      <c r="S16">
+        <f>_xll.XLL.UDF(function_c,P16)</f>
+        <v>2.7065787691665758E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C17">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D17">
         <v>1.7578125</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C18" cm="1">
+        <f t="shared" si="1"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="F17">
+        <f>_xll.XLL.UDF(function,C17)</f>
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function,I16,J16)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J17">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743782E-2</v>
+      </c>
+      <c r="L17">
+        <f>_xll.XLL.UDF(function_a,I17)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="P17">
+        <f t="array" ref="P17:Q17">_xll.FALSE.POSITION(function_c,P16,Q16)</f>
+        <v>1.7576953600502911</v>
+      </c>
+      <c r="Q17">
+        <v>1.8</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>4.23046399497089E-2</v>
+      </c>
+      <c r="S17">
+        <f>_xll.XLL.UDF(function_c,P17)</f>
+        <v>1.2045688192280888E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C18">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D18">
-        <v>1.7578125</v>
+        <v>1.7577880859374999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C19" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="F18">
+        <f>_xll.XLL.UDF(function,C18)</f>
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function,I17,J17)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J18">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>_xll.XLL.UDF(function_a,I18)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="P18">
+        <f t="array" ref="P18:Q18">_xll.FALSE.POSITION(function_c,P17,Q17)</f>
+        <v>1.7577379247499636</v>
+      </c>
+      <c r="Q18">
+        <v>1.8</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>4.2262075250036446E-2</v>
+      </c>
+      <c r="S18">
+        <f>_xll.XLL.UDF(function_c,P18)</f>
+        <v>5.3593433058417999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C19">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D19">
-        <v>1.7578125</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C20" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="F19">
+        <f>_xll.XLL.UDF(function,C19)</f>
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function,I18,J18)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J19">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>_xll.XLL.UDF(function_a,I19)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+      <c r="P19">
+        <f t="array" ref="P19:Q19">_xll.FALSE.POSITION(function_c,P18,Q18)</f>
+        <v>1.7577568540680284</v>
+      </c>
+      <c r="Q19">
+        <v>1.8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>4.2243145931971648E-2</v>
+      </c>
+      <c r="S19">
+        <f>_xll.XLL.UDF(function_c,P19)</f>
+        <v>2.3841481308807121E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C20">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D20">
-        <v>1.7578125</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" cm="1">
+        <f t="shared" si="1"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="F20">
+        <f>_xll.XLL.UDF(function,C20)</f>
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function,I19,J19)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J20">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>_xll.XLL.UDF(function_a,I20)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="array" ref="P20:Q20">_xll.FALSE.POSITION(function_c,P19,Q19)</f>
+        <v>1.7577652732531983</v>
+      </c>
+      <c r="Q20">
+        <v>1.8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>4.2234726746801732E-2</v>
+      </c>
+      <c r="S20">
+        <f>_xll.XLL.UDF(function_c,P20)</f>
+        <v>1.0605446348574326E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C21">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
-      </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C22" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="F21">
+        <f>_xll.XLL.UDF(function,C21)</f>
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function,I20,J20)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J21">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>_xll.XLL.UDF(function_a,I21)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="array" ref="P21:Q21">_xll.FALSE.POSITION(function_c,P20,Q20)</f>
+        <v>1.7577690180414747</v>
+      </c>
+      <c r="Q21">
+        <v>1.8</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>4.2230981958525371E-2</v>
+      </c>
+      <c r="S21">
+        <f>_xll.XLL.UDF(function_c,P21)</f>
+        <v>4.7175132279749689E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C22">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C23" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="F22">
+        <f>_xll.XLL.UDF(function,C22)</f>
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="P22">
+        <f t="array" ref="P22:Q22">_xll.FALSE.POSITION(function_c,P21,Q21)</f>
+        <v>1.7577706837319942</v>
+      </c>
+      <c r="Q22">
+        <v>1.8</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>4.2229316268005856E-2</v>
+      </c>
+      <c r="S22">
+        <f>_xll.XLL.UDF(function_c,P22)</f>
+        <v>2.098418798462159E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C23">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
-      </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C24" cm="1">
+        <f t="shared" si="1"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="F23">
+        <f>_xll.XLL.UDF(function,C23)</f>
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function_b,C3,C4)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J23">
+        <v>1.7726601884078099</v>
+      </c>
+      <c r="K23">
+        <f>J23-I23</f>
+        <v>7.2660188407809967E-2</v>
+      </c>
+      <c r="L23">
+        <f>_xll.XLL.UDF(function_b,I23)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="N23">
+        <f>_xll.XLL.UDF(function_b,J23)</f>
+        <v>-0.2119863703715319</v>
+      </c>
+      <c r="P23">
+        <f t="array" ref="P23:Q23">_xll.FALSE.POSITION(function_c,P22,Q22)</f>
+        <v>1.7577714246424705</v>
+      </c>
+      <c r="Q23">
+        <v>1.8</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>4.2228575357529552E-2</v>
+      </c>
+      <c r="S23">
+        <f>_xll.XLL.UDF(function_c,P23)</f>
+        <v>9.3340242800636409E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C24">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>1.757771682739258</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
-      </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="F24">
+        <f>_xll.XLL.UDF(function,C24)</f>
+        <v>5.2756572177514727E-6</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function_b,I23,J23)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J24">
+        <v>1.7627017482042613</v>
+      </c>
+      <c r="K24">
+        <f>J24-I24</f>
+        <v>6.2701748204261332E-2</v>
+      </c>
+      <c r="L24">
+        <f>_xll.XLL.UDF(function_b,I24)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P24">
+        <f t="array" ref="P24:Q24">_xll.FALSE.POSITION(function_c,P23,Q23)</f>
+        <v>1.7577717542059688</v>
+      </c>
+      <c r="Q24">
+        <v>1.8</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>4.2228245794031283E-2</v>
+      </c>
+      <c r="S24">
+        <f>_xll.XLL.UDF(function_c,P24)</f>
+        <v>4.1518788156838155E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C25">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577718734741212</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
-      </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C26" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="F25">
+        <f>_xll.XLL.UDF(function,C25)</f>
+        <v>2.2764691518517566E-6</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function_b,I24,J24)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J25">
+        <v>1.759365664444885</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K53" si="4">J25-I25</f>
+        <v>5.9365664444885002E-2</v>
+      </c>
+      <c r="L25">
+        <f>_xll.XLL.UDF(function_b,I25)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P25">
+        <f t="array" ref="P25:Q25">_xll.FALSE.POSITION(function_c,P24,Q24)</f>
+        <v>1.7577719007990045</v>
+      </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>4.2228099200995572E-2</v>
+      </c>
+      <c r="S25">
+        <f>_xll.XLL.UDF(function_c,P25)</f>
+        <v>1.8468004032368828E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C26">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>1.7577719688415527</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
-      </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C27" cm="1">
+        <f t="shared" si="1"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="F26">
+        <f>_xll.XLL.UDF(function,C26)</f>
+        <v>7.7687461441655614E-7</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function_b,I25,J25)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J26">
+        <v>1.7582830173970994</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>5.8283017397099401E-2</v>
+      </c>
+      <c r="L26">
+        <f>_xll.XLL.UDF(function_b,I26)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P26">
+        <f t="array" ref="P26:Q26">_xll.FALSE.POSITION(function_c,P25,Q25)</f>
+        <v>1.7577719660050646</v>
+      </c>
+      <c r="Q26">
+        <v>1.8</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>4.2228033994935466E-2</v>
+      </c>
+      <c r="S26">
+        <f>_xll.XLL.UDF(function_c,P26)</f>
+        <v>8.2147632350537456E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C27">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
-      </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" cm="1">
+        <f t="shared" si="1"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="F27">
+        <f>_xll.XLL.UDF(function,C27)</f>
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function_b,I26,J26)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J27">
+        <v>1.7579354340523092</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>5.7935434052309276E-2</v>
+      </c>
+      <c r="L27">
+        <f>_xll.XLL.UDF(function_b,I27)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P27">
+        <f t="array" ref="P27:Q27">_xll.FALSE.POSITION(function_c,P26,Q26)</f>
+        <v>1.7577719950093893</v>
+      </c>
+      <c r="Q27">
+        <v>1.8</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>4.2228004990610746E-2</v>
+      </c>
+      <c r="S27">
+        <f>_xll.XLL.UDF(function_c,P27)</f>
+        <v>3.6540126199113188E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C28">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>1.7577720403671266</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
-      </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C29" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="F28">
+        <f>_xll.XLL.UDF(function,C28)</f>
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function_b,I27,J27)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J28">
+        <v>1.7578242334261098</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>5.7824233426109872E-2</v>
+      </c>
+      <c r="L28">
+        <f>_xll.XLL.UDF(function_b,I28)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P28">
+        <f t="array" ref="P28:Q28">_xll.FALSE.POSITION(function_c,P27,Q27)</f>
+        <v>1.7577720079108123</v>
+      </c>
+      <c r="Q28">
+        <v>1.8</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>4.2227992089187705E-2</v>
+      </c>
+      <c r="S28">
+        <f>_xll.XLL.UDF(function_c,P28)</f>
+        <v>1.6253428925268293E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C29">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>1.7577720284461975</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
-      </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C30" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="F29">
+        <f>_xll.XLL.UDF(function,C29)</f>
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function_b,I28,J28)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J29">
+        <v>1.7577886976570778</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>5.7788697657077837E-2</v>
+      </c>
+      <c r="L29">
+        <f>_xll.XLL.UDF(function_b,I29)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P29">
+        <f t="array" ref="P29:Q29">_xll.FALSE.POSITION(function_c,P28,Q28)</f>
+        <v>1.7577720136494985</v>
+      </c>
+      <c r="Q29">
+        <v>1.8</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>4.2227986350501512E-2</v>
+      </c>
+      <c r="S29">
+        <f>_xll.XLL.UDF(function_c,P29)</f>
+        <v>7.2296949811297358E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C30">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>1.7577720224857329</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
-      </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C31" cm="1">
+        <f t="shared" si="1"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="F30">
+        <f>_xll.XLL.UDF(function,C30)</f>
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function_b,I29,J29)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J30">
+        <v>1.7577773457860224</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>5.7777345786022449E-2</v>
+      </c>
+      <c r="L30">
+        <f>_xll.XLL.UDF(function_b,I30)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P30">
+        <f t="array" ref="P30:Q30">_xll.FALSE.POSITION(function_c,P29,Q29)</f>
+        <v>1.7577720162021264</v>
+      </c>
+      <c r="Q30">
+        <v>1.8</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>4.2227983797873625E-2</v>
+      </c>
+      <c r="S30">
+        <f>_xll.XLL.UDF(function_c,P30)</f>
+        <v>3.2158430068045142E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C31">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
-      </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C32" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="F31">
+        <f>_xll.XLL.UDF(function,C31)</f>
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function_b,I30,J30)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J31">
+        <v>1.7577737198588159</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>5.7773719858815964E-2</v>
+      </c>
+      <c r="L31">
+        <f>_xll.XLL.UDF(function_b,I31)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P31">
+        <f t="array" ref="P31:Q31">_xll.FALSE.POSITION(function_c,P30,Q30)</f>
+        <v>1.7577720173375613</v>
+      </c>
+      <c r="Q31">
+        <v>1.8</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>4.2227982662438768E-2</v>
+      </c>
+      <c r="S31">
+        <f>_xll.XLL.UDF(function_c,P31)</f>
+        <v>1.430440822219781E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C32">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D32">
-        <v>1.7577720284461975</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
-      </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C33" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="F32">
+        <f>_xll.XLL.UDF(function,C32)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function_b,I31,J31)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J32">
+        <v>1.7577725617357591</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>5.7772561735759176E-2</v>
+      </c>
+      <c r="L32">
+        <f>_xll.XLL.UDF(function_b,I32)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P32">
+        <f t="array" ref="P32:Q32">_xll.FALSE.POSITION(function_c,P31,Q31)</f>
+        <v>1.7577720178426146</v>
+      </c>
+      <c r="Q32">
+        <v>1.8</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>4.2227982157385435E-2</v>
+      </c>
+      <c r="S32">
+        <f>_xll.XLL.UDF(function_c,P32)</f>
+        <v>6.3627520827306832E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C33">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>1.7577720187604429</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
-      </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C34" cm="1">
+        <f t="shared" si="1"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="F33">
+        <f>_xll.XLL.UDF(function,C33)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function_b,I32,J32)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J33">
+        <v>1.757772191835</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>5.7772191835000042E-2</v>
+      </c>
+      <c r="L33">
+        <f>_xll.XLL.UDF(function_b,I33)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P33">
+        <f t="array" ref="P33:Q33">_xll.FALSE.POSITION(function_c,P32,Q32)</f>
+        <v>1.7577720180672676</v>
+      </c>
+      <c r="Q33">
+        <v>1.8</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>4.2227981932732472E-2</v>
+      </c>
+      <c r="S33">
+        <f>_xll.XLL.UDF(function_c,P33)</f>
+        <v>2.8302213865766787E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C34">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
-      </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C35" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="F34">
+        <f>_xll.XLL.UDF(function,C34)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function_b,I33,J33)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J34">
+        <v>1.7577720736903382</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>5.777207369033821E-2</v>
+      </c>
+      <c r="L34">
+        <f>_xll.XLL.UDF(function_b,I34)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P34">
+        <f t="array" ref="P34:Q34">_xll.FALSE.POSITION(function_c,P33,Q33)</f>
+        <v>1.7577720181671959</v>
+      </c>
+      <c r="Q34">
+        <v>1.8</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>4.2227981832804184E-2</v>
+      </c>
+      <c r="S34">
+        <f>_xll.XLL.UDF(function_c,P34)</f>
+        <v>1.2589094203610493E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C35">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
-      </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C36" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="F35">
+        <f>_xll.XLL.UDF(function,C35)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function_b,I34,J34)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J35">
+        <v>1.7577720359555025</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>5.777203595550251E-2</v>
+      </c>
+      <c r="L35">
+        <f>_xll.XLL.UDF(function_b,I35)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P35">
+        <f t="array" ref="P35:Q35">_xll.FALSE.POSITION(function_c,P34,Q34)</f>
+        <v>1.757772018211645</v>
+      </c>
+      <c r="Q35">
+        <v>1.8</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>4.2227981788355073E-2</v>
+      </c>
+      <c r="S35">
+        <f>_xll.XLL.UDF(function_c,P35)</f>
+        <v>5.5997517718207007E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C36">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>1.7577720182947818</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
-      </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C37" cm="1">
+        <f t="shared" si="1"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="F36">
+        <f>_xll.XLL.UDF(function,C36)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function_b,I35,J35)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J36">
+        <v>1.7577720239031822</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>5.7772023903182257E-2</v>
+      </c>
+      <c r="L36">
+        <f>_xll.XLL.UDF(function_b,I36)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P36">
+        <f t="array" ref="P36:Q36">_xll.FALSE.POSITION(function_c,P35,Q35)</f>
+        <v>1.7577720182314165</v>
+      </c>
+      <c r="Q36">
+        <v>1.8</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>4.2227981768583556E-2</v>
+      </c>
+      <c r="S36">
+        <f>_xll.XLL.UDF(function_c,P36)</f>
+        <v>2.4907897963284357E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C37">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
-      </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C38" cm="1">
+        <f t="shared" si="1"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="F37">
+        <f>_xll.XLL.UDF(function,C37)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function_b,I36,J36)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J37">
+        <v>1.7577720200537308</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>5.7772020053730833E-2</v>
+      </c>
+      <c r="L37">
+        <f>_xll.XLL.UDF(function_b,I37)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P37">
+        <f t="array" ref="P37:Q37">_xll.FALSE.POSITION(function_c,P36,Q36)</f>
+        <v>1.757772018240211</v>
+      </c>
+      <c r="Q37">
+        <v>1.8</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>4.2227981759789035E-2</v>
+      </c>
+      <c r="S37">
+        <f>_xll.XLL.UDF(function_c,P37)</f>
+        <v>1.1078959971041706E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C38">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182249323</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
-      </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C39" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="F38">
+        <f>_xll.XLL.UDF(function,C38)</f>
+        <v>3.510400858885987E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function_b,I37,J37)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J38">
+        <v>1.7577720188242356</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>5.777201882423566E-2</v>
+      </c>
+      <c r="L38">
+        <f>_xll.XLL.UDF(function_b,I38)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P38">
+        <f t="array" ref="P38:Q38">_xll.FALSE.POSITION(function_c,P37,Q37)</f>
+        <v>1.7577720182441228</v>
+      </c>
+      <c r="Q38">
+        <v>1.8</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>4.2227981755877275E-2</v>
+      </c>
+      <c r="S38">
+        <f>_xll.XLL.UDF(function_c,P38)</f>
+        <v>4.9279691437427505E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C39">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182365739</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
-      </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C40" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="F39">
+        <f>_xll.XLL.UDF(function,C39)</f>
+        <v>1.6798118451788469E-10</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function_b,I38,J38)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J39">
+        <v>1.7577720184315409</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>5.7772018431540895E-2</v>
+      </c>
+      <c r="L39">
+        <f>_xll.XLL.UDF(function_b,I39)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P39">
+        <f t="array" ref="P39:Q39">_xll.FALSE.POSITION(function_c,P38,Q38)</f>
+        <v>1.7577720182458625</v>
+      </c>
+      <c r="Q39">
+        <v>1.8</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>4.2227981754137556E-2</v>
+      </c>
+      <c r="S39">
+        <f>_xll.XLL.UDF(function_c,P39)</f>
+        <v>2.1923796111637566E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C40">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182423948</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
-      </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C41" cm="1">
+        <f t="shared" si="1"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="F40">
+        <f>_xll.XLL.UDF(function,C40)</f>
+        <v>7.6450845654107979E-11</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function_b,I39,J39)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J40">
+        <v>1.7577720183061161</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>5.7772018306116113E-2</v>
+      </c>
+      <c r="L40">
+        <f>_xll.XLL.UDF(function_b,I40)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P40">
+        <f t="array" ref="P40:Q40">_xll.FALSE.POSITION(function_c,P39,Q39)</f>
+        <v>1.7577720182466363</v>
+      </c>
+      <c r="Q40">
+        <v>1.8</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>4.222798175336373E-2</v>
+      </c>
+      <c r="S40">
+        <f>_xll.XLL.UDF(function_c,P40)</f>
+        <v>9.7557517619385884E-12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C41">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>1.7577720182453052</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
-      </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C42" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="F41">
+        <f>_xll.XLL.UDF(function,C41)</f>
+        <v>3.0688340757478727E-11</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function_b,I40,J40)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J41">
+        <v>1.7577720182660561</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>5.7772018266056158E-2</v>
+      </c>
+      <c r="L41">
+        <f>_xll.XLL.UDF(function_b,I41)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P41">
+        <f t="array" ref="P41:Q41">_xll.FALSE.POSITION(function_c,P40,Q40)</f>
+        <v>1.7577720182469805</v>
+      </c>
+      <c r="Q41">
+        <v>1.8</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>4.2227981753019561E-2</v>
+      </c>
+      <c r="S41">
+        <f>_xll.XLL.UDF(function_c,P41)</f>
+        <v>4.3449688291635736E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C42">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
-      </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C43" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="F42">
+        <f>_xll.XLL.UDF(function,C42)</f>
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function_b,I41,J41)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J42">
+        <v>1.7577720182532608</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>5.7772018253260837E-2</v>
+      </c>
+      <c r="L42">
+        <f>_xll.XLL.UDF(function_b,I42)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P42">
+        <f t="array" ref="P42:Q42">_xll.FALSE.POSITION(function_c,P41,Q41)</f>
+        <v>1.7577720182471337</v>
+      </c>
+      <c r="Q42">
+        <v>1.8</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>4.222798175286635E-2</v>
+      </c>
+      <c r="S42">
+        <f>_xll.XLL.UDF(function_c,P42)</f>
+        <v>1.9362289549443985E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C43">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
-      </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C44" cm="1">
+        <f t="shared" si="1"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="F43">
+        <f>_xll.XLL.UDF(function,C43)</f>
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function_b,I42,J42)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J43">
+        <v>1.7577720182491743</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>5.7772018249174328E-2</v>
+      </c>
+      <c r="L43">
+        <f>_xll.XLL.UDF(function_b,I43)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P43">
+        <f t="array" ref="P43:Q43">_xll.FALSE.POSITION(function_c,P42,Q42)</f>
+        <v>1.7577720182472021</v>
+      </c>
+      <c r="Q43">
+        <v>1.8</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>4.2227981752797961E-2</v>
+      </c>
+      <c r="S43">
+        <f>_xll.XLL.UDF(function_c,P43)</f>
+        <v>8.5975671026935166E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C44">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182471239</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C45" cm="1">
+        <f t="shared" si="1"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="F44">
+        <f>_xll.XLL.UDF(function,C44)</f>
+        <v>2.0889956431346945E-12</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function_b,I43,J43)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J44">
+        <v>1.7577720182478691</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>5.777201824786915E-2</v>
+      </c>
+      <c r="L44">
+        <f>_xll.XLL.UDF(function_b,I44)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P44">
+        <f t="array" ref="P44:Q44">_xll.FALSE.POSITION(function_c,P43,Q43)</f>
+        <v>1.7577720182472325</v>
+      </c>
+      <c r="Q44">
+        <v>1.8</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>4.2227981752767541E-2</v>
+      </c>
+      <c r="S44">
+        <f>_xll.XLL.UDF(function_c,P44)</f>
+        <v>3.819167204709809E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C45">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
-      </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
+        <f t="shared" si="1"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="F45">
+        <f>_xll.XLL.UDF(function,C45)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C46" cm="1">
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function_b,I44,J44)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J45">
+        <v>1.7577720182474523</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>5.7772018247452372E-2</v>
+      </c>
+      <c r="L45">
+        <f>_xll.XLL.UDF(function_b,I45)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P45">
+        <f t="array" ref="P45:Q45">_xll.FALSE.POSITION(function_c,P44,Q44)</f>
+        <v>1.757772018247246</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>4.2227981752753996E-2</v>
+      </c>
+      <c r="S45">
+        <f>_xll.XLL.UDF(function_c,P45)</f>
+        <v>1.6875389974300956E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C46">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
-      </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C47" cm="1">
+        <f t="shared" si="1"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="F46">
+        <f>_xll.XLL.UDF(function,C46)</f>
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function_b,I45,J45)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J46">
+        <v>1.7577720182473195</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>5.777201824731959E-2</v>
+      </c>
+      <c r="L46">
+        <f>_xll.XLL.UDF(function_b,I46)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P46">
+        <f t="array" ref="P46:Q46">_xll.FALSE.POSITION(function_c,P45,Q45)</f>
+        <v>1.7577720182472518</v>
+      </c>
+      <c r="Q46">
+        <v>1.8</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>4.2227981752748223E-2</v>
+      </c>
+      <c r="S46">
+        <f>_xll.XLL.UDF(function_c,P46)</f>
+        <v>7.8159700933607966E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C47">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
-        <v>1.7577720182471239</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
-      </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C48" cm="1">
+        <f t="shared" si="1"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="F47">
+        <f>_xll.XLL.UDF(function,C47)</f>
+        <v>6.5902838741749292E-13</v>
+      </c>
+      <c r="I47">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function_b,I46,J46)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J47">
+        <v>1.7577720182472767</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>5.7772018247276735E-2</v>
+      </c>
+      <c r="L47">
+        <f>_xll.XLL.UDF(function_b,I47)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P47">
+        <f t="array" ref="P47:Q47">_xll.FALSE.POSITION(function_c,P46,Q46)</f>
+        <v>1.7577720182472547</v>
+      </c>
+      <c r="Q47">
+        <v>1.8</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>4.2227981752745336E-2</v>
+      </c>
+      <c r="S47">
+        <f>_xll.XLL.UDF(function_c,P47)</f>
+        <v>3.3750779948604191E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C48">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182472376</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
-      </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C49" cm="1">
+        <f t="shared" si="1"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="F48">
+        <f>_xll.XLL.UDF(function,C48)</f>
+        <v>3.0198066269804258E-13</v>
+      </c>
+      <c r="I48">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function_b,I47,J47)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J48">
+        <v>1.7577720182472634</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>5.7772018247263413E-2</v>
+      </c>
+      <c r="L48">
+        <f>_xll.XLL.UDF(function_b,I48)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P48">
+        <f t="array" ref="P48:Q48">_xll.FALSE.POSITION(function_c,P47,Q47)</f>
+        <v>1.757772018247256</v>
+      </c>
+      <c r="Q48">
+        <v>1.8</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>4.2227981752744004E-2</v>
+      </c>
+      <c r="S48">
+        <f>_xll.XLL.UDF(function_c,P48)</f>
+        <v>1.0658141036401446E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C49">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>1.7577720182472492</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
-      </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C50" cm="1">
+        <f t="shared" si="1"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="F49">
+        <f>_xll.XLL.UDF(function,C49)</f>
+        <v>1.2079226507921703E-13</v>
+      </c>
+      <c r="I49">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function_b,I48,J48)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J49">
+        <v>1.7577720182472589</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>5.7772018247258972E-2</v>
+      </c>
+      <c r="L49">
+        <f>_xll.XLL.UDF(function_b,I49)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P49">
+        <f t="array" ref="P49:Q49">_xll.FALSE.POSITION(function_c,P48,Q48)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="Q49">
+        <v>1.8</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>4.2227981752743782E-2</v>
+      </c>
+      <c r="S49">
+        <f>_xll.XLL.UDF(function_c,P49)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C50">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
-      </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C51" cm="1">
+        <f t="shared" si="1"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="F50">
+        <f>_xll.XLL.UDF(function,C50)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="I50">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function_b,I49,J49)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J50">
+        <v>1.7577720182472574</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>5.7772018247257417E-2</v>
+      </c>
+      <c r="L50">
+        <f>_xll.XLL.UDF(function_b,I50)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P50">
+        <f t="array" ref="P50:Q50">_xll.FALSE.POSITION(function_c,P49,Q49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="Q50">
+        <v>1.8</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="3"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="S50">
+        <f>_xll.XLL.UDF(function_c,P50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C51">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
-        <v>1.7577720182472376</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F51">
+        <f>_xll.XLL.UDF(function,C51)</f>
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C52" cm="1">
+      <c r="I51">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function_b,I50,J50)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J51">
+        <v>1.7577720182472572</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>5.7772018247257195E-2</v>
+      </c>
+      <c r="L51">
+        <f>_xll.XLL.UDF(function_b,I51)</f>
+        <v>1.3347387488489075</v>
+      </c>
+      <c r="P51">
+        <f t="array" ref="P51:Q51">_xll.FALSE.POSITION(function_c,P50,Q50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="Q51">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>_xll.XLL.UDF(function_c,P51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C52">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
-      </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C53" cm="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>_xll.XLL.UDF(function,C52)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="I52">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function_b,I51,J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>1.7577720182472572</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>_xll.XLL.UDF(function_b,I52)</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="array" ref="P52:Q52">_xll.FALSE.POSITION(function_c,P51,Q51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="Q52">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>_xll.XLL.UDF(function_c,P52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C53">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
-      </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C54" cm="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>_xll.XLL.UDF(function,C53)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+      <c r="I53">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function_b,I52,J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f>_xll.XLL.UDF(function_b,I53)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="array" ref="P53:Q53">_xll.FALSE.POSITION(function_c,P52,Q52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="Q53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ref="R12:R54" si="5">Q53-P53</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>_xll.XLL.UDF(function_c,P53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C54">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
-      </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C55" cm="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>_xll.XLL.UDF(function,C54)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="array" ref="P54:Q54">_xll.FALSE.POSITION(function_c,P53,Q53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="Q54">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f>_xll.XLL.UDF(function_c,P54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C55">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C56" cm="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>_xll.XLL.UDF(function,C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C56">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
-        <v>1.7577720182472563</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
-        <v>8.8817841970012523E-15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F56">
+        <f>_xll.XLL.UDF(function,C56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+      <c r="F57">
+        <f>_xll.XLL.UDF(function,C57)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <f t="array" ref="C59:D59">_xll.BISECT(function_b,C3,C4)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D59">
+        <v>1.8</v>
+      </c>
+      <c r="E59">
+        <f>D59-C59</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F59">
+        <f>_xll.XLL.UDF(function_b,C59)</f>
+        <v>0.12873072591281076</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C60">
+        <f t="array" ref="C60:D60">_xll.BISECT(function_b,C59,D59)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D60">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E60">
+        <f>D60-C60</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F60">
+        <f>_xll.XLL.UDF(function_b,C60)</f>
+        <v>0.12873072591281076</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C61">
+        <f t="array" ref="C61:D61">_xll.BISECT(function_b,C60,D60)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D61">
+        <v>1.7625</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:E107" si="6">D61-C61</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F61">
+        <f>_xll.XLL.UDF(function_b,C61)</f>
+        <v>0.12873072591281076</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C62">
+        <f t="array" ref="C62:D62">_xll.BISECT(function_b,C61,D61)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D62">
+        <v>1.7625</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="F62">
+        <f>_xll.XLL.UDF(function_b,C62)</f>
+        <v>2.4177540570533784E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C63">
+        <f t="array" ref="C63:D63">_xll.BISECT(function_b,C62,D62)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D63">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="F63">
+        <f>_xll.XLL.UDF(function_b,C63)</f>
+        <v>2.4177540570533784E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C64">
+        <f t="array" ref="C64:D64">_xll.BISECT(function_b,C63,D63)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D64">
+        <v>1.7578125</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="F64">
+        <f>_xll.XLL.UDF(function_b,C64)</f>
+        <v>2.4177540570533784E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C65">
+        <f t="array" ref="C65:D65">_xll.BISECT(function_b,C64,D64)</f>
+        <v>1.75703125</v>
+      </c>
+      <c r="D65">
+        <v>1.7578125</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="F65">
+        <f>_xll.XLL.UDF(function_b,C65)</f>
+        <v>1.1705944912630217E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C66">
+        <f t="array" ref="C66:D66">_xll.BISECT(function_b,C65,D65)</f>
+        <v>1.7574218749999999</v>
+      </c>
+      <c r="D66">
+        <v>1.7578125</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="F66">
+        <f>_xll.XLL.UDF(function_b,C66)</f>
+        <v>5.5186893276555349E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C67">
+        <f t="array" ref="C67:D67">_xll.BISECT(function_b,C66,D66)</f>
+        <v>1.7576171875</v>
+      </c>
+      <c r="D67">
+        <v>1.7578125</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="F67">
+        <f>_xll.XLL.UDF(function_b,C67)</f>
+        <v>2.4371399876144118E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C68">
+        <f t="array" ref="C68:D68">_xll.BISECT(function_b,C67,D67)</f>
+        <v>1.7577148437500001</v>
+      </c>
+      <c r="D68">
+        <v>1.7578125</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="F68">
+        <f>_xll.XLL.UDF(function_b,C68)</f>
+        <v>8.9937780746907059E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C69">
+        <f t="array" ref="C69:D69">_xll.BISECT(function_b,C68,D68)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D69">
+        <v>1.7578125</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="F69">
+        <f>_xll.XLL.UDF(function_b,C69)</f>
+        <v>1.3124895042171403E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C70">
+        <f t="array" ref="C70:D70">_xll.BISECT(function_b,C69,D69)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D70">
+        <v>1.7577880859374999</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="F70">
+        <f>_xll.XLL.UDF(function_b,C70)</f>
+        <v>1.3124895042171403E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C71">
+        <f t="array" ref="C71:D71">_xll.BISECT(function_b,C70,D70)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D71">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="F71">
+        <f>_xll.XLL.UDF(function_b,C71)</f>
+        <v>1.3124895042171403E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C72">
+        <f t="array" ref="C72:D72">_xll.BISECT(function_b,C71,D71)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D72">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="F72">
+        <f>_xll.XLL.UDF(function_b,C72)</f>
+        <v>3.5268085609274635E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C73">
+        <f t="array" ref="C73:D73">_xll.BISECT(function_b,C72,D72)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D73">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="F73">
+        <f>_xll.XLL.UDF(function_b,C73)</f>
+        <v>3.5268085609274635E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C74">
+        <f t="array" ref="C74:D74">_xll.BISECT(function_b,C73,D73)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D74">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="F74">
+        <f>_xll.XLL.UDF(function_b,C74)</f>
+        <v>1.1274092856838891E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C75">
+        <f t="array" ref="C75:D75">_xll.BISECT(function_b,C74,D74)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D75">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="F75">
+        <f>_xll.XLL.UDF(function_b,C75)</f>
+        <v>1.1274092856838891E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C76">
+        <f t="array" ref="C76:D76">_xll.BISECT(function_b,C75,D75)</f>
+        <v>1.757771682739258</v>
+      </c>
+      <c r="D76">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="F76">
+        <f>_xll.XLL.UDF(function_b,C76)</f>
+        <v>5.2756711339529971E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C77">
+        <f t="array" ref="C77:D77">_xll.BISECT(function_b,C76,D76)</f>
+        <v>1.7577718734741212</v>
+      </c>
+      <c r="D77">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="F77">
+        <f>_xll.XLL.UDF(function_b,C77)</f>
+        <v>2.2764717431122961E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C78">
+        <f t="array" ref="C78:D78">_xll.BISECT(function_b,C77,D77)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="D78">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="F78">
+        <f>_xll.XLL.UDF(function_b,C78)</f>
+        <v>7.7687491617517423E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C79">
+        <f t="array" ref="C79:D79">_xll.BISECT(function_b,C78,D78)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D79">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="F79">
+        <f>_xll.XLL.UDF(function_b,C79)</f>
+        <v>2.7077217357174277E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C80">
+        <f t="array" ref="C80:D80">_xll.BISECT(function_b,C79,D79)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D80">
+        <v>1.7577720403671266</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="F80">
+        <f>_xll.XLL.UDF(function_b,C80)</f>
+        <v>2.7077217357174277E-8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C81">
+        <f t="array" ref="C81:D81">_xll.BISECT(function_b,C80,D80)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D81">
+        <v>1.7577720284461975</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="F81">
+        <f>_xll.XLL.UDF(function_b,C81)</f>
+        <v>2.7077217357174277E-8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C82">
+        <f t="array" ref="C82:D82">_xll.BISECT(function_b,C81,D81)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D82">
+        <v>1.7577720224857329</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="F82">
+        <f>_xll.XLL.UDF(function_b,C82)</f>
+        <v>2.7077217357174277E-8</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C83">
+        <f t="array" ref="C83:D83">_xll.BISECT(function_b,C82,D82)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D83">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="F83">
+        <f>_xll.XLL.UDF(function_b,C83)</f>
+        <v>2.7077217357174277E-8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C84">
+        <f t="array" ref="C84:D84">_xll.BISECT(function_b,C83,D83)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D84">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="F84">
+        <f>_xll.XLL.UDF(function_b,C84)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C85">
+        <f t="array" ref="C85:D85">_xll.BISECT(function_b,C84,D84)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D85">
+        <v>1.7577720187604429</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="F85">
+        <f>_xll.XLL.UDF(function_b,C85)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C86">
+        <f t="array" ref="C86:D86">_xll.BISECT(function_b,C85,D85)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D86">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="F86">
+        <f>_xll.XLL.UDF(function_b,C86)</f>
+        <v>3.6460452434994295E-9</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C87">
+        <f t="array" ref="C87:D87">_xll.BISECT(function_b,C86,D86)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D87">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="F87">
+        <f>_xll.XLL.UDF(function_b,C87)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C88">
+        <f t="array" ref="C88:D88">_xll.BISECT(function_b,C87,D87)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D88">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="F88">
+        <f>_xll.XLL.UDF(function_b,C88)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C89">
+        <f t="array" ref="C89:D89">_xll.BISECT(function_b,C88,D88)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D89">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="F89">
+        <f>_xll.XLL.UDF(function_b,C89)</f>
+        <v>7.1714900684582972E-10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C90">
+        <f t="array" ref="C90:D90">_xll.BISECT(function_b,C89,D89)</f>
+        <v>1.7577720182249323</v>
+      </c>
+      <c r="D90">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="F90">
+        <f>_xll.XLL.UDF(function_b,C90)</f>
+        <v>3.510400858885987E-10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C91">
+        <f t="array" ref="C91:D91">_xll.BISECT(function_b,C90,D90)</f>
+        <v>1.7577720182365739</v>
+      </c>
+      <c r="D91">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="F91">
+        <f>_xll.XLL.UDF(function_b,C91)</f>
+        <v>1.6798118451788469E-10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C92">
+        <f t="array" ref="C92:D92">_xll.BISECT(function_b,C91,D91)</f>
+        <v>1.7577720182423948</v>
+      </c>
+      <c r="D92">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="F92">
+        <f>_xll.XLL.UDF(function_b,C92)</f>
+        <v>7.6450845654107979E-11</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C93">
+        <f t="array" ref="C93:D93">_xll.BISECT(function_b,C92,D92)</f>
+        <v>1.7577720182453052</v>
+      </c>
+      <c r="D93">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="F93">
+        <f>_xll.XLL.UDF(function_b,C93)</f>
+        <v>3.0688340757478727E-11</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C94">
+        <f t="array" ref="C94:D94">_xll.BISECT(function_b,C93,D93)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D94">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="F94">
+        <f>_xll.XLL.UDF(function_b,C94)</f>
+        <v>7.808864666003501E-12</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C95">
+        <f t="array" ref="C95:D95">_xll.BISECT(function_b,C94,D94)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D95">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="F95">
+        <f>_xll.XLL.UDF(function_b,C95)</f>
+        <v>7.808864666003501E-12</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C96">
+        <f t="array" ref="C96:D96">_xll.BISECT(function_b,C95,D95)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D96">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="F96">
+        <f>_xll.XLL.UDF(function_b,C96)</f>
+        <v>2.0889956431346945E-12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C97">
+        <f t="array" ref="C97:D97">_xll.BISECT(function_b,C96,D96)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D97">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="F97">
+        <f>_xll.XLL.UDF(function_b,C97)</f>
+        <v>2.0889956431346945E-12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C98">
+        <f t="array" ref="C98:D98">_xll.BISECT(function_b,C97,D97)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D98">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="F98">
+        <f>_xll.XLL.UDF(function_b,C98)</f>
+        <v>6.5902838741749292E-13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C99">
+        <f t="array" ref="C99:D99">_xll.BISECT(function_b,C98,D98)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D99">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="F99">
+        <f>_xll.XLL.UDF(function_b,C99)</f>
+        <v>6.5902838741749292E-13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C100">
+        <f t="array" ref="C100:D100">_xll.BISECT(function_b,C99,D99)</f>
+        <v>1.7577720182472376</v>
+      </c>
+      <c r="D100">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="F100">
+        <f>_xll.XLL.UDF(function_b,C100)</f>
+        <v>3.0198066269804258E-13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C101">
+        <f t="array" ref="C101:D101">_xll.BISECT(function_b,C100,D100)</f>
+        <v>1.7577720182472492</v>
+      </c>
+      <c r="D101">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="F101">
+        <f>_xll.XLL.UDF(function_b,C101)</f>
+        <v>1.2079226507921703E-13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C102">
+        <f t="array" ref="C102:D102">_xll.BISECT(function_b,C101,D101)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D102">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="F102">
+        <f>_xll.XLL.UDF(function_b,C102)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C103">
+        <f t="array" ref="C103:D103">_xll.BISECT(function_b,C102,D102)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D103">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F103">
+        <f>_xll.XLL.UDF(function_b,C103)</f>
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C104">
+        <f t="array" ref="C104:D104">_xll.BISECT(function_b,C103,D103)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D104">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>_xll.XLL.UDF(function_b,C104)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C105">
+        <f t="array" ref="C105:D105">_xll.BISECT(function_b,C104,D104)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D105">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f>_xll.XLL.UDF(function_b,C105)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C106">
+        <f t="array" ref="C106:D106">_xll.BISECT(function_b,C105,D105)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D106">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>_xll.XLL.UDF(function_b,C106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C107">
+        <f t="array" ref="C107:D107">_xll.BISECT(function_b,C106,D106)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D107">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f>_xll.XLL.UDF(function_b,C107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C108">
+        <f t="array" ref="C108:D108">_xll.BISECT(function_b,C107,D107)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D108">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E61:E110" si="7">D108-C108</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f>_xll.XLL.UDF(function_b,C108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C109">
+        <f t="array" ref="C109:D109">_xll.BISECT(function_b,C108,D108)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D109">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f>_xll.XLL.UDF(function_b,C109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C110">
+        <f t="array" ref="C110:D110">_xll.BISECT(function_b,C109,D109)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D110">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f>_xll.XLL.UDF(function_b,C110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <f t="array" ref="C112:D112">_xll.BISECT(function_c,C3,C4)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D112">
+        <v>1.8</v>
+      </c>
+      <c r="E112">
+        <f>D112-C112</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F112">
+        <f>_xll.XLL.UDF(function_c,C112)</f>
+        <v>0.11430477128005863</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C113">
+        <f t="array" ref="C113:D113">_xll.BISECT(function_c,C112,D112)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D113">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="E113">
+        <f>D113-C113</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F113">
+        <f>_xll.XLL.UDF(function_c,C113)</f>
+        <v>0.11430477128005863</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C114">
+        <f t="array" ref="C114:D114">_xll.BISECT(function_c,C113,D113)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D114">
+        <v>1.7625</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114:E160" si="8">D114-C114</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F114">
+        <f>_xll.XLL.UDF(function_c,C114)</f>
+        <v>0.11430477128005863</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C115">
+        <f t="array" ref="C115:D115">_xll.BISECT(function_c,C114,D114)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D115">
+        <v>1.7625</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>6.2499999999998668E-3</v>
+      </c>
+      <c r="F115">
+        <f>_xll.XLL.UDF(function_c,C115)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C116">
+        <f t="array" ref="C116:D116">_xll.BISECT(function_c,C115,D115)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D116">
+        <v>1.7593749999999999</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>3.1249999999998224E-3</v>
+      </c>
+      <c r="F116">
+        <f>_xll.XLL.UDF(function_c,C116)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C117">
+        <f t="array" ref="C117:D117">_xll.BISECT(function_c,C116,D116)</f>
+        <v>1.7562500000000001</v>
+      </c>
+      <c r="D117">
+        <v>1.7578125</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="8"/>
+        <v>1.5624999999999112E-3</v>
+      </c>
+      <c r="F117">
+        <f>_xll.XLL.UDF(function_c,C117)</f>
+        <v>2.3608992566446038E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C118">
+        <f t="array" ref="C118:D118">_xll.BISECT(function_c,C117,D117)</f>
+        <v>1.75703125</v>
+      </c>
+      <c r="D118">
+        <v>1.7578125</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="8"/>
+        <v>7.8124999999995559E-4</v>
+      </c>
+      <c r="F118">
+        <f>_xll.XLL.UDF(function_c,C118)</f>
+        <v>1.1570760192645028E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C119">
+        <f t="array" ref="C119:D119">_xll.BISECT(function_c,C118,D118)</f>
+        <v>1.7574218749999999</v>
+      </c>
+      <c r="D119">
+        <v>1.7578125</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="8"/>
+        <v>3.9062500000008882E-4</v>
+      </c>
+      <c r="F119">
+        <f>_xll.XLL.UDF(function_c,C119)</f>
+        <v>5.4884281423483693E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C120">
+        <f t="array" ref="C120:D120">_xll.BISECT(function_c,C119,D119)</f>
+        <v>1.7576171875</v>
+      </c>
+      <c r="D120">
+        <v>1.7578125</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="8"/>
+        <v>1.9531250000004441E-4</v>
+      </c>
+      <c r="F120">
+        <f>_xll.XLL.UDF(function_c,C120)</f>
+        <v>2.4312171733975305E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C121">
+        <f t="array" ref="C121:D121">_xll.BISECT(function_c,C120,D120)</f>
+        <v>1.7577148437500001</v>
+      </c>
+      <c r="D121">
+        <v>1.7578125</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="8"/>
+        <v>9.7656249999911182E-5</v>
+      </c>
+      <c r="F121">
+        <f>_xll.XLL.UDF(function_c,C121)</f>
+        <v>8.9856977481273675E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C122">
+        <f t="array" ref="C122:D122">_xll.BISECT(function_c,C121,D121)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D122">
+        <v>1.7578125</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="8"/>
+        <v>4.8828124999955591E-5</v>
+      </c>
+      <c r="F122">
+        <f>_xll.XLL.UDF(function_c,C122)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C123">
+        <f t="array" ref="C123:D123">_xll.BISECT(function_c,C122,D122)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D123">
+        <v>1.7577880859374999</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="8"/>
+        <v>2.4414062499866773E-5</v>
+      </c>
+      <c r="F123">
+        <f>_xll.XLL.UDF(function_c,C123)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C124">
+        <f t="array" ref="C124:D124">_xll.BISECT(function_c,C123,D123)</f>
+        <v>1.757763671875</v>
+      </c>
+      <c r="D124">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="8"/>
+        <v>1.2207031250044409E-5</v>
+      </c>
+      <c r="F124">
+        <f>_xll.XLL.UDF(function_c,C124)</f>
+        <v>1.3123172677205984E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C125">
+        <f t="array" ref="C125:D125">_xll.BISECT(function_c,C124,D124)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D125">
+        <v>1.7577758789062501</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="8"/>
+        <v>6.1035156249111822E-6</v>
+      </c>
+      <c r="F125">
+        <f>_xll.XLL.UDF(function_c,C125)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C126">
+        <f t="array" ref="C126:D126">_xll.BISECT(function_c,C125,D125)</f>
+        <v>1.7577697753906252</v>
+      </c>
+      <c r="D126">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="8"/>
+        <v>3.0517578124555911E-6</v>
+      </c>
+      <c r="F126">
+        <f>_xll.XLL.UDF(function_c,C126)</f>
+        <v>3.5266841822592148E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C127">
+        <f t="array" ref="C127:D127">_xll.BISECT(function_c,C126,D126)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D127">
+        <v>1.7577728271484376</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="8"/>
+        <v>1.5258789061167732E-6</v>
+      </c>
+      <c r="F127">
+        <f>_xll.XLL.UDF(function_c,C127)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C128">
+        <f t="array" ref="C128:D128">_xll.BISECT(function_c,C127,D127)</f>
+        <v>1.7577713012695315</v>
+      </c>
+      <c r="D128">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="8"/>
+        <v>7.6293945294736432E-7</v>
+      </c>
+      <c r="F128">
+        <f>_xll.XLL.UDF(function_c,C128)</f>
+        <v>1.1273965753395652E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C129">
+        <f t="array" ref="C129:D129">_xll.BISECT(function_c,C128,D128)</f>
+        <v>1.757771682739258</v>
+      </c>
+      <c r="D129">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="8"/>
+        <v>3.8146972647368216E-7</v>
+      </c>
+      <c r="F129">
+        <f>_xll.XLL.UDF(function_c,C129)</f>
+        <v>5.275643301520878E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C130">
+        <f t="array" ref="C130:D130">_xll.BISECT(function_c,C129,D129)</f>
+        <v>1.7577718734741212</v>
+      </c>
+      <c r="D130">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="8"/>
+        <v>1.9073486323684108E-7</v>
+      </c>
+      <c r="F130">
+        <f>_xll.XLL.UDF(function_c,C130)</f>
+        <v>2.2764665606997894E-6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C131">
+        <f t="array" ref="C131:D131">_xll.BISECT(function_c,C130,D130)</f>
+        <v>1.7577719688415527</v>
+      </c>
+      <c r="D131">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="8"/>
+        <v>9.5367431729442842E-8</v>
+      </c>
+      <c r="F131">
+        <f>_xll.XLL.UDF(function_c,C131)</f>
+        <v>7.7687431264962918E-7</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C132">
+        <f t="array" ref="C132:D132">_xll.BISECT(function_c,C131,D131)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D132">
+        <v>1.7577720642089845</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="8"/>
+        <v>4.7683715864721421E-8</v>
+      </c>
+      <c r="F132">
+        <f>_xll.XLL.UDF(function_c,C132)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C133">
+        <f t="array" ref="C133:D133">_xll.BISECT(function_c,C132,D132)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D133">
+        <v>1.7577720403671266</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="8"/>
+        <v>2.3841858043383013E-8</v>
+      </c>
+      <c r="F133">
+        <f>_xll.XLL.UDF(function_c,C133)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C134">
+        <f t="array" ref="C134:D134">_xll.BISECT(function_c,C133,D133)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D134">
+        <v>1.7577720284461975</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="8"/>
+        <v>1.1920928910669204E-8</v>
+      </c>
+      <c r="F134">
+        <f>_xll.XLL.UDF(function_c,C134)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C135">
+        <f t="array" ref="C135:D135">_xll.BISECT(function_c,C134,D134)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D135">
+        <v>1.7577720224857329</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="8"/>
+        <v>5.9604643443122995E-9</v>
+      </c>
+      <c r="F135">
+        <f>_xll.XLL.UDF(function_c,C135)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C136">
+        <f t="array" ref="C136:D136">_xll.BISECT(function_c,C135,D135)</f>
+        <v>1.7577720165252686</v>
+      </c>
+      <c r="D136">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="8"/>
+        <v>2.9802322831784522E-9</v>
+      </c>
+      <c r="F136">
+        <f>_xll.XLL.UDF(function_c,C136)</f>
+        <v>2.7077216546497234E-8</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C137">
+        <f t="array" ref="C137:D137">_xll.BISECT(function_c,C136,D136)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D137">
+        <v>1.7577720195055009</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="8"/>
+        <v>1.4901160305669237E-9</v>
+      </c>
+      <c r="F137">
+        <f>_xll.XLL.UDF(function_c,C137)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C138">
+        <f t="array" ref="C138:D138">_xll.BISECT(function_c,C137,D137)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D138">
+        <v>1.7577720187604429</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="8"/>
+        <v>7.4505801528346183E-10</v>
+      </c>
+      <c r="F138">
+        <f>_xll.XLL.UDF(function_c,C138)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C139">
+        <f t="array" ref="C139:D139">_xll.BISECT(function_c,C138,D138)</f>
+        <v>1.7577720180153849</v>
+      </c>
+      <c r="D139">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="8"/>
+        <v>3.7252911866403338E-10</v>
+      </c>
+      <c r="F139">
+        <f>_xll.XLL.UDF(function_c,C139)</f>
+        <v>3.6460452368526064E-9</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C140">
+        <f t="array" ref="C140:D140">_xll.BISECT(function_c,C139,D139)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D140">
+        <v>1.757772018387914</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="8"/>
+        <v>1.8626455933201669E-10</v>
+      </c>
+      <c r="F140">
+        <f>_xll.XLL.UDF(function_c,C140)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C141">
+        <f t="array" ref="C141:D141">_xll.BISECT(function_c,C140,D140)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D141">
+        <v>1.7577720182947818</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="8"/>
+        <v>9.3132390688310807E-11</v>
+      </c>
+      <c r="F141">
+        <f>_xll.XLL.UDF(function_c,C141)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C142">
+        <f t="array" ref="C142:D142">_xll.BISECT(function_c,C141,D141)</f>
+        <v>1.7577720182016494</v>
+      </c>
+      <c r="D142">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="8"/>
+        <v>4.6566084321852941E-11</v>
+      </c>
+      <c r="F142">
+        <f>_xll.XLL.UDF(function_c,C142)</f>
+        <v>7.1714900658867839E-10</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C143">
+        <f t="array" ref="C143:D143">_xll.BISECT(function_c,C142,D142)</f>
+        <v>1.7577720182249323</v>
+      </c>
+      <c r="D143">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="8"/>
+        <v>2.3283153183228933E-11</v>
+      </c>
+      <c r="F143">
+        <f>_xll.XLL.UDF(function_c,C143)</f>
+        <v>3.5104008582698413E-10</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C144">
+        <f t="array" ref="C144:D144">_xll.BISECT(function_c,C143,D143)</f>
+        <v>1.7577720182365739</v>
+      </c>
+      <c r="D144">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="8"/>
+        <v>1.1641576591614466E-11</v>
+      </c>
+      <c r="F144">
+        <f>_xll.XLL.UDF(function_c,C144)</f>
+        <v>1.6798118450377585E-10</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C145">
+        <f t="array" ref="C145:D145">_xll.BISECT(function_c,C144,D144)</f>
+        <v>1.7577720182423948</v>
+      </c>
+      <c r="D145">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="8"/>
+        <v>5.8206772735047707E-12</v>
+      </c>
+      <c r="F145">
+        <f>_xll.XLL.UDF(function_c,C145)</f>
+        <v>7.6450845651185615E-11</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C146">
+        <f t="array" ref="C146:D146">_xll.BISECT(function_c,C145,D145)</f>
+        <v>1.7577720182453052</v>
+      </c>
+      <c r="D146">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="8"/>
+        <v>2.9103386367523854E-12</v>
+      </c>
+      <c r="F146">
+        <f>_xll.XLL.UDF(function_c,C146)</f>
+        <v>3.0688340757007842E-11</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C147">
+        <f t="array" ref="C147:D147">_xll.BISECT(function_c,C146,D146)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D147">
+        <v>1.7577720182482155</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="8"/>
+        <v>1.4552803406786552E-12</v>
+      </c>
+      <c r="F147">
+        <f>_xll.XLL.UDF(function_c,C147)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C148">
+        <f t="array" ref="C148:D148">_xll.BISECT(function_c,C147,D147)</f>
+        <v>1.7577720182467602</v>
+      </c>
+      <c r="D148">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="8"/>
+        <v>7.276401703393276E-13</v>
+      </c>
+      <c r="F148">
+        <f>_xll.XLL.UDF(function_c,C148)</f>
+        <v>7.8088646659730117E-12</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C149">
+        <f t="array" ref="C149:D149">_xll.BISECT(function_c,C148,D148)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D149">
+        <v>1.7577720182474879</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="8"/>
+        <v>3.6393110747212631E-13</v>
+      </c>
+      <c r="F149">
+        <f>_xll.XLL.UDF(function_c,C149)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C150">
+        <f t="array" ref="C150:D150">_xll.BISECT(function_c,C149,D149)</f>
+        <v>1.7577720182471239</v>
+      </c>
+      <c r="D150">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="8"/>
+        <v>1.8207657603852567E-13</v>
+      </c>
+      <c r="F150">
+        <f>_xll.XLL.UDF(function_c,C150)</f>
+        <v>2.0889956431325127E-12</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C151">
+        <f t="array" ref="C151:D151">_xll.BISECT(function_c,C150,D150)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D151">
+        <v>1.757772018247306</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="8"/>
+        <v>9.1038288019262836E-14</v>
+      </c>
+      <c r="F151">
+        <f>_xll.XLL.UDF(function_c,C151)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C152">
+        <f t="array" ref="C152:D152">_xll.BISECT(function_c,C151,D151)</f>
+        <v>1.757772018247215</v>
+      </c>
+      <c r="D152">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="8"/>
+        <v>4.5519144009631418E-14</v>
+      </c>
+      <c r="F152">
+        <f>_xll.XLL.UDF(function_c,C152)</f>
+        <v>6.5902838741727573E-13</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C153">
+        <f t="array" ref="C153:D153">_xll.BISECT(function_c,C152,D152)</f>
+        <v>1.7577720182472376</v>
+      </c>
+      <c r="D153">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="8"/>
+        <v>2.2870594307278225E-14</v>
+      </c>
+      <c r="F153">
+        <f>_xll.XLL.UDF(function_c,C153)</f>
+        <v>3.0198066269799699E-13</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C154">
+        <f t="array" ref="C154:D154">_xll.BISECT(function_c,C153,D153)</f>
+        <v>1.7577720182472492</v>
+      </c>
+      <c r="D154">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="8"/>
+        <v>1.1324274851176597E-14</v>
+      </c>
+      <c r="F154">
+        <f>_xll.XLL.UDF(function_c,C154)</f>
+        <v>1.2079226507920974E-13</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C155">
+        <f t="array" ref="C155:D155">_xll.BISECT(function_c,C154,D154)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D155">
+        <v>1.7577720182472605</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="8"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+      <c r="F155">
+        <f>_xll.XLL.UDF(function_c,C155)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C156">
+        <f t="array" ref="C156:D156">_xll.BISECT(function_c,C155,D155)</f>
+        <v>1.7577720182472549</v>
+      </c>
+      <c r="D156">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="8"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+      <c r="F156">
+        <f>_xll.XLL.UDF(function_c,C156)</f>
+        <v>2.8421709430403604E-14</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C157">
+        <f t="array" ref="C157:D157">_xll.BISECT(function_c,C156,D156)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D157">
+        <v>1.7577720182472576</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f>_xll.XLL.UDF(function_c,C157)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C158">
+        <f t="array" ref="C158:D158">_xll.BISECT(function_c,C157,D157)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="D158">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f>_xll.XLL.UDF(function_c,C158)</f>
+        <v>8.8817841970012129E-15</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C159">
+        <f t="array" ref="C159:D159">_xll.BISECT(function_c,C158,D158)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D159">
+        <v>1.7577720182472569</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f>_xll.XLL.UDF(function_c,C159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C160">
+        <f t="array" ref="C160:D160">_xll.BISECT(function_c,C159,D159)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D160">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f>_xll.XLL.UDF(function_c,C160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C161">
+        <f t="array" ref="C161:D161">_xll.BISECT(function_c,C160,D160)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D161">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ref="E137:E163" si="9">D161-C161</f>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f>_xll.XLL.UDF(function_c,C161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C162">
+        <f t="array" ref="C162:D162">_xll.BISECT(function_c,C161,D161)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D162">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f>_xll.XLL.UDF(function_c,C162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C163">
+        <f t="array" ref="C163:D163">_xll.BISECT(function_c,C162,D162)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="D163">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f>_xll.XLL.UDF(function_c,C163)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xlladdins\xllfloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18421\source\repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB811-34F1-462D-A5B0-66E0DF56563B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9271A891-D3FB-4A90-8FDD-971FB3F3C65A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -96,19 +93,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,7 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -261,301 +265,301 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0101010101010102</c:v>
+                  <c:v>1.0080808080808081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0202020202020201</c:v>
+                  <c:v>1.0161616161616163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0303030303030303</c:v>
+                  <c:v>1.0242424242424242</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0323232323232323</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0404040404040404</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0505050505050506</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0606060606060606</c:v>
+                  <c:v>1.0484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0707070707070707</c:v>
+                  <c:v>1.0565656565656565</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.0646464646464646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.0808080808080809</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.101010101010101</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.0888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1.0969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1050505050505051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1131313131313132</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.1212121212121211</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1313131313131313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1414141414141414</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1515151515151516</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.1292929292929292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1373737373737374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1535353535353536</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.1616161616161615</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1717171717171717</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1818181818181819</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.191919191919192</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>1.1696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1858585858585859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1.202020202020202</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2323232323232323</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>1.2101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2262626262626264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2343434343434343</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1.2424242424242424</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2525252525252526</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2626262626262625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>1.2505050505050506</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2585858585858585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2747474747474747</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>1.2828282828282829</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2929292929292928</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.303030303030303</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3131313131313131</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3232323232323233</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3434343434343434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3535353535353536</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>1.290909090909091</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2989898989898989</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.307070707070707</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3232323232323231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3313131313131312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3474747474747475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1.3636363636363638</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3737373737373737</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3838383838383839</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
+                  <c:v>1.3717171717171717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3797979797979798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3878787878787879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3959595959595958</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1.404040404040404</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4141414141414141</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4242424242424243</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4343434343434343</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>1.4121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4202020202020202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4282828282828284</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1.4444444444444444</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4646464646464648</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4747474747474749</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
+                  <c:v>1.4525252525252526</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4606060606060607</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4686868686868686</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4767676767676767</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1.4848484848484849</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.494949494949495</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5050505050505052</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5151515151515151</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>1.492929292929293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5010101010101011</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.509090909090909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5171717171717172</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1.5252525252525253</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5353535353535355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5454545454545454</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
+                  <c:v>1.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5414141414141413</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5494949494949495</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>1.5656565656565657</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5757575757575757</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5858585858585859</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.595959595959596</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
+                  <c:v>1.5737373737373739</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5898989898989899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5979797979797978</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1.606060606060606</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.6161616161616164</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6262626262626263</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6464646464646466</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6565656565656566</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.6767676767676769</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="76">
+                  <c:v>1.6141414141414141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6303030303030304</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6383838383838385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6626262626262627</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6707070707070706</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.6868686868686869</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7070707070707072</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7171717171717171</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
+                  <c:v>1.694949494949495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7191919191919192</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1.7272727272727273</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7373737373737375</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7474747474747474</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7575757575757578</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="91">
+                  <c:v>1.7353535353535352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7434343434343433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7595959595959596</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1.7676767676767677</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.7777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.7878787878787881</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.797979797979798</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8080808080808082</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8282828282828283</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.8383838383838385</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.8484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.8585858585858586</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.8686868686868687</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8787878787878789</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.8888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.8989898989898992</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.9191919191919191</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.9292929292929295</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.9393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.9494949494949496</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9595959595959598</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9696969696969697</c:v>
+                  <c:v>1.7757575757575759</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9797979797979799</c:v>
+                  <c:v>1.783838383838384</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9898989898989901</c:v>
+                  <c:v>1.7919191919191919</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,301 +574,301 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0195857049208437</c:v>
+                  <c:v>4.0157677044525721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.037922164594459</c:v>
+                  <c:v>4.0307390915604575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0549842696098644</c:v>
+                  <c:v>4.0449013436814081</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4.0582415408367138</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4.0707466607111975</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0851837287977073</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0982696149237601</c:v>
+                  <c:v>4.0824035786532153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1099782102988325</c:v>
+                  <c:v>4.0931990676746617</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4.1031197984509635</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.112152339321085</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.1202831562875222</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1291578444095345</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1365754163396948</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1425087639079408</c:v>
+                  <c:v>4.1274986130163089</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>4.133784970837012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1391283887427353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1435149233901152</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4.1469305290993246</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1498131040540134</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.151128631067289</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.150849002589549</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>4.1493610578540707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.150792259301598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1512097807526809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1505991671816336</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.1489458612263022</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1453905997381773</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1401543610409126</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.133208038205364</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>4.1462352031880698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1424524310318542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1375826803861067</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1316109845428155</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4.124522274457501</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.114067463178408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1018137479042824</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.0877310223264409</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>4.1163013787492204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1069330237005666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0964018332576666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0846923290301831</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.0717889302913104</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.0539568658004317</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.0342039730104648</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0124991462331812</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>4.0576759539777818</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0423376146898633</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.025758024691358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0079211939096027</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3.9888110299354667</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9631080187393248</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9353582574218695</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9055296409153311</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8735898143070564</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.8395061728395046</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.8032458619102529</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7647757770719856</c:v>
-                </c:pt>
                 <c:pt idx="36">
+                  <c:v>3.9684113380233583</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9467058210912196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.923678079720526</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8993116121562892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8735898143070582</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8464959797449083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8180132997054601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7881248630878659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.756813656454808</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>3.7240625640325113</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6810726186547456</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.6357720869567212</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5881268651115867</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
+                  <c:v>3.6898543677107307</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6541717470427555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6169972792454139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5783134391990661</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>3.5381025994476083</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.485664686448156</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.4307782727517271</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.373408255151924</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
+                  <c:v>3.4963470301984705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4530288993226197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4081302723545557</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3616331124923162</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>3.31351928059747</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.2510757461921989</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1860417991950643</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1183813370201268</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
+                  <c:v>3.2637705351951229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2123685324739162</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1592948262860281</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1045308681471617</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>3.0480580072365706</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9750352075686841</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8992760858958793</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8207435402526801</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>2.9898574903970285</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9299104621348571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8681979646199043</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8047009376855527</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>2.7394002188287248</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6552085199687632</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5681305921726674</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4781283340954126</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
+                  <c:v>2.6722765432098772</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6033105436529977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5324827506456122</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4597735923387809</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>2.3851633945470994</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2891971724929396</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.1901908170532591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.0881052275034948</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
+                  <c:v>2.3086323807486968</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2301606720852396</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1497282873619259</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0673151430474928</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1.9829010532742082</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.8745386939510595</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7629782992748426</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6481797691414508</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5301027536018985</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.4087066528623202</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.2839506172839492</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1557935473831495</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="76">
+                  <c:v>1.8964657298378738</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8079887821978362</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7174497174769634</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6248279404616719</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.530102753601903</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4332533570111332</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3342588484663809</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.233098223408196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1297503749406586</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.024194093831392</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.88911065745525875</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.75050138923645626</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.60832419031180507</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
+                  <c:v>0.91640806851154721</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.80637088507581822</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6940610272824248</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.57945687655313094</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0.46253671197322532</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.31309635566776883</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.15996027299759596</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.0853657199720885E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="91">
+                  <c:v>0.34327871029154267</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.22166094592044239</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.7661390935821046E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.8742084922878774E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>-0.15757171425269867</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.32205456485291784</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.4904070338580766</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.66267321889042563</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.83889746741713189</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-1.0191243767502254</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-1.2033987940466258</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.3917658163081494</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-1.5842707903814865</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.7809593129582115</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-1.9818772305747974</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-2.1870706396125907</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.3965858862978209</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.6104695667016209</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2.828768526739978</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-3.0515298621737958</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.2788009186088587</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-3.5106292914958086</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-3.7470628261302092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-3.9881496176524873</c:v>
-                </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.2339380110479539</c:v>
+                  <c:v>-0.28884983198712355</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-4.4844766011468256</c:v>
+                  <c:v>-0.42259887539612428</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.7398142326241839</c:v>
+                  <c:v>-0.55884138408611506</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>-0.69759999999999955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1611889647"/>
@@ -1004,7 +1008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1620144863"/>
@@ -1052,7 +1056,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1960,27 +1964,27 @@
   <dimension ref="B2:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" cm="1">
+      <c r="C2" s="4">
         <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1412235196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-401145747</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1995,29 +1999,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>-0.69759999999999955</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xll.ARRAY.SET(_xll.ARRAY.INTERVAL($C$3,$C$4,100))</f>
-        <v>-412506</v>
+        <v>-8</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">_xll.ARRAY.SET(_xll.ARRAY.APPLY(function,_xll.ARRAY.GET(N5)))</f>
-        <v>-412316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2044,860 +2048,1452 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:D7">_xll.BISECT(function,C3,C4)</f>
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.5</v>
+        <v>0.40000000000000013</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
-        <v>2.9375</v>
+        <v>3.5583999999999989</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSEPOSITION(function,C3,C4)</f>
+        <v>1.6811989100817439</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.11880108991825611</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+        <v>1.0984881860139231</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" cm="1">
         <f t="array" ref="C8:D8">_xll.BISECT(function,C7,D7)</f>
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.25</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.0464000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8:J8">_xll.FALSEPOSITION(function,I7,J7)</f>
+        <v>1.7538576997653428</v>
+      </c>
+      <c r="J8">
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K9" si="1">J8-I8</f>
+        <v>4.6142300234657263E-2</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>6.1266653835719609E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" cm="1">
         <f t="array" ref="C9:D9">_xll.BISECT(function,C8,D8)</f>
-        <v>1.75</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+        <v>0.84789999999999743</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9:J9">_xll.FALSEPOSITION(function,I8,J8)</f>
+        <v>1.7575829712888331</v>
+      </c>
+      <c r="J9">
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4.2417028711166926E-2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>2.9719859898218459E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
         <v>1.75</v>
       </c>
       <c r="D10">
-        <v>1.8125</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f t="array" ref="I10:J10">_xll.FALSEPOSITION(function,I9,J9)</f>
+        <v>1.7577629139893414</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K46" si="2">J10-I10</f>
+        <v>4.2237086010658675E-2</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>1.4315738406622813E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
         <v>1.75</v>
       </c>
       <c r="D11">
-        <v>1.78125</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f t="array" ref="I11:J11">_xll.FALSEPOSITION(function,I10,J10)</f>
+        <v>1.7577715798582645</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4.2228420141735556E-2</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>6.8933968169204718E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
         <v>1.75</v>
       </c>
       <c r="D12">
-        <v>1.765625</v>
+        <v>1.7625</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f t="array" ref="I12:J12">_xll.FALSEPOSITION(function,I11,J11)</f>
+        <v>1.757771997138053</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4.2228002861947056E-2</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>3.3192938708737074E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D13">
-        <v>1.7578125</v>
+        <v>1.7625</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>6.2499999999998668E-3</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>0.12109375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I13">
+        <f t="array" ref="I13:J13">_xll.FALSEPOSITION(function,I12,J12)</f>
+        <v>1.7577720172308116</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>4.2227982769188488E-2</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>1.5982983825324482E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.75390625</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D14">
-        <v>1.7578125</v>
+        <v>1.7593749999999999</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>3.1249999999998224E-3</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>6.0510217910632491E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I14">
+        <f t="array" ref="I14:J14">_xll.FALSEPOSITION(function,I13,J13)</f>
+        <v>1.7577720181983132</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>4.2227981801686854E-2</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>7.6960837702699791E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.755859375</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D15">
         <v>1.7578125</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>1.5624999999999112E-3</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>3.0007383538759314E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+        <v>2.3889891052245815E-2</v>
+      </c>
+      <c r="I15">
+        <f t="array" ref="I15:J15">_xll.FALSEPOSITION(function,I14,J14)</f>
+        <v>1.7577720182449001</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>4.2227981755099897E-2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>3.7056580026728625E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.7568359375</v>
+        <v>1.75703125</v>
       </c>
       <c r="D16">
         <v>1.7578125</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>7.8124999999995559E-4</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>1.4703062041917292E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1637960373983347E-2</v>
+      </c>
+      <c r="I16">
+        <f t="array" ref="I16:J16">_xll.FALSEPOSITION(function,I15,J15)</f>
+        <v>1.7577720182471432</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>4.2227981752856802E-2</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>1.7852386235972517E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.75732421875</v>
+        <v>1.7574218749999999</v>
       </c>
       <c r="D17">
         <v>1.7578125</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>3.9062500000008882E-4</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>7.0376580442257364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.5035171564448149E-3</v>
+      </c>
+      <c r="I17">
+        <f t="array" ref="I17:J17">_xll.FALSEPOSITION(function,I16,J16)</f>
+        <v>1.7577720182472514</v>
+      </c>
+      <c r="J17">
+        <v>1.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>4.2227981752748667E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>8.3488771451811772E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.757568359375</v>
+        <v>1.7576171875</v>
       </c>
       <c r="D18">
         <v>1.7578125</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>1.9531250000004441E-4</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>3.2016430855001943E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.434174978406034E-3</v>
+      </c>
+      <c r="I18">
+        <f t="array" ref="I18:J18">_xll.FALSEPOSITION(function,I17,J17)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J18">
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>4.222798175274356E-2</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.7576904296875</v>
+        <v>1.7577148437500001</v>
       </c>
       <c r="D19">
         <v>1.7578125</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>9.7656249999911182E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>1.2828070976524941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.9897360958168804E-4</v>
+      </c>
+      <c r="I19">
+        <f t="array" ref="I19:J19">_xll.FALSEPOSITION(function,I18,J18)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J19">
+        <v>1.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D20">
         <v>1.7578125</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>4.8828124999955591E-5</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I20">
+        <f t="array" ref="I20:J20">_xll.FALSEPOSITION(function,I19,J19)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J20">
+        <v>1.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>1.7577880859374999</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>2.4414062499866773E-5</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>3.2318194303826431E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I21">
+        <f t="array" ref="I21:J21">_xll.FALSEPOSITION(function,I20,J20)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J21">
+        <v>1.8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D22">
-        <v>1.757781982421875</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>1.2207031250044409E-5</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.3124033803180168E-4</v>
+      </c>
+      <c r="I22">
+        <f t="array" ref="I22:J22">_xll.FALSEPOSITION(function,I21,J21)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J22">
+        <v>1.8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>6.1035156249111822E-6</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>8.3254073523164607E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I23">
+        <f t="array" ref="I23:J23">_xll.FALSEPOSITION(function,I22,J22)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J23">
+        <v>1.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D24">
-        <v>1.7577743530273438</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>3.0517578124555911E-6</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.5267463704968804E-5</v>
+      </c>
+      <c r="I24">
+        <f t="array" ref="I24:J24">_xll.FALSEPOSITION(function,I23,J23)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J24">
+        <v>1.8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>1.5258789061167732E-6</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>2.3270757298021749E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I25">
+        <f t="array" ref="I25:J25">_xll.FALSEPOSITION(function,I24,J24)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J25">
+        <v>1.8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
-        <v>1.7577714920043945</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>7.6293945294736432E-7</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
-        <v>8.2748439389490613E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.1274029304786382E-5</v>
+      </c>
+      <c r="I26">
+        <f t="array" ref="I26:J26">_xll.FALSEPOSITION(function,I25,J25)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J26">
+        <v>1.8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>1.757771682739258</v>
       </c>
       <c r="D27">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>3.8146972647368216E-7</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+        <v>5.2756572177514727E-6</v>
+      </c>
+      <c r="I27">
+        <f t="array" ref="I27:J27">_xll.FALSEPOSITION(function,I26,J26)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J27">
+        <v>1.8</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577718734741212</v>
       </c>
       <c r="D28">
-        <v>1.7577722072601318</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>1.9073486323684108E-7</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.2764691518517566E-6</v>
+      </c>
+      <c r="I28">
+        <f t="array" ref="I28:J28">_xll.FALSEPOSITION(function,I27,J27)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J28">
+        <v>1.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
       </c>
       <c r="D29">
-        <v>1.7577720880508423</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>9.5367431729442842E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="array" ref="I29:J29">_xll.FALSEPOSITION(function,I28,J28)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J29">
+        <v>1.8</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>4.7683715864721421E-8</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>7.7687461441655614E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I30">
+        <f t="array" ref="I30:J30">_xll.FALSEPOSITION(function,I29,J29)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J30">
+        <v>1.8</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577719986438751</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>1.7577720403671266</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>2.3841858043383013E-8</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>3.0825125207911697E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I31">
+        <f t="array" ref="I31:J31">_xll.FALSEPOSITION(function,I30,J30)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J31">
+        <v>1.8</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D32">
         <v>1.7577720284461975</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>1.1920928910669204E-8</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I32">
+        <f t="array" ref="I32:J32">_xll.FALSEPOSITION(function,I31,J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>1.8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>1.7577720224857329</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>5.9604643443122995E-9</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>7.3939558475899503E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I33">
+        <f t="array" ref="I33:J33">_xll.FALSEPOSITION(function,I32,J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>1.8</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D34">
-        <v>1.7577720209956169</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>2.9802322831784522E-9</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.7077216913085067E-8</v>
+      </c>
+      <c r="I34">
+        <f t="array" ref="I34:J34">_xll.FALSEPOSITION(function,I33,J33)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J34">
+        <v>1.8</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>1.4901160305669237E-9</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>1.5361633742827507E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I35">
+        <f t="array" ref="I35:J35">_xll.FALSEPOSITION(function,I34,J34)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J35">
+        <v>1.8</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D36">
-        <v>1.7577720191329718</v>
+        <v>1.7577720187604429</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>7.4505801528346183E-10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I36">
+        <f t="array" ref="I36:J36">_xll.FALSEPOSITION(function,I35,J35)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J36">
+        <v>1.8</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D37">
-        <v>1.7577720186673105</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>3.7252911866403338E-10</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.6460452434994295E-9</v>
+      </c>
+      <c r="I37">
+        <f t="array" ref="I37:J37">_xll.FALSEPOSITION(function,I36,J36)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J37">
+        <v>1.8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D38">
-        <v>1.7577720184344798</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>1.8626455933201669E-10</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I38">
+        <f t="array" ref="I38:J38">_xll.FALSEPOSITION(function,I37,J37)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J38">
+        <v>1.8</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D39">
-        <v>1.7577720183180645</v>
+        <v>1.7577720182947818</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>9.3132390688310807E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I39">
+        <f t="array" ref="I39:J39">_xll.FALSEPOSITION(function,I38,J38)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J39">
+        <v>1.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>4.6566084321852941E-11</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>7.1715255955950852E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.1714900684582972E-10</v>
+      </c>
+      <c r="I40">
+        <f t="array" ref="I40:J40">_xll.FALSEPOSITION(function,I39,J39)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J40">
+        <v>1.8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.757772018230753</v>
+        <v>1.7577720182249323</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>2.3283153183228933E-11</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>2.5951152338166139E-10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.510400858885987E-10</v>
+      </c>
+      <c r="I41">
+        <f t="array" ref="I41:J41">_xll.FALSEPOSITION(function,I40,J40)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J41">
+        <v>1.8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182365739</v>
       </c>
       <c r="D42">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>1.1641576591614466E-11</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.6798118451788469E-10</v>
+      </c>
+      <c r="I42">
+        <f t="array" ref="I42:J42">_xll.FALSEPOSITION(function,I41,J41)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J42">
+        <v>1.8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182423948</v>
       </c>
       <c r="D43">
-        <v>1.7577720182525809</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>5.8206772735047707E-12</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.6450845654107979E-11</v>
+      </c>
+      <c r="I43">
+        <f t="array" ref="I43:J43">_xll.FALSEPOSITION(function,I42,J42)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J43">
+        <v>1.8</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182453052</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>2.9103386367523854E-12</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
-        <v>3.0691893471157528E-11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
+        <v>3.0688340757478727E-11</v>
+      </c>
+      <c r="I44">
+        <f t="array" ref="I44:J44">_xll.FALSEPOSITION(function,I43,J43)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J44">
+        <v>1.8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D45">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>1.4552803406786552E-12</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I45">
+        <f t="array" ref="I45:J45">_xll.FALSEPOSITION(function,I44,J44)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J45">
+        <v>1.8</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D46">
-        <v>1.7577720182480334</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>7.276401703393276E-13</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
+        <v>7.808864666003501E-12</v>
+      </c>
+      <c r="I46">
+        <f t="array" ref="I46:J46">_xll.FALSEPOSITION(function,I45,J45)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J46">
+        <v>1.8</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>4.2227981752743338E-2</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D47">
-        <v>1.7577720182475787</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>3.6393110747212631E-13</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182471239</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>1.8207657603852567E-13</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>2.0889956431346945E-12</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D49">
-        <v>1.7577720182473513</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>9.1038288019262836E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D50">
-        <v>1.7577720182472945</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>4.5519144009631418E-14</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+        <v>6.5902838741749292E-13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472376</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>2.2870594307278225E-14</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>3.0198066269804258E-13</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472492</v>
       </c>
       <c r="D52">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>1.1324274851176597E-14</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+        <v>1.2079226507921703E-13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>7.815970093361102E-14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>2.6645352591003757E-15</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+        <v>2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>0</v>
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+        <v>8.8817841970012523E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472563</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -2908,13 +3504,13 @@
         <v>8.8817841970012523E-15</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="D57">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -2926,6 +3522,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C5444-FA01-4DE1-9022-3168FF236A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D73145-7C6C-4833-9CA7-9512912F12E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f t="array" ref="C2">_xll.KAHAN.A</f>
-        <v>-1993473979</v>
+        <v>-1993473978</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -579,13 +579,20 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I7">
+        <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function, C3, C4)</f>
+        <v>1.6850393700787401</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0</v>
+        <v>0.31496062992125995</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>-1</v>
+        <v>1.048284192792579</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -604,6 +611,21 @@
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function, I7, J7)</f>
+        <v>1.7396281161055709</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>J8-I8</f>
+        <v>0.26037188389442911</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
+        <v>0.27924079785618261</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" cm="1">
@@ -621,6 +643,21 @@
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function, I8, J8)</f>
+        <v>1.7534002578551047</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K13" si="1">J9-I9</f>
+        <v>0.24659974214489533</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
+        <v>6.8389546817329006E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" cm="1">
@@ -638,6 +675,21 @@
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function, I9, J9)</f>
+        <v>1.7567277141318522</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.24327228586814775</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
+        <v>1.6400837690360603E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" cm="1">
@@ -655,6 +707,21 @@
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function, I10, J10)</f>
+        <v>1.7575230790566625</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.2424769209433375</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
+        <v>3.9132686861655941E-3</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" cm="1">
@@ -672,6 +739,21 @@
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
         <v>0.12109375</v>
       </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function, I11, J11)</f>
+        <v>1.7577127061127076</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.24228729388729242</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
+        <v>9.3258204033652703E-4</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" cm="1">
@@ -689,6 +771,21 @@
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
         <v>6.0510217910632491E-2</v>
       </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function, I12, J12)</f>
+        <v>1.7577578882412754</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.24224211175872457</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
+        <v>2.2218205221236076E-4</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" cm="1">
@@ -706,6 +803,21 @@
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
         <v>3.0007383538759314E-2</v>
       </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function, I13, J13)</f>
+        <v>1.7577686521328715</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K59" si="2">J14-I14</f>
+        <v>0.24223134786712852</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
+        <v>5.292989218474986E-5</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" cm="1">
@@ -723,6 +835,21 @@
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
         <v>1.4703062041917292E-2</v>
       </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function, I14, J14)</f>
+        <v>1.757771216361552</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0.24222878363844802</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
+        <v>1.2609153271725404E-5</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" cm="1">
@@ -740,8 +867,23 @@
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
         <v>7.0376580442257364E-3</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I16" cm="1">
+        <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function, I15, J15)</f>
+        <v>1.7577718272199834</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.24222817278001663</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
+        <v>3.0037870608623507E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
         <v>1.757568359375</v>
@@ -757,8 +899,23 @@
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
         <v>3.2016430855001943E-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I17" cm="1">
+        <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function, I16, J16)</f>
+        <v>1.7577719727402663</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.24222802725973369</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
+        <v>7.1556972081054937E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
         <v>1.7576904296875</v>
@@ -774,8 +931,23 @@
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
         <v>1.2828070976524941E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I18" cm="1">
+        <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function, I17, J17)</f>
+        <v>1.7577720074064698</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0.24222799259353023</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
+        <v>1.7046478362203743E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
         <v>1.75775146484375</v>
@@ -791,8 +963,23 @@
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I19" cm="1">
+        <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function, I18, J18)</f>
+        <v>1.7577720156647378</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0.24222798433526216</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
+        <v>4.060854053022922E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
         <v>1.75775146484375</v>
@@ -808,8 +995,23 @@
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
         <v>3.2318194303826431E-4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I20" cm="1">
+        <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function, I19, J19)</f>
+        <v>1.7577720176320426</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0.2422279823679574</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
+        <v>9.6738688171171816E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
         <v>1.7577667236328125</v>
@@ -825,8 +1027,23 @@
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I21" cm="1">
+        <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function, I20, J20)</f>
+        <v>1.7577720181006991</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.24222798189930095</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
+        <v>2.3045316766001633E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
         <v>1.7577667236328125</v>
@@ -842,8 +1059,23 @@
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
         <v>8.3254073523164607E-5</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I22" cm="1">
+        <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function, I21, J21)</f>
+        <v>1.7577720182123435</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0.24222798178765648</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
+        <v>5.4899018664400501E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
         <v>1.7577705383300781</v>
@@ -859,8 +1091,23 @@
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I23" cm="1">
+        <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function, I22, J22)</f>
+        <v>1.7577720182389398</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0.2422279817610602</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
+        <v>1.3077894323032524E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
         <v>1.7577705383300781</v>
@@ -876,8 +1123,23 @@
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
         <v>2.3270757298021749E-5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I24" cm="1">
+        <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function, I23, J23)</f>
+        <v>1.7577720182452756</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0.24222798175472438</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
+        <v>3.1151969892562192E-11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
         <v>1.7577714920043945</v>
@@ -893,8 +1155,23 @@
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
         <v>8.2748439389490613E-6</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I25" cm="1">
+        <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function, I24, J24)</f>
+        <v>1.7577720182467851</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0.24222798175321492</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
+        <v>7.4180661613354459E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" cm="1">
         <f t="array" ref="C26:D26">_xll.BISECT(function,C25,D25)</f>
         <v>1.7577719688415527</v>
@@ -910,8 +1187,23 @@
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I26" cm="1">
+        <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function, I25, J25)</f>
+        <v>1.7577720182471444</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.24222798175285565</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
+        <v>1.7674750552032492E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
         <v>1.7577719688415527</v>
@@ -927,8 +1219,23 @@
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I27" cm="1">
+        <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function, I26, J26)</f>
+        <v>1.7577720182472301</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0.24222798175276994</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
+        <v>4.1922021409845911E-13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
         <v>1.7577719688415527</v>
@@ -944,8 +1251,23 @@
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I28" cm="1">
+        <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function, I27, J27)</f>
+        <v>1.7577720182472505</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0.24222798175274951</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
+        <v>9.9475983006414026E-14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
         <v>1.7577719688415527</v>
@@ -961,8 +1283,23 @@
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
         <v>7.7687461441655614E-7</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I29" cm="1">
+        <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function, I28, J28)</f>
+        <v>1.7577720182472552</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.24222798175274485</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
+        <v>2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
         <v>1.7577719986438751</v>
@@ -978,8 +1315,23 @@
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
         <v>3.0825125207911697E-7</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I30" cm="1">
+        <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function, I29, J29)</f>
+        <v>1.7577720182472563</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.24222798175274374</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
+        <v>8.8817841970012523E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
         <v>1.7577720135450363</v>
@@ -995,8 +1347,23 @@
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I31" cm="1">
+        <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function, I30, J30)</f>
+        <v>1.7577720182472565</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0.24222798175274352</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
         <v>1.7577720135450363</v>
@@ -1012,8 +1379,23 @@
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
         <v>7.3939558475899503E-8</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I32" cm="1">
+        <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function, I31, J31)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0.24222798175274329</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
         <v>1.7577720172703266</v>
@@ -1029,8 +1411,23 @@
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I33" cm="1">
+        <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function, I32, J32)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J33">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.XLL.UDF(function,I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
         <v>1.7577720172703266</v>
@@ -1046,8 +1443,23 @@
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
         <v>1.5361633742827507E-8</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I34" cm="1">
+        <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function, I33, J33)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J34">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.XLL.UDF(function,I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
         <v>1.7577720182016492</v>
@@ -1063,8 +1475,23 @@
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I35" cm="1">
+        <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function, I34, J34)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J35">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.XLL.UDF(function,I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
         <v>1.7577720182016492</v>
@@ -1080,8 +1507,23 @@
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I36" cm="1">
+        <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function, I35, J35)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J36">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.XLL.UDF(function,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
         <v>1.7577720182016492</v>
@@ -1097,8 +1539,23 @@
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I37" cm="1">
+        <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function, I36, J36)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J37">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.XLL.UDF(function,I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
         <v>1.7577720182016492</v>
@@ -1114,8 +1571,23 @@
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I38" cm="1">
+        <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function, I37, J37)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J38">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.XLL.UDF(function,I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
         <v>1.7577720182016492</v>
@@ -1131,8 +1603,23 @@
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
         <v>7.1715255955950852E-10</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I39" cm="1">
+        <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function, I38, J38)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J39">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.XLL.UDF(function,I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
         <v>1.757772018230753</v>
@@ -1148,8 +1635,23 @@
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
         <v>2.5951152338166139E-10</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I40" cm="1">
+        <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function, I39, J39)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J40">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.XLL.UDF(function,I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
         <v>1.7577720182453049</v>
@@ -1165,8 +1667,23 @@
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I41" cm="1">
+        <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function, I40, J40)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J41">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.XLL.UDF(function,I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
         <v>1.7577720182453049</v>
@@ -1182,8 +1699,23 @@
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I42" cm="1">
+        <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function, I41, J41)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J42">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.XLL.UDF(function,I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
         <v>1.7577720182453049</v>
@@ -1199,8 +1731,23 @@
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
         <v>3.0691893471157528E-11</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I43" cm="1">
+        <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function, I42, J42)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J43">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.XLL.UDF(function,I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" cm="1">
         <f t="array" ref="C44:D44">_xll.BISECT(function,C43,D43)</f>
         <v>1.7577720182471239</v>
@@ -1216,8 +1763,23 @@
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I44" cm="1">
+        <f t="array" ref="I44:J44">_xll.FALSE.POSITION(function, I43, J43)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J44">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.XLL.UDF(function,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" cm="1">
         <f t="array" ref="C45:D45">_xll.BISECT(function,C44,D44)</f>
         <v>1.7577720182471239</v>
@@ -1233,8 +1795,23 @@
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I45" cm="1">
+        <f t="array" ref="I45:J45">_xll.FALSE.POSITION(function, I44, J44)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J45">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.XLL.UDF(function,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
         <v>1.7577720182471239</v>
@@ -1250,8 +1827,23 @@
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I46" cm="1">
+        <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function, I45, J45)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J46">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.XLL.UDF(function,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
         <v>1.7577720182471239</v>
@@ -1267,8 +1859,23 @@
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
         <v>2.0889956431346945E-12</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I47" cm="1">
+        <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function, I46, J46)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J47">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.XLL.UDF(function,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" cm="1">
         <f t="array" ref="C48:D48">_xll.BISECT(function,C47,D47)</f>
         <v>1.7577720182472376</v>
@@ -1284,8 +1891,23 @@
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I48" cm="1">
+        <f t="array" ref="I48:J48">_xll.FALSE.POSITION(function, I47, J47)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J48">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.XLL.UDF(function,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
         <v>1.7577720182472376</v>
@@ -1301,8 +1923,23 @@
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I49" cm="1">
+        <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function, I48, J48)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J49">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.XLL.UDF(function,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
         <v>1.7577720182472376</v>
@@ -1318,8 +1955,23 @@
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
         <v>3.0198066269804258E-13</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I50" cm="1">
+        <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function, I49, J49)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J50">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.XLL.UDF(function,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
         <v>1.7577720182472518</v>
@@ -1335,8 +1987,23 @@
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I51" cm="1">
+        <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function, I50, J50)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J51">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.XLL.UDF(function,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
         <v>1.7577720182472518</v>
@@ -1352,8 +2019,23 @@
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
         <v>7.815970093361102E-14</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I52" cm="1">
+        <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function, I51, J51)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J52">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.XLL.UDF(function,I52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
         <v>1.7577720182472554</v>
@@ -1369,8 +2051,23 @@
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I53" cm="1">
+        <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function, I52, J52)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J53">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.XLL.UDF(function,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
         <v>1.7577720182472554</v>
@@ -1386,8 +2083,23 @@
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I54" cm="1">
+        <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function, I53, J53)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J54">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.XLL.UDF(function,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
         <v>1.7577720182472563</v>
@@ -1403,8 +2115,23 @@
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
         <v>8.8817841970012523E-15</v>
       </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I55" cm="1">
+        <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function, I54, J54)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J55">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.XLL.UDF(function,I55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" cm="1">
         <f t="array" ref="C56:D56">_xll.BISECT(function,C55,D55)</f>
         <v>1.7577720182472567</v>
@@ -1420,8 +2147,23 @@
         <f t="array" ref="F56">_xll.XLL.UDF(function,C56)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I56" cm="1">
+        <f t="array" ref="I56:J56">_xll.FALSE.POSITION(function, I55, J55)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J56">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.XLL.UDF(function,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" cm="1">
         <f t="array" ref="C57:D57">_xll.BISECT(function,C56,D56)</f>
         <v>1.7577720182472567</v>
@@ -1435,6 +2177,55 @@
       </c>
       <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.XLL.UDF(function,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" cm="1">
+        <f t="array" ref="I57:J57">_xll.FALSE.POSITION(function, I56, J56)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J57">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.XLL.UDF(function,I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I58" cm="1">
+        <f t="array" ref="I58:J58">_xll.FALSE.POSITION(function, I57, J57)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J58">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" cm="1">
+        <f t="array" ref="L58">_xll.XLL.UDF(function,I58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I59" cm="1">
+        <f t="array" ref="I59:J59">_xll.FALSE.POSITION(function, I58, J58)</f>
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="J59">
+        <v>1.7577720182472567</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59" cm="1">
+        <f t="array" ref="L59">_xll.XLL.UDF(function,I59)</f>
         <v>0</v>
       </c>
     </row>

--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\xllfloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D73145-7C6C-4833-9CA7-9512912F12E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA8CAA-91D4-4E66-9E47-96775B79CA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C1C8244-EF68-49EF-BEC5-ED8ACE692021}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -482,14 +482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2213F5-DEFB-4BA9-A6D0-BFA81AA70A6B}">
   <dimension ref="B2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="13" max="13" width="3.5703125" customWidth="1"/>
   </cols>
@@ -508,11 +508,11 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xll.XLL.UDF(function,C3)</f>
-        <v>2.9375</v>
+        <v>0.84790000000000099</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -520,11 +520,11 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">_xll.XLL.UDF(function,C4)</f>
-        <v>-5</v>
+        <v>-0.69759999999999955</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -566,11 +566,11 @@
         <v>1.75</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E7">
         <f>D7-C7</f>
-        <v>0.25</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.XLL.UDF(function,C7)</f>
@@ -581,18 +581,18 @@
       </c>
       <c r="I7">
         <f t="array" ref="I7:J7">_xll.FALSE.POSITION(function, C3, C4)</f>
-        <v>1.6850393700787401</v>
+        <v>1.7548625040439989</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K7">
         <f>J7-I7</f>
-        <v>0.31496062992125995</v>
+        <v>4.5137495956001139E-2</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">_xll.XLL.UDF(function,I7)</f>
-        <v>1.048284192792579</v>
+        <v>4.5593580980270332E-2</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -601,11 +601,11 @@
         <v>1.75</v>
       </c>
       <c r="D8">
-        <v>1.875</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E57" si="0">D8-C8</f>
-        <v>0.125</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.XLL.UDF(function,C8)</f>
@@ -613,18 +613,18 @@
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8:J8">_xll.FALSE.POSITION(function, I7, J7)</f>
-        <v>1.7396281161055709</v>
+        <v>1.7576316077200589</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K8">
         <f>J8-I8</f>
-        <v>0.26037188389442911</v>
+        <v>4.2368392279941158E-2</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">_xll.XLL.UDF(function,I8)</f>
-        <v>0.27924079785618261</v>
+        <v>2.2075047052378949E-3</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -633,11 +633,11 @@
         <v>1.75</v>
       </c>
       <c r="D9">
-        <v>1.8125</v>
+        <v>1.7625</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>1.2499999999999956E-2</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.XLL.UDF(function,C9)</f>
@@ -645,530 +645,530 @@
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9:J9">_xll.FALSE.POSITION(function, I8, J8)</f>
-        <v>1.7534002578551047</v>
+        <v>1.7577652565087363</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K13" si="1">J9-I9</f>
-        <v>0.24659974214489533</v>
+        <v>4.2234743491263771E-2</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" ref="L9">_xll.XLL.UDF(function,I9)</f>
-        <v>6.8389546817329006E-2</v>
+        <v>1.0632337975380324E-4</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" cm="1">
         <f t="array" ref="C10:D10">_xll.BISECT(function,C9,D9)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D10">
-        <v>1.78125</v>
+        <v>1.7625</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.2499999999998668E-3</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.XLL.UDF(function,C10)</f>
-        <v>0.12109375</v>
+        <v>2.3889891052245815E-2</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10:J10">_xll.FALSE.POSITION(function, I9, J9)</f>
-        <v>1.7567277141318522</v>
+        <v>1.7577716926560387</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.24327228586814775</v>
+        <v>4.2228307343961324E-2</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">_xll.XLL.UDF(function,I10)</f>
-        <v>1.6400837690360603E-2</v>
+        <v>5.1197219903542646E-6</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" cm="1">
         <f t="array" ref="C11:D11">_xll.BISECT(function,C10,D10)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D11">
-        <v>1.765625</v>
+        <v>1.7593749999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>3.1249999999998224E-3</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.XLL.UDF(function,C11)</f>
-        <v>0.12109375</v>
+        <v>2.3889891052245815E-2</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11:J11">_xll.FALSE.POSITION(function, I10, J10)</f>
-        <v>1.7575230790566625</v>
+        <v>1.7577720025694661</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.2424769209433375</v>
+        <v>4.2227997430533959E-2</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">_xll.XLL.UDF(function,I11)</f>
-        <v>3.9132686861655941E-3</v>
+        <v>2.4652372410116641E-7</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" cm="1">
         <f t="array" ref="C12:D12">_xll.BISECT(function,C11,D11)</f>
-        <v>1.75</v>
+        <v>1.7562500000000001</v>
       </c>
       <c r="D12">
         <v>1.7578125</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
+        <v>1.5624999999999112E-3</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.XLL.UDF(function,C12)</f>
-        <v>0.12109375</v>
+        <v>2.3889891052245815E-2</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12:J12">_xll.FALSE.POSITION(function, I11, J11)</f>
-        <v>1.7577127061127076</v>
+        <v>1.7577720174923439</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.24228729388729242</v>
+        <v>4.2227982507656137E-2</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">_xll.XLL.UDF(function,I12)</f>
-        <v>9.3258204033652703E-4</v>
+        <v>1.1870547211856319E-8</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" cm="1">
         <f t="array" ref="C13:D13">_xll.BISECT(function,C12,D12)</f>
-        <v>1.75390625</v>
+        <v>1.75703125</v>
       </c>
       <c r="D13">
         <v>1.7578125</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>3.90625E-3</v>
+        <v>7.8124999999995559E-4</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.XLL.UDF(function,C13)</f>
-        <v>6.0510217910632491E-2</v>
+        <v>1.1637960373983347E-2</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13:J13">_xll.FALSE.POSITION(function, I12, J12)</f>
-        <v>1.7577578882412754</v>
+        <v>1.7577720182109067</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0.24224211175872457</v>
+        <v>4.2227981789093372E-2</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">_xll.XLL.UDF(function,I13)</f>
-        <v>2.2218205221236076E-4</v>
+        <v>5.7158366928433679E-10</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" cm="1">
         <f t="array" ref="C14:D14">_xll.BISECT(function,C13,D13)</f>
-        <v>1.755859375</v>
+        <v>1.7574218749999999</v>
       </c>
       <c r="D14">
         <v>1.7578125</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.953125E-3</v>
+        <v>3.9062500000008882E-4</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.XLL.UDF(function,C14)</f>
-        <v>3.0007383538759314E-2</v>
+        <v>5.5035171564448149E-3</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14:J14">_xll.FALSE.POSITION(function, I13, J13)</f>
-        <v>1.7577686521328715</v>
+        <v>1.7577720182455066</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K59" si="2">J14-I14</f>
-        <v>0.24223134786712852</v>
+        <v>4.2227981754493493E-2</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" ref="L14">_xll.XLL.UDF(function,I14)</f>
-        <v>5.292989218474986E-5</v>
+        <v>2.752109651282808E-11</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" cm="1">
         <f t="array" ref="C15:D15">_xll.BISECT(function,C14,D14)</f>
-        <v>1.7568359375</v>
+        <v>1.7576171875</v>
       </c>
       <c r="D15">
         <v>1.7578125</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>9.765625E-4</v>
+        <v>1.9531250000004441E-4</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.XLL.UDF(function,C15)</f>
-        <v>1.4703062041917292E-2</v>
+        <v>2.434174978406034E-3</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15:J15">_xll.FALSE.POSITION(function, I14, J14)</f>
-        <v>1.757771216361552</v>
+        <v>1.7577720182471723</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0.24222878363844802</v>
+        <v>4.2227981752827715E-2</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">_xll.XLL.UDF(function,I15)</f>
-        <v>1.2609153271725404E-5</v>
+        <v>1.3287149158713873E-12</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" cm="1">
         <f t="array" ref="C16:D16">_xll.BISECT(function,C15,D15)</f>
-        <v>1.75732421875</v>
+        <v>1.7577148437500001</v>
       </c>
       <c r="D16">
         <v>1.7578125</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.8828125E-4</v>
+        <v>9.7656249999911182E-5</v>
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.XLL.UDF(function,C16)</f>
-        <v>7.0376580442257364E-3</v>
+        <v>8.9897360958168804E-4</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16:J16">_xll.FALSE.POSITION(function, I15, J15)</f>
-        <v>1.7577718272199834</v>
+        <v>1.7577720182472527</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0.24222817278001663</v>
+        <v>4.2227981752747334E-2</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" ref="L16">_xll.XLL.UDF(function,I16)</f>
-        <v>3.0037870608623507E-6</v>
+        <v>6.3948846218409017E-14</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" cm="1">
         <f t="array" ref="C17:D17">_xll.BISECT(function,C16,D16)</f>
-        <v>1.757568359375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D17">
         <v>1.7578125</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>4.8828124999955591E-5</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.XLL.UDF(function,C17)</f>
-        <v>3.2016430855001943E-3</v>
+        <v>1.3124033803180168E-4</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17:J17">_xll.FALSE.POSITION(function, I16, J16)</f>
-        <v>1.7577719727402663</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.24222802725973369</v>
+        <v>4.2227981752743782E-2</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">_xll.XLL.UDF(function,I17)</f>
-        <v>7.1556972081054937E-7</v>
+        <v>8.8817841970012523E-15</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" cm="1">
         <f t="array" ref="C18:D18">_xll.BISECT(function,C17,D17)</f>
-        <v>1.7576904296875</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D18">
-        <v>1.7578125</v>
+        <v>1.7577880859374999</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.220703125E-4</v>
+        <v>2.4414062499866773E-5</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.XLL.UDF(function,C18)</f>
-        <v>1.2828070976524941E-3</v>
+        <v>1.3124033803180168E-4</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18:J18">_xll.FALSE.POSITION(function, I17, J17)</f>
-        <v>1.7577720074064698</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0.24222799259353023</v>
+        <v>0</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" ref="L18">_xll.XLL.UDF(function,I18)</f>
-        <v>1.7046478362203743E-7</v>
+        <v>8.8817841970012523E-15</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" cm="1">
         <f t="array" ref="C19:D19">_xll.BISECT(function,C18,D18)</f>
-        <v>1.75775146484375</v>
+        <v>1.757763671875</v>
       </c>
       <c r="D19">
-        <v>1.7578125</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>6.103515625E-5</v>
+        <v>1.2207031250044409E-5</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.XLL.UDF(function,C19)</f>
-        <v>3.2318194303826431E-4</v>
+        <v>1.3124033803180168E-4</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19:J19">_xll.FALSE.POSITION(function, I18, J18)</f>
-        <v>1.7577720156647378</v>
+        <v>1.7577720182472565</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>0.24222798433526216</v>
+        <v>0</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" ref="L19">_xll.XLL.UDF(function,I19)</f>
-        <v>4.060854053022922E-8</v>
+        <v>5.3290705182007514E-15</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" cm="1">
         <f t="array" ref="C20:D20">_xll.BISECT(function,C19,D19)</f>
-        <v>1.75775146484375</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D20">
-        <v>1.757781982421875</v>
+        <v>1.7577758789062501</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.0517578125E-5</v>
+        <v>6.1035156249111822E-6</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.XLL.UDF(function,C20)</f>
-        <v>3.2318194303826431E-4</v>
+        <v>3.5267463704968804E-5</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20:J20">_xll.FALSE.POSITION(function, I19, J19)</f>
-        <v>1.7577720176320426</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>0.2422279823679574</v>
+        <v>0</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" ref="L20">_xll.XLL.UDF(function,I20)</f>
-        <v>9.6738688171171816E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" cm="1">
         <f t="array" ref="C21:D21">_xll.BISECT(function,C20,D20)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577697753906252</v>
       </c>
       <c r="D21">
-        <v>1.757781982421875</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.52587890625E-5</v>
+        <v>3.0517578124555911E-6</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.XLL.UDF(function,C21)</f>
-        <v>8.3254073523164607E-5</v>
+        <v>3.5267463704968804E-5</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21:J21">_xll.FALSE.POSITION(function, I20, J20)</f>
-        <v>1.7577720181006991</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>0.24222798189930095</v>
+        <v>0</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" ref="L21">_xll.XLL.UDF(function,I21)</f>
-        <v>2.3045316766001633E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" cm="1">
         <f t="array" ref="C22:D22">_xll.BISECT(function,C21,D21)</f>
-        <v>1.7577667236328125</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D22">
-        <v>1.7577743530273438</v>
+        <v>1.7577728271484376</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>7.62939453125E-6</v>
+        <v>1.5258789061167732E-6</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.XLL.UDF(function,C22)</f>
-        <v>8.3254073523164607E-5</v>
+        <v>1.1274029304786382E-5</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22:J22">_xll.FALSE.POSITION(function, I21, J21)</f>
-        <v>1.7577720182123435</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>0.24222798178765648</v>
+        <v>0</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" ref="L22">_xll.XLL.UDF(function,I22)</f>
-        <v>5.4899018664400501E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" cm="1">
         <f t="array" ref="C23:D23">_xll.BISECT(function,C22,D22)</f>
-        <v>1.7577705383300781</v>
+        <v>1.7577713012695315</v>
       </c>
       <c r="D23">
-        <v>1.7577743530273438</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>3.814697265625E-6</v>
+        <v>7.6293945294736432E-7</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.XLL.UDF(function,C23)</f>
-        <v>2.3270757298021749E-5</v>
+        <v>1.1274029304786382E-5</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23:J23">_xll.FALSE.POSITION(function, I22, J22)</f>
-        <v>1.7577720182389398</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.2422279817610602</v>
+        <v>0</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" ref="L23">_xll.XLL.UDF(function,I23)</f>
-        <v>1.3077894323032524E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" cm="1">
         <f t="array" ref="C24:D24">_xll.BISECT(function,C23,D23)</f>
-        <v>1.7577705383300781</v>
+        <v>1.757771682739258</v>
       </c>
       <c r="D24">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1.9073486328125E-6</v>
+        <v>3.8146972647368216E-7</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.XLL.UDF(function,C24)</f>
-        <v>2.3270757298021749E-5</v>
+        <v>5.2756572177514727E-6</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24:J24">_xll.FALSE.POSITION(function, I23, J23)</f>
-        <v>1.7577720182452756</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.24222798175472438</v>
+        <v>0</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" ref="L24">_xll.XLL.UDF(function,I24)</f>
-        <v>3.1151969892562192E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" cm="1">
         <f t="array" ref="C25:D25">_xll.BISECT(function,C24,D24)</f>
-        <v>1.7577714920043945</v>
+        <v>1.7577718734741212</v>
       </c>
       <c r="D25">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>9.5367431640625E-7</v>
+        <v>1.9073486323684108E-7</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.XLL.UDF(function,C25)</f>
-        <v>8.2748439389490613E-6</v>
+        <v>2.2764691518517566E-6</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25:J25">_xll.FALSE.POSITION(function, I24, J24)</f>
-        <v>1.7577720182467851</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>0.24222798175321492</v>
+        <v>0</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" ref="L25">_xll.XLL.UDF(function,I25)</f>
-        <v>7.4180661613354459E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
@@ -1177,11 +1177,11 @@
         <v>1.7577719688415527</v>
       </c>
       <c r="D26">
-        <v>1.7577724456787109</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4.76837158203125E-7</v>
+        <v>9.5367431729442842E-8</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.XLL.UDF(function,C26)</f>
@@ -1189,206 +1189,206 @@
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26:J26">_xll.FALSE.POSITION(function, I25, J25)</f>
-        <v>1.7577720182471444</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>0.24222798175285565</v>
+        <v>0</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" ref="L26">_xll.XLL.UDF(function,I26)</f>
-        <v>1.7674750552032492E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" cm="1">
         <f t="array" ref="C27:D27">_xll.BISECT(function,C26,D26)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D27">
-        <v>1.7577722072601318</v>
+        <v>1.7577720642089845</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>2.384185791015625E-7</v>
+        <v>4.7683715864721421E-8</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.XLL.UDF(function,C27)</f>
-        <v>7.7687461441655614E-7</v>
+        <v>2.7077216913085067E-8</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27:J27">_xll.FALSE.POSITION(function, I26, J26)</f>
-        <v>1.7577720182472301</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>0.24222798175276994</v>
+        <v>0</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" ref="L27">_xll.XLL.UDF(function,I27)</f>
-        <v>4.1922021409845911E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" cm="1">
         <f t="array" ref="C28:D28">_xll.BISECT(function,C27,D27)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D28">
-        <v>1.7577720880508423</v>
+        <v>1.7577720403671266</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>1.1920928955078125E-7</v>
+        <v>2.3841858043383013E-8</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.XLL.UDF(function,C28)</f>
-        <v>7.7687461441655614E-7</v>
+        <v>2.7077216913085067E-8</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28:J28">_xll.FALSE.POSITION(function, I27, J27)</f>
-        <v>1.7577720182472505</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>0.24222798175274951</v>
+        <v>0</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" ref="L28">_xll.XLL.UDF(function,I28)</f>
-        <v>9.9475983006414026E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" cm="1">
         <f t="array" ref="C29:D29">_xll.BISECT(function,C28,D28)</f>
-        <v>1.7577719688415527</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D29">
         <v>1.7577720284461975</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5.9604644775390625E-8</v>
+        <v>1.1920928910669204E-8</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.XLL.UDF(function,C29)</f>
-        <v>7.7687461441655614E-7</v>
+        <v>2.7077216913085067E-8</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29:J29">_xll.FALSE.POSITION(function, I28, J28)</f>
-        <v>1.7577720182472552</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>0.24222798175274485</v>
+        <v>0</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" ref="L29">_xll.XLL.UDF(function,I29)</f>
-        <v>2.4868995751603507E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" cm="1">
         <f t="array" ref="C30:D30">_xll.BISECT(function,C29,D29)</f>
-        <v>1.7577719986438751</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D30">
-        <v>1.7577720284461975</v>
+        <v>1.7577720224857329</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2.9802322387695313E-8</v>
+        <v>5.9604643443122995E-9</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.XLL.UDF(function,C30)</f>
-        <v>3.0825125207911697E-7</v>
+        <v>2.7077216913085067E-8</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30:J30">_xll.FALSE.POSITION(function, I29, J29)</f>
-        <v>1.7577720182472563</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>0.24222798175274374</v>
+        <v>0</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" ref="L30">_xll.XLL.UDF(function,I30)</f>
-        <v>8.8817841970012523E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" cm="1">
         <f t="array" ref="C31:D31">_xll.BISECT(function,C30,D30)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720165252686</v>
       </c>
       <c r="D31">
-        <v>1.7577720284461975</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.4901161193847656E-8</v>
+        <v>2.9802322831784522E-9</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.XLL.UDF(function,C31)</f>
-        <v>7.3939558475899503E-8</v>
+        <v>2.7077216913085067E-8</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31:J31">_xll.FALSE.POSITION(function, I30, J30)</f>
-        <v>1.7577720182472565</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>0.24222798175274352</v>
+        <v>0</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" ref="L31">_xll.XLL.UDF(function,I31)</f>
-        <v>5.3290705182007514E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" cm="1">
         <f t="array" ref="C32:D32">_xll.BISECT(function,C31,D31)</f>
-        <v>1.7577720135450363</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D32">
-        <v>1.7577720209956169</v>
+        <v>1.7577720195055009</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>7.4505805969238281E-9</v>
+        <v>1.4901160305669237E-9</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.XLL.UDF(function,C32)</f>
-        <v>7.3939558475899503E-8</v>
+        <v>3.6460452434994295E-9</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32:J32">_xll.FALSE.POSITION(function, I31, J31)</f>
         <v>1.7577720182472567</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>0.24222798175274329</v>
+        <v>0</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" ref="L32">_xll.XLL.UDF(function,I32)</f>
@@ -1398,18 +1398,18 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" cm="1">
         <f t="array" ref="C33:D33">_xll.BISECT(function,C32,D32)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D33">
-        <v>1.7577720209956169</v>
+        <v>1.7577720187604429</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>3.7252902984619141E-9</v>
+        <v>7.4505801528346183E-10</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.XLL.UDF(function,C33)</f>
-        <v>1.5361633742827507E-8</v>
+        <v>3.6460452434994295E-9</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33:J33">_xll.FALSE.POSITION(function, I32, J32)</f>
@@ -1430,18 +1430,18 @@
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" cm="1">
         <f t="array" ref="C34:D34">_xll.BISECT(function,C33,D33)</f>
-        <v>1.7577720172703266</v>
+        <v>1.7577720180153849</v>
       </c>
       <c r="D34">
-        <v>1.7577720191329718</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>1.862645149230957E-9</v>
+        <v>3.7252911866403338E-10</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.XLL.UDF(function,C34)</f>
-        <v>1.5361633742827507E-8</v>
+        <v>3.6460452434994295E-9</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34:J34">_xll.FALSE.POSITION(function, I33, J33)</f>
@@ -1462,18 +1462,18 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" cm="1">
         <f t="array" ref="C35:D35">_xll.BISECT(function,C34,D34)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D35">
-        <v>1.7577720191329718</v>
+        <v>1.757772018387914</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>9.3132257461547852E-10</v>
+        <v>1.8626455933201669E-10</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" ref="F35">_xll.XLL.UDF(function,C35)</f>
-        <v>7.1715255955950852E-10</v>
+        <v>7.1714900684582972E-10</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35:J35">_xll.FALSE.POSITION(function, I34, J34)</f>
@@ -1494,18 +1494,18 @@
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">_xll.BISECT(function,C35,D35)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D36">
-        <v>1.7577720186673105</v>
+        <v>1.7577720182947818</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>4.6566128730773926E-10</v>
+        <v>9.3132390688310807E-11</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.XLL.UDF(function,C36)</f>
-        <v>7.1715255955950852E-10</v>
+        <v>7.1714900684582972E-10</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36:J36">_xll.FALSE.POSITION(function, I35, J35)</f>
@@ -1526,18 +1526,18 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" cm="1">
         <f t="array" ref="C37:D37">_xll.BISECT(function,C36,D36)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182016494</v>
       </c>
       <c r="D37">
-        <v>1.7577720184344798</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>2.3283064365386963E-10</v>
+        <v>4.6566084321852941E-11</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.XLL.UDF(function,C37)</f>
-        <v>7.1715255955950852E-10</v>
+        <v>7.1714900684582972E-10</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37:J37">_xll.FALSE.POSITION(function, I36, J36)</f>
@@ -1558,18 +1558,18 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" cm="1">
         <f t="array" ref="C38:D38">_xll.BISECT(function,C37,D37)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182249323</v>
       </c>
       <c r="D38">
-        <v>1.7577720183180645</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>1.1641532182693481E-10</v>
+        <v>2.3283153183228933E-11</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.XLL.UDF(function,C38)</f>
-        <v>7.1715255955950852E-10</v>
+        <v>3.510400858885987E-10</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38:J38">_xll.FALSE.POSITION(function, I37, J37)</f>
@@ -1590,18 +1590,18 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" cm="1">
         <f t="array" ref="C39:D39">_xll.BISECT(function,C38,D38)</f>
-        <v>1.7577720182016492</v>
+        <v>1.7577720182365739</v>
       </c>
       <c r="D39">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>5.8207660913467407E-11</v>
+        <v>1.1641576591614466E-11</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.XLL.UDF(function,C39)</f>
-        <v>7.1715255955950852E-10</v>
+        <v>1.6798118451788469E-10</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39:J39">_xll.FALSE.POSITION(function, I38, J38)</f>
@@ -1622,18 +1622,18 @@
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" cm="1">
         <f t="array" ref="C40:D40">_xll.BISECT(function,C39,D39)</f>
-        <v>1.757772018230753</v>
+        <v>1.7577720182423948</v>
       </c>
       <c r="D40">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>2.9103830456733704E-11</v>
+        <v>5.8206772735047707E-12</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.XLL.UDF(function,C40)</f>
-        <v>2.5951152338166139E-10</v>
+        <v>7.6450845654107979E-11</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40:J40">_xll.FALSE.POSITION(function, I39, J39)</f>
@@ -1654,18 +1654,18 @@
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" cm="1">
         <f t="array" ref="C41:D41">_xll.BISECT(function,C40,D40)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182453052</v>
       </c>
       <c r="D41">
-        <v>1.7577720182598568</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>1.4551915228366852E-11</v>
+        <v>2.9103386367523854E-12</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.XLL.UDF(function,C41)</f>
-        <v>3.0691893471157528E-11</v>
+        <v>3.0688340757478727E-11</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41:J41">_xll.FALSE.POSITION(function, I40, J40)</f>
@@ -1686,18 +1686,18 @@
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" cm="1">
         <f t="array" ref="C42:D42">_xll.BISECT(function,C41,D41)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D42">
-        <v>1.7577720182525809</v>
+        <v>1.7577720182482155</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>7.2759576141834259E-12</v>
+        <v>1.4552803406786552E-12</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.XLL.UDF(function,C42)</f>
-        <v>3.0691893471157528E-11</v>
+        <v>7.808864666003501E-12</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42:J42">_xll.FALSE.POSITION(function, I41, J41)</f>
@@ -1718,18 +1718,18 @@
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" cm="1">
         <f t="array" ref="C43:D43">_xll.BISECT(function,C42,D42)</f>
-        <v>1.7577720182453049</v>
+        <v>1.7577720182467602</v>
       </c>
       <c r="D43">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>3.637978807091713E-12</v>
+        <v>7.276401703393276E-13</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.XLL.UDF(function,C43)</f>
-        <v>3.0691893471157528E-11</v>
+        <v>7.808864666003501E-12</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43:J43">_xll.FALSE.POSITION(function, I42, J42)</f>
@@ -1753,11 +1753,11 @@
         <v>1.7577720182471239</v>
       </c>
       <c r="D44">
-        <v>1.7577720182489429</v>
+        <v>1.7577720182474879</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>1.8189894035458565E-12</v>
+        <v>3.6393110747212631E-13</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" ref="F44">_xll.XLL.UDF(function,C44)</f>
@@ -1785,11 +1785,11 @@
         <v>1.7577720182471239</v>
       </c>
       <c r="D45">
-        <v>1.7577720182480334</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>9.0949470177292824E-13</v>
+        <v>1.8207657603852567E-13</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.XLL.UDF(function,C45)</f>
@@ -1814,18 +1814,18 @@
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" cm="1">
         <f t="array" ref="C46:D46">_xll.BISECT(function,C45,D45)</f>
-        <v>1.7577720182471239</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D46">
-        <v>1.7577720182475787</v>
+        <v>1.757772018247306</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>4.5474735088646412E-13</v>
+        <v>9.1038288019262836E-14</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.XLL.UDF(function,C46)</f>
-        <v>2.0889956431346945E-12</v>
+        <v>6.5902838741749292E-13</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46:J46">_xll.FALSE.POSITION(function, I45, J45)</f>
@@ -1846,18 +1846,18 @@
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" cm="1">
         <f t="array" ref="C47:D47">_xll.BISECT(function,C46,D46)</f>
-        <v>1.7577720182471239</v>
+        <v>1.757772018247215</v>
       </c>
       <c r="D47">
-        <v>1.7577720182473513</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>2.2737367544323206E-13</v>
+        <v>4.5519144009631418E-14</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.XLL.UDF(function,C47)</f>
-        <v>2.0889956431346945E-12</v>
+        <v>6.5902838741749292E-13</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47:J47">_xll.FALSE.POSITION(function, I46, J46)</f>
@@ -1881,11 +1881,11 @@
         <v>1.7577720182472376</v>
       </c>
       <c r="D48">
-        <v>1.7577720182473513</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>1.1368683772161603E-13</v>
+        <v>2.2870594307278225E-14</v>
       </c>
       <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.XLL.UDF(function,C48)</f>
@@ -1910,18 +1910,18 @@
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" cm="1">
         <f t="array" ref="C49:D49">_xll.BISECT(function,C48,D48)</f>
-        <v>1.7577720182472376</v>
+        <v>1.7577720182472492</v>
       </c>
       <c r="D49">
-        <v>1.7577720182472945</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>5.6843418860808015E-14</v>
+        <v>1.1324274851176597E-14</v>
       </c>
       <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.XLL.UDF(function,C49)</f>
-        <v>3.0198066269804258E-13</v>
+        <v>1.2079226507921703E-13</v>
       </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49:J49">_xll.FALSE.POSITION(function, I48, J48)</f>
@@ -1942,18 +1942,18 @@
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" cm="1">
         <f t="array" ref="C50:D50">_xll.BISECT(function,C49,D49)</f>
-        <v>1.7577720182472376</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D50">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472605</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>2.8421709430404007E-14</v>
+        <v>5.5511151231257827E-15</v>
       </c>
       <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.XLL.UDF(function,C50)</f>
-        <v>3.0198066269804258E-13</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50:J50">_xll.FALSE.POSITION(function, I49, J49)</f>
@@ -1974,18 +1974,18 @@
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
         <f t="array" ref="C51:D51">_xll.BISECT(function,C50,D50)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472549</v>
       </c>
       <c r="D51">
-        <v>1.757772018247266</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>1.4210854715202004E-14</v>
+        <v>2.6645352591003757E-15</v>
       </c>
       <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.XLL.UDF(function,C51)</f>
-        <v>7.815970093361102E-14</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51:J51">_xll.FALSE.POSITION(function, I50, J50)</f>
@@ -2006,18 +2006,18 @@
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" cm="1">
         <f t="array" ref="C52:D52">_xll.BISECT(function,C51,D51)</f>
-        <v>1.7577720182472518</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D52">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472576</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.XLL.UDF(function,C52)</f>
-        <v>7.815970093361102E-14</v>
+        <v>8.8817841970012523E-15</v>
       </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52:J52">_xll.FALSE.POSITION(function, I51, J51)</f>
@@ -2038,18 +2038,18 @@
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" cm="1">
         <f t="array" ref="C53:D53">_xll.BISECT(function,C52,D52)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472563</v>
       </c>
       <c r="D53">
-        <v>1.7577720182472589</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.XLL.UDF(function,C53)</f>
-        <v>2.3092638912203256E-14</v>
+        <v>8.8817841970012523E-15</v>
       </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53:J53">_xll.FALSE.POSITION(function, I52, J52)</f>
@@ -2070,18 +2070,18 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" cm="1">
         <f t="array" ref="C54:D54">_xll.BISECT(function,C53,D53)</f>
-        <v>1.7577720182472554</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="D54">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472569</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>1.7763568394002505E-15</v>
+        <v>0</v>
       </c>
       <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.XLL.UDF(function,C54)</f>
-        <v>2.3092638912203256E-14</v>
+        <v>0</v>
       </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54:J54">_xll.FALSE.POSITION(function, I53, J53)</f>
@@ -2102,10 +2102,10 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" cm="1">
         <f t="array" ref="C55:D55">_xll.BISECT(function,C54,D54)</f>
-        <v>1.7577720182472563</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="D55">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.XLL.UDF(function,C55)</f>
-        <v>8.8817841970012523E-15</v>
+        <v>0</v>
       </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55:J55">_xll.FALSE.POSITION(function, I54, J54)</f>
@@ -2137,7 +2137,7 @@
         <v>1.7577720182472567</v>
       </c>
       <c r="D56">
-        <v>1.7577720182472572</v>
+        <v>1.7577720182472567</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
